--- a/advert_summary_yesoke.xlsx
+++ b/advert_summary_yesoke.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\ingatlan_scraper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{169092C7-DDA8-4B71-A1C5-41E645A05DDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E99F8965-5888-498B-81C1-A9F1E7A2EDAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{F02725DD-86AC-4730-8105-E0D23322A88F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F02725DD-86AC-4730-8105-E0D23322A88F}"/>
   </bookViews>
   <sheets>
     <sheet name="advert_summary" sheetId="1" r:id="rId1"/>
@@ -19,22 +19,14 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">advert_summary!$K$1</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">advert_summary!$K$2:$K$44</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">advert_summary!$K$45:$K$88</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">advert_summary!$K$46:$K$88</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">adverts_removed!$K$1</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">adverts_removed!$K$2:$K$100</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">adverts_removed!$K$2:$K$74</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">adverts_removed!$K$1</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">adverts_removed!$K$2:$K$100</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">adverts_removed!$K$2:$K$74</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">advert_summary!$K$2:$K$88</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">advert_summary!$K$2:$K$89</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">advert_summary!$K$1</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">advert_summary!$K$2:$K$44</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">advert_summary!$K$1</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">advert_summary!$K$2:$K$75</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">advert_summary!$K$2:$K$88</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">advert_summary!$K$1</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">advert_summary!$K$2:$K$44</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">advert_summary!$K$2:$K$88</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">advert_summary!$K$2:$K$89</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">advert_summary!$K$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">advert_summary!$K$45:$K$88</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">adverts_removed!$K$1</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">adverts_removed!$K$2:$K$100</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="30">
   <si>
     <t>advertId</t>
   </si>
@@ -1043,6 +1035,9 @@
                 <c:pt idx="86">
                   <c:v>34827534</c:v>
                 </c:pt>
+                <c:pt idx="87">
+                  <c:v>34891614</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1089,7 +1084,7 @@
                   <c:v>1.36</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.75228571428571</c:v>
+                  <c:v>1.86666666666666</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1.8173076923076901</c:v>
@@ -1251,7 +1246,7 @@
                   <c:v>1.57314814814814</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2.29</c:v>
+                  <c:v>2.1</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>1.7295918367346901</c:v>
@@ -1275,43 +1270,46 @@
                   <c:v>1.73826086956521</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.5169491525423699</c:v>
+                  <c:v>1.44067796610169</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>1.3448275862068899</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.528</c:v>
+                  <c:v>1.504</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1.8825000000000001</c:v>
+                  <c:v>1.8899082568807299</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>1.7333333333333301</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>2.0091743119265999</c:v>
+                  <c:v>1.97155963302752</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1.756</c:v>
+                  <c:v>1.7420634920634901</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1.5169491525423699</c:v>
+                  <c:v>1.44067796610169</c:v>
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>1.6658333333333299</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1.25</c:v>
+                  <c:v>1.2833333333333301</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1.7523809523809499</c:v>
+                  <c:v>1.86666666666666</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>2.29</c:v>
+                  <c:v>2.09</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>3.3636363636363602</c:v>
+                  <c:v>3.1818181818181799</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.57936507936507</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1400,6 +1398,7 @@
         <c:axId val="1248760576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="3"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1863,6 +1862,9 @@
                 <c:pt idx="86">
                   <c:v>34827534</c:v>
                 </c:pt>
+                <c:pt idx="87">
+                  <c:v>34891614</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1885,7 +1887,7 @@
                   <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>187</c:v>
+                  <c:v>197</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>59</c:v>
@@ -1897,10 +1899,10 @@
                   <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>187</c:v>
+                  <c:v>213</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>187</c:v>
+                  <c:v>213</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>5</c:v>
@@ -1909,7 +1911,7 @@
                   <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>187</c:v>
+                  <c:v>213</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>78</c:v>
@@ -1924,13 +1926,13 @@
                   <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>187</c:v>
+                  <c:v>213</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>187</c:v>
+                  <c:v>213</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>73</c:v>
@@ -1942,7 +1944,7 @@
                   <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>137</c:v>
+                  <c:v>213</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>105</c:v>
@@ -1975,7 +1977,7 @@
                   <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>154</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>7</c:v>
@@ -2002,16 +2004,16 @@
                   <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>134</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>127</c:v>
+                  <c:v>154</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>127</c:v>
+                  <c:v>154</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>99</c:v>
@@ -2020,7 +2022,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>114</c:v>
+                  <c:v>124</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>36</c:v>
@@ -2032,7 +2034,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>109</c:v>
+                  <c:v>136</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>0</c:v>
@@ -2044,7 +2046,7 @@
                   <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>88</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>59</c:v>
@@ -2056,7 +2058,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>82</c:v>
+                  <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>59</c:v>
@@ -2065,13 +2067,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>71</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>51</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>22</c:v>
@@ -2083,54 +2085,57 @@
                   <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>26</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>26</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>26</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>22</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>22</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>18</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>15</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="86">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="87">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2418,10 +2423,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>advert_summary!$F$2:$F$60</c:f>
+              <c:f>advert_summary!$F$2:$F$89</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="59"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>171</c:v>
                 </c:pt>
@@ -2435,7 +2440,7 @@
                   <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>187</c:v>
+                  <c:v>197</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>59</c:v>
@@ -2447,10 +2452,10 @@
                   <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>187</c:v>
+                  <c:v>213</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>187</c:v>
+                  <c:v>213</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>5</c:v>
@@ -2459,7 +2464,7 @@
                   <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>187</c:v>
+                  <c:v>213</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>78</c:v>
@@ -2474,13 +2479,13 @@
                   <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>187</c:v>
+                  <c:v>213</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>187</c:v>
+                  <c:v>213</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>73</c:v>
@@ -2492,7 +2497,7 @@
                   <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>137</c:v>
+                  <c:v>213</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>105</c:v>
@@ -2525,7 +2530,7 @@
                   <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>154</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>7</c:v>
@@ -2552,16 +2557,16 @@
                   <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>134</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>127</c:v>
+                  <c:v>154</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>127</c:v>
+                  <c:v>154</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>99</c:v>
@@ -2570,7 +2575,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>114</c:v>
+                  <c:v>124</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>36</c:v>
@@ -2582,7 +2587,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>109</c:v>
+                  <c:v>136</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>0</c:v>
@@ -2594,20 +2599,107 @@
                   <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>88</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>advert_summary!$H$2:$H$60</c:f>
+              <c:f>advert_summary!$H$2:$H$89</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="59"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>169.9</c:v>
                 </c:pt>
@@ -2645,7 +2737,7 @@
                   <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>183.99</c:v>
+                  <c:v>196</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>189</c:v>
@@ -2784,6 +2876,93 @@
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>179.9</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>169.9</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>214.9</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>189.9</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>249</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>249.9</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>169.9</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>169.5</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>169.5</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>169.9</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>180.95</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>180.95</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>214.9</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>199.9</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>214.9</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>219.5</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>199.9</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3070,10 +3249,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>advert_summary!$F$2:$F$88</c:f>
+              <c:f>advert_summary!$F$2:$F$89</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>171</c:v>
                 </c:pt>
@@ -3087,7 +3266,7 @@
                   <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>187</c:v>
+                  <c:v>197</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>59</c:v>
@@ -3099,10 +3278,10 @@
                   <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>187</c:v>
+                  <c:v>213</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>187</c:v>
+                  <c:v>213</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>5</c:v>
@@ -3111,7 +3290,7 @@
                   <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>187</c:v>
+                  <c:v>213</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>78</c:v>
@@ -3126,13 +3305,13 @@
                   <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>187</c:v>
+                  <c:v>213</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>187</c:v>
+                  <c:v>213</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>73</c:v>
@@ -3144,7 +3323,7 @@
                   <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>137</c:v>
+                  <c:v>213</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>105</c:v>
@@ -3177,7 +3356,7 @@
                   <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>154</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>7</c:v>
@@ -3204,16 +3383,16 @@
                   <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>134</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>127</c:v>
+                  <c:v>154</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>127</c:v>
+                  <c:v>154</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>99</c:v>
@@ -3222,7 +3401,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>114</c:v>
+                  <c:v>124</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>36</c:v>
@@ -3234,7 +3413,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>109</c:v>
+                  <c:v>136</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>0</c:v>
@@ -3246,7 +3425,7 @@
                   <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>88</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>59</c:v>
@@ -3258,7 +3437,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>82</c:v>
+                  <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>59</c:v>
@@ -3267,13 +3446,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>71</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>51</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>22</c:v>
@@ -3285,54 +3464,57 @@
                   <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>26</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>26</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>26</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>22</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>22</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>18</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>15</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="86">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="87">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3340,10 +3522,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>advert_summary!$A$2:$A$88</c:f>
+              <c:f>advert_summary!$A$2:$A$89</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="87"/>
+                <c:ptCount val="88"/>
                 <c:pt idx="0">
                   <c:v>34378761</c:v>
                 </c:pt>
@@ -3604,6 +3786,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>34827534</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>34891614</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4155,6 +4340,9 @@
                 <c:pt idx="86">
                   <c:v>34827534</c:v>
                 </c:pt>
+                <c:pt idx="87">
+                  <c:v>34891614</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4201,7 +4389,7 @@
                   <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>183.99</c:v>
+                  <c:v>196</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>189</c:v>
@@ -4363,7 +4551,7 @@
                   <c:v>169.9</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>229</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>169.5</c:v>
@@ -4387,43 +4575,46 @@
                   <c:v>199.9</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>179</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>156</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>191</c:v>
+                  <c:v>188</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>225.9</c:v>
+                  <c:v>206</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>182</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>219</c:v>
+                  <c:v>214.9</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>219.5</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>179</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>199.9</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>150</c:v>
+                  <c:v>154</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>184</c:v>
+                  <c:v>196</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>229</c:v>
+                  <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>370</c:v>
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4715,91 +4906,91 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="95"/>
                 <c:pt idx="0">
-                  <c:v>45653</c:v>
+                  <c:v>45654</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45653</c:v>
+                  <c:v>45654</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45653</c:v>
+                  <c:v>45654</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45653</c:v>
+                  <c:v>45654</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45653</c:v>
+                  <c:v>45654</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45653</c:v>
+                  <c:v>45654</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45653</c:v>
+                  <c:v>45654</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45653</c:v>
+                  <c:v>45654</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45653</c:v>
+                  <c:v>45654</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45653</c:v>
+                  <c:v>45654</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45653</c:v>
+                  <c:v>45654</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>45653</c:v>
+                  <c:v>45654</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>45653</c:v>
+                  <c:v>45654</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>45653</c:v>
+                  <c:v>45654</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>45653</c:v>
+                  <c:v>45654</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>45653</c:v>
+                  <c:v>45654</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>45653</c:v>
+                  <c:v>45654</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>45653</c:v>
+                  <c:v>45654</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>45653</c:v>
+                  <c:v>45654</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>45653</c:v>
+                  <c:v>45654</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>45653</c:v>
+                  <c:v>45654</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>45653</c:v>
+                  <c:v>45654</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>45653</c:v>
+                  <c:v>45654</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>45653</c:v>
+                  <c:v>45654</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>45653</c:v>
+                  <c:v>45654</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>45653</c:v>
+                  <c:v>45654</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>45653</c:v>
+                  <c:v>45654</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>45653</c:v>
+                  <c:v>45654</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>45653</c:v>
+                  <c:v>45654</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>45673</c:v>
@@ -4974,6 +5165,9 @@
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>45841</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45868</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5021,7 +5215,7 @@
                   <c:v>1.36</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.75228571428571</c:v>
+                  <c:v>1.86666666666666</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1.8173076923076901</c:v>
@@ -5183,7 +5377,7 @@
                   <c:v>1.57314814814814</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2.29</c:v>
+                  <c:v>2.1</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>1.7295918367346901</c:v>
@@ -5207,43 +5401,46 @@
                   <c:v>1.73826086956521</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.5169491525423699</c:v>
+                  <c:v>1.44067796610169</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>1.3448275862068899</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.528</c:v>
+                  <c:v>1.504</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1.8825000000000001</c:v>
+                  <c:v>1.8899082568807299</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>1.7333333333333301</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>2.0091743119265999</c:v>
+                  <c:v>1.97155963302752</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1.756</c:v>
+                  <c:v>1.7420634920634901</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1.5169491525423699</c:v>
+                  <c:v>1.44067796610169</c:v>
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>1.6658333333333299</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1.25</c:v>
+                  <c:v>1.2833333333333301</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1.7523809523809499</c:v>
+                  <c:v>1.86666666666666</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>2.29</c:v>
+                  <c:v>2.09</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>3.3636363636363602</c:v>
+                  <c:v>3.1818181818181799</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.57936507936507</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5571,7 +5768,7 @@
                   <c:v>1.36</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.75228571428571</c:v>
+                  <c:v>1.86666666666666</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1.8173076923076901</c:v>
@@ -5733,7 +5930,7 @@
                   <c:v>1.57314814814814</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2.29</c:v>
+                  <c:v>2.1</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>1.7295918367346901</c:v>
@@ -5757,43 +5954,46 @@
                   <c:v>1.73826086956521</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.5169491525423699</c:v>
+                  <c:v>1.44067796610169</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>1.3448275862068899</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.528</c:v>
+                  <c:v>1.504</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1.8825000000000001</c:v>
+                  <c:v>1.8899082568807299</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>1.7333333333333301</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>2.0091743119265999</c:v>
+                  <c:v>1.97155963302752</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1.756</c:v>
+                  <c:v>1.7420634920634901</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1.5169491525423699</c:v>
+                  <c:v>1.44067796610169</c:v>
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>1.6658333333333299</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1.25</c:v>
+                  <c:v>1.2833333333333301</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1.7523809523809499</c:v>
+                  <c:v>1.86666666666666</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>2.29</c:v>
+                  <c:v>2.09</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>3.3636363636363602</c:v>
+                  <c:v>3.1818181818181799</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.57936507936507</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5817,7 +6017,7 @@
                   <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>187</c:v>
+                  <c:v>197</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>59</c:v>
@@ -5829,10 +6029,10 @@
                   <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>187</c:v>
+                  <c:v>213</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>187</c:v>
+                  <c:v>213</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>5</c:v>
@@ -5841,7 +6041,7 @@
                   <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>187</c:v>
+                  <c:v>213</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>78</c:v>
@@ -5856,13 +6056,13 @@
                   <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>187</c:v>
+                  <c:v>213</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>187</c:v>
+                  <c:v>213</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>73</c:v>
@@ -5874,7 +6074,7 @@
                   <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>137</c:v>
+                  <c:v>213</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>105</c:v>
@@ -5907,7 +6107,7 @@
                   <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>154</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>7</c:v>
@@ -5934,16 +6134,16 @@
                   <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>134</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>127</c:v>
+                  <c:v>154</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>127</c:v>
+                  <c:v>154</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>99</c:v>
@@ -5952,7 +6152,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>114</c:v>
+                  <c:v>124</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>36</c:v>
@@ -5964,7 +6164,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>109</c:v>
+                  <c:v>136</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>0</c:v>
@@ -5976,7 +6176,7 @@
                   <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>88</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>59</c:v>
@@ -5988,7 +6188,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>82</c:v>
+                  <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>59</c:v>
@@ -5997,13 +6197,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>71</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>51</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>22</c:v>
@@ -6015,54 +6215,57 @@
                   <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>26</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>26</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>26</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>22</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>22</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>18</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>15</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="86">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="87">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -6367,7 +6570,7 @@
                   <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>197</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>59</c:v>
@@ -6424,7 +6627,7 @@
                   <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>137</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>105</c:v>
@@ -6433,7 +6636,7 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>187</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>114</c:v>
@@ -6502,7 +6705,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0</c:v>
+                  <c:v>124</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>36</c:v>
@@ -6568,13 +6771,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>0</c:v>
@@ -6613,42 +6816,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="98">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -6673,7 +6840,7 @@
                   <c:v>1.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1.6955357142857099</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1.4607692307692299</c:v>
@@ -6730,7 +6897,7 @@
                   <c:v>1.3241666666666601</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.9153846153846099</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>1.7538461538461501</c:v>
@@ -6739,7 +6906,7 @@
                   <c:v>1.49923076923076</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>2.0409836065573699</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>1.2499166666666599</c:v>
@@ -6808,7 +6975,7 @@
                   <c:v>1.4392</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0</c:v>
+                  <c:v>1.36</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>2.25</c:v>
@@ -6874,13 +7041,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0</c:v>
+                  <c:v>1.7399038461538401</c:v>
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0</c:v>
+                  <c:v>1.73826086956521</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>0</c:v>
@@ -6907,7 +7074,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0</c:v>
+                  <c:v>1.6658333333333299</c:v>
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>0</c:v>
@@ -6919,42 +7086,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="98">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -7154,905 +7285,12 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>adverts_removed!$K$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>unit_price</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="38100" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>adverts_removed!$E$2:$E$100</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="99"/>
-                <c:pt idx="0">
-                  <c:v>45825</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>45673</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>45727</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>45680</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>45713</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>45670</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>45732</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>45659</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>45722</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>45732</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>45660</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>45719</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>45680</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>45727</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>45727</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>45825</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>45772</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>45791</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>45759</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>45663</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>45768</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>45722</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>45732</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>45769</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>45694</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>45713</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>45772</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>45703</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>45772</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>45707</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>45825</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>45713</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>45732</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>45812</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>45812</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>45727</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>45818</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>45720</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>45767</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>45791</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>45732</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>45732</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>45755</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>45818</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>45812</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>45825</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>45759</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>45818</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>45768</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>45812</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>45812</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>45812</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>45825</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>45825</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>45825</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>adverts_removed!$K$2:$K$100</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="99"/>
-                <c:pt idx="0">
-                  <c:v>1.51696428571428</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.5684210526315701</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.2909836065573701</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.75</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.4607692307692299</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.8349514563106699</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.43518518518518</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.36</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.8173076923076901</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.0692307692307601</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.42635658914728</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.92913385826771</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2.0409836065573699</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2.0409836065573699</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.41658333333333</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.3241666666666601</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.9153846153846099</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.7538461538461501</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.49923076923076</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.2499166666666599</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1.7333333333333301</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1.8349514563106699</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2.25</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1.69</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1.399</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1.81023622047244</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1.8611111111111101</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1.5825</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>2.25</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1.8384615384615299</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1.59821428571428</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1.75</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1.70347826086956</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1.70347826086956</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>2.25</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1.5920000000000001</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1.4392</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>2.25</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>2.0409836065573699</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>2.4900000000000002</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>2.1461538461538399</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>1.8443298969072099</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>1.7333333333333301</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>1.7073170731707299</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>1.5376068376068299</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1.8074468085106301</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1.75833333333333</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1.9153846153846099</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1.57314814814814</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1.7295918367346901</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>1.7295918367346901</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>1.51696428571428</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>1.3448275862068899</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>1.7333333333333301</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0174-4FA3-865B-B0B481D8F769}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="873848191"/>
-        <c:axId val="873848671"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="873848191"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="45620"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="873848671"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="873848671"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="873848191"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -8090,7 +7328,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{BCEAE2D0-D153-47B0-ADFB-39CF09B4B8F9}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.5</cx:f>
+              <cx:f>_xlchart.v1.3</cx:f>
               <cx:v>unit_price</cx:v>
             </cx:txData>
           </cx:tx>
@@ -8190,7 +7428,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.10</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -8228,7 +7466,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{BCEAE2D0-D153-47B0-ADFB-39CF09B4B8F9}" formatIdx="0">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.8</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>unit_price</cx:v>
             </cx:txData>
           </cx:tx>
@@ -8259,7 +7497,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.13</cx:f>
+        <cx:f>_xlchart.v1.9</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -8297,7 +7535,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{8A7A4F3E-4505-4690-AECD-F96129899DF7}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.12</cx:f>
+              <cx:f>_xlchart.v1.8</cx:f>
               <cx:v>unit_price</cx:v>
             </cx:txData>
           </cx:tx>
@@ -8444,46 +7682,6 @@
 </file>
 
 <file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -10384,522 +9582,6 @@
 </file>
 
 <file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -15531,8 +14213,8 @@
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>295274</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>32844</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15559,16 +14241,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>195012</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>98758</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>587041</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>41608</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15595,16 +14277,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>266699</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>185736</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>166436</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>160669</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>501316</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>117808</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15631,16 +14313,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>271461</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>23811</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>171198</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>199271</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>523874</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>423611</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>117807</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15675,8 +14357,8 @@
     <xdr:to>
       <xdr:col>41</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>188147</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15705,16 +14387,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>395285</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>61911</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>295022</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>36845</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>257174</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>156912</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>13034</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15742,15 +14424,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>14286</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>4761</xdr:rowOff>
+      <xdr:colOff>515602</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>180221</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>375987</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>51133</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15777,16 +14459,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>185487</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>93996</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>490288</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>180221</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -15822,8 +14504,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="9220200" y="14406562"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="9610224" y="17339259"/>
+              <a:ext cx="4515853" cy="2893594"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -15856,15 +14538,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>501316</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>175460</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>204537</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>51133</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -15900,8 +14582,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="14420850" y="14478000"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="14738684" y="17420723"/>
+              <a:ext cx="4515853" cy="2883568"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -16052,42 +14734,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>71438</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>425224</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>153080</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="11" name="Chart 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23DE2A16-3D2E-4787-F428-BF2049AAC68E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>110209</xdr:colOff>
       <xdr:row>1</xdr:row>
@@ -16118,7 +14764,7 @@
           </xdr:xfrm>
           <a:graphic>
             <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
-              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
             </a:graphicData>
           </a:graphic>
         </xdr:graphicFrame>
@@ -16484,10 +15130,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E3D8E08-B692-4D91-B61E-26C54386320F}">
-  <dimension ref="A1:L88"/>
+  <dimension ref="A1:L89"/>
   <sheetViews>
-    <sheetView topLeftCell="C67" workbookViewId="0">
-      <selection activeCell="N88" sqref="N88"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="115" workbookViewId="0">
+      <selection activeCell="AB13" sqref="AB13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16544,7 +15190,7 @@
         <v>27</v>
       </c>
       <c r="D2" s="1">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="E2" s="1">
         <v>45825</v>
@@ -16582,7 +15228,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="1">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="E3" s="1">
         <v>45673</v>
@@ -16620,7 +15266,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="1">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="E4" s="1">
         <v>45727</v>
@@ -16658,7 +15304,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="1">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="E5" s="1">
         <v>45680</v>
@@ -16690,19 +15336,19 @@
         <v>34378786</v>
       </c>
       <c r="B6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="1">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="E6" s="1">
-        <v>45841</v>
+        <v>45851</v>
       </c>
       <c r="F6">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="G6">
         <v>199.9</v>
@@ -16734,7 +15380,7 @@
         <v>12</v>
       </c>
       <c r="D7" s="1">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="E7" s="1">
         <v>45713</v>
@@ -16772,7 +15418,7 @@
         <v>12</v>
       </c>
       <c r="D8" s="1">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="E8" s="1">
         <v>45670</v>
@@ -16810,7 +15456,7 @@
         <v>13</v>
       </c>
       <c r="D9" s="1">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="E9" s="1">
         <v>45732</v>
@@ -16848,13 +15494,13 @@
         <v>27</v>
       </c>
       <c r="D10" s="1">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="E10" s="1">
-        <v>45841</v>
+        <v>45868</v>
       </c>
       <c r="F10">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="G10">
         <v>182</v>
@@ -16886,13 +15532,13 @@
         <v>27</v>
       </c>
       <c r="D11" s="1">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="E11" s="1">
-        <v>45841</v>
+        <v>45868</v>
       </c>
       <c r="F11">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="G11">
         <v>228</v>
@@ -16924,7 +15570,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="1">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="E12" s="1">
         <v>45659</v>
@@ -16962,7 +15608,7 @@
         <v>13</v>
       </c>
       <c r="D13" s="1">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="E13" s="1">
         <v>45722</v>
@@ -17000,19 +15646,19 @@
         <v>27</v>
       </c>
       <c r="D14" s="1">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="E14" s="1">
-        <v>45841</v>
+        <v>45868</v>
       </c>
       <c r="F14">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="G14">
         <v>179.9</v>
       </c>
       <c r="H14">
-        <v>183.99</v>
+        <v>196</v>
       </c>
       <c r="I14">
         <v>105</v>
@@ -17021,10 +15667,10 @@
         <v>4</v>
       </c>
       <c r="K14">
-        <v>1.75228571428571</v>
+        <v>1.86666666666666</v>
       </c>
       <c r="L14">
-        <v>4.09</v>
+        <v>16.099999999999898</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -17038,7 +15684,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="1">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="E15" s="1">
         <v>45732</v>
@@ -17076,7 +15722,7 @@
         <v>13</v>
       </c>
       <c r="D16" s="1">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="E16" s="1">
         <v>45660</v>
@@ -17114,7 +15760,7 @@
         <v>15</v>
       </c>
       <c r="D17" s="1">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="E17" s="1">
         <v>45719</v>
@@ -17152,7 +15798,7 @@
         <v>12</v>
       </c>
       <c r="D18" s="1">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="E18" s="1">
         <v>45680</v>
@@ -17190,13 +15836,13 @@
         <v>27</v>
       </c>
       <c r="D19" s="1">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="E19" s="1">
-        <v>45841</v>
+        <v>45868</v>
       </c>
       <c r="F19">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="G19">
         <v>265</v>
@@ -17228,7 +15874,7 @@
         <v>16</v>
       </c>
       <c r="D20" s="1">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="E20" s="1">
         <v>45727</v>
@@ -17266,13 +15912,13 @@
         <v>27</v>
       </c>
       <c r="D21" s="1">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="E21" s="1">
-        <v>45841</v>
+        <v>45868</v>
       </c>
       <c r="F21">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="G21">
         <v>265</v>
@@ -17304,7 +15950,7 @@
         <v>16</v>
       </c>
       <c r="D22" s="1">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="E22" s="1">
         <v>45727</v>
@@ -17342,7 +15988,7 @@
         <v>27</v>
       </c>
       <c r="D23" s="1">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="E23" s="1">
         <v>45825</v>
@@ -17380,7 +16026,7 @@
         <v>13</v>
       </c>
       <c r="D24" s="1">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="E24" s="1">
         <v>45772</v>
@@ -17412,19 +16058,19 @@
         <v>34366994</v>
       </c>
       <c r="B25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="s">
         <v>27</v>
       </c>
       <c r="D25" s="1">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="E25" s="1">
-        <v>45791</v>
+        <v>45868</v>
       </c>
       <c r="F25">
-        <v>137</v>
+        <v>213</v>
       </c>
       <c r="G25">
         <v>265</v>
@@ -17456,7 +16102,7 @@
         <v>17</v>
       </c>
       <c r="D26" s="1">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="E26" s="1">
         <v>45759</v>
@@ -17494,7 +16140,7 @@
         <v>18</v>
       </c>
       <c r="D27" s="1">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="E27" s="1">
         <v>45663</v>
@@ -17526,13 +16172,13 @@
         <v>34445329</v>
       </c>
       <c r="B28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" t="s">
         <v>27</v>
       </c>
       <c r="D28" s="1">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="E28" s="1">
         <v>45841</v>
@@ -17570,7 +16216,7 @@
         <v>19</v>
       </c>
       <c r="D29" s="1">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="E29" s="1">
         <v>45768</v>
@@ -17608,7 +16254,7 @@
         <v>12</v>
       </c>
       <c r="D30" s="1">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="E30" s="1">
         <v>45722</v>
@@ -17839,10 +16485,10 @@
         <v>45687</v>
       </c>
       <c r="E36" s="1">
-        <v>45841</v>
+        <v>45868</v>
       </c>
       <c r="F36">
-        <v>154</v>
+        <v>180</v>
       </c>
       <c r="G36">
         <v>192</v>
@@ -18181,10 +16827,10 @@
         <v>45707</v>
       </c>
       <c r="E45" s="1">
-        <v>45841</v>
+        <v>45868</v>
       </c>
       <c r="F45">
-        <v>134</v>
+        <v>160</v>
       </c>
       <c r="G45">
         <v>214</v>
@@ -18257,10 +16903,10 @@
         <v>45713</v>
       </c>
       <c r="E47" s="1">
-        <v>45841</v>
+        <v>45868</v>
       </c>
       <c r="F47">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="G47">
         <v>180.95</v>
@@ -18295,10 +16941,10 @@
         <v>45713</v>
       </c>
       <c r="E48" s="1">
-        <v>45841</v>
+        <v>45868</v>
       </c>
       <c r="F48">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="G48">
         <v>189.9</v>
@@ -18400,7 +17046,7 @@
         <v>34644983</v>
       </c>
       <c r="B51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C51" t="s">
         <v>27</v>
@@ -18409,10 +17055,10 @@
         <v>45727</v>
       </c>
       <c r="E51" s="1">
-        <v>45841</v>
+        <v>45851</v>
       </c>
       <c r="F51">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="G51">
         <v>170</v>
@@ -18447,7 +17093,7 @@
         <v>45731</v>
       </c>
       <c r="E52" s="1">
-        <v>45767</v>
+        <v>45768</v>
       </c>
       <c r="F52">
         <v>36</v>
@@ -18561,10 +17207,10 @@
         <v>45731</v>
       </c>
       <c r="E55" s="1">
-        <v>45841</v>
+        <v>45868</v>
       </c>
       <c r="F55">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="G55">
         <v>249</v>
@@ -18713,10 +17359,10 @@
         <v>45753</v>
       </c>
       <c r="E59" s="1">
-        <v>45841</v>
+        <v>45868</v>
       </c>
       <c r="F59">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="G59">
         <v>224</v>
@@ -18865,10 +17511,10 @@
         <v>45759</v>
       </c>
       <c r="E63" s="1">
-        <v>45841</v>
+        <v>45868</v>
       </c>
       <c r="F63">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="G63">
         <v>220</v>
@@ -18979,10 +17625,10 @@
         <v>45769</v>
       </c>
       <c r="E66" s="1">
-        <v>45841</v>
+        <v>45868</v>
       </c>
       <c r="F66">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="G66">
         <v>259.89999999999998</v>
@@ -19055,16 +17701,16 @@
         <v>45789</v>
       </c>
       <c r="E68" s="1">
-        <v>45841</v>
+        <v>45868</v>
       </c>
       <c r="F68">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="G68">
         <v>229</v>
       </c>
       <c r="H68">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="I68">
         <v>100</v>
@@ -19073,10 +17719,10 @@
         <v>3.5</v>
       </c>
       <c r="K68">
-        <v>2.29</v>
+        <v>2.1</v>
       </c>
       <c r="L68">
-        <v>0</v>
+        <v>-19</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
@@ -19207,10 +17853,10 @@
         <v>45814</v>
       </c>
       <c r="E72" s="1">
-        <v>45841</v>
+        <v>45868</v>
       </c>
       <c r="F72">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="G72">
         <v>180.95</v>
@@ -19236,7 +17882,7 @@
         <v>34607640</v>
       </c>
       <c r="B73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C73" t="s">
         <v>27</v>
@@ -19245,10 +17891,10 @@
         <v>45814</v>
       </c>
       <c r="E73" s="1">
-        <v>45841</v>
+        <v>45851</v>
       </c>
       <c r="F73">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="G73">
         <v>180.95</v>
@@ -19283,10 +17929,10 @@
         <v>45814</v>
       </c>
       <c r="E74" s="1">
-        <v>45841</v>
+        <v>45868</v>
       </c>
       <c r="F74">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="G74">
         <v>214.9</v>
@@ -19312,7 +17958,7 @@
         <v>34804285</v>
       </c>
       <c r="B75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C75" t="s">
         <v>27</v>
@@ -19359,16 +18005,16 @@
         <v>45818</v>
       </c>
       <c r="E76" s="1">
-        <v>45841</v>
+        <v>45868</v>
       </c>
       <c r="F76">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="G76">
         <v>199</v>
       </c>
       <c r="H76">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="I76">
         <v>118</v>
@@ -19377,10 +18023,10 @@
         <v>4</v>
       </c>
       <c r="K76">
-        <v>1.5169491525423699</v>
+        <v>1.44067796610169</v>
       </c>
       <c r="L76">
-        <v>-20</v>
+        <v>-29</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
@@ -19435,16 +18081,16 @@
         <v>45818</v>
       </c>
       <c r="E78" s="1">
-        <v>45841</v>
+        <v>45868</v>
       </c>
       <c r="F78">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="G78">
         <v>191</v>
       </c>
       <c r="H78">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I78">
         <v>125</v>
@@ -19453,10 +18099,10 @@
         <v>4</v>
       </c>
       <c r="K78">
-        <v>1.528</v>
+        <v>1.504</v>
       </c>
       <c r="L78">
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
@@ -19473,28 +18119,28 @@
         <v>45823</v>
       </c>
       <c r="E79" s="1">
-        <v>45841</v>
+        <v>45868</v>
       </c>
       <c r="F79">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="G79">
         <v>225.9</v>
       </c>
       <c r="H79">
-        <v>225.9</v>
+        <v>206</v>
       </c>
       <c r="I79">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="J79">
         <v>5</v>
       </c>
       <c r="K79">
-        <v>1.8825000000000001</v>
+        <v>1.8899082568807299</v>
       </c>
       <c r="L79">
-        <v>0</v>
+        <v>-19.899999999999999</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
@@ -19549,16 +18195,16 @@
         <v>45825</v>
       </c>
       <c r="E81" s="1">
-        <v>45841</v>
+        <v>45868</v>
       </c>
       <c r="F81">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="G81">
         <v>219</v>
       </c>
       <c r="H81">
-        <v>219</v>
+        <v>214.9</v>
       </c>
       <c r="I81">
         <v>109</v>
@@ -19567,10 +18213,10 @@
         <v>5.5</v>
       </c>
       <c r="K81">
-        <v>2.0091743119265999</v>
+        <v>1.97155963302752</v>
       </c>
       <c r="L81">
-        <v>0</v>
+        <v>-4.0999999999999899</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
@@ -19587,10 +18233,10 @@
         <v>45841</v>
       </c>
       <c r="E82" s="1">
-        <v>45841</v>
+        <v>45868</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="G82">
         <v>219.5</v>
@@ -19599,13 +18245,13 @@
         <v>219.5</v>
       </c>
       <c r="I82">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J82">
         <v>4</v>
       </c>
       <c r="K82">
-        <v>1.756</v>
+        <v>1.7420634920634901</v>
       </c>
       <c r="L82">
         <v>0</v>
@@ -19625,16 +18271,16 @@
         <v>45841</v>
       </c>
       <c r="E83" s="1">
-        <v>45841</v>
+        <v>45868</v>
       </c>
       <c r="F83">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="G83">
         <v>179</v>
       </c>
       <c r="H83">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="I83">
         <v>118</v>
@@ -19643,10 +18289,10 @@
         <v>4</v>
       </c>
       <c r="K83">
-        <v>1.5169491525423699</v>
+        <v>1.44067796610169</v>
       </c>
       <c r="L83">
-        <v>0</v>
+        <v>-9</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
@@ -19654,7 +18300,7 @@
         <v>34824455</v>
       </c>
       <c r="B84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C84" t="s">
         <v>27</v>
@@ -19701,16 +18347,16 @@
         <v>45841</v>
       </c>
       <c r="E85" s="1">
-        <v>45841</v>
+        <v>45868</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="G85">
         <v>150</v>
       </c>
       <c r="H85">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="I85">
         <v>120</v>
@@ -19719,10 +18365,10 @@
         <v>3</v>
       </c>
       <c r="K85">
-        <v>1.25</v>
+        <v>1.2833333333333301</v>
       </c>
       <c r="L85">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
@@ -19739,16 +18385,16 @@
         <v>45841</v>
       </c>
       <c r="E86" s="1">
-        <v>45841</v>
+        <v>45868</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="G86">
         <v>184</v>
       </c>
       <c r="H86">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="I86">
         <v>105</v>
@@ -19757,10 +18403,10 @@
         <v>4</v>
       </c>
       <c r="K86">
-        <v>1.7523809523809499</v>
+        <v>1.86666666666666</v>
       </c>
       <c r="L86">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
@@ -19777,16 +18423,16 @@
         <v>45841</v>
       </c>
       <c r="E87" s="1">
-        <v>45841</v>
+        <v>45868</v>
       </c>
       <c r="F87">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="G87">
         <v>229</v>
       </c>
       <c r="H87">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="I87">
         <v>100</v>
@@ -19795,10 +18441,10 @@
         <v>3.5</v>
       </c>
       <c r="K87">
-        <v>2.29</v>
+        <v>2.09</v>
       </c>
       <c r="L87">
-        <v>0</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
@@ -19815,16 +18461,16 @@
         <v>45841</v>
       </c>
       <c r="E88" s="1">
-        <v>45841</v>
+        <v>45868</v>
       </c>
       <c r="F88">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="G88">
         <v>370</v>
       </c>
       <c r="H88">
-        <v>370</v>
+        <v>350</v>
       </c>
       <c r="I88">
         <v>110</v>
@@ -19833,9 +18479,47 @@
         <v>4</v>
       </c>
       <c r="K88">
-        <v>3.3636363636363602</v>
+        <v>3.1818181818181799</v>
       </c>
       <c r="L88">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>34891614</v>
+      </c>
+      <c r="B89" t="b">
+        <v>1</v>
+      </c>
+      <c r="C89" t="s">
+        <v>27</v>
+      </c>
+      <c r="D89" s="1">
+        <v>45868</v>
+      </c>
+      <c r="E89" s="1">
+        <v>45868</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>199</v>
+      </c>
+      <c r="H89">
+        <v>199</v>
+      </c>
+      <c r="I89">
+        <v>126</v>
+      </c>
+      <c r="J89">
+        <v>4</v>
+      </c>
+      <c r="K89">
+        <v>1.57936507936507</v>
+      </c>
+      <c r="L89">
         <v>0</v>
       </c>
     </row>
@@ -19849,8 +18533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2028B189-73B4-4612-A074-1CA186AB1A38}">
   <dimension ref="A1:R115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="83" workbookViewId="0">
-      <selection activeCell="X17" sqref="X17"/>
+    <sheetView topLeftCell="G6" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
+      <selection activeCell="D89" sqref="D89:O103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19917,7 +18601,7 @@
       </c>
       <c r="D2" s="1">
         <f>IF(advert_summary!$B2=$N$1,advert_summary!D2,0)</f>
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="E2" s="1">
         <f>IF(advert_summary!$B2=$N$1,advert_summary!E2,0)</f>
@@ -19991,7 +18675,7 @@
       </c>
       <c r="D3" s="1">
         <f>IF(advert_summary!$B3=$N$1,advert_summary!D3,0)</f>
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="E3" s="1">
         <f>IF(advert_summary!$B3=$N$1,advert_summary!E3,0)</f>
@@ -20041,7 +18725,7 @@
       </c>
       <c r="D4" s="1">
         <f>IF(advert_summary!$B4=$N$1,advert_summary!D4,0)</f>
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="E4" s="1">
         <f>IF(advert_summary!$B4=$N$1,advert_summary!E4,0)</f>
@@ -20091,7 +18775,7 @@
       </c>
       <c r="D5" s="1">
         <f>IF(advert_summary!$B5=$N$1,advert_summary!D5,0)</f>
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="E5" s="1">
         <f>IF(advert_summary!$B5=$N$1,advert_summary!E5,0)</f>
@@ -20129,51 +18813,51 @@
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <f>IF(advert_summary!$B6=$N$1,advert_summary!A6,0)</f>
-        <v>0</v>
-      </c>
-      <c r="B6" t="str">
+        <v>34378786</v>
+      </c>
+      <c r="B6" t="b">
         <f>IF(advert_summary!$B6=$N$1,advert_summary!B6,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C6" t="str">
         <f>IF(advert_summary!$B6=$N$1,advert_summary!C6,"")</f>
-        <v/>
+        <v>N/A</v>
       </c>
       <c r="D6" s="1">
         <f>IF(advert_summary!$B6=$N$1,advert_summary!D6,0)</f>
-        <v>0</v>
+        <v>45654</v>
       </c>
       <c r="E6" s="1">
         <f>IF(advert_summary!$B6=$N$1,advert_summary!E6,0)</f>
-        <v>0</v>
+        <v>45851</v>
       </c>
       <c r="F6" s="2">
         <f>IF(advert_summary!$B6=$N$1,advert_summary!F6,0)</f>
-        <v>0</v>
+        <v>197</v>
       </c>
       <c r="G6" s="2">
         <f>IF(advert_summary!$B6=$N$1,advert_summary!G6,0)</f>
-        <v>0</v>
+        <v>199.9</v>
       </c>
       <c r="H6" s="2">
         <f>IF(advert_summary!$B6=$N$1,advert_summary!H6,0)</f>
-        <v>0</v>
+        <v>189.9</v>
       </c>
       <c r="I6" s="2">
         <f>IF(advert_summary!$B6=$N$1,advert_summary!I6,0)</f>
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="J6" s="2">
         <f>IF(advert_summary!$B6=$N$1,advert_summary!J6,0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K6" s="2">
         <f>IF(advert_summary!$B6=$N$1,advert_summary!K6,0)</f>
-        <v>0</v>
+        <v>1.6955357142857099</v>
       </c>
       <c r="L6" s="2">
         <f>IF(advert_summary!$B6=$N$1,advert_summary!L6,0)</f>
-        <v>0</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -20191,7 +18875,7 @@
       </c>
       <c r="D7" s="1">
         <f>IF(advert_summary!$B7=$N$1,advert_summary!D7,0)</f>
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="E7" s="1">
         <f>IF(advert_summary!$B7=$N$1,advert_summary!E7,0)</f>
@@ -20241,7 +18925,7 @@
       </c>
       <c r="D8" s="1">
         <f>IF(advert_summary!$B8=$N$1,advert_summary!D8,0)</f>
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="E8" s="1">
         <f>IF(advert_summary!$B8=$N$1,advert_summary!E8,0)</f>
@@ -20291,7 +18975,7 @@
       </c>
       <c r="D9" s="1">
         <f>IF(advert_summary!$B9=$N$1,advert_summary!D9,0)</f>
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="E9" s="1">
         <f>IF(advert_summary!$B9=$N$1,advert_summary!E9,0)</f>
@@ -20441,7 +19125,7 @@
       </c>
       <c r="D12" s="1">
         <f>IF(advert_summary!$B12=$N$1,advert_summary!D12,0)</f>
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="E12" s="1">
         <f>IF(advert_summary!$B12=$N$1,advert_summary!E12,0)</f>
@@ -20491,7 +19175,7 @@
       </c>
       <c r="D13" s="1">
         <f>IF(advert_summary!$B13=$N$1,advert_summary!D13,0)</f>
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="E13" s="1">
         <f>IF(advert_summary!$B13=$N$1,advert_summary!E13,0)</f>
@@ -20591,7 +19275,7 @@
       </c>
       <c r="D15" s="1">
         <f>IF(advert_summary!$B15=$N$1,advert_summary!D15,0)</f>
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="E15" s="1">
         <f>IF(advert_summary!$B15=$N$1,advert_summary!E15,0)</f>
@@ -20641,7 +19325,7 @@
       </c>
       <c r="D16" s="1">
         <f>IF(advert_summary!$B16=$N$1,advert_summary!D16,0)</f>
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="E16" s="1">
         <f>IF(advert_summary!$B16=$N$1,advert_summary!E16,0)</f>
@@ -20691,7 +19375,7 @@
       </c>
       <c r="D17" s="1">
         <f>IF(advert_summary!$B17=$N$1,advert_summary!D17,0)</f>
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="E17" s="1">
         <f>IF(advert_summary!$B17=$N$1,advert_summary!E17,0)</f>
@@ -20741,7 +19425,7 @@
       </c>
       <c r="D18" s="1">
         <f>IF(advert_summary!$B18=$N$1,advert_summary!D18,0)</f>
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="E18" s="1">
         <f>IF(advert_summary!$B18=$N$1,advert_summary!E18,0)</f>
@@ -20841,7 +19525,7 @@
       </c>
       <c r="D20" s="1">
         <f>IF(advert_summary!$B20=$N$1,advert_summary!D20,0)</f>
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="E20" s="1">
         <f>IF(advert_summary!$B20=$N$1,advert_summary!E20,0)</f>
@@ -20941,7 +19625,7 @@
       </c>
       <c r="D22" s="1">
         <f>IF(advert_summary!$B22=$N$1,advert_summary!D22,0)</f>
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="E22" s="1">
         <f>IF(advert_summary!$B22=$N$1,advert_summary!E22,0)</f>
@@ -20991,7 +19675,7 @@
       </c>
       <c r="D23" s="1">
         <f>IF(advert_summary!$B23=$N$1,advert_summary!D23,0)</f>
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="E23" s="1">
         <f>IF(advert_summary!$B23=$N$1,advert_summary!E23,0)</f>
@@ -21041,7 +19725,7 @@
       </c>
       <c r="D24" s="1">
         <f>IF(advert_summary!$B24=$N$1,advert_summary!D24,0)</f>
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="E24" s="1">
         <f>IF(advert_summary!$B24=$N$1,advert_summary!E24,0)</f>
@@ -21079,51 +19763,51 @@
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <f>IF(advert_summary!$B25=$N$1,advert_summary!A25,0)</f>
-        <v>34366994</v>
-      </c>
-      <c r="B25" t="b">
+        <v>0</v>
+      </c>
+      <c r="B25" t="str">
         <f>IF(advert_summary!$B25=$N$1,advert_summary!B25,"")</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C25" t="str">
         <f>IF(advert_summary!$B25=$N$1,advert_summary!C25,"")</f>
-        <v>N/A</v>
+        <v/>
       </c>
       <c r="D25" s="1">
         <f>IF(advert_summary!$B25=$N$1,advert_summary!D25,0)</f>
-        <v>45653</v>
+        <v>0</v>
       </c>
       <c r="E25" s="1">
         <f>IF(advert_summary!$B25=$N$1,advert_summary!E25,0)</f>
-        <v>45791</v>
+        <v>0</v>
       </c>
       <c r="F25" s="2">
         <f>IF(advert_summary!$B25=$N$1,advert_summary!F25,0)</f>
-        <v>137</v>
+        <v>0</v>
       </c>
       <c r="G25" s="2">
         <f>IF(advert_summary!$B25=$N$1,advert_summary!G25,0)</f>
-        <v>265</v>
+        <v>0</v>
       </c>
       <c r="H25" s="2">
         <f>IF(advert_summary!$B25=$N$1,advert_summary!H25,0)</f>
-        <v>249</v>
+        <v>0</v>
       </c>
       <c r="I25" s="2">
         <f>IF(advert_summary!$B25=$N$1,advert_summary!I25,0)</f>
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="J25" s="2">
         <f>IF(advert_summary!$B25=$N$1,advert_summary!J25,0)</f>
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="K25" s="2">
         <f>IF(advert_summary!$B25=$N$1,advert_summary!K25,0)</f>
-        <v>1.9153846153846099</v>
+        <v>0</v>
       </c>
       <c r="L25" s="2">
         <f>IF(advert_summary!$B25=$N$1,advert_summary!L25,0)</f>
-        <v>-16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -21141,7 +19825,7 @@
       </c>
       <c r="D26" s="1">
         <f>IF(advert_summary!$B26=$N$1,advert_summary!D26,0)</f>
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="E26" s="1">
         <f>IF(advert_summary!$B26=$N$1,advert_summary!E26,0)</f>
@@ -21191,7 +19875,7 @@
       </c>
       <c r="D27" s="1">
         <f>IF(advert_summary!$B27=$N$1,advert_summary!D27,0)</f>
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="E27" s="1">
         <f>IF(advert_summary!$B27=$N$1,advert_summary!E27,0)</f>
@@ -21229,51 +19913,51 @@
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <f>IF(advert_summary!$B28=$N$1,advert_summary!A28,0)</f>
-        <v>0</v>
-      </c>
-      <c r="B28" t="str">
+        <v>34445329</v>
+      </c>
+      <c r="B28" t="b">
         <f>IF(advert_summary!$B28=$N$1,advert_summary!B28,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C28" t="str">
         <f>IF(advert_summary!$B28=$N$1,advert_summary!C28,"")</f>
-        <v/>
+        <v>N/A</v>
       </c>
       <c r="D28" s="1">
         <f>IF(advert_summary!$B28=$N$1,advert_summary!D28,0)</f>
-        <v>0</v>
+        <v>45654</v>
       </c>
       <c r="E28" s="1">
         <f>IF(advert_summary!$B28=$N$1,advert_summary!E28,0)</f>
-        <v>0</v>
+        <v>45841</v>
       </c>
       <c r="F28" s="2">
         <f>IF(advert_summary!$B28=$N$1,advert_summary!F28,0)</f>
-        <v>0</v>
+        <v>187</v>
       </c>
       <c r="G28" s="2">
         <f>IF(advert_summary!$B28=$N$1,advert_summary!G28,0)</f>
-        <v>0</v>
+        <v>264.7</v>
       </c>
       <c r="H28" s="2">
         <f>IF(advert_summary!$B28=$N$1,advert_summary!H28,0)</f>
-        <v>0</v>
+        <v>249</v>
       </c>
       <c r="I28" s="2">
         <f>IF(advert_summary!$B28=$N$1,advert_summary!I28,0)</f>
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="J28" s="2">
         <f>IF(advert_summary!$B28=$N$1,advert_summary!J28,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K28" s="2">
         <f>IF(advert_summary!$B28=$N$1,advert_summary!K28,0)</f>
-        <v>0</v>
+        <v>2.0409836065573699</v>
       </c>
       <c r="L28" s="2">
         <f>IF(advert_summary!$B28=$N$1,advert_summary!L28,0)</f>
-        <v>0</v>
+        <v>-15.6999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -21291,7 +19975,7 @@
       </c>
       <c r="D29" s="1">
         <f>IF(advert_summary!$B29=$N$1,advert_summary!D29,0)</f>
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="E29" s="1">
         <f>IF(advert_summary!$B29=$N$1,advert_summary!E29,0)</f>
@@ -21341,7 +20025,7 @@
       </c>
       <c r="D30" s="1">
         <f>IF(advert_summary!$B30=$N$1,advert_summary!D30,0)</f>
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="E30" s="1">
         <f>IF(advert_summary!$B30=$N$1,advert_summary!E30,0)</f>
@@ -22379,47 +21063,47 @@
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <f>IF(advert_summary!$B51=$N$1,advert_summary!A51,0)</f>
-        <v>0</v>
-      </c>
-      <c r="B51" t="str">
+        <v>34644983</v>
+      </c>
+      <c r="B51" t="b">
         <f>IF(advert_summary!$B51=$N$1,advert_summary!B51,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C51" t="str">
         <f>IF(advert_summary!$B51=$N$1,advert_summary!C51,"")</f>
-        <v/>
+        <v>N/A</v>
       </c>
       <c r="D51" s="1">
         <f>IF(advert_summary!$B51=$N$1,advert_summary!D51,0)</f>
-        <v>0</v>
+        <v>45727</v>
       </c>
       <c r="E51" s="1">
         <f>IF(advert_summary!$B51=$N$1,advert_summary!E51,0)</f>
-        <v>0</v>
+        <v>45851</v>
       </c>
       <c r="F51" s="2">
         <f>IF(advert_summary!$B51=$N$1,advert_summary!F51,0)</f>
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="G51" s="2">
         <f>IF(advert_summary!$B51=$N$1,advert_summary!G51,0)</f>
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="H51" s="2">
         <f>IF(advert_summary!$B51=$N$1,advert_summary!H51,0)</f>
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="I51" s="2">
         <f>IF(advert_summary!$B51=$N$1,advert_summary!I51,0)</f>
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="J51" s="2">
         <f>IF(advert_summary!$B51=$N$1,advert_summary!J51,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K51" s="2">
         <f>IF(advert_summary!$B51=$N$1,advert_summary!K51,0)</f>
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="L51" s="2">
         <f>IF(advert_summary!$B51=$N$1,advert_summary!L51,0)</f>
@@ -22445,7 +21129,7 @@
       </c>
       <c r="E52" s="1">
         <f>IF(advert_summary!$B52=$N$1,advert_summary!E52,0)</f>
-        <v>45767</v>
+        <v>45768</v>
       </c>
       <c r="F52" s="2">
         <f>IF(advert_summary!$B52=$N$1,advert_summary!F52,0)</f>
@@ -23479,47 +22163,47 @@
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <f>IF(advert_summary!$B73=$N$1,advert_summary!A73,0)</f>
-        <v>0</v>
-      </c>
-      <c r="B73" t="str">
+        <v>34607640</v>
+      </c>
+      <c r="B73" t="b">
         <f>IF(advert_summary!$B73=$N$1,advert_summary!B73,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C73" t="str">
         <f>IF(advert_summary!$B73=$N$1,advert_summary!C73,"")</f>
-        <v/>
+        <v>N/A</v>
       </c>
       <c r="D73" s="1">
         <f>IF(advert_summary!$B73=$N$1,advert_summary!D73,0)</f>
-        <v>0</v>
+        <v>45814</v>
       </c>
       <c r="E73" s="1">
         <f>IF(advert_summary!$B73=$N$1,advert_summary!E73,0)</f>
-        <v>0</v>
+        <v>45851</v>
       </c>
       <c r="F73" s="2">
         <f>IF(advert_summary!$B73=$N$1,advert_summary!F73,0)</f>
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="G73" s="2">
         <f>IF(advert_summary!$B73=$N$1,advert_summary!G73,0)</f>
-        <v>0</v>
+        <v>180.95</v>
       </c>
       <c r="H73" s="2">
         <f>IF(advert_summary!$B73=$N$1,advert_summary!H73,0)</f>
-        <v>0</v>
+        <v>180.95</v>
       </c>
       <c r="I73" s="2">
         <f>IF(advert_summary!$B73=$N$1,advert_summary!I73,0)</f>
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="J73" s="2">
         <f>IF(advert_summary!$B73=$N$1,advert_summary!J73,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K73" s="2">
         <f>IF(advert_summary!$B73=$N$1,advert_summary!K73,0)</f>
-        <v>0</v>
+        <v>1.7399038461538401</v>
       </c>
       <c r="L73" s="2">
         <f>IF(advert_summary!$B73=$N$1,advert_summary!L73,0)</f>
@@ -23579,35 +22263,35 @@
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D75" s="1">
         <f>IF(advert_summary!$B75=$N$1,advert_summary!D75,0)</f>
-        <v>0</v>
+        <v>45814</v>
       </c>
       <c r="E75" s="1">
         <f>IF(advert_summary!$B75=$N$1,advert_summary!E75,0)</f>
-        <v>0</v>
+        <v>45841</v>
       </c>
       <c r="F75" s="2">
         <f>IF(advert_summary!$B75=$N$1,advert_summary!F75,0)</f>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="G75" s="2">
         <f>IF(advert_summary!$B75=$N$1,advert_summary!G75,0)</f>
-        <v>0</v>
+        <v>199.9</v>
       </c>
       <c r="H75" s="2">
         <f>IF(advert_summary!$B75=$N$1,advert_summary!H75,0)</f>
-        <v>0</v>
+        <v>199.9</v>
       </c>
       <c r="I75" s="2">
         <f>IF(advert_summary!$B75=$N$1,advert_summary!I75,0)</f>
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="J75" s="2">
         <f>IF(advert_summary!$B75=$N$1,advert_summary!J75,0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K75" s="2">
         <f>IF(advert_summary!$B75=$N$1,advert_summary!K75,0)</f>
-        <v>0</v>
+        <v>1.73826086956521</v>
       </c>
       <c r="L75" s="2">
         <f>IF(advert_summary!$B75=$N$1,advert_summary!L75,0)</f>
@@ -23921,11 +22605,11 @@
     <row r="84" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D84" s="1">
         <f>IF(advert_summary!$B84=$N$1,advert_summary!D84,0)</f>
-        <v>0</v>
+        <v>45841</v>
       </c>
       <c r="E84" s="1">
         <f>IF(advert_summary!$B84=$N$1,advert_summary!E84,0)</f>
-        <v>0</v>
+        <v>45841</v>
       </c>
       <c r="F84" s="2">
         <f>IF(advert_summary!$B84=$N$1,advert_summary!F84,0)</f>
@@ -23933,23 +22617,23 @@
       </c>
       <c r="G84" s="2">
         <f>IF(advert_summary!$B84=$N$1,advert_summary!G84,0)</f>
-        <v>0</v>
+        <v>199.9</v>
       </c>
       <c r="H84" s="2">
         <f>IF(advert_summary!$B84=$N$1,advert_summary!H84,0)</f>
-        <v>0</v>
+        <v>199.9</v>
       </c>
       <c r="I84" s="2">
         <f>IF(advert_summary!$B84=$N$1,advert_summary!I84,0)</f>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="J84" s="2">
         <f>IF(advert_summary!$B84=$N$1,advert_summary!J84,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K84" s="2">
         <f>IF(advert_summary!$B84=$N$1,advert_summary!K84,0)</f>
-        <v>0</v>
+        <v>1.6658333333333299</v>
       </c>
       <c r="L84" s="2">
         <f>IF(advert_summary!$B84=$N$1,advert_summary!L84,0)</f>
@@ -24108,461 +22792,93 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D89" s="1">
-        <f>IF(advert_summary!$B89=$N$1,advert_summary!D89,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E89" s="1">
-        <f>IF(advert_summary!$B89=$N$1,advert_summary!E89,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F89" s="2">
-        <f>IF(advert_summary!$B89=$N$1,advert_summary!F89,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G89" s="2">
-        <f>IF(advert_summary!$B89=$N$1,advert_summary!G89,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H89" s="2">
-        <f>IF(advert_summary!$B89=$N$1,advert_summary!H89,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I89" s="2">
-        <f>IF(advert_summary!$B89=$N$1,advert_summary!I89,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J89" s="2">
-        <f>IF(advert_summary!$B89=$N$1,advert_summary!J89,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K89" s="2">
-        <f>IF(advert_summary!$B89=$N$1,advert_summary!K89,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L89" s="2">
-        <f>IF(advert_summary!$B89=$N$1,advert_summary!L89,0)</f>
-        <v>0</v>
-      </c>
-    </row>
     <row r="90" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D90" s="1">
-        <f>IF(advert_summary!$B90=$N$1,advert_summary!D90,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E90" s="1">
-        <f>IF(advert_summary!$B90=$N$1,advert_summary!E90,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F90" s="2">
-        <f>IF(advert_summary!$B90=$N$1,advert_summary!F90,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G90" s="2">
-        <f>IF(advert_summary!$B90=$N$1,advert_summary!G90,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H90" s="2">
-        <f>IF(advert_summary!$B90=$N$1,advert_summary!H90,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I90" s="2">
-        <f>IF(advert_summary!$B90=$N$1,advert_summary!I90,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J90" s="2">
-        <f>IF(advert_summary!$B90=$N$1,advert_summary!J90,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K90" s="2">
-        <f>IF(advert_summary!$B90=$N$1,advert_summary!K90,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L90" s="2">
-        <f>IF(advert_summary!$B90=$N$1,advert_summary!L90,0)</f>
-        <v>0</v>
-      </c>
+      <c r="G90" s="2"/>
+      <c r="H90" s="2"/>
+      <c r="I90" s="2"/>
+      <c r="J90" s="2"/>
+      <c r="K90" s="2"/>
+      <c r="L90" s="2"/>
     </row>
     <row r="91" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D91" s="1">
-        <f>IF(advert_summary!$B91=$N$1,advert_summary!D91,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E91" s="1">
-        <f>IF(advert_summary!$B91=$N$1,advert_summary!E91,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F91" s="2">
-        <f>IF(advert_summary!$B91=$N$1,advert_summary!F91,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G91" s="2">
-        <f>IF(advert_summary!$B91=$N$1,advert_summary!G91,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H91" s="2">
-        <f>IF(advert_summary!$B91=$N$1,advert_summary!H91,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I91" s="2">
-        <f>IF(advert_summary!$B91=$N$1,advert_summary!I91,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J91" s="2">
-        <f>IF(advert_summary!$B91=$N$1,advert_summary!J91,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K91" s="2">
-        <f>IF(advert_summary!$B91=$N$1,advert_summary!K91,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L91" s="2">
-        <f>IF(advert_summary!$B91=$N$1,advert_summary!L91,0)</f>
-        <v>0</v>
-      </c>
+      <c r="G91" s="2"/>
+      <c r="H91" s="2"/>
+      <c r="I91" s="2"/>
+      <c r="J91" s="2"/>
+      <c r="K91" s="2"/>
+      <c r="L91" s="2"/>
     </row>
     <row r="92" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D92" s="1">
-        <f>IF(advert_summary!$B92=$N$1,advert_summary!D92,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E92" s="1">
-        <f>IF(advert_summary!$B92=$N$1,advert_summary!E92,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F92" s="2">
-        <f>IF(advert_summary!$B92=$N$1,advert_summary!F92,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G92" s="2">
-        <f>IF(advert_summary!$B92=$N$1,advert_summary!G92,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H92" s="2">
-        <f>IF(advert_summary!$B92=$N$1,advert_summary!H92,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I92" s="2">
-        <f>IF(advert_summary!$B92=$N$1,advert_summary!I92,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J92" s="2">
-        <f>IF(advert_summary!$B92=$N$1,advert_summary!J92,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K92" s="2">
-        <f>IF(advert_summary!$B92=$N$1,advert_summary!K92,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L92" s="2">
-        <f>IF(advert_summary!$B92=$N$1,advert_summary!L92,0)</f>
-        <v>0</v>
-      </c>
+      <c r="G92" s="2"/>
+      <c r="H92" s="2"/>
+      <c r="I92" s="2"/>
+      <c r="J92" s="2"/>
+      <c r="K92" s="2"/>
+      <c r="L92" s="2"/>
     </row>
     <row r="93" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D93" s="1">
-        <f>IF(advert_summary!$B93=$N$1,advert_summary!D93,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E93" s="1">
-        <f>IF(advert_summary!$B93=$N$1,advert_summary!E93,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F93" s="2">
-        <f>IF(advert_summary!$B93=$N$1,advert_summary!F93,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G93" s="2">
-        <f>IF(advert_summary!$B93=$N$1,advert_summary!G93,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H93" s="2">
-        <f>IF(advert_summary!$B93=$N$1,advert_summary!H93,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I93" s="2">
-        <f>IF(advert_summary!$B93=$N$1,advert_summary!I93,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J93" s="2">
-        <f>IF(advert_summary!$B93=$N$1,advert_summary!J93,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K93" s="2">
-        <f>IF(advert_summary!$B93=$N$1,advert_summary!K93,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L93" s="2">
-        <f>IF(advert_summary!$B93=$N$1,advert_summary!L93,0)</f>
-        <v>0</v>
-      </c>
+      <c r="G93" s="2"/>
+      <c r="H93" s="2"/>
+      <c r="I93" s="2"/>
+      <c r="J93" s="2"/>
+      <c r="K93" s="2"/>
+      <c r="L93" s="2"/>
     </row>
     <row r="94" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D94" s="1">
-        <f>IF(advert_summary!$B94=$N$1,advert_summary!D94,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E94" s="1">
-        <f>IF(advert_summary!$B94=$N$1,advert_summary!E94,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F94" s="2">
-        <f>IF(advert_summary!$B94=$N$1,advert_summary!F94,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G94" s="2">
-        <f>IF(advert_summary!$B94=$N$1,advert_summary!G94,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H94" s="2">
-        <f>IF(advert_summary!$B94=$N$1,advert_summary!H94,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I94" s="2">
-        <f>IF(advert_summary!$B94=$N$1,advert_summary!I94,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J94" s="2">
-        <f>IF(advert_summary!$B94=$N$1,advert_summary!J94,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K94" s="2">
-        <f>IF(advert_summary!$B94=$N$1,advert_summary!K94,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L94" s="2">
-        <f>IF(advert_summary!$B94=$N$1,advert_summary!L94,0)</f>
-        <v>0</v>
-      </c>
+      <c r="G94" s="2"/>
+      <c r="H94" s="2"/>
+      <c r="I94" s="2"/>
+      <c r="J94" s="2"/>
+      <c r="K94" s="2"/>
+      <c r="L94" s="2"/>
     </row>
     <row r="95" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D95" s="1">
-        <f>IF(advert_summary!$B95=$N$1,advert_summary!D95,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E95" s="1">
-        <f>IF(advert_summary!$B95=$N$1,advert_summary!E95,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F95" s="2">
-        <f>IF(advert_summary!$B95=$N$1,advert_summary!F95,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G95" s="2">
-        <f>IF(advert_summary!$B95=$N$1,advert_summary!G95,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H95" s="2">
-        <f>IF(advert_summary!$B95=$N$1,advert_summary!H95,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I95" s="2">
-        <f>IF(advert_summary!$B95=$N$1,advert_summary!I95,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J95" s="2">
-        <f>IF(advert_summary!$B95=$N$1,advert_summary!J95,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K95" s="2">
-        <f>IF(advert_summary!$B95=$N$1,advert_summary!K95,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L95" s="2">
-        <f>IF(advert_summary!$B95=$N$1,advert_summary!L95,0)</f>
-        <v>0</v>
-      </c>
+      <c r="G95" s="2"/>
+      <c r="H95" s="2"/>
+      <c r="I95" s="2"/>
+      <c r="J95" s="2"/>
+      <c r="K95" s="2"/>
+      <c r="L95" s="2"/>
     </row>
     <row r="96" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D96" s="1">
-        <f>IF(advert_summary!$B96=$N$1,advert_summary!D96,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E96" s="1">
-        <f>IF(advert_summary!$B96=$N$1,advert_summary!E96,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F96" s="2">
-        <f>IF(advert_summary!$B96=$N$1,advert_summary!F96,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G96" s="2">
-        <f>IF(advert_summary!$B96=$N$1,advert_summary!G96,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H96" s="2">
-        <f>IF(advert_summary!$B96=$N$1,advert_summary!H96,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I96" s="2">
-        <f>IF(advert_summary!$B96=$N$1,advert_summary!I96,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J96" s="2">
-        <f>IF(advert_summary!$B96=$N$1,advert_summary!J96,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K96" s="2">
-        <f>IF(advert_summary!$B96=$N$1,advert_summary!K96,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L96" s="2">
-        <f>IF(advert_summary!$B96=$N$1,advert_summary!L96,0)</f>
-        <v>0</v>
-      </c>
+      <c r="G96" s="2"/>
+      <c r="H96" s="2"/>
+      <c r="I96" s="2"/>
+      <c r="J96" s="2"/>
+      <c r="K96" s="2"/>
+      <c r="L96" s="2"/>
     </row>
-    <row r="97" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D97" s="1">
-        <f>IF(advert_summary!$B97=$N$1,advert_summary!D97,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E97" s="1">
-        <f>IF(advert_summary!$B97=$N$1,advert_summary!E97,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F97" s="2">
-        <f>IF(advert_summary!$B97=$N$1,advert_summary!F97,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G97" s="2">
-        <f>IF(advert_summary!$B97=$N$1,advert_summary!G97,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H97" s="2">
-        <f>IF(advert_summary!$B97=$N$1,advert_summary!H97,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I97" s="2">
-        <f>IF(advert_summary!$B97=$N$1,advert_summary!I97,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J97" s="2">
-        <f>IF(advert_summary!$B97=$N$1,advert_summary!J97,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K97" s="2">
-        <f>IF(advert_summary!$B97=$N$1,advert_summary!K97,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L97" s="2">
-        <f>IF(advert_summary!$B97=$N$1,advert_summary!L97,0)</f>
-        <v>0</v>
-      </c>
+    <row r="97" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G97" s="2"/>
+      <c r="H97" s="2"/>
+      <c r="I97" s="2"/>
+      <c r="J97" s="2"/>
+      <c r="K97" s="2"/>
+      <c r="L97" s="2"/>
     </row>
-    <row r="98" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D98" s="1">
-        <f>IF(advert_summary!$B98=$N$1,advert_summary!D98,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E98" s="1">
-        <f>IF(advert_summary!$B98=$N$1,advert_summary!E98,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F98" s="2">
-        <f>IF(advert_summary!$B98=$N$1,advert_summary!F98,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G98" s="2">
-        <f>IF(advert_summary!$B98=$N$1,advert_summary!G98,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H98" s="2">
-        <f>IF(advert_summary!$B98=$N$1,advert_summary!H98,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I98" s="2">
-        <f>IF(advert_summary!$B98=$N$1,advert_summary!I98,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J98" s="2">
-        <f>IF(advert_summary!$B98=$N$1,advert_summary!J98,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K98" s="2">
-        <f>IF(advert_summary!$B98=$N$1,advert_summary!K98,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L98" s="2">
-        <f>IF(advert_summary!$B98=$N$1,advert_summary!L98,0)</f>
-        <v>0</v>
-      </c>
+    <row r="98" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G98" s="2"/>
+      <c r="H98" s="2"/>
+      <c r="I98" s="2"/>
+      <c r="J98" s="2"/>
+      <c r="K98" s="2"/>
+      <c r="L98" s="2"/>
     </row>
-    <row r="99" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D99" s="1">
-        <f>IF(advert_summary!$B99=$N$1,advert_summary!D99,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E99" s="1">
-        <f>IF(advert_summary!$B99=$N$1,advert_summary!E99,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F99" s="2">
-        <f>IF(advert_summary!$B99=$N$1,advert_summary!F99,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G99" s="2">
-        <f>IF(advert_summary!$B99=$N$1,advert_summary!G99,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H99" s="2">
-        <f>IF(advert_summary!$B99=$N$1,advert_summary!H99,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I99" s="2">
-        <f>IF(advert_summary!$B99=$N$1,advert_summary!I99,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J99" s="2">
-        <f>IF(advert_summary!$B99=$N$1,advert_summary!J99,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K99" s="2">
-        <f>IF(advert_summary!$B99=$N$1,advert_summary!K99,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L99" s="2">
-        <f>IF(advert_summary!$B99=$N$1,advert_summary!L99,0)</f>
-        <v>0</v>
-      </c>
+    <row r="99" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G99" s="2"/>
+      <c r="H99" s="2"/>
+      <c r="I99" s="2"/>
+      <c r="J99" s="2"/>
+      <c r="K99" s="2"/>
+      <c r="L99" s="2"/>
     </row>
-    <row r="100" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D100" s="1">
-        <f>IF(advert_summary!$B100=$N$1,advert_summary!D100,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E100" s="1">
-        <f>IF(advert_summary!$B100=$N$1,advert_summary!E100,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F100" s="2">
-        <f>IF(advert_summary!$B100=$N$1,advert_summary!F100,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G100" s="2">
-        <f>IF(advert_summary!$B100=$N$1,advert_summary!G100,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H100" s="2">
-        <f>IF(advert_summary!$B100=$N$1,advert_summary!H100,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I100" s="2">
-        <f>IF(advert_summary!$B100=$N$1,advert_summary!I100,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J100" s="2">
-        <f>IF(advert_summary!$B100=$N$1,advert_summary!J100,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K100" s="2">
-        <f>IF(advert_summary!$B100=$N$1,advert_summary!K100,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L100" s="2">
-        <f>IF(advert_summary!$B100=$N$1,advert_summary!L100,0)</f>
-        <v>0</v>
-      </c>
+    <row r="100" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G100" s="2"/>
+      <c r="H100" s="2"/>
+      <c r="I100" s="2"/>
+      <c r="J100" s="2"/>
+      <c r="K100" s="2"/>
+      <c r="L100" s="2"/>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="str">

--- a/advert_summary_yesoke.xlsx
+++ b/advert_summary_yesoke.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\ingatlan_scraper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\Other\ingatlan_scraper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E99F8965-5888-498B-81C1-A9F1E7A2EDAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{379E822B-A150-48FD-AD2B-04A7B6939BFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F02725DD-86AC-4730-8105-E0D23322A88F}"/>
+    <workbookView xWindow="23400" yWindow="5130" windowWidth="28440" windowHeight="18360" activeTab="1" xr2:uid="{F02725DD-86AC-4730-8105-E0D23322A88F}"/>
   </bookViews>
   <sheets>
     <sheet name="advert_summary" sheetId="1" r:id="rId1"/>
@@ -18,15 +18,13 @@
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">advert_summary!$K$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">advert_summary!$K$2:$K$44</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">advert_summary!$K$2:$K$89</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">advert_summary!$K$1</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">advert_summary!$K$2:$K$88</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">advert_summary!$K$2:$K$89</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">advert_summary!$K$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">advert_summary!$K$45:$K$88</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">adverts_removed!$K$1</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">adverts_removed!$K$2:$K$100</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">advert_summary!$K$2:$K$89</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">advert_summary!$K$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">advert_summary!$K$45:$K$88</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">advert_summary!$K$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">advert_summary!$K$2:$K$44</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">adverts_removed!$K$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">adverts_removed!$K$2:$K$100</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="30">
   <si>
     <t>advertId</t>
   </si>
@@ -78,57 +76,6 @@
     <t>price_change</t>
   </si>
   <si>
-    <t>Budapest III. kerĂĽlet, Aranyhegy</t>
-  </si>
-  <si>
-    <t>Budapest III. kerĂĽlet, Jutas kĂ¶z 4.</t>
-  </si>
-  <si>
-    <t>Budapest III. kerĂĽlet, ĂśrĂ¶mhegy</t>
-  </si>
-  <si>
-    <t>Budapest III. kerĂĽlet, Csillaghegy</t>
-  </si>
-  <si>
-    <t>Budapest III. kerĂĽlet, ĂśrĂ¶mfĹ± utca</t>
-  </si>
-  <si>
-    <t>Budapest XI. kerĂĽlet, MadĂˇrhegy</t>
-  </si>
-  <si>
-    <t>Budapest II. kerĂĽlet, ElĹ‘d vezĂ©r utca</t>
-  </si>
-  <si>
-    <t>Budapest XI. kerĂĽlet, Szerelmey MiklĂłs utca</t>
-  </si>
-  <si>
-    <t>Budapest III. kerĂĽlet, Tarhos utca</t>
-  </si>
-  <si>
-    <t>Budapest III. kerĂĽlet, Naplemente utca</t>
-  </si>
-  <si>
-    <t>Budapest XII. kerĂĽlet, DiĂłs Ăˇrok</t>
-  </si>
-  <si>
-    <t>Budapest XII. kerĂĽlet, DenevĂ©r Ăşt</t>
-  </si>
-  <si>
-    <t>Budapest III. kerĂĽlet, BĂ©csi Ăşt</t>
-  </si>
-  <si>
-    <t>Budapest II. kerĂĽlet, II/A kerĂĽlet - Adyliget</t>
-  </si>
-  <si>
-    <t>Budapest XI. kerĂĽlet, VerbĂ©na utca 59.</t>
-  </si>
-  <si>
-    <t>Budapest III. kerĂĽlet, VĂ­zimenta utca</t>
-  </si>
-  <si>
-    <t>Budapest XI. kerĂĽlet, Kubikos utca</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
@@ -136,6 +83,57 @@
   </si>
   <si>
     <t>last_query_date</t>
+  </si>
+  <si>
+    <t>Budapest III. kerÃ¼let, Aranyhegy</t>
+  </si>
+  <si>
+    <t>Budapest III. kerÃ¼let, Jutas kÃ¶z 4.</t>
+  </si>
+  <si>
+    <t>Budapest III. kerÃ¼let, ÃœrÃ¶mhegy</t>
+  </si>
+  <si>
+    <t>Budapest III. kerÃ¼let, Csillaghegy</t>
+  </si>
+  <si>
+    <t>Budapest III. kerÃ¼let, ÃœrÃ¶mfÅ± utca</t>
+  </si>
+  <si>
+    <t>Budapest XI. kerÃ¼let, MadÃ¡rhegy</t>
+  </si>
+  <si>
+    <t>Budapest II. kerÃ¼let, ElÅ‘d vezÃ©r utca</t>
+  </si>
+  <si>
+    <t>Budapest XI. kerÃ¼let, Szerelmey MiklÃ³s utca</t>
+  </si>
+  <si>
+    <t>Budapest III. kerÃ¼let, Tarhos utca</t>
+  </si>
+  <si>
+    <t>Budapest III. kerÃ¼let, Naplemente utca</t>
+  </si>
+  <si>
+    <t>Budapest XII. kerÃ¼let, DiÃ³s Ã¡rok</t>
+  </si>
+  <si>
+    <t>Budapest XII. kerÃ¼let, DenevÃ©r Ãºt</t>
+  </si>
+  <si>
+    <t>Budapest III. kerÃ¼let, BÃ©csi Ãºt</t>
+  </si>
+  <si>
+    <t>Budapest II. kerÃ¼let, II/A kerÃ¼let - Adyliget</t>
+  </si>
+  <si>
+    <t>Budapest XI. kerÃ¼let, VerbÃ©na utca 59.</t>
+  </si>
+  <si>
+    <t>Budapest III. kerÃ¼let, VÃ­zimenta utca</t>
+  </si>
+  <si>
+    <t>Budapest XI. kerÃ¼let, Kubikos utca</t>
   </si>
 </sst>
 </file>
@@ -1038,6 +1036,9 @@
                 <c:pt idx="87">
                   <c:v>34891614</c:v>
                 </c:pt>
+                <c:pt idx="88">
+                  <c:v>34883664</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1270,7 +1271,7 @@
                   <c:v>1.73826086956521</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.44067796610169</c:v>
+                  <c:v>1.4322033898305</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>1.3448275862068899</c:v>
@@ -1285,7 +1286,7 @@
                   <c:v>1.7333333333333301</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1.97155963302752</c:v>
+                  <c:v>1.96330275229357</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>1.7420634920634901</c:v>
@@ -1310,6 +1311,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>1.57936507936507</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.7399038461538401</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1865,6 +1869,9 @@
                 <c:pt idx="87">
                   <c:v>34891614</c:v>
                 </c:pt>
+                <c:pt idx="88">
+                  <c:v>34883664</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1899,10 +1906,10 @@
                   <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>213</c:v>
+                  <c:v>222</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>213</c:v>
+                  <c:v>222</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>5</c:v>
@@ -1911,7 +1918,7 @@
                   <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>213</c:v>
+                  <c:v>222</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>78</c:v>
@@ -1926,13 +1933,13 @@
                   <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>213</c:v>
+                  <c:v>222</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>213</c:v>
+                  <c:v>222</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>73</c:v>
@@ -1944,7 +1951,7 @@
                   <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>213</c:v>
+                  <c:v>222</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>105</c:v>
@@ -1977,7 +1984,7 @@
                   <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>180</c:v>
+                  <c:v>189</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>7</c:v>
@@ -2004,16 +2011,16 @@
                   <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>160</c:v>
+                  <c:v>169</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>154</c:v>
+                  <c:v>162</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>154</c:v>
+                  <c:v>162</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>99</c:v>
@@ -2034,7 +2041,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>136</c:v>
+                  <c:v>145</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>0</c:v>
@@ -2046,7 +2053,7 @@
                   <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>114</c:v>
+                  <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>59</c:v>
@@ -2058,7 +2065,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>108</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>59</c:v>
@@ -2067,13 +2074,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>98</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>78</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>22</c:v>
@@ -2085,57 +2092,60 @@
                   <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>53</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>53</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>49</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>49</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>44</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>42</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>26</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>26</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>26</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>26</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>26</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="87">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="88">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2452,10 +2462,10 @@
                   <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>213</c:v>
+                  <c:v>222</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>213</c:v>
+                  <c:v>222</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>5</c:v>
@@ -2464,7 +2474,7 @@
                   <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>213</c:v>
+                  <c:v>222</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>78</c:v>
@@ -2479,13 +2489,13 @@
                   <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>213</c:v>
+                  <c:v>222</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>213</c:v>
+                  <c:v>222</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>73</c:v>
@@ -2497,7 +2507,7 @@
                   <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>213</c:v>
+                  <c:v>222</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>105</c:v>
@@ -2530,7 +2540,7 @@
                   <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>180</c:v>
+                  <c:v>189</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>7</c:v>
@@ -2557,16 +2567,16 @@
                   <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>160</c:v>
+                  <c:v>169</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>154</c:v>
+                  <c:v>162</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>154</c:v>
+                  <c:v>162</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>99</c:v>
@@ -2587,7 +2597,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>136</c:v>
+                  <c:v>145</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>0</c:v>
@@ -2599,7 +2609,7 @@
                   <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>114</c:v>
+                  <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>59</c:v>
@@ -2611,7 +2621,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>108</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>59</c:v>
@@ -2620,13 +2630,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>98</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>78</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>22</c:v>
@@ -2638,55 +2648,55 @@
                   <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>53</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>53</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>49</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>49</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>44</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>42</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>26</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>26</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>26</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>26</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>26</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>0</c:v>
@@ -2923,7 +2933,7 @@
                   <c:v>199.9</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>170</c:v>
+                  <c:v>169</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>156</c:v>
@@ -2938,7 +2948,7 @@
                   <c:v>182</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>214.9</c:v>
+                  <c:v>214</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>219.5</c:v>
@@ -3249,10 +3259,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>advert_summary!$F$2:$F$89</c:f>
+              <c:f>advert_summary!$F$2:$F$90</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>171</c:v>
                 </c:pt>
@@ -3278,10 +3288,10 @@
                   <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>213</c:v>
+                  <c:v>222</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>213</c:v>
+                  <c:v>222</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>5</c:v>
@@ -3290,7 +3300,7 @@
                   <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>213</c:v>
+                  <c:v>222</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>78</c:v>
@@ -3305,13 +3315,13 @@
                   <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>213</c:v>
+                  <c:v>222</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>213</c:v>
+                  <c:v>222</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>73</c:v>
@@ -3323,7 +3333,7 @@
                   <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>213</c:v>
+                  <c:v>222</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>105</c:v>
@@ -3356,7 +3366,7 @@
                   <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>180</c:v>
+                  <c:v>189</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>7</c:v>
@@ -3383,16 +3393,16 @@
                   <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>160</c:v>
+                  <c:v>169</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>154</c:v>
+                  <c:v>162</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>154</c:v>
+                  <c:v>162</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>99</c:v>
@@ -3413,7 +3423,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>136</c:v>
+                  <c:v>145</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>0</c:v>
@@ -3425,7 +3435,7 @@
                   <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>114</c:v>
+                  <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>59</c:v>
@@ -3437,7 +3447,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>108</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>59</c:v>
@@ -3446,13 +3456,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>98</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>78</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>22</c:v>
@@ -3464,57 +3474,60 @@
                   <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>53</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>53</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>49</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>49</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>44</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>42</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>26</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>26</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>26</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>26</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>26</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="87">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="88">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3522,10 +3535,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>advert_summary!$A$2:$A$89</c:f>
+              <c:f>advert_summary!$A$2:$A$90</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="89"/>
                 <c:pt idx="0">
                   <c:v>34378761</c:v>
                 </c:pt>
@@ -3789,6 +3802,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>34891614</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>34883664</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4575,7 +4591,7 @@
                   <c:v>199.9</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>170</c:v>
+                  <c:v>169</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>156</c:v>
@@ -4590,7 +4606,7 @@
                   <c:v>182</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>214.9</c:v>
+                  <c:v>214</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>219.5</c:v>
@@ -4906,91 +4922,91 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="95"/>
                 <c:pt idx="0">
-                  <c:v>45654</c:v>
+                  <c:v>45653</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45654</c:v>
+                  <c:v>45653</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45654</c:v>
+                  <c:v>45653</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45654</c:v>
+                  <c:v>45653</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45654</c:v>
+                  <c:v>45653</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45654</c:v>
+                  <c:v>45653</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45654</c:v>
+                  <c:v>45653</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45654</c:v>
+                  <c:v>45653</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45654</c:v>
+                  <c:v>45653</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45654</c:v>
+                  <c:v>45653</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45654</c:v>
+                  <c:v>45653</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>45654</c:v>
+                  <c:v>45653</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>45654</c:v>
+                  <c:v>45653</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>45654</c:v>
+                  <c:v>45653</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>45654</c:v>
+                  <c:v>45653</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>45654</c:v>
+                  <c:v>45653</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>45654</c:v>
+                  <c:v>45653</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>45654</c:v>
+                  <c:v>45653</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>45654</c:v>
+                  <c:v>45653</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>45654</c:v>
+                  <c:v>45653</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>45654</c:v>
+                  <c:v>45653</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>45654</c:v>
+                  <c:v>45653</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>45654</c:v>
+                  <c:v>45653</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>45654</c:v>
+                  <c:v>45653</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>45654</c:v>
+                  <c:v>45653</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>45654</c:v>
+                  <c:v>45653</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>45654</c:v>
+                  <c:v>45653</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>45654</c:v>
+                  <c:v>45653</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>45654</c:v>
+                  <c:v>45653</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>45673</c:v>
@@ -5167,7 +5183,10 @@
                   <c:v>45841</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>45868</c:v>
+                  <c:v>45867</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45876</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5401,7 +5420,7 @@
                   <c:v>1.73826086956521</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.44067796610169</c:v>
+                  <c:v>1.4322033898305</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>1.3448275862068899</c:v>
@@ -5416,7 +5435,7 @@
                   <c:v>1.7333333333333301</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1.97155963302752</c:v>
+                  <c:v>1.96330275229357</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>1.7420634920634901</c:v>
@@ -5441,6 +5460,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>1.57936507936507</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.7399038461538401</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5954,7 +5976,7 @@
                   <c:v>1.73826086956521</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.44067796610169</c:v>
+                  <c:v>1.4322033898305</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>1.3448275862068899</c:v>
@@ -5969,7 +5991,7 @@
                   <c:v>1.7333333333333301</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1.97155963302752</c:v>
+                  <c:v>1.96330275229357</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>1.7420634920634901</c:v>
@@ -5994,6 +6016,9 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>1.57936507936507</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.7399038461538401</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6029,10 +6054,10 @@
                   <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>213</c:v>
+                  <c:v>222</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>213</c:v>
+                  <c:v>222</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>5</c:v>
@@ -6041,7 +6066,7 @@
                   <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>213</c:v>
+                  <c:v>222</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>78</c:v>
@@ -6056,13 +6081,13 @@
                   <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>213</c:v>
+                  <c:v>222</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>213</c:v>
+                  <c:v>222</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>73</c:v>
@@ -6074,7 +6099,7 @@
                   <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>213</c:v>
+                  <c:v>222</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>105</c:v>
@@ -6107,7 +6132,7 @@
                   <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>180</c:v>
+                  <c:v>189</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>7</c:v>
@@ -6134,16 +6159,16 @@
                   <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>160</c:v>
+                  <c:v>169</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>154</c:v>
+                  <c:v>162</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>154</c:v>
+                  <c:v>162</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>99</c:v>
@@ -6164,7 +6189,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>136</c:v>
+                  <c:v>145</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>0</c:v>
@@ -6176,7 +6201,7 @@
                   <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>114</c:v>
+                  <c:v>123</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>59</c:v>
@@ -6188,7 +6213,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>108</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>59</c:v>
@@ -6197,13 +6222,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>98</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>78</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>22</c:v>
@@ -6215,57 +6240,60 @@
                   <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>53</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>53</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>49</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>49</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>44</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>42</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>26</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>26</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>26</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>26</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>26</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="87">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="88">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -6798,7 +6826,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>0</c:v>
@@ -7068,7 +7096,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0</c:v>
+                  <c:v>1.7420634920634901</c:v>
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>0</c:v>
@@ -7285,76 +7313,787 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0">
-      <cx:tx>
-        <cx:txData>
-          <cx:v>Unit Price</cx:v>
-        </cx:txData>
-      </cx:tx>
-      <cx:txPr>
-        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
+                <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
-                </a:sysClr>
+                </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
-            </a:rPr>
-            <a:t>Unit Price</a:t>
-          </a:r>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
-      </cx:txPr>
-    </cx:title>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="clusteredColumn" uniqueId="{BCEAE2D0-D153-47B0-ADFB-39CF09B4B8F9}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.3</cx:f>
-              <cx:v>unit_price</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:binning intervalClosed="r" underflow="1.3999999999999999" overflow="auto">
-              <cx:binSize val="0.20000000000000001"/>
-            </cx:binning>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-      <cx:axis id="0">
-        <cx:catScaling gapWidth="0"/>
-        <cx:tickLabels/>
-      </cx:axis>
-      <cx:axis id="1">
-        <cx:valScaling/>
-        <cx:majorGridlines/>
-        <cx:tickLabels/>
-      </cx:axis>
-    </cx:plotArea>
-  </cx:chart>
-</cx:chartSpace>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>adverts_removed!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>unit_price</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>adverts_removed!$A$2:$A$100</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="99"/>
+                <c:pt idx="0">
+                  <c:v>34378761</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34144137</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34090899</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33484732</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34378786</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34335453</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34509222</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>33412443</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>33085862</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>34216971</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>34333588</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>34419123</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>34497250</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>34511721</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>34025501</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>34025397</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>34496580</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>32687768</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>34227039</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>34194794</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>34445329</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>33920599</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>33127761</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>34538165</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>34017384</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>34017099</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>34543570</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34565624</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>34537887</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>34576978</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>34258112</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>33898265</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>34588885</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>34596580</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>34594773</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>34594638</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>34611180</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>33512440</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>34627717</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>34644983</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>34647573</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>34650605</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>34647025</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>34655440</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>34667289</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>34678842</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>34618676</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>34701659</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>34704482</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>34702988</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>34711297</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>34484868</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>34752842</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>34752838</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>34748466</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>34607640</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>adverts_removed!$K$2:$K$100</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="99"/>
+                <c:pt idx="0">
+                  <c:v>1.51696428571428</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5684210526315701</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2909836065573701</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6955357142857099</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4607692307692299</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.8349514563106699</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.43518518518518</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.36</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.8173076923076901</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.0692307692307601</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.42635658914728</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.92913385826771</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.0409836065573699</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.0409836065573699</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.41658333333333</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.3241666666666601</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.7538461538461501</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.49923076923076</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.0409836065573699</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.2499166666666599</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.7333333333333301</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.8349514563106699</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.69</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.399</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.81023622047244</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.8611111111111101</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.5825</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.8384615384615299</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.59821428571428</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.70347826086956</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.70347826086956</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.5920000000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.4392</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.36</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.0409836065573699</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.4900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.1461538461538399</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.8443298969072099</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.7333333333333301</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.7073170731707299</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.5376068376068299</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.8074468085106301</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.75833333333333</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.9153846153846099</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.57314814814814</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.7295918367346901</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.7295918367346901</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.51696428571428</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.7399038461538401</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.73826086956521</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.3448275862068899</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.7333333333333301</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.7420634920634901</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.6658333333333299</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-296A-485D-BCB9-4F983420B02C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="873843391"/>
+        <c:axId val="873843871"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="873843391"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="34800000"/>
+          <c:min val="32000000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="873843871"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="873843871"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="873843391"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
 </file>
 
-<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
     <cx:data id="0">
@@ -7403,6 +8142,75 @@
           </cx:tx>
           <cx:dataId val="0"/>
           <cx:layoutPr>
+            <cx:binning intervalClosed="r" underflow="1.3999999999999999" overflow="auto">
+              <cx:binSize val="0.20000000000000001"/>
+            </cx:binning>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.5</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Unit Price</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+            </a:rPr>
+            <a:t>Unit Price</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{BCEAE2D0-D153-47B0-ADFB-39CF09B4B8F9}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.4</cx:f>
+              <cx:v>unit_price</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
             <cx:binning intervalClosed="r" underflow="1.3999999999999999" overflow="3">
               <cx:binSize val="0.20000000000000001"/>
             </cx:binning>
@@ -7424,6 +8232,75 @@
 </file>
 
 <file path=xl/charts/chartEx3.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.3</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Unit Price</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+            </a:rPr>
+            <a:t>Unit Price</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{BCEAE2D0-D153-47B0-ADFB-39CF09B4B8F9}" formatIdx="0">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:v>unit_price</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r" underflow="1.3999999999999999" overflow="auto">
+              <cx:binSize val="0.20000000000000001"/>
+            </cx:binning>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx4.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
     <cx:data id="0">
@@ -7463,79 +8340,10 @@
     </cx:title>
     <cx:plotArea>
       <cx:plotAreaRegion>
-        <cx:series layoutId="clusteredColumn" uniqueId="{BCEAE2D0-D153-47B0-ADFB-39CF09B4B8F9}" formatIdx="0">
+        <cx:series layoutId="clusteredColumn" uniqueId="{8A7A4F3E-4505-4690-AECD-F96129899DF7}">
           <cx:tx>
             <cx:txData>
               <cx:f>_xlchart.v1.6</cx:f>
-              <cx:v>unit_price</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:binning intervalClosed="r" underflow="1.3999999999999999" overflow="auto">
-              <cx:binSize val="0.20000000000000001"/>
-            </cx:binning>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-      <cx:axis id="0">
-        <cx:catScaling gapWidth="0"/>
-        <cx:tickLabels/>
-      </cx:axis>
-      <cx:axis id="1">
-        <cx:valScaling/>
-        <cx:majorGridlines/>
-        <cx:tickLabels/>
-      </cx:axis>
-    </cx:plotArea>
-  </cx:chart>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx4.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.9</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0">
-      <cx:tx>
-        <cx:txData>
-          <cx:v>Unit Price</cx:v>
-        </cx:txData>
-      </cx:tx>
-      <cx:txPr>
-        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:sysClr>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
-            </a:rPr>
-            <a:t>Unit Price</a:t>
-          </a:r>
-        </a:p>
-      </cx:txPr>
-    </cx:title>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="clusteredColumn" uniqueId="{8A7A4F3E-4505-4690-AECD-F96129899DF7}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.8</cx:f>
               <cx:v>unit_price</cx:v>
             </cx:txData>
           </cx:tx>
@@ -7682,6 +8490,46 @@
 </file>
 
 <file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -10089,6 +10937,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -14504,8 +15868,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="9610224" y="17339259"/>
-              <a:ext cx="4515853" cy="2893594"/>
+              <a:off x="9729537" y="16476996"/>
+              <a:ext cx="4572001" cy="2753225"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -14524,7 +15888,7 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
+                <a:rPr lang="en-GB" sz="1100"/>
                 <a:t>This chart isn't available in your version of Excel.
 Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
               </a:r>
@@ -14582,8 +15946,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="14738684" y="17420723"/>
-              <a:ext cx="4515853" cy="2883568"/>
+              <a:off x="14922166" y="16558460"/>
+              <a:ext cx="4580021" cy="2733173"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -14602,7 +15966,7 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
+                <a:rPr lang="en-GB" sz="1100"/>
                 <a:t>This chart isn't available in your version of Excel.
 Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
               </a:r>
@@ -14680,7 +16044,7 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
+                <a:rPr lang="en-GB" sz="1100"/>
                 <a:t>This chart isn't available in your version of Excel.
 Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
               </a:r>
@@ -14699,15 +16063,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>71437</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>80962</xdr:rowOff>
+      <xdr:colOff>88295</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>64104</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>483583</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>59342</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14735,15 +16099,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>110209</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>71187</xdr:rowOff>
+      <xdr:colOff>329369</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>12183</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>395959</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>7914</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>8217</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>142781</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -14779,8 +16143,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="15245434" y="261687"/>
-              <a:ext cx="4552950" cy="2794227"/>
+              <a:off x="15409214" y="1175413"/>
+              <a:ext cx="4534069" cy="2844802"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -14799,7 +16163,7 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
+                <a:rPr lang="en-GB" sz="1100"/>
                 <a:t>This chart isn't available in your version of Excel.
 Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
               </a:r>
@@ -14808,6 +16172,44 @@
         </xdr:sp>
       </mc:Fallback>
     </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>573186</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>189110</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17D3C61E-D006-4A13-815B-078B4E3D7423}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -15130,10 +16532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E3D8E08-B692-4D91-B61E-26C54386320F}">
-  <dimension ref="A1:L89"/>
+  <dimension ref="A1:L90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="115" workbookViewId="0">
-      <selection activeCell="AB13" sqref="AB13"/>
+    <sheetView topLeftCell="N1" zoomScale="115" workbookViewId="0">
+      <selection activeCell="N83" sqref="N83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15146,7 +16548,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -15155,7 +16557,7 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -15187,10 +16589,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1">
-        <v>45654</v>
+        <v>45653</v>
       </c>
       <c r="E2" s="1">
         <v>45825</v>
@@ -15225,10 +16627,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1">
-        <v>45654</v>
+        <v>45653</v>
       </c>
       <c r="E3" s="1">
         <v>45673</v>
@@ -15263,10 +16665,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1">
-        <v>45654</v>
+        <v>45653</v>
       </c>
       <c r="E4" s="1">
         <v>45727</v>
@@ -15301,10 +16703,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D5" s="1">
-        <v>45654</v>
+        <v>45653</v>
       </c>
       <c r="E5" s="1">
         <v>45680</v>
@@ -15339,10 +16741,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D6" s="1">
-        <v>45654</v>
+        <v>45653</v>
       </c>
       <c r="E6" s="1">
         <v>45851</v>
@@ -15377,10 +16779,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D7" s="1">
-        <v>45654</v>
+        <v>45653</v>
       </c>
       <c r="E7" s="1">
         <v>45713</v>
@@ -15415,10 +16817,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D8" s="1">
-        <v>45654</v>
+        <v>45653</v>
       </c>
       <c r="E8" s="1">
         <v>45670</v>
@@ -15453,10 +16855,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D9" s="1">
-        <v>45654</v>
+        <v>45653</v>
       </c>
       <c r="E9" s="1">
         <v>45732</v>
@@ -15491,16 +16893,16 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D10" s="1">
-        <v>45654</v>
+        <v>45653</v>
       </c>
       <c r="E10" s="1">
-        <v>45868</v>
+        <v>45876</v>
       </c>
       <c r="F10">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="G10">
         <v>182</v>
@@ -15529,16 +16931,16 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D11" s="1">
-        <v>45654</v>
+        <v>45653</v>
       </c>
       <c r="E11" s="1">
-        <v>45868</v>
+        <v>45876</v>
       </c>
       <c r="F11">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="G11">
         <v>228</v>
@@ -15567,10 +16969,10 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D12" s="1">
-        <v>45654</v>
+        <v>45653</v>
       </c>
       <c r="E12" s="1">
         <v>45659</v>
@@ -15605,10 +17007,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D13" s="1">
-        <v>45654</v>
+        <v>45653</v>
       </c>
       <c r="E13" s="1">
         <v>45722</v>
@@ -15643,16 +17045,16 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D14" s="1">
-        <v>45654</v>
+        <v>45653</v>
       </c>
       <c r="E14" s="1">
-        <v>45868</v>
+        <v>45876</v>
       </c>
       <c r="F14">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="G14">
         <v>179.9</v>
@@ -15681,10 +17083,10 @@
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D15" s="1">
-        <v>45654</v>
+        <v>45653</v>
       </c>
       <c r="E15" s="1">
         <v>45732</v>
@@ -15719,10 +17121,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D16" s="1">
-        <v>45654</v>
+        <v>45653</v>
       </c>
       <c r="E16" s="1">
         <v>45660</v>
@@ -15757,10 +17159,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D17" s="1">
-        <v>45654</v>
+        <v>45653</v>
       </c>
       <c r="E17" s="1">
         <v>45719</v>
@@ -15795,10 +17197,10 @@
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D18" s="1">
-        <v>45654</v>
+        <v>45653</v>
       </c>
       <c r="E18" s="1">
         <v>45680</v>
@@ -15833,16 +17235,16 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D19" s="1">
-        <v>45654</v>
+        <v>45653</v>
       </c>
       <c r="E19" s="1">
-        <v>45868</v>
+        <v>45876</v>
       </c>
       <c r="F19">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="G19">
         <v>265</v>
@@ -15871,10 +17273,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D20" s="1">
-        <v>45654</v>
+        <v>45653</v>
       </c>
       <c r="E20" s="1">
         <v>45727</v>
@@ -15909,16 +17311,16 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D21" s="1">
-        <v>45654</v>
+        <v>45653</v>
       </c>
       <c r="E21" s="1">
-        <v>45868</v>
+        <v>45876</v>
       </c>
       <c r="F21">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="G21">
         <v>265</v>
@@ -15947,10 +17349,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D22" s="1">
-        <v>45654</v>
+        <v>45653</v>
       </c>
       <c r="E22" s="1">
         <v>45727</v>
@@ -15985,10 +17387,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D23" s="1">
-        <v>45654</v>
+        <v>45653</v>
       </c>
       <c r="E23" s="1">
         <v>45825</v>
@@ -16023,10 +17425,10 @@
         <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D24" s="1">
-        <v>45654</v>
+        <v>45653</v>
       </c>
       <c r="E24" s="1">
         <v>45772</v>
@@ -16061,16 +17463,16 @@
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D25" s="1">
-        <v>45654</v>
+        <v>45653</v>
       </c>
       <c r="E25" s="1">
-        <v>45868</v>
+        <v>45876</v>
       </c>
       <c r="F25">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="G25">
         <v>265</v>
@@ -16099,10 +17501,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D26" s="1">
-        <v>45654</v>
+        <v>45653</v>
       </c>
       <c r="E26" s="1">
         <v>45759</v>
@@ -16137,10 +17539,10 @@
         <v>0</v>
       </c>
       <c r="C27" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D27" s="1">
-        <v>45654</v>
+        <v>45653</v>
       </c>
       <c r="E27" s="1">
         <v>45663</v>
@@ -16175,10 +17577,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D28" s="1">
-        <v>45654</v>
+        <v>45653</v>
       </c>
       <c r="E28" s="1">
         <v>45841</v>
@@ -16213,10 +17615,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D29" s="1">
-        <v>45654</v>
+        <v>45653</v>
       </c>
       <c r="E29" s="1">
         <v>45768</v>
@@ -16251,10 +17653,10 @@
         <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D30" s="1">
-        <v>45654</v>
+        <v>45653</v>
       </c>
       <c r="E30" s="1">
         <v>45722</v>
@@ -16289,7 +17691,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D31" s="1">
         <v>45673</v>
@@ -16327,7 +17729,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D32" s="1">
         <v>45677</v>
@@ -16365,7 +17767,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D33" s="1">
         <v>45677</v>
@@ -16403,7 +17805,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D34" s="1">
         <v>45677</v>
@@ -16441,7 +17843,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D35" s="1">
         <v>45687</v>
@@ -16479,16 +17881,16 @@
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D36" s="1">
         <v>45687</v>
       </c>
       <c r="E36" s="1">
-        <v>45868</v>
+        <v>45876</v>
       </c>
       <c r="F36">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="G36">
         <v>192</v>
@@ -16517,7 +17919,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D37" s="1">
         <v>45696</v>
@@ -16555,7 +17957,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D38" s="1">
         <v>45696</v>
@@ -16593,7 +17995,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D39" s="1">
         <v>45696</v>
@@ -16631,7 +18033,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D40" s="1">
         <v>45696</v>
@@ -16669,7 +18071,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D41" s="1">
         <v>45698</v>
@@ -16707,7 +18109,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D42" s="1">
         <v>45703</v>
@@ -16745,7 +18147,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D43" s="1">
         <v>45703</v>
@@ -16783,7 +18185,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D44" s="1">
         <v>45703</v>
@@ -16821,16 +18223,16 @@
         <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D45" s="1">
         <v>45707</v>
       </c>
       <c r="E45" s="1">
-        <v>45868</v>
+        <v>45876</v>
       </c>
       <c r="F45">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="G45">
         <v>214</v>
@@ -16859,7 +18261,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D46" s="1">
         <v>45713</v>
@@ -16897,16 +18299,16 @@
         <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D47" s="1">
         <v>45713</v>
       </c>
       <c r="E47" s="1">
-        <v>45868</v>
+        <v>45876</v>
       </c>
       <c r="F47">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="G47">
         <v>180.95</v>
@@ -16935,16 +18337,16 @@
         <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D48" s="1">
         <v>45713</v>
       </c>
       <c r="E48" s="1">
-        <v>45868</v>
+        <v>45876</v>
       </c>
       <c r="F48">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="G48">
         <v>189.9</v>
@@ -16973,7 +18375,7 @@
         <v>0</v>
       </c>
       <c r="C49" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D49" s="1">
         <v>45719</v>
@@ -17011,7 +18413,7 @@
         <v>0</v>
       </c>
       <c r="C50" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D50" s="1">
         <v>45719</v>
@@ -17049,7 +18451,7 @@
         <v>0</v>
       </c>
       <c r="C51" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D51" s="1">
         <v>45727</v>
@@ -17087,13 +18489,13 @@
         <v>0</v>
       </c>
       <c r="C52" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D52" s="1">
         <v>45731</v>
       </c>
       <c r="E52" s="1">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="F52">
         <v>36</v>
@@ -17125,7 +18527,7 @@
         <v>0</v>
       </c>
       <c r="C53" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D53" s="1">
         <v>45731</v>
@@ -17163,7 +18565,7 @@
         <v>0</v>
       </c>
       <c r="C54" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D54" s="1">
         <v>45731</v>
@@ -17201,16 +18603,16 @@
         <v>1</v>
       </c>
       <c r="C55" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D55" s="1">
         <v>45731</v>
       </c>
       <c r="E55" s="1">
-        <v>45868</v>
+        <v>45876</v>
       </c>
       <c r="F55">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="G55">
         <v>249</v>
@@ -17239,7 +18641,7 @@
         <v>0</v>
       </c>
       <c r="C56" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D56" s="1">
         <v>45732</v>
@@ -17277,7 +18679,7 @@
         <v>0</v>
       </c>
       <c r="C57" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D57" s="1">
         <v>45753</v>
@@ -17315,7 +18717,7 @@
         <v>0</v>
       </c>
       <c r="C58" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D58" s="1">
         <v>45753</v>
@@ -17353,16 +18755,16 @@
         <v>1</v>
       </c>
       <c r="C59" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D59" s="1">
         <v>45753</v>
       </c>
       <c r="E59" s="1">
-        <v>45868</v>
+        <v>45876</v>
       </c>
       <c r="F59">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="G59">
         <v>224</v>
@@ -17391,7 +18793,7 @@
         <v>0</v>
       </c>
       <c r="C60" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D60" s="1">
         <v>45753</v>
@@ -17429,7 +18831,7 @@
         <v>0</v>
       </c>
       <c r="C61" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D61" s="1">
         <v>45759</v>
@@ -17467,7 +18869,7 @@
         <v>0</v>
       </c>
       <c r="C62" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D62" s="1">
         <v>45759</v>
@@ -17505,16 +18907,16 @@
         <v>1</v>
       </c>
       <c r="C63" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D63" s="1">
         <v>45759</v>
       </c>
       <c r="E63" s="1">
-        <v>45868</v>
+        <v>45876</v>
       </c>
       <c r="F63">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="G63">
         <v>220</v>
@@ -17543,7 +18945,7 @@
         <v>0</v>
       </c>
       <c r="C64" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D64" s="1">
         <v>45759</v>
@@ -17581,7 +18983,7 @@
         <v>0</v>
       </c>
       <c r="C65" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D65" s="1">
         <v>45768</v>
@@ -17619,16 +19021,16 @@
         <v>1</v>
       </c>
       <c r="C66" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D66" s="1">
         <v>45769</v>
       </c>
       <c r="E66" s="1">
-        <v>45868</v>
+        <v>45876</v>
       </c>
       <c r="F66">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="G66">
         <v>259.89999999999998</v>
@@ -17657,7 +19059,7 @@
         <v>0</v>
       </c>
       <c r="C67" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D67" s="1">
         <v>45773</v>
@@ -17695,16 +19097,16 @@
         <v>1</v>
       </c>
       <c r="C68" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D68" s="1">
         <v>45789</v>
       </c>
       <c r="E68" s="1">
-        <v>45868</v>
+        <v>45876</v>
       </c>
       <c r="F68">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G68">
         <v>229</v>
@@ -17733,7 +19135,7 @@
         <v>0</v>
       </c>
       <c r="C69" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D69" s="1">
         <v>45789</v>
@@ -17771,7 +19173,7 @@
         <v>0</v>
       </c>
       <c r="C70" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D70" s="1">
         <v>45789</v>
@@ -17809,7 +19211,7 @@
         <v>0</v>
       </c>
       <c r="C71" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D71" s="1">
         <v>45789</v>
@@ -17847,16 +19249,16 @@
         <v>1</v>
       </c>
       <c r="C72" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D72" s="1">
         <v>45814</v>
       </c>
       <c r="E72" s="1">
-        <v>45868</v>
+        <v>45876</v>
       </c>
       <c r="F72">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="G72">
         <v>180.95</v>
@@ -17885,7 +19287,7 @@
         <v>0</v>
       </c>
       <c r="C73" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D73" s="1">
         <v>45814</v>
@@ -17923,16 +19325,16 @@
         <v>1</v>
       </c>
       <c r="C74" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D74" s="1">
         <v>45814</v>
       </c>
       <c r="E74" s="1">
-        <v>45868</v>
+        <v>45876</v>
       </c>
       <c r="F74">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="G74">
         <v>214.9</v>
@@ -17961,7 +19363,7 @@
         <v>0</v>
       </c>
       <c r="C75" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D75" s="1">
         <v>45814</v>
@@ -17999,22 +19401,22 @@
         <v>1</v>
       </c>
       <c r="C76" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D76" s="1">
         <v>45818</v>
       </c>
       <c r="E76" s="1">
-        <v>45868</v>
+        <v>45876</v>
       </c>
       <c r="F76">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="G76">
         <v>199</v>
       </c>
       <c r="H76">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I76">
         <v>118</v>
@@ -18023,10 +19425,10 @@
         <v>4</v>
       </c>
       <c r="K76">
-        <v>1.44067796610169</v>
+        <v>1.4322033898305</v>
       </c>
       <c r="L76">
-        <v>-29</v>
+        <v>-30</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
@@ -18037,7 +19439,7 @@
         <v>0</v>
       </c>
       <c r="C77" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D77" s="1">
         <v>45818</v>
@@ -18075,16 +19477,16 @@
         <v>1</v>
       </c>
       <c r="C78" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D78" s="1">
         <v>45818</v>
       </c>
       <c r="E78" s="1">
-        <v>45868</v>
+        <v>45876</v>
       </c>
       <c r="F78">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="G78">
         <v>191</v>
@@ -18113,16 +19515,16 @@
         <v>1</v>
       </c>
       <c r="C79" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D79" s="1">
         <v>45823</v>
       </c>
       <c r="E79" s="1">
-        <v>45868</v>
+        <v>45876</v>
       </c>
       <c r="F79">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G79">
         <v>225.9</v>
@@ -18151,7 +19553,7 @@
         <v>0</v>
       </c>
       <c r="C80" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D80" s="1">
         <v>45823</v>
@@ -18189,22 +19591,22 @@
         <v>1</v>
       </c>
       <c r="C81" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D81" s="1">
         <v>45825</v>
       </c>
       <c r="E81" s="1">
-        <v>45868</v>
+        <v>45876</v>
       </c>
       <c r="F81">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G81">
         <v>219</v>
       </c>
       <c r="H81">
-        <v>214.9</v>
+        <v>214</v>
       </c>
       <c r="I81">
         <v>109</v>
@@ -18213,10 +19615,10 @@
         <v>5.5</v>
       </c>
       <c r="K81">
-        <v>1.97155963302752</v>
+        <v>1.96330275229357</v>
       </c>
       <c r="L81">
-        <v>-4.0999999999999899</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
@@ -18224,16 +19626,16 @@
         <v>34849647</v>
       </c>
       <c r="B82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C82" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D82" s="1">
         <v>45841</v>
       </c>
       <c r="E82" s="1">
-        <v>45868</v>
+        <v>45867</v>
       </c>
       <c r="F82">
         <v>26</v>
@@ -18265,16 +19667,16 @@
         <v>1</v>
       </c>
       <c r="C83" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D83" s="1">
         <v>45841</v>
       </c>
       <c r="E83" s="1">
-        <v>45868</v>
+        <v>45876</v>
       </c>
       <c r="F83">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="G83">
         <v>179</v>
@@ -18303,7 +19705,7 @@
         <v>0</v>
       </c>
       <c r="C84" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D84" s="1">
         <v>45841</v>
@@ -18341,16 +19743,16 @@
         <v>1</v>
       </c>
       <c r="C85" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D85" s="1">
         <v>45841</v>
       </c>
       <c r="E85" s="1">
-        <v>45868</v>
+        <v>45876</v>
       </c>
       <c r="F85">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="G85">
         <v>150</v>
@@ -18379,16 +19781,16 @@
         <v>1</v>
       </c>
       <c r="C86" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D86" s="1">
         <v>45841</v>
       </c>
       <c r="E86" s="1">
-        <v>45868</v>
+        <v>45876</v>
       </c>
       <c r="F86">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="G86">
         <v>184</v>
@@ -18417,16 +19819,16 @@
         <v>1</v>
       </c>
       <c r="C87" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D87" s="1">
         <v>45841</v>
       </c>
       <c r="E87" s="1">
-        <v>45868</v>
+        <v>45876</v>
       </c>
       <c r="F87">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="G87">
         <v>229</v>
@@ -18455,16 +19857,16 @@
         <v>1</v>
       </c>
       <c r="C88" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D88" s="1">
         <v>45841</v>
       </c>
       <c r="E88" s="1">
-        <v>45868</v>
+        <v>45876</v>
       </c>
       <c r="F88">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="G88">
         <v>370</v>
@@ -18490,16 +19892,16 @@
         <v>34891614</v>
       </c>
       <c r="B89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C89" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D89" s="1">
-        <v>45868</v>
+        <v>45867</v>
       </c>
       <c r="E89" s="1">
-        <v>45868</v>
+        <v>45867</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -18520,6 +19922,44 @@
         <v>1.57936507936507</v>
       </c>
       <c r="L89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>34883664</v>
+      </c>
+      <c r="B90" t="b">
+        <v>1</v>
+      </c>
+      <c r="C90" t="s">
+        <v>10</v>
+      </c>
+      <c r="D90" s="1">
+        <v>45876</v>
+      </c>
+      <c r="E90" s="1">
+        <v>45876</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>180.95</v>
+      </c>
+      <c r="H90">
+        <v>180.95</v>
+      </c>
+      <c r="I90">
+        <v>104</v>
+      </c>
+      <c r="J90">
+        <v>4</v>
+      </c>
+      <c r="K90">
+        <v>1.7399038461538401</v>
+      </c>
+      <c r="L90">
         <v>0</v>
       </c>
     </row>
@@ -18533,8 +19973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2028B189-73B4-4612-A074-1CA186AB1A38}">
   <dimension ref="A1:R115"/>
   <sheetViews>
-    <sheetView topLeftCell="G6" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
-      <selection activeCell="D89" sqref="D89:O103"/>
+    <sheetView tabSelected="1" topLeftCell="G23" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
+      <selection activeCell="W41" sqref="W41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18550,7 +19990,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -18559,7 +19999,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>3</v>
@@ -18601,7 +20041,7 @@
       </c>
       <c r="D2" s="1">
         <f>IF(advert_summary!$B2=$N$1,advert_summary!D2,0)</f>
-        <v>45654</v>
+        <v>45653</v>
       </c>
       <c r="E2" s="1">
         <f>IF(advert_summary!$B2=$N$1,advert_summary!E2,0)</f>
@@ -18671,11 +20111,11 @@
       </c>
       <c r="C3" t="str">
         <f>IF(advert_summary!$B3=$N$1,advert_summary!C3,"")</f>
-        <v>Budapest III. kerĂĽlet, Aranyhegy</v>
+        <v>Budapest III. kerÃ¼let, Aranyhegy</v>
       </c>
       <c r="D3" s="1">
         <f>IF(advert_summary!$B3=$N$1,advert_summary!D3,0)</f>
-        <v>45654</v>
+        <v>45653</v>
       </c>
       <c r="E3" s="1">
         <f>IF(advert_summary!$B3=$N$1,advert_summary!E3,0)</f>
@@ -18721,11 +20161,11 @@
       </c>
       <c r="C4" t="str">
         <f>IF(advert_summary!$B4=$N$1,advert_summary!C4,"")</f>
-        <v>Budapest III. kerĂĽlet, Jutas kĂ¶z 4.</v>
+        <v>Budapest III. kerÃ¼let, Jutas kÃ¶z 4.</v>
       </c>
       <c r="D4" s="1">
         <f>IF(advert_summary!$B4=$N$1,advert_summary!D4,0)</f>
-        <v>45654</v>
+        <v>45653</v>
       </c>
       <c r="E4" s="1">
         <f>IF(advert_summary!$B4=$N$1,advert_summary!E4,0)</f>
@@ -18771,11 +20211,11 @@
       </c>
       <c r="C5" t="str">
         <f>IF(advert_summary!$B5=$N$1,advert_summary!C5,"")</f>
-        <v>Budapest III. kerĂĽlet, Aranyhegy</v>
+        <v>Budapest III. kerÃ¼let, Aranyhegy</v>
       </c>
       <c r="D5" s="1">
         <f>IF(advert_summary!$B5=$N$1,advert_summary!D5,0)</f>
-        <v>45654</v>
+        <v>45653</v>
       </c>
       <c r="E5" s="1">
         <f>IF(advert_summary!$B5=$N$1,advert_summary!E5,0)</f>
@@ -18825,7 +20265,7 @@
       </c>
       <c r="D6" s="1">
         <f>IF(advert_summary!$B6=$N$1,advert_summary!D6,0)</f>
-        <v>45654</v>
+        <v>45653</v>
       </c>
       <c r="E6" s="1">
         <f>IF(advert_summary!$B6=$N$1,advert_summary!E6,0)</f>
@@ -18871,11 +20311,11 @@
       </c>
       <c r="C7" t="str">
         <f>IF(advert_summary!$B7=$N$1,advert_summary!C7,"")</f>
-        <v>Budapest III. kerĂĽlet, ĂśrĂ¶mhegy</v>
+        <v>Budapest III. kerÃ¼let, ÃœrÃ¶mhegy</v>
       </c>
       <c r="D7" s="1">
         <f>IF(advert_summary!$B7=$N$1,advert_summary!D7,0)</f>
-        <v>45654</v>
+        <v>45653</v>
       </c>
       <c r="E7" s="1">
         <f>IF(advert_summary!$B7=$N$1,advert_summary!E7,0)</f>
@@ -18921,11 +20361,11 @@
       </c>
       <c r="C8" t="str">
         <f>IF(advert_summary!$B8=$N$1,advert_summary!C8,"")</f>
-        <v>Budapest III. kerĂĽlet, ĂśrĂ¶mhegy</v>
+        <v>Budapest III. kerÃ¼let, ÃœrÃ¶mhegy</v>
       </c>
       <c r="D8" s="1">
         <f>IF(advert_summary!$B8=$N$1,advert_summary!D8,0)</f>
-        <v>45654</v>
+        <v>45653</v>
       </c>
       <c r="E8" s="1">
         <f>IF(advert_summary!$B8=$N$1,advert_summary!E8,0)</f>
@@ -18971,11 +20411,11 @@
       </c>
       <c r="C9" t="str">
         <f>IF(advert_summary!$B9=$N$1,advert_summary!C9,"")</f>
-        <v>Budapest III. kerĂĽlet, Csillaghegy</v>
+        <v>Budapest III. kerÃ¼let, Csillaghegy</v>
       </c>
       <c r="D9" s="1">
         <f>IF(advert_summary!$B9=$N$1,advert_summary!D9,0)</f>
-        <v>45654</v>
+        <v>45653</v>
       </c>
       <c r="E9" s="1">
         <f>IF(advert_summary!$B9=$N$1,advert_summary!E9,0)</f>
@@ -19121,11 +20561,11 @@
       </c>
       <c r="C12" t="str">
         <f>IF(advert_summary!$B12=$N$1,advert_summary!C12,"")</f>
-        <v>Budapest III. kerĂĽlet, Aranyhegy</v>
+        <v>Budapest III. kerÃ¼let, Aranyhegy</v>
       </c>
       <c r="D12" s="1">
         <f>IF(advert_summary!$B12=$N$1,advert_summary!D12,0)</f>
-        <v>45654</v>
+        <v>45653</v>
       </c>
       <c r="E12" s="1">
         <f>IF(advert_summary!$B12=$N$1,advert_summary!E12,0)</f>
@@ -19171,11 +20611,11 @@
       </c>
       <c r="C13" t="str">
         <f>IF(advert_summary!$B13=$N$1,advert_summary!C13,"")</f>
-        <v>Budapest III. kerĂĽlet, Csillaghegy</v>
+        <v>Budapest III. kerÃ¼let, Csillaghegy</v>
       </c>
       <c r="D13" s="1">
         <f>IF(advert_summary!$B13=$N$1,advert_summary!D13,0)</f>
-        <v>45654</v>
+        <v>45653</v>
       </c>
       <c r="E13" s="1">
         <f>IF(advert_summary!$B13=$N$1,advert_summary!E13,0)</f>
@@ -19271,11 +20711,11 @@
       </c>
       <c r="C15" t="str">
         <f>IF(advert_summary!$B15=$N$1,advert_summary!C15,"")</f>
-        <v>Budapest III. kerĂĽlet, ĂśrĂ¶mfĹ± utca</v>
+        <v>Budapest III. kerÃ¼let, ÃœrÃ¶mfÅ± utca</v>
       </c>
       <c r="D15" s="1">
         <f>IF(advert_summary!$B15=$N$1,advert_summary!D15,0)</f>
-        <v>45654</v>
+        <v>45653</v>
       </c>
       <c r="E15" s="1">
         <f>IF(advert_summary!$B15=$N$1,advert_summary!E15,0)</f>
@@ -19321,11 +20761,11 @@
       </c>
       <c r="C16" t="str">
         <f>IF(advert_summary!$B16=$N$1,advert_summary!C16,"")</f>
-        <v>Budapest III. kerĂĽlet, Csillaghegy</v>
+        <v>Budapest III. kerÃ¼let, Csillaghegy</v>
       </c>
       <c r="D16" s="1">
         <f>IF(advert_summary!$B16=$N$1,advert_summary!D16,0)</f>
-        <v>45654</v>
+        <v>45653</v>
       </c>
       <c r="E16" s="1">
         <f>IF(advert_summary!$B16=$N$1,advert_summary!E16,0)</f>
@@ -19371,11 +20811,11 @@
       </c>
       <c r="C17" t="str">
         <f>IF(advert_summary!$B17=$N$1,advert_summary!C17,"")</f>
-        <v>Budapest XI. kerĂĽlet, MadĂˇrhegy</v>
+        <v>Budapest XI. kerÃ¼let, MadÃ¡rhegy</v>
       </c>
       <c r="D17" s="1">
         <f>IF(advert_summary!$B17=$N$1,advert_summary!D17,0)</f>
-        <v>45654</v>
+        <v>45653</v>
       </c>
       <c r="E17" s="1">
         <f>IF(advert_summary!$B17=$N$1,advert_summary!E17,0)</f>
@@ -19421,11 +20861,11 @@
       </c>
       <c r="C18" t="str">
         <f>IF(advert_summary!$B18=$N$1,advert_summary!C18,"")</f>
-        <v>Budapest III. kerĂĽlet, ĂśrĂ¶mhegy</v>
+        <v>Budapest III. kerÃ¼let, ÃœrÃ¶mhegy</v>
       </c>
       <c r="D18" s="1">
         <f>IF(advert_summary!$B18=$N$1,advert_summary!D18,0)</f>
-        <v>45654</v>
+        <v>45653</v>
       </c>
       <c r="E18" s="1">
         <f>IF(advert_summary!$B18=$N$1,advert_summary!E18,0)</f>
@@ -19521,11 +20961,11 @@
       </c>
       <c r="C20" t="str">
         <f>IF(advert_summary!$B20=$N$1,advert_summary!C20,"")</f>
-        <v>Budapest II. kerĂĽlet, ElĹ‘d vezĂ©r utca</v>
+        <v>Budapest II. kerÃ¼let, ElÅ‘d vezÃ©r utca</v>
       </c>
       <c r="D20" s="1">
         <f>IF(advert_summary!$B20=$N$1,advert_summary!D20,0)</f>
-        <v>45654</v>
+        <v>45653</v>
       </c>
       <c r="E20" s="1">
         <f>IF(advert_summary!$B20=$N$1,advert_summary!E20,0)</f>
@@ -19621,11 +21061,11 @@
       </c>
       <c r="C22" t="str">
         <f>IF(advert_summary!$B22=$N$1,advert_summary!C22,"")</f>
-        <v>Budapest II. kerĂĽlet, ElĹ‘d vezĂ©r utca</v>
+        <v>Budapest II. kerÃ¼let, ElÅ‘d vezÃ©r utca</v>
       </c>
       <c r="D22" s="1">
         <f>IF(advert_summary!$B22=$N$1,advert_summary!D22,0)</f>
-        <v>45654</v>
+        <v>45653</v>
       </c>
       <c r="E22" s="1">
         <f>IF(advert_summary!$B22=$N$1,advert_summary!E22,0)</f>
@@ -19675,7 +21115,7 @@
       </c>
       <c r="D23" s="1">
         <f>IF(advert_summary!$B23=$N$1,advert_summary!D23,0)</f>
-        <v>45654</v>
+        <v>45653</v>
       </c>
       <c r="E23" s="1">
         <f>IF(advert_summary!$B23=$N$1,advert_summary!E23,0)</f>
@@ -19721,11 +21161,11 @@
       </c>
       <c r="C24" t="str">
         <f>IF(advert_summary!$B24=$N$1,advert_summary!C24,"")</f>
-        <v>Budapest III. kerĂĽlet, Csillaghegy</v>
+        <v>Budapest III. kerÃ¼let, Csillaghegy</v>
       </c>
       <c r="D24" s="1">
         <f>IF(advert_summary!$B24=$N$1,advert_summary!D24,0)</f>
-        <v>45654</v>
+        <v>45653</v>
       </c>
       <c r="E24" s="1">
         <f>IF(advert_summary!$B24=$N$1,advert_summary!E24,0)</f>
@@ -19821,11 +21261,11 @@
       </c>
       <c r="C26" t="str">
         <f>IF(advert_summary!$B26=$N$1,advert_summary!C26,"")</f>
-        <v>Budapest XI. kerĂĽlet, Szerelmey MiklĂłs utca</v>
+        <v>Budapest XI. kerÃ¼let, Szerelmey MiklÃ³s utca</v>
       </c>
       <c r="D26" s="1">
         <f>IF(advert_summary!$B26=$N$1,advert_summary!D26,0)</f>
-        <v>45654</v>
+        <v>45653</v>
       </c>
       <c r="E26" s="1">
         <f>IF(advert_summary!$B26=$N$1,advert_summary!E26,0)</f>
@@ -19871,11 +21311,11 @@
       </c>
       <c r="C27" t="str">
         <f>IF(advert_summary!$B27=$N$1,advert_summary!C27,"")</f>
-        <v>Budapest III. kerĂĽlet, Tarhos utca</v>
+        <v>Budapest III. kerÃ¼let, Tarhos utca</v>
       </c>
       <c r="D27" s="1">
         <f>IF(advert_summary!$B27=$N$1,advert_summary!D27,0)</f>
-        <v>45654</v>
+        <v>45653</v>
       </c>
       <c r="E27" s="1">
         <f>IF(advert_summary!$B27=$N$1,advert_summary!E27,0)</f>
@@ -19925,7 +21365,7 @@
       </c>
       <c r="D28" s="1">
         <f>IF(advert_summary!$B28=$N$1,advert_summary!D28,0)</f>
-        <v>45654</v>
+        <v>45653</v>
       </c>
       <c r="E28" s="1">
         <f>IF(advert_summary!$B28=$N$1,advert_summary!E28,0)</f>
@@ -19971,11 +21411,11 @@
       </c>
       <c r="C29" t="str">
         <f>IF(advert_summary!$B29=$N$1,advert_summary!C29,"")</f>
-        <v>Budapest III. kerĂĽlet, Naplemente utca</v>
+        <v>Budapest III. kerÃ¼let, Naplemente utca</v>
       </c>
       <c r="D29" s="1">
         <f>IF(advert_summary!$B29=$N$1,advert_summary!D29,0)</f>
-        <v>45654</v>
+        <v>45653</v>
       </c>
       <c r="E29" s="1">
         <f>IF(advert_summary!$B29=$N$1,advert_summary!E29,0)</f>
@@ -20021,11 +21461,11 @@
       </c>
       <c r="C30" t="str">
         <f>IF(advert_summary!$B30=$N$1,advert_summary!C30,"")</f>
-        <v>Budapest III. kerĂĽlet, ĂśrĂ¶mhegy</v>
+        <v>Budapest III. kerÃ¼let, ÃœrÃ¶mhegy</v>
       </c>
       <c r="D30" s="1">
         <f>IF(advert_summary!$B30=$N$1,advert_summary!D30,0)</f>
-        <v>45654</v>
+        <v>45653</v>
       </c>
       <c r="E30" s="1">
         <f>IF(advert_summary!$B30=$N$1,advert_summary!E30,0)</f>
@@ -20071,7 +21511,7 @@
       </c>
       <c r="C31" t="str">
         <f>IF(advert_summary!$B31=$N$1,advert_summary!C31,"")</f>
-        <v>Budapest III. kerĂĽlet, ĂśrĂ¶mhegy</v>
+        <v>Budapest III. kerÃ¼let, ÃœrÃ¶mhegy</v>
       </c>
       <c r="D31" s="1">
         <f>IF(advert_summary!$B31=$N$1,advert_summary!D31,0)</f>
@@ -20121,7 +21561,7 @@
       </c>
       <c r="C32" t="str">
         <f>IF(advert_summary!$B32=$N$1,advert_summary!C32,"")</f>
-        <v>Budapest XII. kerĂĽlet, DiĂłs Ăˇrok</v>
+        <v>Budapest XII. kerÃ¼let, DiÃ³s Ã¡rok</v>
       </c>
       <c r="D32" s="1">
         <f>IF(advert_summary!$B32=$N$1,advert_summary!D32,0)</f>
@@ -20171,7 +21611,7 @@
       </c>
       <c r="C33" t="str">
         <f>IF(advert_summary!$B33=$N$1,advert_summary!C33,"")</f>
-        <v>Budapest III. kerĂĽlet, Csillaghegy</v>
+        <v>Budapest III. kerÃ¼let, Csillaghegy</v>
       </c>
       <c r="D33" s="1">
         <f>IF(advert_summary!$B33=$N$1,advert_summary!D33,0)</f>
@@ -20221,7 +21661,7 @@
       </c>
       <c r="C34" t="str">
         <f>IF(advert_summary!$B34=$N$1,advert_summary!C34,"")</f>
-        <v>Budapest III. kerĂĽlet, ĂśrĂ¶mhegy</v>
+        <v>Budapest III. kerÃ¼let, ÃœrÃ¶mhegy</v>
       </c>
       <c r="D34" s="1">
         <f>IF(advert_summary!$B34=$N$1,advert_summary!D34,0)</f>
@@ -20271,7 +21711,7 @@
       </c>
       <c r="C35" t="str">
         <f>IF(advert_summary!$B35=$N$1,advert_summary!C35,"")</f>
-        <v>Budapest III. kerĂĽlet, ĂśrĂ¶mhegy</v>
+        <v>Budapest III. kerÃ¼let, ÃœrÃ¶mhegy</v>
       </c>
       <c r="D35" s="1">
         <f>IF(advert_summary!$B35=$N$1,advert_summary!D35,0)</f>
@@ -20371,7 +21811,7 @@
       </c>
       <c r="C37" t="str">
         <f>IF(advert_summary!$B37=$N$1,advert_summary!C37,"")</f>
-        <v>Budapest III. kerĂĽlet, ĂśrĂ¶mhegy</v>
+        <v>Budapest III. kerÃ¼let, ÃœrÃ¶mhegy</v>
       </c>
       <c r="D37" s="1">
         <f>IF(advert_summary!$B37=$N$1,advert_summary!D37,0)</f>
@@ -20421,7 +21861,7 @@
       </c>
       <c r="C38" t="str">
         <f>IF(advert_summary!$B38=$N$1,advert_summary!C38,"")</f>
-        <v>Budapest III. kerĂĽlet, ĂśrĂ¶mhegy</v>
+        <v>Budapest III. kerÃ¼let, ÃœrÃ¶mhegy</v>
       </c>
       <c r="D38" s="1">
         <f>IF(advert_summary!$B38=$N$1,advert_summary!D38,0)</f>
@@ -20471,7 +21911,7 @@
       </c>
       <c r="C39" t="str">
         <f>IF(advert_summary!$B39=$N$1,advert_summary!C39,"")</f>
-        <v>Budapest XII. kerĂĽlet, DenevĂ©r Ăşt</v>
+        <v>Budapest XII. kerÃ¼let, DenevÃ©r Ãºt</v>
       </c>
       <c r="D39" s="1">
         <f>IF(advert_summary!$B39=$N$1,advert_summary!D39,0)</f>
@@ -20571,7 +22011,7 @@
       </c>
       <c r="C41" t="str">
         <f>IF(advert_summary!$B41=$N$1,advert_summary!C41,"")</f>
-        <v>Budapest III. kerĂĽlet, BĂ©csi Ăşt</v>
+        <v>Budapest III. kerÃ¼let, BÃ©csi Ãºt</v>
       </c>
       <c r="D41" s="1">
         <f>IF(advert_summary!$B41=$N$1,advert_summary!D41,0)</f>
@@ -20621,7 +22061,7 @@
       </c>
       <c r="C42" t="str">
         <f>IF(advert_summary!$B42=$N$1,advert_summary!C42,"")</f>
-        <v>Budapest III. kerĂĽlet, Aranyhegy</v>
+        <v>Budapest III. kerÃ¼let, Aranyhegy</v>
       </c>
       <c r="D42" s="1">
         <f>IF(advert_summary!$B42=$N$1,advert_summary!D42,0)</f>
@@ -20821,7 +22261,7 @@
       </c>
       <c r="C46" t="str">
         <f>IF(advert_summary!$B46=$N$1,advert_summary!C46,"")</f>
-        <v>Budapest XII. kerĂĽlet, DenevĂ©r Ăşt</v>
+        <v>Budapest XII. kerÃ¼let, DenevÃ©r Ãºt</v>
       </c>
       <c r="D46" s="1">
         <f>IF(advert_summary!$B46=$N$1,advert_summary!D46,0)</f>
@@ -21021,7 +22461,7 @@
       </c>
       <c r="C50" t="str">
         <f>IF(advert_summary!$B50=$N$1,advert_summary!C50,"")</f>
-        <v>Budapest II. kerĂĽlet, II/A kerĂĽlet - Adyliget</v>
+        <v>Budapest II. kerÃ¼let, II/A kerÃ¼let - Adyliget</v>
       </c>
       <c r="D50" s="1">
         <f>IF(advert_summary!$B50=$N$1,advert_summary!D50,0)</f>
@@ -21121,7 +22561,7 @@
       </c>
       <c r="C52" t="str">
         <f>IF(advert_summary!$B52=$N$1,advert_summary!C52,"")</f>
-        <v>Budapest XII. kerĂĽlet, DenevĂ©r Ăşt</v>
+        <v>Budapest XII. kerÃ¼let, DenevÃ©r Ãºt</v>
       </c>
       <c r="D52" s="1">
         <f>IF(advert_summary!$B52=$N$1,advert_summary!D52,0)</f>
@@ -21129,7 +22569,7 @@
       </c>
       <c r="E52" s="1">
         <f>IF(advert_summary!$B52=$N$1,advert_summary!E52,0)</f>
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="F52" s="2">
         <f>IF(advert_summary!$B52=$N$1,advert_summary!F52,0)</f>
@@ -21221,7 +22661,7 @@
       </c>
       <c r="C54" t="str">
         <f>IF(advert_summary!$B54=$N$1,advert_summary!C54,"")</f>
-        <v>Budapest XI. kerĂĽlet, VerbĂ©na utca 59.</v>
+        <v>Budapest XI. kerÃ¼let, VerbÃ©na utca 59.</v>
       </c>
       <c r="D54" s="1">
         <f>IF(advert_summary!$B54=$N$1,advert_summary!D54,0)</f>
@@ -21321,7 +22761,7 @@
       </c>
       <c r="C56" t="str">
         <f>IF(advert_summary!$B56=$N$1,advert_summary!C56,"")</f>
-        <v>Budapest III. kerĂĽlet, VĂ­zimenta utca</v>
+        <v>Budapest III. kerÃ¼let, VÃ­zimenta utca</v>
       </c>
       <c r="D56" s="1">
         <f>IF(advert_summary!$B56=$N$1,advert_summary!D56,0)</f>
@@ -21371,7 +22811,7 @@
       </c>
       <c r="C57" t="str">
         <f>IF(advert_summary!$B57=$N$1,advert_summary!C57,"")</f>
-        <v>Budapest XI. kerĂĽlet, Kubikos utca</v>
+        <v>Budapest XI. kerÃ¼let, Kubikos utca</v>
       </c>
       <c r="D57" s="1">
         <f>IF(advert_summary!$B57=$N$1,advert_summary!D57,0)</f>
@@ -21621,7 +23061,7 @@
       </c>
       <c r="C62" t="str">
         <f>IF(advert_summary!$B62=$N$1,advert_summary!C62,"")</f>
-        <v>Budapest XI. kerĂĽlet, Kubikos utca</v>
+        <v>Budapest XI. kerÃ¼let, Kubikos utca</v>
       </c>
       <c r="D62" s="1">
         <f>IF(advert_summary!$B62=$N$1,advert_summary!D62,0)</f>
@@ -21771,7 +23211,7 @@
       </c>
       <c r="C65" t="str">
         <f>IF(advert_summary!$B65=$N$1,advert_summary!C65,"")</f>
-        <v>Budapest III. kerĂĽlet, VĂ­zimenta utca</v>
+        <v>Budapest III. kerÃ¼let, VÃ­zimenta utca</v>
       </c>
       <c r="D65" s="1">
         <f>IF(advert_summary!$B65=$N$1,advert_summary!D65,0)</f>
@@ -22529,35 +23969,35 @@
     <row r="82" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D82" s="1">
         <f>IF(advert_summary!$B82=$N$1,advert_summary!D82,0)</f>
-        <v>0</v>
+        <v>45841</v>
       </c>
       <c r="E82" s="1">
         <f>IF(advert_summary!$B82=$N$1,advert_summary!E82,0)</f>
-        <v>0</v>
+        <v>45867</v>
       </c>
       <c r="F82" s="2">
         <f>IF(advert_summary!$B82=$N$1,advert_summary!F82,0)</f>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="G82" s="2">
         <f>IF(advert_summary!$B82=$N$1,advert_summary!G82,0)</f>
-        <v>0</v>
+        <v>219.5</v>
       </c>
       <c r="H82" s="2">
         <f>IF(advert_summary!$B82=$N$1,advert_summary!H82,0)</f>
-        <v>0</v>
+        <v>219.5</v>
       </c>
       <c r="I82" s="2">
         <f>IF(advert_summary!$B82=$N$1,advert_summary!I82,0)</f>
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="J82" s="2">
         <f>IF(advert_summary!$B82=$N$1,advert_summary!J82,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K82" s="2">
         <f>IF(advert_summary!$B82=$N$1,advert_summary!K82,0)</f>
-        <v>0</v>
+        <v>1.7420634920634901</v>
       </c>
       <c r="L82" s="2">
         <f>IF(advert_summary!$B82=$N$1,advert_summary!L82,0)</f>

--- a/advert_summary_yesoke.xlsx
+++ b/advert_summary_yesoke.xlsx
@@ -1,30 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\Other\ingatlan_scraper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\ingatlan_scraper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{379E822B-A150-48FD-AD2B-04A7B6939BFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA35021-DAEC-4E12-ADAC-FA4CCC563EE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23400" yWindow="5130" windowWidth="28440" windowHeight="18360" activeTab="1" xr2:uid="{F02725DD-86AC-4730-8105-E0D23322A88F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F02725DD-86AC-4730-8105-E0D23322A88F}"/>
   </bookViews>
   <sheets>
     <sheet name="advert_summary" sheetId="1" r:id="rId1"/>
     <sheet name="adverts_removed" sheetId="2" r:id="rId2"/>
+    <sheet name="interesting" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">advert_summary!$K$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">advert_summary!$K$2:$K$89</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">advert_summary!$K$45:$K$127</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">advert_summary!$K$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">advert_summary!$K$45:$K$88</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">advert_summary!$K$2:$K$50</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">advert_summary!$K$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">advert_summary!$K$2:$K$44</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">advert_summary!$K$2:$K$150</definedName>
     <definedName name="_xlchart.v1.6" hidden="1">adverts_removed!$K$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">adverts_removed!$K$2:$K$100</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">adverts_removed!$K$2:$K$118</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="30">
   <si>
     <t>advertId</t>
   </si>
@@ -85,55 +86,55 @@
     <t>last_query_date</t>
   </si>
   <si>
-    <t>Budapest III. kerÃ¼let, Aranyhegy</t>
+    <t>Budapest III. kerĂĽlet, Aranyhegy</t>
   </si>
   <si>
-    <t>Budapest III. kerÃ¼let, Jutas kÃ¶z 4.</t>
+    <t>Budapest III. kerĂĽlet, Jutas kĂ¶z 4.</t>
   </si>
   <si>
-    <t>Budapest III. kerÃ¼let, ÃœrÃ¶mhegy</t>
+    <t>Budapest III. kerĂĽlet, ĂśrĂ¶mhegy</t>
   </si>
   <si>
-    <t>Budapest III. kerÃ¼let, Csillaghegy</t>
+    <t>Budapest III. kerĂĽlet, Csillaghegy</t>
   </si>
   <si>
-    <t>Budapest III. kerÃ¼let, ÃœrÃ¶mfÅ± utca</t>
+    <t>Budapest III. kerĂĽlet, ĂśrĂ¶mfĹ± utca</t>
   </si>
   <si>
-    <t>Budapest XI. kerÃ¼let, MadÃ¡rhegy</t>
+    <t>Budapest XI. kerĂĽlet, MadĂˇrhegy</t>
   </si>
   <si>
-    <t>Budapest II. kerÃ¼let, ElÅ‘d vezÃ©r utca</t>
+    <t>Budapest II. kerĂĽlet, ElĹ‘d vezĂ©r utca</t>
   </si>
   <si>
-    <t>Budapest XI. kerÃ¼let, Szerelmey MiklÃ³s utca</t>
+    <t>Budapest XI. kerĂĽlet, Szerelmey MiklĂłs utca</t>
   </si>
   <si>
-    <t>Budapest III. kerÃ¼let, Tarhos utca</t>
+    <t>Budapest III. kerĂĽlet, Tarhos utca</t>
   </si>
   <si>
-    <t>Budapest III. kerÃ¼let, Naplemente utca</t>
+    <t>Budapest III. kerĂĽlet, Naplemente utca</t>
   </si>
   <si>
-    <t>Budapest XII. kerÃ¼let, DiÃ³s Ã¡rok</t>
+    <t>Budapest XII. kerĂĽlet, DiĂłs Ăˇrok</t>
   </si>
   <si>
-    <t>Budapest XII. kerÃ¼let, DenevÃ©r Ãºt</t>
+    <t>Budapest XII. kerĂĽlet, DenevĂ©r Ăşt</t>
   </si>
   <si>
-    <t>Budapest III. kerÃ¼let, BÃ©csi Ãºt</t>
+    <t>Budapest III. kerĂĽlet, BĂ©csi Ăşt</t>
   </si>
   <si>
-    <t>Budapest II. kerÃ¼let, II/A kerÃ¼let - Adyliget</t>
+    <t>Budapest II. kerĂĽlet, II/A kerĂĽlet - Adyliget</t>
   </si>
   <si>
-    <t>Budapest XI. kerÃ¼let, VerbÃ©na utca 59.</t>
+    <t>Budapest XI. kerĂĽlet, VerbĂ©na utca 59.</t>
   </si>
   <si>
-    <t>Budapest III. kerÃ¼let, VÃ­zimenta utca</t>
+    <t>Budapest III. kerĂĽlet, VĂ­zimenta utca</t>
   </si>
   <si>
-    <t>Budapest XI. kerÃ¼let, Kubikos utca</t>
+    <t>Budapest XI. kerĂĽlet, Kubikos utca</t>
   </si>
 </sst>
 </file>
@@ -768,10 +769,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>advert_summary!$A$2:$A$91</c:f>
+              <c:f>advert_summary!$A$2:$A$113</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="112"/>
                 <c:pt idx="0">
                   <c:v>34378761</c:v>
                 </c:pt>
@@ -1038,16 +1039,67 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>34883664</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>34907394</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>34917566</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>34933989</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>34960060</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>35010422</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>35004703</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>35014192</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>35007606</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>35000289</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>35008860</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>35008632</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>35008393</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>35025259</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>35032940</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>35009219</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>35008343</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>35020541</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>advert_summary!$K$2:$K$91</c:f>
+              <c:f>advert_summary!$K$2:$K$113</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="90"/>
+                <c:ptCount val="112"/>
                 <c:pt idx="0">
                   <c:v>1.51696428571428</c:v>
                 </c:pt>
@@ -1076,7 +1128,7 @@
                   <c:v>1.7333333333333301</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.74615384615384</c:v>
+                  <c:v>1.7684615384615301</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>1.43518518518518</c:v>
@@ -1133,7 +1185,7 @@
                   <c:v>1.2499166666666599</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.7333333333333301</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>1.8349514563106699</c:v>
@@ -1178,7 +1230,7 @@
                   <c:v>1.70347826086956</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.89</c:v>
+                  <c:v>1.95</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>2.25</c:v>
@@ -1277,16 +1329,16 @@
                   <c:v>1.3448275862068899</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.504</c:v>
+                  <c:v>1.472</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1.8899082568807299</c:v>
+                  <c:v>1.6412844036697201</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>1.7333333333333301</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1.96330275229357</c:v>
+                  <c:v>1.96321100917431</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>1.7420634920634901</c:v>
@@ -1307,13 +1359,64 @@
                   <c:v>2.09</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>3.1818181818181799</c:v>
+                  <c:v>3.0909090909090899</c:v>
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>1.57936507936507</c:v>
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>1.7399038461538401</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.72727272727272</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2.32380952380952</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.4196428571428501</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.5089285714285701</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.26050420168067</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.21138211382113</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.92660550458715</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2.4897959183673399</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.9536363636363601</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.32380952380952</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.4897959183673399</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2.4897959183673399</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.65130434782608</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2.59</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2.4897959183673399</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2.4897959183673399</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1.9119999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1471,6 +1574,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1478,7 +1582,1007 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>adverts_removed!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>unit_price</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>adverts_removed!$E$2:$E$118</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="117"/>
+                <c:pt idx="0">
+                  <c:v>45825</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45673</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45727</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45680</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45851</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45713</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45670</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45732</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45659</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45722</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45732</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45660</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45719</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45680</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45727</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45727</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45825</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45772</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45759</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45663</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>45921</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45768</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45921</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45732</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45769</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45694</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45713</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>45772</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>45703</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45772</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>45707</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45825</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45713</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45732</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>45812</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>45812</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45727</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45891</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>45934</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>45818</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45720</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>45851</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45768</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>45791</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>45732</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>45732</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>45755</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>45818</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>45891</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>45812</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>45825</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>45759</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>45818</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>45768</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>45901</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>45812</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>45812</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>45812</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>45825</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>45883</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>45851</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>45841</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45921</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45825</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45825</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45921</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45868</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45901</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45841</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45883</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45868</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45901</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45883</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45934</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45898</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45934</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45941</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45941</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>adverts_removed!$K$2:$K$118</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="117"/>
+                <c:pt idx="0">
+                  <c:v>1.51696428571428</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5684210526315701</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2909836065573701</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6955357142857099</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4607692307692299</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.8349514563106699</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.43518518518518</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.36</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.8173076923076901</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.0692307692307601</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.42635658914728</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.92913385826771</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.0409836065573699</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.0409836065573699</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.41658333333333</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.3241666666666601</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.7538461538461501</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.49923076923076</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.0409836065573699</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.2499166666666599</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.8349514563106699</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.69</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.399</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.81023622047244</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.8611111111111101</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.5825</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.8384615384615299</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.59821428571428</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.70347826086956</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.70347826086956</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.7399038461538401</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.5192000000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.5920000000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.4392</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.36</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.0409836065573699</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.4900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.1461538461538399</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.8443298969072099</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.7333333333333301</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.92211538461538</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.7073170731707299</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.5376068376068299</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.8074468085106301</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.75833333333333</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.9153846153846099</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.95234375</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.57314814814814</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.7295918367346901</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.7295918367346901</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.51696428571428</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.7399038461538401</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.7399038461538401</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.73826086956521</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.4322033898305</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.3448275862068899</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.7333333333333301</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.96321100917431</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.7420634920634901</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.44067796610169</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.6658333333333299</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.2833333333333301</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.57936507936507</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.7399038461538401</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.72727272727272</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2.32380952380952</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.4196428571428501</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.32380952380952</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.65130434782608</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2.59</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ADF1-4EE5-8AB5-D1F9B2D96070}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1036440479"/>
+        <c:axId val="1036429919"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1036440479"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="45650"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1036429919"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1036429919"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1036440479"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1601,10 +2705,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>advert_summary!$A$2:$A$100</c:f>
+              <c:f>advert_summary!$A$2:$A$150</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="149"/>
                 <c:pt idx="0">
                   <c:v>34378761</c:v>
                 </c:pt>
@@ -1871,16 +2975,67 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>34883664</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>34907394</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>34917566</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>34933989</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>34960060</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>35010422</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>35004703</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>35014192</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>35007606</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>35000289</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>35008860</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>35008632</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>35008393</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>35025259</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>35032940</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>35009219</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>35008343</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>35020541</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>advert_summary!$F$2:$F$100</c:f>
+              <c:f>advert_summary!$F$2:$F$150</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="149"/>
                 <c:pt idx="0">
                   <c:v>171</c:v>
                 </c:pt>
@@ -1906,10 +3061,10 @@
                   <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>222</c:v>
+                  <c:v>294</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>222</c:v>
+                  <c:v>294</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>5</c:v>
@@ -1918,7 +3073,7 @@
                   <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>222</c:v>
+                  <c:v>294</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>78</c:v>
@@ -1933,13 +3088,13 @@
                   <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>222</c:v>
+                  <c:v>294</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>222</c:v>
+                  <c:v>294</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>73</c:v>
@@ -1951,7 +3106,7 @@
                   <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>222</c:v>
+                  <c:v>294</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>105</c:v>
@@ -1960,13 +3115,13 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>187</c:v>
+                  <c:v>267</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>68</c:v>
+                  <c:v>267</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>58</c:v>
@@ -1984,7 +3139,7 @@
                   <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>189</c:v>
+                  <c:v>261</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>7</c:v>
@@ -2011,16 +3166,16 @@
                   <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>169</c:v>
+                  <c:v>241</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>162</c:v>
+                  <c:v>177</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>162</c:v>
+                  <c:v>220</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>99</c:v>
@@ -2041,7 +3196,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>145</c:v>
+                  <c:v>216</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>0</c:v>
@@ -2053,7 +3208,7 @@
                   <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>123</c:v>
+                  <c:v>138</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>59</c:v>
@@ -2065,7 +3220,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>117</c:v>
+                  <c:v>189</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>59</c:v>
@@ -2074,13 +3229,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>106</c:v>
+                  <c:v>131</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>87</c:v>
+                  <c:v>158</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>22</c:v>
@@ -2092,60 +3247,111 @@
                   <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>62</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>62</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>57</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>57</c:v>
+                  <c:v>129</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>53</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>50</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>35</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>35</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>35</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>35</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>35</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="88">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="105">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2303,6 +3509,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2310,7 +3517,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2433,10 +3639,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>advert_summary!$F$2:$F$89</c:f>
+              <c:f>advert_summary!$F$2:$F$150</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="149"/>
                 <c:pt idx="0">
                   <c:v>171</c:v>
                 </c:pt>
@@ -2462,10 +3668,10 @@
                   <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>222</c:v>
+                  <c:v>294</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>222</c:v>
+                  <c:v>294</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>5</c:v>
@@ -2474,7 +3680,7 @@
                   <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>222</c:v>
+                  <c:v>294</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>78</c:v>
@@ -2489,13 +3695,13 @@
                   <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>222</c:v>
+                  <c:v>294</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>222</c:v>
+                  <c:v>294</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>73</c:v>
@@ -2507,7 +3713,7 @@
                   <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>222</c:v>
+                  <c:v>294</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>105</c:v>
@@ -2516,13 +3722,13 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>187</c:v>
+                  <c:v>267</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>68</c:v>
+                  <c:v>267</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>58</c:v>
@@ -2540,7 +3746,7 @@
                   <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>189</c:v>
+                  <c:v>261</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>7</c:v>
@@ -2567,16 +3773,16 @@
                   <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>169</c:v>
+                  <c:v>241</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>162</c:v>
+                  <c:v>177</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>162</c:v>
+                  <c:v>220</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>99</c:v>
@@ -2597,7 +3803,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>145</c:v>
+                  <c:v>216</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>0</c:v>
@@ -2609,7 +3815,7 @@
                   <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>123</c:v>
+                  <c:v>138</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>59</c:v>
@@ -2621,7 +3827,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>117</c:v>
+                  <c:v>189</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>59</c:v>
@@ -2630,13 +3836,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>106</c:v>
+                  <c:v>131</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>87</c:v>
+                  <c:v>158</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>22</c:v>
@@ -2648,57 +3854,111 @@
                   <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>62</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>62</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>57</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>57</c:v>
+                  <c:v>129</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>53</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>50</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>35</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>35</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>35</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>35</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>35</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="87">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="105">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2706,10 +3966,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>advert_summary!$H$2:$H$89</c:f>
+              <c:f>advert_summary!$H$2:$H$150</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="149"/>
                 <c:pt idx="0">
                   <c:v>169.9</c:v>
                 </c:pt>
@@ -2738,7 +3998,7 @@
                   <c:v>182</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>227</c:v>
+                  <c:v>229.9</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>155</c:v>
@@ -2795,7 +4055,7 @@
                   <c:v>149.99</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>208</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>189</c:v>
@@ -2840,7 +4100,7 @@
                   <c:v>195.9</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>189</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>279</c:v>
@@ -2939,16 +4199,16 @@
                   <c:v>156</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>188</c:v>
+                  <c:v>184</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>206</c:v>
+                  <c:v>178.9</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>182</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>214</c:v>
+                  <c:v>213.99</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>219.5</c:v>
@@ -2969,10 +4229,64 @@
                   <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>350</c:v>
+                  <c:v>340</c:v>
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>180.95</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>214.9</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>189.9</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>239</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3129,6 +4443,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3136,7 +4451,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3259,10 +4573,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>advert_summary!$F$2:$F$90</c:f>
+              <c:f>advert_summary!$F$2:$F$150</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="149"/>
                 <c:pt idx="0">
                   <c:v>171</c:v>
                 </c:pt>
@@ -3288,10 +4602,10 @@
                   <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>222</c:v>
+                  <c:v>294</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>222</c:v>
+                  <c:v>294</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>5</c:v>
@@ -3300,7 +4614,7 @@
                   <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>222</c:v>
+                  <c:v>294</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>78</c:v>
@@ -3315,13 +4629,13 @@
                   <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>222</c:v>
+                  <c:v>294</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>222</c:v>
+                  <c:v>294</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>73</c:v>
@@ -3333,7 +4647,7 @@
                   <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>222</c:v>
+                  <c:v>294</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>105</c:v>
@@ -3342,13 +4656,13 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>187</c:v>
+                  <c:v>267</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>68</c:v>
+                  <c:v>267</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>58</c:v>
@@ -3366,7 +4680,7 @@
                   <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>189</c:v>
+                  <c:v>261</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>7</c:v>
@@ -3393,16 +4707,16 @@
                   <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>169</c:v>
+                  <c:v>241</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>162</c:v>
+                  <c:v>177</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>162</c:v>
+                  <c:v>220</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>99</c:v>
@@ -3423,7 +4737,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>145</c:v>
+                  <c:v>216</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>0</c:v>
@@ -3435,7 +4749,7 @@
                   <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>123</c:v>
+                  <c:v>138</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>59</c:v>
@@ -3447,7 +4761,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>117</c:v>
+                  <c:v>189</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>59</c:v>
@@ -3456,13 +4770,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>106</c:v>
+                  <c:v>131</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>87</c:v>
+                  <c:v>158</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>22</c:v>
@@ -3474,60 +4788,111 @@
                   <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>62</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>62</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>57</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>57</c:v>
+                  <c:v>129</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>53</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>50</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>35</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>35</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>35</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>35</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>35</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="88">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="105">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3535,10 +4900,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>advert_summary!$A$2:$A$90</c:f>
+              <c:f>advert_summary!$A$2:$A$150</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="89"/>
+                <c:ptCount val="149"/>
                 <c:pt idx="0">
                   <c:v>34378761</c:v>
                 </c:pt>
@@ -3805,6 +5170,57 @@
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>34883664</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>34907394</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>34917566</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>34933989</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>34960060</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>35010422</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>35004703</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>35014192</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>35007606</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>35000289</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>35008860</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>35008632</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>35008393</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>35025259</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>35032940</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>35009219</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>35008343</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>35020541</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3961,6 +5377,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3968,7 +5385,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4091,10 +5507,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>advert_summary!$A$2:$A$89</c:f>
+              <c:f>advert_summary!$A$2:$A$116</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="115"/>
                 <c:pt idx="0">
                   <c:v>34378761</c:v>
                 </c:pt>
@@ -4358,16 +5774,70 @@
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>34891614</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>34883664</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>34907394</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>34917566</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>34933989</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>34960060</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>35010422</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>35004703</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>35014192</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>35007606</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>35000289</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>35008860</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>35008632</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>35008393</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>35025259</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>35032940</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>35009219</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>35008343</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>35020541</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>advert_summary!$H$2:$H$89</c:f>
+              <c:f>advert_summary!$H$2:$H$116</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="88"/>
+                <c:ptCount val="115"/>
                 <c:pt idx="0">
                   <c:v>169.9</c:v>
                 </c:pt>
@@ -4396,7 +5866,7 @@
                   <c:v>182</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>227</c:v>
+                  <c:v>229.9</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>155</c:v>
@@ -4453,7 +5923,7 @@
                   <c:v>149.99</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>208</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>189</c:v>
@@ -4498,7 +5968,7 @@
                   <c:v>195.9</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>189</c:v>
+                  <c:v>195</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>279</c:v>
@@ -4597,16 +6067,16 @@
                   <c:v>156</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>188</c:v>
+                  <c:v>184</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>206</c:v>
+                  <c:v>178.9</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>182</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>214</c:v>
+                  <c:v>213.99</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>219.5</c:v>
@@ -4627,10 +6097,64 @@
                   <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>350</c:v>
+                  <c:v>340</c:v>
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>180.95</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>214.9</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>189.9</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>239</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4787,6 +6311,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -4794,7 +6319,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4917,96 +6441,96 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>advert_summary!$D$2:$D$96</c:f>
+              <c:f>advert_summary!$D$2:$D$150</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="149"/>
                 <c:pt idx="0">
-                  <c:v>45653</c:v>
+                  <c:v>45654</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45653</c:v>
+                  <c:v>45654</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45653</c:v>
+                  <c:v>45654</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45653</c:v>
+                  <c:v>45654</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45653</c:v>
+                  <c:v>45654</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45653</c:v>
+                  <c:v>45654</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45653</c:v>
+                  <c:v>45654</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45653</c:v>
+                  <c:v>45654</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45653</c:v>
+                  <c:v>45654</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45653</c:v>
+                  <c:v>45654</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45653</c:v>
+                  <c:v>45654</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>45653</c:v>
+                  <c:v>45654</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>45653</c:v>
+                  <c:v>45654</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>45653</c:v>
+                  <c:v>45654</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>45653</c:v>
+                  <c:v>45654</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>45653</c:v>
+                  <c:v>45654</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>45653</c:v>
+                  <c:v>45654</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>45653</c:v>
+                  <c:v>45654</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>45653</c:v>
+                  <c:v>45654</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>45653</c:v>
+                  <c:v>45654</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>45653</c:v>
+                  <c:v>45654</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>45653</c:v>
+                  <c:v>45654</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>45653</c:v>
+                  <c:v>45654</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>45653</c:v>
+                  <c:v>45654</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>45653</c:v>
+                  <c:v>45654</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>45653</c:v>
+                  <c:v>45654</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>45653</c:v>
+                  <c:v>45654</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>45653</c:v>
+                  <c:v>45654</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>45653</c:v>
+                  <c:v>45654</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>45673</c:v>
@@ -5183,20 +6707,71 @@
                   <c:v>45841</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>45867</c:v>
+                  <c:v>45868</c:v>
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45876</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45881</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45883</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45891</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45911</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45934</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>45934</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45934</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>45934</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>45934</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>45934</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>45934</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>45934</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>45941</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>45941</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>45941</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>45941</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>45948</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>advert_summary!$K$2:$K$96</c:f>
+              <c:f>advert_summary!$K$2:$K$150</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="95"/>
+                <c:ptCount val="149"/>
                 <c:pt idx="0">
                   <c:v>1.51696428571428</c:v>
                 </c:pt>
@@ -5225,7 +6800,7 @@
                   <c:v>1.7333333333333301</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.74615384615384</c:v>
+                  <c:v>1.7684615384615301</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>1.43518518518518</c:v>
@@ -5282,7 +6857,7 @@
                   <c:v>1.2499166666666599</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.7333333333333301</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>1.8349514563106699</c:v>
@@ -5327,7 +6902,7 @@
                   <c:v>1.70347826086956</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.89</c:v>
+                  <c:v>1.95</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>2.25</c:v>
@@ -5426,16 +7001,16 @@
                   <c:v>1.3448275862068899</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.504</c:v>
+                  <c:v>1.472</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1.8899082568807299</c:v>
+                  <c:v>1.6412844036697201</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>1.7333333333333301</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1.96330275229357</c:v>
+                  <c:v>1.96321100917431</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>1.7420634920634901</c:v>
@@ -5456,13 +7031,64 @@
                   <c:v>2.09</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>3.1818181818181799</c:v>
+                  <c:v>3.0909090909090899</c:v>
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>1.57936507936507</c:v>
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>1.7399038461538401</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.72727272727272</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2.32380952380952</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.4196428571428501</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.5089285714285701</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.26050420168067</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.21138211382113</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.92660550458715</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2.4897959183673399</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.9536363636363601</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.32380952380952</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.4897959183673399</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2.4897959183673399</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.65130434782608</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2.59</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2.4897959183673399</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2.4897959183673399</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1.9119999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5619,6 +7245,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -5626,7 +7253,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5749,10 +7375,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>advert_summary!$K$2:$K$100</c:f>
+              <c:f>advert_summary!$K$2:$K$150</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="149"/>
                 <c:pt idx="0">
                   <c:v>1.51696428571428</c:v>
                 </c:pt>
@@ -5781,7 +7407,7 @@
                   <c:v>1.7333333333333301</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.74615384615384</c:v>
+                  <c:v>1.7684615384615301</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>1.43518518518518</c:v>
@@ -5838,7 +7464,7 @@
                   <c:v>1.2499166666666599</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.7333333333333301</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>1.8349514563106699</c:v>
@@ -5883,7 +7509,7 @@
                   <c:v>1.70347826086956</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.89</c:v>
+                  <c:v>1.95</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>2.25</c:v>
@@ -5982,16 +7608,16 @@
                   <c:v>1.3448275862068899</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.504</c:v>
+                  <c:v>1.472</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1.8899082568807299</c:v>
+                  <c:v>1.6412844036697201</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>1.7333333333333301</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1.96330275229357</c:v>
+                  <c:v>1.96321100917431</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>1.7420634920634901</c:v>
@@ -6012,23 +7638,74 @@
                   <c:v>2.09</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>3.1818181818181799</c:v>
+                  <c:v>3.0909090909090899</c:v>
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>1.57936507936507</c:v>
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>1.7399038461538401</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.72727272727272</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2.32380952380952</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.4196428571428501</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.5089285714285701</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.26050420168067</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.21138211382113</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.92660550458715</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2.4897959183673399</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.9536363636363601</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.32380952380952</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.4897959183673399</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2.4897959183673399</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.65130434782608</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2.59</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2.4897959183673399</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2.4897959183673399</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1.9119999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>advert_summary!$F$2:$F$100</c:f>
+              <c:f>advert_summary!$F$2:$F$150</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="149"/>
                 <c:pt idx="0">
                   <c:v>171</c:v>
                 </c:pt>
@@ -6054,10 +7731,10 @@
                   <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>222</c:v>
+                  <c:v>294</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>222</c:v>
+                  <c:v>294</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>5</c:v>
@@ -6066,7 +7743,7 @@
                   <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>222</c:v>
+                  <c:v>294</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>78</c:v>
@@ -6081,13 +7758,13 @@
                   <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>222</c:v>
+                  <c:v>294</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>222</c:v>
+                  <c:v>294</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>73</c:v>
@@ -6099,7 +7776,7 @@
                   <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>222</c:v>
+                  <c:v>294</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>105</c:v>
@@ -6108,13 +7785,13 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>187</c:v>
+                  <c:v>267</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>68</c:v>
+                  <c:v>267</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>58</c:v>
@@ -6132,7 +7809,7 @@
                   <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>189</c:v>
+                  <c:v>261</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>7</c:v>
@@ -6159,16 +7836,16 @@
                   <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>169</c:v>
+                  <c:v>241</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>162</c:v>
+                  <c:v>177</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>162</c:v>
+                  <c:v>220</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>99</c:v>
@@ -6189,7 +7866,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>145</c:v>
+                  <c:v>216</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>0</c:v>
@@ -6201,7 +7878,7 @@
                   <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>123</c:v>
+                  <c:v>138</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>59</c:v>
@@ -6213,7 +7890,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>117</c:v>
+                  <c:v>189</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>59</c:v>
@@ -6222,13 +7899,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>106</c:v>
+                  <c:v>131</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>87</c:v>
+                  <c:v>158</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>22</c:v>
@@ -6240,60 +7917,111 @@
                   <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>62</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>62</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>57</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>57</c:v>
+                  <c:v>129</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>53</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>50</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>35</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>35</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>35</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>35</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>35</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="88">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="105">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -6451,6 +8179,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -6458,7 +8187,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -6581,10 +8309,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>adverts_removed!$F$2:$F$100</c:f>
+              <c:f>adverts_removed!$F$2:$F$150</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="149"/>
                 <c:pt idx="0">
                   <c:v>171</c:v>
                 </c:pt>
@@ -6664,13 +8392,13 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>187</c:v>
+                  <c:v>267</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>68</c:v>
+                  <c:v>267</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>58</c:v>
@@ -6721,10 +8449,10 @@
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0</c:v>
+                  <c:v>177</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0</c:v>
+                  <c:v>220</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>99</c:v>
@@ -6757,7 +8485,7 @@
                   <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0</c:v>
+                  <c:v>138</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>59</c:v>
@@ -6778,7 +8506,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0</c:v>
+                  <c:v>131</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>38</c:v>
@@ -6796,7 +8524,7 @@
                   <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>37</c:v>
@@ -6808,7 +8536,7 @@
                   <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>7</c:v>
@@ -6823,19 +8551,19 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>0</c:v>
@@ -6844,6 +8572,96 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="116">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -6851,10 +8669,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>adverts_removed!$K$2:$K$100</c:f>
+              <c:f>adverts_removed!$K$2:$K$150</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="149"/>
                 <c:pt idx="0">
                   <c:v>1.51696428571428</c:v>
                 </c:pt>
@@ -6940,7 +8758,7 @@
                   <c:v>1.2499166666666599</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.7333333333333301</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>1.8349514563106699</c:v>
@@ -6991,10 +8809,10 @@
                   <c:v>2.25</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0</c:v>
+                  <c:v>1.7399038461538401</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0</c:v>
+                  <c:v>1.5192000000000001</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>1.5920000000000001</c:v>
@@ -7027,7 +8845,7 @@
                   <c:v>1.7333333333333301</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0</c:v>
+                  <c:v>1.92211538461538</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>1.7073170731707299</c:v>
@@ -7048,7 +8866,7 @@
                   <c:v>1.9153846153846099</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0</c:v>
+                  <c:v>1.95234375</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>1.57314814814814</c:v>
@@ -7066,7 +8884,7 @@
                   <c:v>1.51696428571428</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0</c:v>
+                  <c:v>1.7399038461538401</c:v>
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>1.7399038461538401</c:v>
@@ -7078,7 +8896,7 @@
                   <c:v>1.73826086956521</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0</c:v>
+                  <c:v>1.4322033898305</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>1.3448275862068899</c:v>
@@ -7093,19 +8911,19 @@
                   <c:v>1.7333333333333301</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0</c:v>
+                  <c:v>1.96321100917431</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>1.7420634920634901</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0</c:v>
+                  <c:v>1.44067796610169</c:v>
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>1.6658333333333299</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0</c:v>
+                  <c:v>1.2833333333333301</c:v>
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>0</c:v>
@@ -7114,6 +8932,96 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.57936507936507</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.7399038461538401</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.72727272727272</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2.32380952380952</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.4196428571428501</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.32380952380952</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.65130434782608</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2.59</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="116">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -7271,6 +9179,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -7278,7 +9187,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -7401,10 +9309,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>adverts_removed!$A$2:$A$100</c:f>
+              <c:f>adverts_removed!$A$2:$A$118</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="117"/>
                 <c:pt idx="0">
                   <c:v>34378761</c:v>
                 </c:pt>
@@ -7541,10 +9449,10 @@
                   <c:v>34611180</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0</c:v>
+                  <c:v>34613053</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0</c:v>
+                  <c:v>34546016</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>33512440</c:v>
@@ -7577,7 +9485,7 @@
                   <c:v>34678842</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0</c:v>
+                  <c:v>34694203</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>34618676</c:v>
@@ -7598,7 +9506,7 @@
                   <c:v>34711297</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0</c:v>
+                  <c:v>34719671</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>34484868</c:v>
@@ -7616,12 +9524,144 @@
                   <c:v>34748466</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0</c:v>
+                  <c:v>34698147</c:v>
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>34607640</c:v>
                 </c:pt>
                 <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>34804285</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>34804923</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>34807267</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>34813943</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>34823574</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>34849647</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>34829279</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>34824455</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>34841273</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>34891614</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>34883664</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>34907394</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>34917566</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>34933989</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>35008860</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>35025259</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>35032940</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="116">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -7629,10 +9669,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>adverts_removed!$K$2:$K$100</c:f>
+              <c:f>adverts_removed!$K$2:$K$118</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="117"/>
                 <c:pt idx="0">
                   <c:v>1.51696428571428</c:v>
                 </c:pt>
@@ -7718,7 +9758,7 @@
                   <c:v>1.2499166666666599</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.7333333333333301</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>1.8349514563106699</c:v>
@@ -7769,10 +9809,10 @@
                   <c:v>2.25</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0</c:v>
+                  <c:v>1.7399038461538401</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0</c:v>
+                  <c:v>1.5192000000000001</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>1.5920000000000001</c:v>
@@ -7805,7 +9845,7 @@
                   <c:v>1.7333333333333301</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0</c:v>
+                  <c:v>1.92211538461538</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>1.7073170731707299</c:v>
@@ -7826,7 +9866,7 @@
                   <c:v>1.9153846153846099</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0</c:v>
+                  <c:v>1.95234375</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>1.57314814814814</c:v>
@@ -7844,7 +9884,7 @@
                   <c:v>1.51696428571428</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0</c:v>
+                  <c:v>1.7399038461538401</c:v>
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>1.7399038461538401</c:v>
@@ -7856,7 +9896,7 @@
                   <c:v>1.73826086956521</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0</c:v>
+                  <c:v>1.4322033898305</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>1.3448275862068899</c:v>
@@ -7871,19 +9911,19 @@
                   <c:v>1.7333333333333301</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0</c:v>
+                  <c:v>1.96321100917431</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>1.7420634920634901</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0</c:v>
+                  <c:v>1.44067796610169</c:v>
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>1.6658333333333299</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0</c:v>
+                  <c:v>1.2833333333333301</c:v>
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>0</c:v>
@@ -7892,6 +9932,96 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.57936507936507</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.7399038461538401</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.72727272727272</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2.32380952380952</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.4196428571428501</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.32380952380952</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.65130434782608</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2.59</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="116">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -8051,6 +10181,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -8058,7 +10189,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -8098,75 +10228,6 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0">
-      <cx:tx>
-        <cx:txData>
-          <cx:v>Unit Price</cx:v>
-        </cx:txData>
-      </cx:tx>
-      <cx:txPr>
-        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:sysClr>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
-            </a:rPr>
-            <a:t>Unit Price</a:t>
-          </a:r>
-        </a:p>
-      </cx:txPr>
-    </cx:title>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="clusteredColumn" uniqueId="{BCEAE2D0-D153-47B0-ADFB-39CF09B4B8F9}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
-              <cx:v>unit_price</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:binning intervalClosed="r" underflow="1.3999999999999999" overflow="auto">
-              <cx:binSize val="0.20000000000000001"/>
-            </cx:binning>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-      <cx:axis id="0">
-        <cx:catScaling gapWidth="0"/>
-        <cx:tickLabels/>
-      </cx:axis>
-      <cx:axis id="1">
-        <cx:valScaling/>
-        <cx:majorGridlines/>
-        <cx:tickLabels/>
-      </cx:axis>
-    </cx:plotArea>
-  </cx:chart>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:numDim type="val">
         <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
@@ -8202,7 +10263,7 @@
     </cx:title>
     <cx:plotArea>
       <cx:plotAreaRegion>
-        <cx:series layoutId="clusteredColumn" uniqueId="{BCEAE2D0-D153-47B0-ADFB-39CF09B4B8F9}">
+        <cx:series layoutId="clusteredColumn" uniqueId="{8E065742-7345-42CC-8897-936602B02012}">
           <cx:tx>
             <cx:txData>
               <cx:f>_xlchart.v1.4</cx:f>
@@ -8211,9 +10272,7 @@
           </cx:tx>
           <cx:dataId val="0"/>
           <cx:layoutPr>
-            <cx:binning intervalClosed="r" underflow="1.3999999999999999" overflow="3">
-              <cx:binSize val="0.20000000000000001"/>
-            </cx:binning>
+            <cx:binning intervalClosed="r"/>
           </cx:layoutPr>
         </cx:series>
       </cx:plotAreaRegion>
@@ -8231,7 +10290,7 @@
 </cx:chartSpace>
 </file>
 
-<file path=xl/charts/chartEx3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
     <cx:data id="0">
@@ -8271,10 +10330,77 @@
     </cx:title>
     <cx:plotArea>
       <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{207D0EDE-FC56-4C0E-9995-C80E739DC32C}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:v>unit_price</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx3.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.1</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Unit Price</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+            </a:rPr>
+            <a:t>Unit Price</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
         <cx:series layoutId="clusteredColumn" uniqueId="{BCEAE2D0-D153-47B0-ADFB-39CF09B4B8F9}" formatIdx="0">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>unit_price</cx:v>
             </cx:txData>
           </cx:tx>
@@ -8530,6 +10656,46 @@
 </file>
 
 <file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -11453,6 +13619,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -15888,7 +18570,7 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-GB" sz="1100"/>
+                <a:rPr lang="en-US" sz="1100"/>
                 <a:t>This chart isn't available in your version of Excel.
 Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
               </a:r>
@@ -15966,7 +18648,7 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-GB" sz="1100"/>
+                <a:rPr lang="en-US" sz="1100"/>
                 <a:t>This chart isn't available in your version of Excel.
 Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
               </a:r>
@@ -15979,16 +18661,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>16565</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>173935</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>321366</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>59635</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -16024,8 +18706,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="14420850" y="17335500"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="19923815" y="16556935"/>
+              <a:ext cx="4572001" cy="2743200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -16044,7 +18726,7 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-GB" sz="1100"/>
+                <a:rPr lang="en-US" sz="1100"/>
                 <a:t>This chart isn't available in your version of Excel.
 Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
               </a:r>
@@ -16143,8 +18825,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="15409214" y="1175413"/>
-              <a:ext cx="4534069" cy="2844802"/>
+              <a:off x="15464594" y="1155183"/>
+              <a:ext cx="4555648" cy="2797598"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -16163,7 +18845,7 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-GB" sz="1100"/>
+                <a:rPr lang="en-US" sz="1100"/>
                 <a:t>This chart isn't available in your version of Excel.
 Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
               </a:r>
@@ -16207,6 +18889,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>109537</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>176211</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E96D8F91-4987-B651-87C7-07ECE9EC085D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -16532,10 +19250,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E3D8E08-B692-4D91-B61E-26C54386320F}">
-  <dimension ref="A1:L90"/>
+  <dimension ref="A1:L107"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" zoomScale="115" workbookViewId="0">
-      <selection activeCell="N83" sqref="N83"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="83" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16592,7 +19310,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="1">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="E2" s="1">
         <v>45825</v>
@@ -16630,7 +19348,7 @@
         <v>13</v>
       </c>
       <c r="D3" s="1">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="E3" s="1">
         <v>45673</v>
@@ -16668,7 +19386,7 @@
         <v>14</v>
       </c>
       <c r="D4" s="1">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="E4" s="1">
         <v>45727</v>
@@ -16706,7 +19424,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="1">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="E5" s="1">
         <v>45680</v>
@@ -16744,7 +19462,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="1">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="E6" s="1">
         <v>45851</v>
@@ -16782,7 +19500,7 @@
         <v>15</v>
       </c>
       <c r="D7" s="1">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="E7" s="1">
         <v>45713</v>
@@ -16820,7 +19538,7 @@
         <v>15</v>
       </c>
       <c r="D8" s="1">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="E8" s="1">
         <v>45670</v>
@@ -16858,7 +19576,7 @@
         <v>16</v>
       </c>
       <c r="D9" s="1">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="E9" s="1">
         <v>45732</v>
@@ -16896,13 +19614,13 @@
         <v>10</v>
       </c>
       <c r="D10" s="1">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="E10" s="1">
-        <v>45876</v>
+        <v>45948</v>
       </c>
       <c r="F10">
-        <v>222</v>
+        <v>294</v>
       </c>
       <c r="G10">
         <v>182</v>
@@ -16934,19 +19652,19 @@
         <v>10</v>
       </c>
       <c r="D11" s="1">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="E11" s="1">
-        <v>45876</v>
+        <v>45948</v>
       </c>
       <c r="F11">
-        <v>222</v>
+        <v>294</v>
       </c>
       <c r="G11">
         <v>228</v>
       </c>
       <c r="H11">
-        <v>227</v>
+        <v>229.9</v>
       </c>
       <c r="I11">
         <v>130</v>
@@ -16955,10 +19673,10 @@
         <v>5</v>
       </c>
       <c r="K11">
-        <v>1.74615384615384</v>
+        <v>1.7684615384615301</v>
       </c>
       <c r="L11">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -16972,7 +19690,7 @@
         <v>13</v>
       </c>
       <c r="D12" s="1">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="E12" s="1">
         <v>45659</v>
@@ -17010,7 +19728,7 @@
         <v>16</v>
       </c>
       <c r="D13" s="1">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="E13" s="1">
         <v>45722</v>
@@ -17048,13 +19766,13 @@
         <v>10</v>
       </c>
       <c r="D14" s="1">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="E14" s="1">
-        <v>45876</v>
+        <v>45948</v>
       </c>
       <c r="F14">
-        <v>222</v>
+        <v>294</v>
       </c>
       <c r="G14">
         <v>179.9</v>
@@ -17086,7 +19804,7 @@
         <v>17</v>
       </c>
       <c r="D15" s="1">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="E15" s="1">
         <v>45732</v>
@@ -17124,7 +19842,7 @@
         <v>16</v>
       </c>
       <c r="D16" s="1">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="E16" s="1">
         <v>45660</v>
@@ -17162,7 +19880,7 @@
         <v>18</v>
       </c>
       <c r="D17" s="1">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="E17" s="1">
         <v>45719</v>
@@ -17200,7 +19918,7 @@
         <v>15</v>
       </c>
       <c r="D18" s="1">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="E18" s="1">
         <v>45680</v>
@@ -17238,13 +19956,13 @@
         <v>10</v>
       </c>
       <c r="D19" s="1">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="E19" s="1">
-        <v>45876</v>
+        <v>45948</v>
       </c>
       <c r="F19">
-        <v>222</v>
+        <v>294</v>
       </c>
       <c r="G19">
         <v>265</v>
@@ -17276,7 +19994,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="1">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="E20" s="1">
         <v>45727</v>
@@ -17314,13 +20032,13 @@
         <v>10</v>
       </c>
       <c r="D21" s="1">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="E21" s="1">
-        <v>45876</v>
+        <v>45948</v>
       </c>
       <c r="F21">
-        <v>222</v>
+        <v>294</v>
       </c>
       <c r="G21">
         <v>265</v>
@@ -17352,7 +20070,7 @@
         <v>19</v>
       </c>
       <c r="D22" s="1">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="E22" s="1">
         <v>45727</v>
@@ -17390,7 +20108,7 @@
         <v>10</v>
       </c>
       <c r="D23" s="1">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="E23" s="1">
         <v>45825</v>
@@ -17428,7 +20146,7 @@
         <v>16</v>
       </c>
       <c r="D24" s="1">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="E24" s="1">
         <v>45772</v>
@@ -17466,13 +20184,13 @@
         <v>10</v>
       </c>
       <c r="D25" s="1">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="E25" s="1">
-        <v>45876</v>
+        <v>45948</v>
       </c>
       <c r="F25">
-        <v>222</v>
+        <v>294</v>
       </c>
       <c r="G25">
         <v>265</v>
@@ -17504,7 +20222,7 @@
         <v>20</v>
       </c>
       <c r="D26" s="1">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="E26" s="1">
         <v>45759</v>
@@ -17542,7 +20260,7 @@
         <v>21</v>
       </c>
       <c r="D27" s="1">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="E27" s="1">
         <v>45663</v>
@@ -17580,13 +20298,13 @@
         <v>10</v>
       </c>
       <c r="D28" s="1">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="E28" s="1">
-        <v>45841</v>
+        <v>45921</v>
       </c>
       <c r="F28">
-        <v>187</v>
+        <v>267</v>
       </c>
       <c r="G28">
         <v>264.7</v>
@@ -17618,7 +20336,7 @@
         <v>22</v>
       </c>
       <c r="D29" s="1">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="E29" s="1">
         <v>45768</v>
@@ -17653,22 +20371,22 @@
         <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D30" s="1">
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="E30" s="1">
-        <v>45722</v>
+        <v>45921</v>
       </c>
       <c r="F30">
-        <v>68</v>
+        <v>267</v>
       </c>
       <c r="G30">
         <v>208</v>
       </c>
       <c r="H30">
-        <v>208</v>
+        <v>180</v>
       </c>
       <c r="I30">
         <v>120</v>
@@ -17677,10 +20395,10 @@
         <v>5</v>
       </c>
       <c r="K30">
-        <v>1.7333333333333301</v>
+        <v>1.5</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>-28</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -17887,10 +20605,10 @@
         <v>45687</v>
       </c>
       <c r="E36" s="1">
-        <v>45876</v>
+        <v>45948</v>
       </c>
       <c r="F36">
-        <v>189</v>
+        <v>261</v>
       </c>
       <c r="G36">
         <v>192</v>
@@ -18229,16 +20947,16 @@
         <v>45707</v>
       </c>
       <c r="E45" s="1">
-        <v>45876</v>
+        <v>45948</v>
       </c>
       <c r="F45">
-        <v>169</v>
+        <v>241</v>
       </c>
       <c r="G45">
         <v>214</v>
       </c>
       <c r="H45">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="I45">
         <v>100</v>
@@ -18247,10 +20965,10 @@
         <v>5</v>
       </c>
       <c r="K45">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="L45">
-        <v>-25</v>
+        <v>-19</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -18296,7 +21014,7 @@
         <v>34613053</v>
       </c>
       <c r="B47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C47" t="s">
         <v>10</v>
@@ -18305,10 +21023,10 @@
         <v>45713</v>
       </c>
       <c r="E47" s="1">
-        <v>45876</v>
+        <v>45891</v>
       </c>
       <c r="F47">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="G47">
         <v>180.95</v>
@@ -18334,7 +21052,7 @@
         <v>34546016</v>
       </c>
       <c r="B48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C48" t="s">
         <v>10</v>
@@ -18343,10 +21061,10 @@
         <v>45713</v>
       </c>
       <c r="E48" s="1">
-        <v>45876</v>
+        <v>45934</v>
       </c>
       <c r="F48">
-        <v>162</v>
+        <v>220</v>
       </c>
       <c r="G48">
         <v>189.9</v>
@@ -18495,7 +21213,7 @@
         <v>45731</v>
       </c>
       <c r="E52" s="1">
-        <v>45767</v>
+        <v>45768</v>
       </c>
       <c r="F52">
         <v>36</v>
@@ -18609,10 +21327,10 @@
         <v>45731</v>
       </c>
       <c r="E55" s="1">
-        <v>45876</v>
+        <v>45948</v>
       </c>
       <c r="F55">
-        <v>145</v>
+        <v>216</v>
       </c>
       <c r="G55">
         <v>249</v>
@@ -18752,7 +21470,7 @@
         <v>34694203</v>
       </c>
       <c r="B59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C59" t="s">
         <v>10</v>
@@ -18761,10 +21479,10 @@
         <v>45753</v>
       </c>
       <c r="E59" s="1">
-        <v>45876</v>
+        <v>45891</v>
       </c>
       <c r="F59">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="G59">
         <v>224</v>
@@ -18913,10 +21631,10 @@
         <v>45759</v>
       </c>
       <c r="E63" s="1">
-        <v>45876</v>
+        <v>45948</v>
       </c>
       <c r="F63">
-        <v>117</v>
+        <v>189</v>
       </c>
       <c r="G63">
         <v>220</v>
@@ -19018,7 +21736,7 @@
         <v>34719671</v>
       </c>
       <c r="B66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C66" t="s">
         <v>10</v>
@@ -19027,10 +21745,10 @@
         <v>45769</v>
       </c>
       <c r="E66" s="1">
-        <v>45876</v>
+        <v>45901</v>
       </c>
       <c r="F66">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="G66">
         <v>259.89999999999998</v>
@@ -19103,10 +21821,10 @@
         <v>45789</v>
       </c>
       <c r="E68" s="1">
-        <v>45876</v>
+        <v>45948</v>
       </c>
       <c r="F68">
-        <v>87</v>
+        <v>158</v>
       </c>
       <c r="G68">
         <v>229</v>
@@ -19246,7 +21964,7 @@
         <v>34698147</v>
       </c>
       <c r="B72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C72" t="s">
         <v>10</v>
@@ -19255,10 +21973,10 @@
         <v>45814</v>
       </c>
       <c r="E72" s="1">
-        <v>45876</v>
+        <v>45883</v>
       </c>
       <c r="F72">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="G72">
         <v>180.95</v>
@@ -19331,10 +22049,10 @@
         <v>45814</v>
       </c>
       <c r="E74" s="1">
-        <v>45876</v>
+        <v>45948</v>
       </c>
       <c r="F74">
-        <v>62</v>
+        <v>133</v>
       </c>
       <c r="G74">
         <v>214.9</v>
@@ -19398,7 +22116,7 @@
         <v>34804923</v>
       </c>
       <c r="B76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C76" t="s">
         <v>10</v>
@@ -19407,10 +22125,10 @@
         <v>45818</v>
       </c>
       <c r="E76" s="1">
-        <v>45876</v>
+        <v>45921</v>
       </c>
       <c r="F76">
-        <v>57</v>
+        <v>103</v>
       </c>
       <c r="G76">
         <v>199</v>
@@ -19483,16 +22201,16 @@
         <v>45818</v>
       </c>
       <c r="E78" s="1">
-        <v>45876</v>
+        <v>45948</v>
       </c>
       <c r="F78">
-        <v>57</v>
+        <v>129</v>
       </c>
       <c r="G78">
         <v>191</v>
       </c>
       <c r="H78">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="I78">
         <v>125</v>
@@ -19501,10 +22219,10 @@
         <v>4</v>
       </c>
       <c r="K78">
-        <v>1.504</v>
+        <v>1.472</v>
       </c>
       <c r="L78">
-        <v>-3</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
@@ -19521,16 +22239,16 @@
         <v>45823</v>
       </c>
       <c r="E79" s="1">
-        <v>45876</v>
+        <v>45948</v>
       </c>
       <c r="F79">
-        <v>53</v>
+        <v>125</v>
       </c>
       <c r="G79">
         <v>225.9</v>
       </c>
       <c r="H79">
-        <v>206</v>
+        <v>178.9</v>
       </c>
       <c r="I79">
         <v>109</v>
@@ -19539,10 +22257,10 @@
         <v>5</v>
       </c>
       <c r="K79">
-        <v>1.8899082568807299</v>
+        <v>1.6412844036697201</v>
       </c>
       <c r="L79">
-        <v>-19.899999999999999</v>
+        <v>-47</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
@@ -19588,7 +22306,7 @@
         <v>34823574</v>
       </c>
       <c r="B81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C81" t="s">
         <v>10</v>
@@ -19597,16 +22315,16 @@
         <v>45825</v>
       </c>
       <c r="E81" s="1">
-        <v>45876</v>
+        <v>45921</v>
       </c>
       <c r="F81">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="G81">
         <v>219</v>
       </c>
       <c r="H81">
-        <v>214</v>
+        <v>213.99</v>
       </c>
       <c r="I81">
         <v>109</v>
@@ -19615,10 +22333,10 @@
         <v>5.5</v>
       </c>
       <c r="K81">
-        <v>1.96330275229357</v>
+        <v>1.96321100917431</v>
       </c>
       <c r="L81">
-        <v>-5</v>
+        <v>-5.00999999999999</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
@@ -19635,7 +22353,7 @@
         <v>45841</v>
       </c>
       <c r="E82" s="1">
-        <v>45867</v>
+        <v>45868</v>
       </c>
       <c r="F82">
         <v>26</v>
@@ -19664,7 +22382,7 @@
         <v>34829279</v>
       </c>
       <c r="B83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C83" t="s">
         <v>10</v>
@@ -19673,10 +22391,10 @@
         <v>45841</v>
       </c>
       <c r="E83" s="1">
-        <v>45876</v>
+        <v>45901</v>
       </c>
       <c r="F83">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="G83">
         <v>179</v>
@@ -19740,7 +22458,7 @@
         <v>34841273</v>
       </c>
       <c r="B85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C85" t="s">
         <v>10</v>
@@ -19749,10 +22467,10 @@
         <v>45841</v>
       </c>
       <c r="E85" s="1">
-        <v>45876</v>
+        <v>45883</v>
       </c>
       <c r="F85">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G85">
         <v>150</v>
@@ -19787,10 +22505,10 @@
         <v>45841</v>
       </c>
       <c r="E86" s="1">
-        <v>45876</v>
+        <v>45948</v>
       </c>
       <c r="F86">
-        <v>35</v>
+        <v>107</v>
       </c>
       <c r="G86">
         <v>184</v>
@@ -19825,10 +22543,10 @@
         <v>45841</v>
       </c>
       <c r="E87" s="1">
-        <v>45876</v>
+        <v>45948</v>
       </c>
       <c r="F87">
-        <v>35</v>
+        <v>107</v>
       </c>
       <c r="G87">
         <v>229</v>
@@ -19863,16 +22581,16 @@
         <v>45841</v>
       </c>
       <c r="E88" s="1">
-        <v>45876</v>
+        <v>45948</v>
       </c>
       <c r="F88">
-        <v>35</v>
+        <v>107</v>
       </c>
       <c r="G88">
         <v>370</v>
       </c>
       <c r="H88">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="I88">
         <v>110</v>
@@ -19881,10 +22599,10 @@
         <v>4</v>
       </c>
       <c r="K88">
-        <v>3.1818181818181799</v>
+        <v>3.0909090909090899</v>
       </c>
       <c r="L88">
-        <v>-20</v>
+        <v>-30</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
@@ -19898,10 +22616,10 @@
         <v>10</v>
       </c>
       <c r="D89" s="1">
-        <v>45867</v>
+        <v>45868</v>
       </c>
       <c r="E89" s="1">
-        <v>45867</v>
+        <v>45868</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -19930,7 +22648,7 @@
         <v>34883664</v>
       </c>
       <c r="B90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C90" t="s">
         <v>10</v>
@@ -19939,10 +22657,10 @@
         <v>45876</v>
       </c>
       <c r="E90" s="1">
-        <v>45876</v>
+        <v>45901</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G90">
         <v>180.95</v>
@@ -19960,6 +22678,652 @@
         <v>1.7399038461538401</v>
       </c>
       <c r="L90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>34907394</v>
+      </c>
+      <c r="B91" t="b">
+        <v>0</v>
+      </c>
+      <c r="C91" t="s">
+        <v>10</v>
+      </c>
+      <c r="D91" s="1">
+        <v>45881</v>
+      </c>
+      <c r="E91" s="1">
+        <v>45883</v>
+      </c>
+      <c r="F91">
+        <v>2</v>
+      </c>
+      <c r="G91">
+        <v>209</v>
+      </c>
+      <c r="H91">
+        <v>209</v>
+      </c>
+      <c r="I91">
+        <v>121</v>
+      </c>
+      <c r="J91">
+        <v>5</v>
+      </c>
+      <c r="K91">
+        <v>1.72727272727272</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>34917566</v>
+      </c>
+      <c r="B92" t="b">
+        <v>0</v>
+      </c>
+      <c r="C92" t="s">
+        <v>10</v>
+      </c>
+      <c r="D92" s="1">
+        <v>45883</v>
+      </c>
+      <c r="E92" s="1">
+        <v>45934</v>
+      </c>
+      <c r="F92">
+        <v>51</v>
+      </c>
+      <c r="G92">
+        <v>254</v>
+      </c>
+      <c r="H92">
+        <v>244</v>
+      </c>
+      <c r="I92">
+        <v>105</v>
+      </c>
+      <c r="J92">
+        <v>4</v>
+      </c>
+      <c r="K92">
+        <v>2.32380952380952</v>
+      </c>
+      <c r="L92">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>34933989</v>
+      </c>
+      <c r="B93" t="b">
+        <v>0</v>
+      </c>
+      <c r="C93" t="s">
+        <v>10</v>
+      </c>
+      <c r="D93" s="1">
+        <v>45891</v>
+      </c>
+      <c r="E93" s="1">
+        <v>45898</v>
+      </c>
+      <c r="F93">
+        <v>7</v>
+      </c>
+      <c r="G93">
+        <v>159</v>
+      </c>
+      <c r="H93">
+        <v>159</v>
+      </c>
+      <c r="I93">
+        <v>112</v>
+      </c>
+      <c r="J93">
+        <v>4</v>
+      </c>
+      <c r="K93">
+        <v>1.4196428571428501</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>34960060</v>
+      </c>
+      <c r="B94" t="b">
+        <v>1</v>
+      </c>
+      <c r="C94" t="s">
+        <v>10</v>
+      </c>
+      <c r="D94" s="1">
+        <v>45911</v>
+      </c>
+      <c r="E94" s="1">
+        <v>45948</v>
+      </c>
+      <c r="F94">
+        <v>37</v>
+      </c>
+      <c r="G94">
+        <v>169</v>
+      </c>
+      <c r="H94">
+        <v>169</v>
+      </c>
+      <c r="I94">
+        <v>112</v>
+      </c>
+      <c r="J94">
+        <v>4</v>
+      </c>
+      <c r="K94">
+        <v>1.5089285714285701</v>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>35010422</v>
+      </c>
+      <c r="B95" t="b">
+        <v>1</v>
+      </c>
+      <c r="C95" t="s">
+        <v>10</v>
+      </c>
+      <c r="D95" s="1">
+        <v>45934</v>
+      </c>
+      <c r="E95" s="1">
+        <v>45948</v>
+      </c>
+      <c r="F95">
+        <v>14</v>
+      </c>
+      <c r="G95">
+        <v>150</v>
+      </c>
+      <c r="H95">
+        <v>150</v>
+      </c>
+      <c r="I95">
+        <v>119</v>
+      </c>
+      <c r="J95">
+        <v>3</v>
+      </c>
+      <c r="K95">
+        <v>1.26050420168067</v>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>35004703</v>
+      </c>
+      <c r="B96" t="b">
+        <v>1</v>
+      </c>
+      <c r="C96" t="s">
+        <v>10</v>
+      </c>
+      <c r="D96" s="1">
+        <v>45934</v>
+      </c>
+      <c r="E96" s="1">
+        <v>45948</v>
+      </c>
+      <c r="F96">
+        <v>14</v>
+      </c>
+      <c r="G96">
+        <v>149</v>
+      </c>
+      <c r="H96">
+        <v>149</v>
+      </c>
+      <c r="I96">
+        <v>123</v>
+      </c>
+      <c r="J96">
+        <v>3.5</v>
+      </c>
+      <c r="K96">
+        <v>1.21138211382113</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>35014192</v>
+      </c>
+      <c r="B97" t="b">
+        <v>1</v>
+      </c>
+      <c r="C97" t="s">
+        <v>10</v>
+      </c>
+      <c r="D97" s="1">
+        <v>45934</v>
+      </c>
+      <c r="E97" s="1">
+        <v>45948</v>
+      </c>
+      <c r="F97">
+        <v>14</v>
+      </c>
+      <c r="G97">
+        <v>210</v>
+      </c>
+      <c r="H97">
+        <v>210</v>
+      </c>
+      <c r="I97">
+        <v>109</v>
+      </c>
+      <c r="J97">
+        <v>5.5</v>
+      </c>
+      <c r="K97">
+        <v>1.92660550458715</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>35007606</v>
+      </c>
+      <c r="B98" t="b">
+        <v>1</v>
+      </c>
+      <c r="C98" t="s">
+        <v>10</v>
+      </c>
+      <c r="D98" s="1">
+        <v>45934</v>
+      </c>
+      <c r="E98" s="1">
+        <v>45948</v>
+      </c>
+      <c r="F98">
+        <v>14</v>
+      </c>
+      <c r="G98">
+        <v>244</v>
+      </c>
+      <c r="H98">
+        <v>244</v>
+      </c>
+      <c r="I98">
+        <v>98</v>
+      </c>
+      <c r="J98">
+        <v>4</v>
+      </c>
+      <c r="K98">
+        <v>2.4897959183673399</v>
+      </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>35000289</v>
+      </c>
+      <c r="B99" t="b">
+        <v>1</v>
+      </c>
+      <c r="C99" t="s">
+        <v>10</v>
+      </c>
+      <c r="D99" s="1">
+        <v>45934</v>
+      </c>
+      <c r="E99" s="1">
+        <v>45948</v>
+      </c>
+      <c r="F99">
+        <v>14</v>
+      </c>
+      <c r="G99">
+        <v>214.9</v>
+      </c>
+      <c r="H99">
+        <v>214.9</v>
+      </c>
+      <c r="I99">
+        <v>110</v>
+      </c>
+      <c r="J99">
+        <v>4</v>
+      </c>
+      <c r="K99">
+        <v>1.9536363636363601</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>35008860</v>
+      </c>
+      <c r="B100" t="b">
+        <v>0</v>
+      </c>
+      <c r="C100" t="s">
+        <v>10</v>
+      </c>
+      <c r="D100" s="1">
+        <v>45934</v>
+      </c>
+      <c r="E100" s="1">
+        <v>45934</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>244</v>
+      </c>
+      <c r="H100">
+        <v>244</v>
+      </c>
+      <c r="I100">
+        <v>105</v>
+      </c>
+      <c r="J100">
+        <v>4</v>
+      </c>
+      <c r="K100">
+        <v>2.32380952380952</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>35008632</v>
+      </c>
+      <c r="B101" t="b">
+        <v>1</v>
+      </c>
+      <c r="C101" t="s">
+        <v>10</v>
+      </c>
+      <c r="D101" s="1">
+        <v>45934</v>
+      </c>
+      <c r="E101" s="1">
+        <v>45948</v>
+      </c>
+      <c r="F101">
+        <v>14</v>
+      </c>
+      <c r="G101">
+        <v>244</v>
+      </c>
+      <c r="H101">
+        <v>244</v>
+      </c>
+      <c r="I101">
+        <v>98</v>
+      </c>
+      <c r="J101">
+        <v>4</v>
+      </c>
+      <c r="K101">
+        <v>2.4897959183673399</v>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>35008393</v>
+      </c>
+      <c r="B102" t="b">
+        <v>1</v>
+      </c>
+      <c r="C102" t="s">
+        <v>10</v>
+      </c>
+      <c r="D102" s="1">
+        <v>45934</v>
+      </c>
+      <c r="E102" s="1">
+        <v>45948</v>
+      </c>
+      <c r="F102">
+        <v>14</v>
+      </c>
+      <c r="G102">
+        <v>244</v>
+      </c>
+      <c r="H102">
+        <v>244</v>
+      </c>
+      <c r="I102">
+        <v>98</v>
+      </c>
+      <c r="J102">
+        <v>4</v>
+      </c>
+      <c r="K102">
+        <v>2.4897959183673399</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>35025259</v>
+      </c>
+      <c r="B103" t="b">
+        <v>0</v>
+      </c>
+      <c r="C103" t="s">
+        <v>10</v>
+      </c>
+      <c r="D103" s="1">
+        <v>45941</v>
+      </c>
+      <c r="E103" s="1">
+        <v>45941</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>189.9</v>
+      </c>
+      <c r="H103">
+        <v>189.9</v>
+      </c>
+      <c r="I103">
+        <v>115</v>
+      </c>
+      <c r="J103">
+        <v>4</v>
+      </c>
+      <c r="K103">
+        <v>1.65130434782608</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>35032940</v>
+      </c>
+      <c r="B104" t="b">
+        <v>0</v>
+      </c>
+      <c r="C104" t="s">
+        <v>10</v>
+      </c>
+      <c r="D104" s="1">
+        <v>45941</v>
+      </c>
+      <c r="E104" s="1">
+        <v>45941</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>259</v>
+      </c>
+      <c r="H104">
+        <v>259</v>
+      </c>
+      <c r="I104">
+        <v>100</v>
+      </c>
+      <c r="J104">
+        <v>4</v>
+      </c>
+      <c r="K104">
+        <v>2.59</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>35009219</v>
+      </c>
+      <c r="B105" t="b">
+        <v>1</v>
+      </c>
+      <c r="C105" t="s">
+        <v>10</v>
+      </c>
+      <c r="D105" s="1">
+        <v>45941</v>
+      </c>
+      <c r="E105" s="1">
+        <v>45948</v>
+      </c>
+      <c r="F105">
+        <v>6</v>
+      </c>
+      <c r="G105">
+        <v>244</v>
+      </c>
+      <c r="H105">
+        <v>244</v>
+      </c>
+      <c r="I105">
+        <v>98</v>
+      </c>
+      <c r="J105">
+        <v>4</v>
+      </c>
+      <c r="K105">
+        <v>2.4897959183673399</v>
+      </c>
+      <c r="L105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>35008343</v>
+      </c>
+      <c r="B106" t="b">
+        <v>1</v>
+      </c>
+      <c r="C106" t="s">
+        <v>10</v>
+      </c>
+      <c r="D106" s="1">
+        <v>45941</v>
+      </c>
+      <c r="E106" s="1">
+        <v>45948</v>
+      </c>
+      <c r="F106">
+        <v>6</v>
+      </c>
+      <c r="G106">
+        <v>244</v>
+      </c>
+      <c r="H106">
+        <v>244</v>
+      </c>
+      <c r="I106">
+        <v>98</v>
+      </c>
+      <c r="J106">
+        <v>4</v>
+      </c>
+      <c r="K106">
+        <v>2.4897959183673399</v>
+      </c>
+      <c r="L106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>35020541</v>
+      </c>
+      <c r="B107" t="b">
+        <v>1</v>
+      </c>
+      <c r="C107" t="s">
+        <v>10</v>
+      </c>
+      <c r="D107" s="1">
+        <v>45948</v>
+      </c>
+      <c r="E107" s="1">
+        <v>45948</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <v>239</v>
+      </c>
+      <c r="H107">
+        <v>239</v>
+      </c>
+      <c r="I107">
+        <v>125</v>
+      </c>
+      <c r="J107">
+        <v>4</v>
+      </c>
+      <c r="K107">
+        <v>1.9119999999999999</v>
+      </c>
+      <c r="L107">
         <v>0</v>
       </c>
     </row>
@@ -19971,11 +23335,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2028B189-73B4-4612-A074-1CA186AB1A38}">
-  <dimension ref="A1:R115"/>
+  <dimension ref="A1:R118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G23" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
-      <selection activeCell="W41" sqref="W41"/>
-    </sheetView>
+    <sheetView zoomScale="83" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -20041,7 +23403,7 @@
       </c>
       <c r="D2" s="1">
         <f>IF(advert_summary!$B2=$N$1,advert_summary!D2,0)</f>
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="E2" s="1">
         <f>IF(advert_summary!$B2=$N$1,advert_summary!E2,0)</f>
@@ -20111,11 +23473,11 @@
       </c>
       <c r="C3" t="str">
         <f>IF(advert_summary!$B3=$N$1,advert_summary!C3,"")</f>
-        <v>Budapest III. kerÃ¼let, Aranyhegy</v>
+        <v>Budapest III. kerĂĽlet, Aranyhegy</v>
       </c>
       <c r="D3" s="1">
         <f>IF(advert_summary!$B3=$N$1,advert_summary!D3,0)</f>
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="E3" s="1">
         <f>IF(advert_summary!$B3=$N$1,advert_summary!E3,0)</f>
@@ -20161,11 +23523,11 @@
       </c>
       <c r="C4" t="str">
         <f>IF(advert_summary!$B4=$N$1,advert_summary!C4,"")</f>
-        <v>Budapest III. kerÃ¼let, Jutas kÃ¶z 4.</v>
+        <v>Budapest III. kerĂĽlet, Jutas kĂ¶z 4.</v>
       </c>
       <c r="D4" s="1">
         <f>IF(advert_summary!$B4=$N$1,advert_summary!D4,0)</f>
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="E4" s="1">
         <f>IF(advert_summary!$B4=$N$1,advert_summary!E4,0)</f>
@@ -20211,11 +23573,11 @@
       </c>
       <c r="C5" t="str">
         <f>IF(advert_summary!$B5=$N$1,advert_summary!C5,"")</f>
-        <v>Budapest III. kerÃ¼let, Aranyhegy</v>
+        <v>Budapest III. kerĂĽlet, Aranyhegy</v>
       </c>
       <c r="D5" s="1">
         <f>IF(advert_summary!$B5=$N$1,advert_summary!D5,0)</f>
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="E5" s="1">
         <f>IF(advert_summary!$B5=$N$1,advert_summary!E5,0)</f>
@@ -20265,7 +23627,7 @@
       </c>
       <c r="D6" s="1">
         <f>IF(advert_summary!$B6=$N$1,advert_summary!D6,0)</f>
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="E6" s="1">
         <f>IF(advert_summary!$B6=$N$1,advert_summary!E6,0)</f>
@@ -20311,11 +23673,11 @@
       </c>
       <c r="C7" t="str">
         <f>IF(advert_summary!$B7=$N$1,advert_summary!C7,"")</f>
-        <v>Budapest III. kerÃ¼let, ÃœrÃ¶mhegy</v>
+        <v>Budapest III. kerĂĽlet, ĂśrĂ¶mhegy</v>
       </c>
       <c r="D7" s="1">
         <f>IF(advert_summary!$B7=$N$1,advert_summary!D7,0)</f>
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="E7" s="1">
         <f>IF(advert_summary!$B7=$N$1,advert_summary!E7,0)</f>
@@ -20361,11 +23723,11 @@
       </c>
       <c r="C8" t="str">
         <f>IF(advert_summary!$B8=$N$1,advert_summary!C8,"")</f>
-        <v>Budapest III. kerÃ¼let, ÃœrÃ¶mhegy</v>
+        <v>Budapest III. kerĂĽlet, ĂśrĂ¶mhegy</v>
       </c>
       <c r="D8" s="1">
         <f>IF(advert_summary!$B8=$N$1,advert_summary!D8,0)</f>
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="E8" s="1">
         <f>IF(advert_summary!$B8=$N$1,advert_summary!E8,0)</f>
@@ -20411,11 +23773,11 @@
       </c>
       <c r="C9" t="str">
         <f>IF(advert_summary!$B9=$N$1,advert_summary!C9,"")</f>
-        <v>Budapest III. kerÃ¼let, Csillaghegy</v>
+        <v>Budapest III. kerĂĽlet, Csillaghegy</v>
       </c>
       <c r="D9" s="1">
         <f>IF(advert_summary!$B9=$N$1,advert_summary!D9,0)</f>
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="E9" s="1">
         <f>IF(advert_summary!$B9=$N$1,advert_summary!E9,0)</f>
@@ -20561,11 +23923,11 @@
       </c>
       <c r="C12" t="str">
         <f>IF(advert_summary!$B12=$N$1,advert_summary!C12,"")</f>
-        <v>Budapest III. kerÃ¼let, Aranyhegy</v>
+        <v>Budapest III. kerĂĽlet, Aranyhegy</v>
       </c>
       <c r="D12" s="1">
         <f>IF(advert_summary!$B12=$N$1,advert_summary!D12,0)</f>
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="E12" s="1">
         <f>IF(advert_summary!$B12=$N$1,advert_summary!E12,0)</f>
@@ -20611,11 +23973,11 @@
       </c>
       <c r="C13" t="str">
         <f>IF(advert_summary!$B13=$N$1,advert_summary!C13,"")</f>
-        <v>Budapest III. kerÃ¼let, Csillaghegy</v>
+        <v>Budapest III. kerĂĽlet, Csillaghegy</v>
       </c>
       <c r="D13" s="1">
         <f>IF(advert_summary!$B13=$N$1,advert_summary!D13,0)</f>
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="E13" s="1">
         <f>IF(advert_summary!$B13=$N$1,advert_summary!E13,0)</f>
@@ -20711,11 +24073,11 @@
       </c>
       <c r="C15" t="str">
         <f>IF(advert_summary!$B15=$N$1,advert_summary!C15,"")</f>
-        <v>Budapest III. kerÃ¼let, ÃœrÃ¶mfÅ± utca</v>
+        <v>Budapest III. kerĂĽlet, ĂśrĂ¶mfĹ± utca</v>
       </c>
       <c r="D15" s="1">
         <f>IF(advert_summary!$B15=$N$1,advert_summary!D15,0)</f>
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="E15" s="1">
         <f>IF(advert_summary!$B15=$N$1,advert_summary!E15,0)</f>
@@ -20761,11 +24123,11 @@
       </c>
       <c r="C16" t="str">
         <f>IF(advert_summary!$B16=$N$1,advert_summary!C16,"")</f>
-        <v>Budapest III. kerÃ¼let, Csillaghegy</v>
+        <v>Budapest III. kerĂĽlet, Csillaghegy</v>
       </c>
       <c r="D16" s="1">
         <f>IF(advert_summary!$B16=$N$1,advert_summary!D16,0)</f>
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="E16" s="1">
         <f>IF(advert_summary!$B16=$N$1,advert_summary!E16,0)</f>
@@ -20811,11 +24173,11 @@
       </c>
       <c r="C17" t="str">
         <f>IF(advert_summary!$B17=$N$1,advert_summary!C17,"")</f>
-        <v>Budapest XI. kerÃ¼let, MadÃ¡rhegy</v>
+        <v>Budapest XI. kerĂĽlet, MadĂˇrhegy</v>
       </c>
       <c r="D17" s="1">
         <f>IF(advert_summary!$B17=$N$1,advert_summary!D17,0)</f>
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="E17" s="1">
         <f>IF(advert_summary!$B17=$N$1,advert_summary!E17,0)</f>
@@ -20861,11 +24223,11 @@
       </c>
       <c r="C18" t="str">
         <f>IF(advert_summary!$B18=$N$1,advert_summary!C18,"")</f>
-        <v>Budapest III. kerÃ¼let, ÃœrÃ¶mhegy</v>
+        <v>Budapest III. kerĂĽlet, ĂśrĂ¶mhegy</v>
       </c>
       <c r="D18" s="1">
         <f>IF(advert_summary!$B18=$N$1,advert_summary!D18,0)</f>
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="E18" s="1">
         <f>IF(advert_summary!$B18=$N$1,advert_summary!E18,0)</f>
@@ -20961,11 +24323,11 @@
       </c>
       <c r="C20" t="str">
         <f>IF(advert_summary!$B20=$N$1,advert_summary!C20,"")</f>
-        <v>Budapest II. kerÃ¼let, ElÅ‘d vezÃ©r utca</v>
+        <v>Budapest II. kerĂĽlet, ElĹ‘d vezĂ©r utca</v>
       </c>
       <c r="D20" s="1">
         <f>IF(advert_summary!$B20=$N$1,advert_summary!D20,0)</f>
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="E20" s="1">
         <f>IF(advert_summary!$B20=$N$1,advert_summary!E20,0)</f>
@@ -21061,11 +24423,11 @@
       </c>
       <c r="C22" t="str">
         <f>IF(advert_summary!$B22=$N$1,advert_summary!C22,"")</f>
-        <v>Budapest II. kerÃ¼let, ElÅ‘d vezÃ©r utca</v>
+        <v>Budapest II. kerĂĽlet, ElĹ‘d vezĂ©r utca</v>
       </c>
       <c r="D22" s="1">
         <f>IF(advert_summary!$B22=$N$1,advert_summary!D22,0)</f>
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="E22" s="1">
         <f>IF(advert_summary!$B22=$N$1,advert_summary!E22,0)</f>
@@ -21115,7 +24477,7 @@
       </c>
       <c r="D23" s="1">
         <f>IF(advert_summary!$B23=$N$1,advert_summary!D23,0)</f>
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="E23" s="1">
         <f>IF(advert_summary!$B23=$N$1,advert_summary!E23,0)</f>
@@ -21161,11 +24523,11 @@
       </c>
       <c r="C24" t="str">
         <f>IF(advert_summary!$B24=$N$1,advert_summary!C24,"")</f>
-        <v>Budapest III. kerÃ¼let, Csillaghegy</v>
+        <v>Budapest III. kerĂĽlet, Csillaghegy</v>
       </c>
       <c r="D24" s="1">
         <f>IF(advert_summary!$B24=$N$1,advert_summary!D24,0)</f>
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="E24" s="1">
         <f>IF(advert_summary!$B24=$N$1,advert_summary!E24,0)</f>
@@ -21261,11 +24623,11 @@
       </c>
       <c r="C26" t="str">
         <f>IF(advert_summary!$B26=$N$1,advert_summary!C26,"")</f>
-        <v>Budapest XI. kerÃ¼let, Szerelmey MiklÃ³s utca</v>
+        <v>Budapest XI. kerĂĽlet, Szerelmey MiklĂłs utca</v>
       </c>
       <c r="D26" s="1">
         <f>IF(advert_summary!$B26=$N$1,advert_summary!D26,0)</f>
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="E26" s="1">
         <f>IF(advert_summary!$B26=$N$1,advert_summary!E26,0)</f>
@@ -21311,11 +24673,11 @@
       </c>
       <c r="C27" t="str">
         <f>IF(advert_summary!$B27=$N$1,advert_summary!C27,"")</f>
-        <v>Budapest III. kerÃ¼let, Tarhos utca</v>
+        <v>Budapest III. kerĂĽlet, Tarhos utca</v>
       </c>
       <c r="D27" s="1">
         <f>IF(advert_summary!$B27=$N$1,advert_summary!D27,0)</f>
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="E27" s="1">
         <f>IF(advert_summary!$B27=$N$1,advert_summary!E27,0)</f>
@@ -21365,15 +24727,15 @@
       </c>
       <c r="D28" s="1">
         <f>IF(advert_summary!$B28=$N$1,advert_summary!D28,0)</f>
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="E28" s="1">
         <f>IF(advert_summary!$B28=$N$1,advert_summary!E28,0)</f>
-        <v>45841</v>
+        <v>45921</v>
       </c>
       <c r="F28" s="2">
         <f>IF(advert_summary!$B28=$N$1,advert_summary!F28,0)</f>
-        <v>187</v>
+        <v>267</v>
       </c>
       <c r="G28" s="2">
         <f>IF(advert_summary!$B28=$N$1,advert_summary!G28,0)</f>
@@ -21411,11 +24773,11 @@
       </c>
       <c r="C29" t="str">
         <f>IF(advert_summary!$B29=$N$1,advert_summary!C29,"")</f>
-        <v>Budapest III. kerÃ¼let, Naplemente utca</v>
+        <v>Budapest III. kerĂĽlet, Naplemente utca</v>
       </c>
       <c r="D29" s="1">
         <f>IF(advert_summary!$B29=$N$1,advert_summary!D29,0)</f>
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="E29" s="1">
         <f>IF(advert_summary!$B29=$N$1,advert_summary!E29,0)</f>
@@ -21461,19 +24823,19 @@
       </c>
       <c r="C30" t="str">
         <f>IF(advert_summary!$B30=$N$1,advert_summary!C30,"")</f>
-        <v>Budapest III. kerÃ¼let, ÃœrÃ¶mhegy</v>
+        <v>N/A</v>
       </c>
       <c r="D30" s="1">
         <f>IF(advert_summary!$B30=$N$1,advert_summary!D30,0)</f>
-        <v>45653</v>
+        <v>45654</v>
       </c>
       <c r="E30" s="1">
         <f>IF(advert_summary!$B30=$N$1,advert_summary!E30,0)</f>
-        <v>45722</v>
+        <v>45921</v>
       </c>
       <c r="F30" s="2">
         <f>IF(advert_summary!$B30=$N$1,advert_summary!F30,0)</f>
-        <v>68</v>
+        <v>267</v>
       </c>
       <c r="G30" s="2">
         <f>IF(advert_summary!$B30=$N$1,advert_summary!G30,0)</f>
@@ -21481,7 +24843,7 @@
       </c>
       <c r="H30" s="2">
         <f>IF(advert_summary!$B30=$N$1,advert_summary!H30,0)</f>
-        <v>208</v>
+        <v>180</v>
       </c>
       <c r="I30" s="2">
         <f>IF(advert_summary!$B30=$N$1,advert_summary!I30,0)</f>
@@ -21493,11 +24855,11 @@
       </c>
       <c r="K30" s="2">
         <f>IF(advert_summary!$B30=$N$1,advert_summary!K30,0)</f>
-        <v>1.7333333333333301</v>
+        <v>1.5</v>
       </c>
       <c r="L30" s="2">
         <f>IF(advert_summary!$B30=$N$1,advert_summary!L30,0)</f>
-        <v>0</v>
+        <v>-28</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -21511,7 +24873,7 @@
       </c>
       <c r="C31" t="str">
         <f>IF(advert_summary!$B31=$N$1,advert_summary!C31,"")</f>
-        <v>Budapest III. kerÃ¼let, ÃœrÃ¶mhegy</v>
+        <v>Budapest III. kerĂĽlet, ĂśrĂ¶mhegy</v>
       </c>
       <c r="D31" s="1">
         <f>IF(advert_summary!$B31=$N$1,advert_summary!D31,0)</f>
@@ -21561,7 +24923,7 @@
       </c>
       <c r="C32" t="str">
         <f>IF(advert_summary!$B32=$N$1,advert_summary!C32,"")</f>
-        <v>Budapest XII. kerÃ¼let, DiÃ³s Ã¡rok</v>
+        <v>Budapest XII. kerĂĽlet, DiĂłs Ăˇrok</v>
       </c>
       <c r="D32" s="1">
         <f>IF(advert_summary!$B32=$N$1,advert_summary!D32,0)</f>
@@ -21611,7 +24973,7 @@
       </c>
       <c r="C33" t="str">
         <f>IF(advert_summary!$B33=$N$1,advert_summary!C33,"")</f>
-        <v>Budapest III. kerÃ¼let, Csillaghegy</v>
+        <v>Budapest III. kerĂĽlet, Csillaghegy</v>
       </c>
       <c r="D33" s="1">
         <f>IF(advert_summary!$B33=$N$1,advert_summary!D33,0)</f>
@@ -21661,7 +25023,7 @@
       </c>
       <c r="C34" t="str">
         <f>IF(advert_summary!$B34=$N$1,advert_summary!C34,"")</f>
-        <v>Budapest III. kerÃ¼let, ÃœrÃ¶mhegy</v>
+        <v>Budapest III. kerĂĽlet, ĂśrĂ¶mhegy</v>
       </c>
       <c r="D34" s="1">
         <f>IF(advert_summary!$B34=$N$1,advert_summary!D34,0)</f>
@@ -21711,7 +25073,7 @@
       </c>
       <c r="C35" t="str">
         <f>IF(advert_summary!$B35=$N$1,advert_summary!C35,"")</f>
-        <v>Budapest III. kerÃ¼let, ÃœrÃ¶mhegy</v>
+        <v>Budapest III. kerĂĽlet, ĂśrĂ¶mhegy</v>
       </c>
       <c r="D35" s="1">
         <f>IF(advert_summary!$B35=$N$1,advert_summary!D35,0)</f>
@@ -21811,7 +25173,7 @@
       </c>
       <c r="C37" t="str">
         <f>IF(advert_summary!$B37=$N$1,advert_summary!C37,"")</f>
-        <v>Budapest III. kerÃ¼let, ÃœrÃ¶mhegy</v>
+        <v>Budapest III. kerĂĽlet, ĂśrĂ¶mhegy</v>
       </c>
       <c r="D37" s="1">
         <f>IF(advert_summary!$B37=$N$1,advert_summary!D37,0)</f>
@@ -21861,7 +25223,7 @@
       </c>
       <c r="C38" t="str">
         <f>IF(advert_summary!$B38=$N$1,advert_summary!C38,"")</f>
-        <v>Budapest III. kerÃ¼let, ÃœrÃ¶mhegy</v>
+        <v>Budapest III. kerĂĽlet, ĂśrĂ¶mhegy</v>
       </c>
       <c r="D38" s="1">
         <f>IF(advert_summary!$B38=$N$1,advert_summary!D38,0)</f>
@@ -21911,7 +25273,7 @@
       </c>
       <c r="C39" t="str">
         <f>IF(advert_summary!$B39=$N$1,advert_summary!C39,"")</f>
-        <v>Budapest XII. kerÃ¼let, DenevÃ©r Ãºt</v>
+        <v>Budapest XII. kerĂĽlet, DenevĂ©r Ăşt</v>
       </c>
       <c r="D39" s="1">
         <f>IF(advert_summary!$B39=$N$1,advert_summary!D39,0)</f>
@@ -22011,7 +25373,7 @@
       </c>
       <c r="C41" t="str">
         <f>IF(advert_summary!$B41=$N$1,advert_summary!C41,"")</f>
-        <v>Budapest III. kerÃ¼let, BÃ©csi Ãºt</v>
+        <v>Budapest III. kerĂĽlet, BĂ©csi Ăşt</v>
       </c>
       <c r="D41" s="1">
         <f>IF(advert_summary!$B41=$N$1,advert_summary!D41,0)</f>
@@ -22061,7 +25423,7 @@
       </c>
       <c r="C42" t="str">
         <f>IF(advert_summary!$B42=$N$1,advert_summary!C42,"")</f>
-        <v>Budapest III. kerÃ¼let, Aranyhegy</v>
+        <v>Budapest III. kerĂĽlet, Aranyhegy</v>
       </c>
       <c r="D42" s="1">
         <f>IF(advert_summary!$B42=$N$1,advert_summary!D42,0)</f>
@@ -22261,7 +25623,7 @@
       </c>
       <c r="C46" t="str">
         <f>IF(advert_summary!$B46=$N$1,advert_summary!C46,"")</f>
-        <v>Budapest XII. kerÃ¼let, DenevÃ©r Ãºt</v>
+        <v>Budapest XII. kerĂĽlet, DenevĂ©r Ăşt</v>
       </c>
       <c r="D46" s="1">
         <f>IF(advert_summary!$B46=$N$1,advert_summary!D46,0)</f>
@@ -22303,47 +25665,47 @@
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <f>IF(advert_summary!$B47=$N$1,advert_summary!A47,0)</f>
-        <v>0</v>
-      </c>
-      <c r="B47" t="str">
+        <v>34613053</v>
+      </c>
+      <c r="B47" t="b">
         <f>IF(advert_summary!$B47=$N$1,advert_summary!B47,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C47" t="str">
         <f>IF(advert_summary!$B47=$N$1,advert_summary!C47,"")</f>
-        <v/>
+        <v>N/A</v>
       </c>
       <c r="D47" s="1">
         <f>IF(advert_summary!$B47=$N$1,advert_summary!D47,0)</f>
-        <v>0</v>
+        <v>45713</v>
       </c>
       <c r="E47" s="1">
         <f>IF(advert_summary!$B47=$N$1,advert_summary!E47,0)</f>
-        <v>0</v>
+        <v>45891</v>
       </c>
       <c r="F47" s="2">
         <f>IF(advert_summary!$B47=$N$1,advert_summary!F47,0)</f>
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="G47" s="2">
         <f>IF(advert_summary!$B47=$N$1,advert_summary!G47,0)</f>
-        <v>0</v>
+        <v>180.95</v>
       </c>
       <c r="H47" s="2">
         <f>IF(advert_summary!$B47=$N$1,advert_summary!H47,0)</f>
-        <v>0</v>
+        <v>180.95</v>
       </c>
       <c r="I47" s="2">
         <f>IF(advert_summary!$B47=$N$1,advert_summary!I47,0)</f>
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="J47" s="2">
         <f>IF(advert_summary!$B47=$N$1,advert_summary!J47,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K47" s="2">
         <f>IF(advert_summary!$B47=$N$1,advert_summary!K47,0)</f>
-        <v>0</v>
+        <v>1.7399038461538401</v>
       </c>
       <c r="L47" s="2">
         <f>IF(advert_summary!$B47=$N$1,advert_summary!L47,0)</f>
@@ -22353,47 +25715,47 @@
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <f>IF(advert_summary!$B48=$N$1,advert_summary!A48,0)</f>
-        <v>0</v>
-      </c>
-      <c r="B48" t="str">
+        <v>34546016</v>
+      </c>
+      <c r="B48" t="b">
         <f>IF(advert_summary!$B48=$N$1,advert_summary!B48,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C48" t="str">
         <f>IF(advert_summary!$B48=$N$1,advert_summary!C48,"")</f>
-        <v/>
+        <v>N/A</v>
       </c>
       <c r="D48" s="1">
         <f>IF(advert_summary!$B48=$N$1,advert_summary!D48,0)</f>
-        <v>0</v>
+        <v>45713</v>
       </c>
       <c r="E48" s="1">
         <f>IF(advert_summary!$B48=$N$1,advert_summary!E48,0)</f>
-        <v>0</v>
+        <v>45934</v>
       </c>
       <c r="F48" s="2">
         <f>IF(advert_summary!$B48=$N$1,advert_summary!F48,0)</f>
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="G48" s="2">
         <f>IF(advert_summary!$B48=$N$1,advert_summary!G48,0)</f>
-        <v>0</v>
+        <v>189.9</v>
       </c>
       <c r="H48" s="2">
         <f>IF(advert_summary!$B48=$N$1,advert_summary!H48,0)</f>
-        <v>0</v>
+        <v>189.9</v>
       </c>
       <c r="I48" s="2">
         <f>IF(advert_summary!$B48=$N$1,advert_summary!I48,0)</f>
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="J48" s="2">
         <f>IF(advert_summary!$B48=$N$1,advert_summary!J48,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K48" s="2">
         <f>IF(advert_summary!$B48=$N$1,advert_summary!K48,0)</f>
-        <v>0</v>
+        <v>1.5192000000000001</v>
       </c>
       <c r="L48" s="2">
         <f>IF(advert_summary!$B48=$N$1,advert_summary!L48,0)</f>
@@ -22461,7 +25823,7 @@
       </c>
       <c r="C50" t="str">
         <f>IF(advert_summary!$B50=$N$1,advert_summary!C50,"")</f>
-        <v>Budapest II. kerÃ¼let, II/A kerÃ¼let - Adyliget</v>
+        <v>Budapest II. kerĂĽlet, II/A kerĂĽlet - Adyliget</v>
       </c>
       <c r="D50" s="1">
         <f>IF(advert_summary!$B50=$N$1,advert_summary!D50,0)</f>
@@ -22561,7 +25923,7 @@
       </c>
       <c r="C52" t="str">
         <f>IF(advert_summary!$B52=$N$1,advert_summary!C52,"")</f>
-        <v>Budapest XII. kerÃ¼let, DenevÃ©r Ãºt</v>
+        <v>Budapest XII. kerĂĽlet, DenevĂ©r Ăşt</v>
       </c>
       <c r="D52" s="1">
         <f>IF(advert_summary!$B52=$N$1,advert_summary!D52,0)</f>
@@ -22569,7 +25931,7 @@
       </c>
       <c r="E52" s="1">
         <f>IF(advert_summary!$B52=$N$1,advert_summary!E52,0)</f>
-        <v>45767</v>
+        <v>45768</v>
       </c>
       <c r="F52" s="2">
         <f>IF(advert_summary!$B52=$N$1,advert_summary!F52,0)</f>
@@ -22661,7 +26023,7 @@
       </c>
       <c r="C54" t="str">
         <f>IF(advert_summary!$B54=$N$1,advert_summary!C54,"")</f>
-        <v>Budapest XI. kerÃ¼let, VerbÃ©na utca 59.</v>
+        <v>Budapest XI. kerĂĽlet, VerbĂ©na utca 59.</v>
       </c>
       <c r="D54" s="1">
         <f>IF(advert_summary!$B54=$N$1,advert_summary!D54,0)</f>
@@ -22761,7 +26123,7 @@
       </c>
       <c r="C56" t="str">
         <f>IF(advert_summary!$B56=$N$1,advert_summary!C56,"")</f>
-        <v>Budapest III. kerÃ¼let, VÃ­zimenta utca</v>
+        <v>Budapest III. kerĂĽlet, VĂ­zimenta utca</v>
       </c>
       <c r="D56" s="1">
         <f>IF(advert_summary!$B56=$N$1,advert_summary!D56,0)</f>
@@ -22811,7 +26173,7 @@
       </c>
       <c r="C57" t="str">
         <f>IF(advert_summary!$B57=$N$1,advert_summary!C57,"")</f>
-        <v>Budapest XI. kerÃ¼let, Kubikos utca</v>
+        <v>Budapest XI. kerĂĽlet, Kubikos utca</v>
       </c>
       <c r="D57" s="1">
         <f>IF(advert_summary!$B57=$N$1,advert_summary!D57,0)</f>
@@ -22903,51 +26265,51 @@
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <f>IF(advert_summary!$B59=$N$1,advert_summary!A59,0)</f>
-        <v>0</v>
-      </c>
-      <c r="B59" t="str">
+        <v>34694203</v>
+      </c>
+      <c r="B59" t="b">
         <f>IF(advert_summary!$B59=$N$1,advert_summary!B59,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C59" t="str">
         <f>IF(advert_summary!$B59=$N$1,advert_summary!C59,"")</f>
-        <v/>
+        <v>N/A</v>
       </c>
       <c r="D59" s="1">
         <f>IF(advert_summary!$B59=$N$1,advert_summary!D59,0)</f>
-        <v>0</v>
+        <v>45753</v>
       </c>
       <c r="E59" s="1">
         <f>IF(advert_summary!$B59=$N$1,advert_summary!E59,0)</f>
-        <v>0</v>
+        <v>45891</v>
       </c>
       <c r="F59" s="2">
         <f>IF(advert_summary!$B59=$N$1,advert_summary!F59,0)</f>
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="G59" s="2">
         <f>IF(advert_summary!$B59=$N$1,advert_summary!G59,0)</f>
-        <v>0</v>
+        <v>224</v>
       </c>
       <c r="H59" s="2">
         <f>IF(advert_summary!$B59=$N$1,advert_summary!H59,0)</f>
-        <v>0</v>
+        <v>199.9</v>
       </c>
       <c r="I59" s="2">
         <f>IF(advert_summary!$B59=$N$1,advert_summary!I59,0)</f>
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="J59" s="2">
         <f>IF(advert_summary!$B59=$N$1,advert_summary!J59,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K59" s="2">
         <f>IF(advert_summary!$B59=$N$1,advert_summary!K59,0)</f>
-        <v>0</v>
+        <v>1.92211538461538</v>
       </c>
       <c r="L59" s="2">
         <f>IF(advert_summary!$B59=$N$1,advert_summary!L59,0)</f>
-        <v>0</v>
+        <v>-24.099999999999898</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
@@ -23061,7 +26423,7 @@
       </c>
       <c r="C62" t="str">
         <f>IF(advert_summary!$B62=$N$1,advert_summary!C62,"")</f>
-        <v>Budapest XI. kerÃ¼let, Kubikos utca</v>
+        <v>Budapest XI. kerĂĽlet, Kubikos utca</v>
       </c>
       <c r="D62" s="1">
         <f>IF(advert_summary!$B62=$N$1,advert_summary!D62,0)</f>
@@ -23211,7 +26573,7 @@
       </c>
       <c r="C65" t="str">
         <f>IF(advert_summary!$B65=$N$1,advert_summary!C65,"")</f>
-        <v>Budapest III. kerÃ¼let, VÃ­zimenta utca</v>
+        <v>Budapest III. kerĂĽlet, VĂ­zimenta utca</v>
       </c>
       <c r="D65" s="1">
         <f>IF(advert_summary!$B65=$N$1,advert_summary!D65,0)</f>
@@ -23253,51 +26615,51 @@
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <f>IF(advert_summary!$B66=$N$1,advert_summary!A66,0)</f>
-        <v>0</v>
-      </c>
-      <c r="B66" t="str">
+        <v>34719671</v>
+      </c>
+      <c r="B66" t="b">
         <f>IF(advert_summary!$B66=$N$1,advert_summary!B66,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C66" t="str">
         <f>IF(advert_summary!$B66=$N$1,advert_summary!C66,"")</f>
-        <v/>
+        <v>N/A</v>
       </c>
       <c r="D66" s="1">
         <f>IF(advert_summary!$B66=$N$1,advert_summary!D66,0)</f>
-        <v>0</v>
+        <v>45769</v>
       </c>
       <c r="E66" s="1">
         <f>IF(advert_summary!$B66=$N$1,advert_summary!E66,0)</f>
-        <v>0</v>
+        <v>45901</v>
       </c>
       <c r="F66" s="2">
         <f>IF(advert_summary!$B66=$N$1,advert_summary!F66,0)</f>
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="G66" s="2">
         <f>IF(advert_summary!$B66=$N$1,advert_summary!G66,0)</f>
-        <v>0</v>
+        <v>259.89999999999998</v>
       </c>
       <c r="H66" s="2">
         <f>IF(advert_summary!$B66=$N$1,advert_summary!H66,0)</f>
-        <v>0</v>
+        <v>249.9</v>
       </c>
       <c r="I66" s="2">
         <f>IF(advert_summary!$B66=$N$1,advert_summary!I66,0)</f>
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="J66" s="2">
         <f>IF(advert_summary!$B66=$N$1,advert_summary!J66,0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K66" s="2">
         <f>IF(advert_summary!$B66=$N$1,advert_summary!K66,0)</f>
-        <v>0</v>
+        <v>1.95234375</v>
       </c>
       <c r="L66" s="2">
         <f>IF(advert_summary!$B66=$N$1,advert_summary!L66,0)</f>
-        <v>0</v>
+        <v>-9.9999999999999698</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
@@ -23553,47 +26915,47 @@
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <f>IF(advert_summary!$B72=$N$1,advert_summary!A72,0)</f>
-        <v>0</v>
-      </c>
-      <c r="B72" t="str">
+        <v>34698147</v>
+      </c>
+      <c r="B72" t="b">
         <f>IF(advert_summary!$B72=$N$1,advert_summary!B72,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C72" t="str">
         <f>IF(advert_summary!$B72=$N$1,advert_summary!C72,"")</f>
-        <v/>
+        <v>N/A</v>
       </c>
       <c r="D72" s="1">
         <f>IF(advert_summary!$B72=$N$1,advert_summary!D72,0)</f>
-        <v>0</v>
+        <v>45814</v>
       </c>
       <c r="E72" s="1">
         <f>IF(advert_summary!$B72=$N$1,advert_summary!E72,0)</f>
-        <v>0</v>
+        <v>45883</v>
       </c>
       <c r="F72" s="2">
         <f>IF(advert_summary!$B72=$N$1,advert_summary!F72,0)</f>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="G72" s="2">
         <f>IF(advert_summary!$B72=$N$1,advert_summary!G72,0)</f>
-        <v>0</v>
+        <v>180.95</v>
       </c>
       <c r="H72" s="2">
         <f>IF(advert_summary!$B72=$N$1,advert_summary!H72,0)</f>
-        <v>0</v>
+        <v>180.95</v>
       </c>
       <c r="I72" s="2">
         <f>IF(advert_summary!$B72=$N$1,advert_summary!I72,0)</f>
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="J72" s="2">
         <f>IF(advert_summary!$B72=$N$1,advert_summary!J72,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K72" s="2">
         <f>IF(advert_summary!$B72=$N$1,advert_summary!K72,0)</f>
-        <v>0</v>
+        <v>1.7399038461538401</v>
       </c>
       <c r="L72" s="2">
         <f>IF(advert_summary!$B72=$N$1,advert_summary!L72,0)</f>
@@ -23701,6 +27063,18 @@
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <f>IF(advert_summary!$B75=$N$1,advert_summary!A75,0)</f>
+        <v>34804285</v>
+      </c>
+      <c r="B75" t="b">
+        <f>IF(advert_summary!$B75=$N$1,advert_summary!B75,"")</f>
+        <v>0</v>
+      </c>
+      <c r="C75" t="str">
+        <f>IF(advert_summary!$B75=$N$1,advert_summary!C75,"")</f>
+        <v>N/A</v>
+      </c>
       <c r="D75" s="1">
         <f>IF(advert_summary!$B75=$N$1,advert_summary!D75,0)</f>
         <v>45814</v>
@@ -23739,44 +27113,68 @@
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
+        <f>IF(advert_summary!$B76=$N$1,advert_summary!A76,0)</f>
+        <v>34804923</v>
+      </c>
+      <c r="B76" t="b">
+        <f>IF(advert_summary!$B76=$N$1,advert_summary!B76,"")</f>
+        <v>0</v>
+      </c>
+      <c r="C76" t="str">
+        <f>IF(advert_summary!$B76=$N$1,advert_summary!C76,"")</f>
+        <v>N/A</v>
+      </c>
       <c r="D76" s="1">
         <f>IF(advert_summary!$B76=$N$1,advert_summary!D76,0)</f>
-        <v>0</v>
+        <v>45818</v>
       </c>
       <c r="E76" s="1">
         <f>IF(advert_summary!$B76=$N$1,advert_summary!E76,0)</f>
-        <v>0</v>
+        <v>45921</v>
       </c>
       <c r="F76" s="2">
         <f>IF(advert_summary!$B76=$N$1,advert_summary!F76,0)</f>
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="G76" s="2">
         <f>IF(advert_summary!$B76=$N$1,advert_summary!G76,0)</f>
-        <v>0</v>
+        <v>199</v>
       </c>
       <c r="H76" s="2">
         <f>IF(advert_summary!$B76=$N$1,advert_summary!H76,0)</f>
-        <v>0</v>
+        <v>169</v>
       </c>
       <c r="I76" s="2">
         <f>IF(advert_summary!$B76=$N$1,advert_summary!I76,0)</f>
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="J76" s="2">
         <f>IF(advert_summary!$B76=$N$1,advert_summary!J76,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K76" s="2">
         <f>IF(advert_summary!$B76=$N$1,advert_summary!K76,0)</f>
-        <v>0</v>
+        <v>1.4322033898305</v>
       </c>
       <c r="L76" s="2">
         <f>IF(advert_summary!$B76=$N$1,advert_summary!L76,0)</f>
-        <v>0</v>
+        <v>-30</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <f>IF(advert_summary!$B77=$N$1,advert_summary!A77,0)</f>
+        <v>34807267</v>
+      </c>
+      <c r="B77" t="b">
+        <f>IF(advert_summary!$B77=$N$1,advert_summary!B77,"")</f>
+        <v>0</v>
+      </c>
+      <c r="C77" t="str">
+        <f>IF(advert_summary!$B77=$N$1,advert_summary!C77,"")</f>
+        <v>N/A</v>
+      </c>
       <c r="D77" s="1">
         <f>IF(advert_summary!$B77=$N$1,advert_summary!D77,0)</f>
         <v>45818</v>
@@ -23815,6 +27213,18 @@
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <f>IF(advert_summary!$B78=$N$1,advert_summary!A78,0)</f>
+        <v>0</v>
+      </c>
+      <c r="B78" t="str">
+        <f>IF(advert_summary!$B78=$N$1,advert_summary!B78,"")</f>
+        <v/>
+      </c>
+      <c r="C78" t="str">
+        <f>IF(advert_summary!$B78=$N$1,advert_summary!C78,"")</f>
+        <v/>
+      </c>
       <c r="D78" s="1">
         <f>IF(advert_summary!$B78=$N$1,advert_summary!D78,0)</f>
         <v>0</v>
@@ -23853,6 +27263,18 @@
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <f>IF(advert_summary!$B79=$N$1,advert_summary!A79,0)</f>
+        <v>0</v>
+      </c>
+      <c r="B79" t="str">
+        <f>IF(advert_summary!$B79=$N$1,advert_summary!B79,"")</f>
+        <v/>
+      </c>
+      <c r="C79" t="str">
+        <f>IF(advert_summary!$B79=$N$1,advert_summary!C79,"")</f>
+        <v/>
+      </c>
       <c r="D79" s="1">
         <f>IF(advert_summary!$B79=$N$1,advert_summary!D79,0)</f>
         <v>0</v>
@@ -23891,6 +27313,18 @@
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
+        <f>IF(advert_summary!$B80=$N$1,advert_summary!A80,0)</f>
+        <v>34813943</v>
+      </c>
+      <c r="B80" t="b">
+        <f>IF(advert_summary!$B80=$N$1,advert_summary!B80,"")</f>
+        <v>0</v>
+      </c>
+      <c r="C80" t="str">
+        <f>IF(advert_summary!$B80=$N$1,advert_summary!C80,"")</f>
+        <v>N/A</v>
+      </c>
       <c r="D80" s="1">
         <f>IF(advert_summary!$B80=$N$1,advert_summary!D80,0)</f>
         <v>45823</v>
@@ -23928,52 +27362,76 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
+        <f>IF(advert_summary!$B81=$N$1,advert_summary!A81,0)</f>
+        <v>34823574</v>
+      </c>
+      <c r="B81" t="b">
+        <f>IF(advert_summary!$B81=$N$1,advert_summary!B81,"")</f>
+        <v>0</v>
+      </c>
+      <c r="C81" t="str">
+        <f>IF(advert_summary!$B81=$N$1,advert_summary!C81,"")</f>
+        <v>N/A</v>
+      </c>
       <c r="D81" s="1">
         <f>IF(advert_summary!$B81=$N$1,advert_summary!D81,0)</f>
-        <v>0</v>
+        <v>45825</v>
       </c>
       <c r="E81" s="1">
         <f>IF(advert_summary!$B81=$N$1,advert_summary!E81,0)</f>
-        <v>0</v>
+        <v>45921</v>
       </c>
       <c r="F81" s="2">
         <f>IF(advert_summary!$B81=$N$1,advert_summary!F81,0)</f>
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="G81" s="2">
         <f>IF(advert_summary!$B81=$N$1,advert_summary!G81,0)</f>
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="H81" s="2">
         <f>IF(advert_summary!$B81=$N$1,advert_summary!H81,0)</f>
-        <v>0</v>
+        <v>213.99</v>
       </c>
       <c r="I81" s="2">
         <f>IF(advert_summary!$B81=$N$1,advert_summary!I81,0)</f>
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="J81" s="2">
         <f>IF(advert_summary!$B81=$N$1,advert_summary!J81,0)</f>
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="K81" s="2">
         <f>IF(advert_summary!$B81=$N$1,advert_summary!K81,0)</f>
-        <v>0</v>
+        <v>1.96321100917431</v>
       </c>
       <c r="L81" s="2">
         <f>IF(advert_summary!$B81=$N$1,advert_summary!L81,0)</f>
-        <v>0</v>
+        <v>-5.00999999999999</v>
       </c>
     </row>
-    <row r="82" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
+        <f>IF(advert_summary!$B82=$N$1,advert_summary!A82,0)</f>
+        <v>34849647</v>
+      </c>
+      <c r="B82" t="b">
+        <f>IF(advert_summary!$B82=$N$1,advert_summary!B82,"")</f>
+        <v>0</v>
+      </c>
+      <c r="C82" t="str">
+        <f>IF(advert_summary!$B82=$N$1,advert_summary!C82,"")</f>
+        <v>N/A</v>
+      </c>
       <c r="D82" s="1">
         <f>IF(advert_summary!$B82=$N$1,advert_summary!D82,0)</f>
         <v>45841</v>
       </c>
       <c r="E82" s="1">
         <f>IF(advert_summary!$B82=$N$1,advert_summary!E82,0)</f>
-        <v>45867</v>
+        <v>45868</v>
       </c>
       <c r="F82" s="2">
         <f>IF(advert_summary!$B82=$N$1,advert_summary!F82,0)</f>
@@ -24004,45 +27462,69 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
+        <f>IF(advert_summary!$B83=$N$1,advert_summary!A83,0)</f>
+        <v>34829279</v>
+      </c>
+      <c r="B83" t="b">
+        <f>IF(advert_summary!$B83=$N$1,advert_summary!B83,"")</f>
+        <v>0</v>
+      </c>
+      <c r="C83" t="str">
+        <f>IF(advert_summary!$B83=$N$1,advert_summary!C83,"")</f>
+        <v>N/A</v>
+      </c>
       <c r="D83" s="1">
         <f>IF(advert_summary!$B83=$N$1,advert_summary!D83,0)</f>
-        <v>0</v>
+        <v>45841</v>
       </c>
       <c r="E83" s="1">
         <f>IF(advert_summary!$B83=$N$1,advert_summary!E83,0)</f>
-        <v>0</v>
+        <v>45901</v>
       </c>
       <c r="F83" s="2">
         <f>IF(advert_summary!$B83=$N$1,advert_summary!F83,0)</f>
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="G83" s="2">
         <f>IF(advert_summary!$B83=$N$1,advert_summary!G83,0)</f>
-        <v>0</v>
+        <v>179</v>
       </c>
       <c r="H83" s="2">
         <f>IF(advert_summary!$B83=$N$1,advert_summary!H83,0)</f>
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="I83" s="2">
         <f>IF(advert_summary!$B83=$N$1,advert_summary!I83,0)</f>
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="J83" s="2">
         <f>IF(advert_summary!$B83=$N$1,advert_summary!J83,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K83" s="2">
         <f>IF(advert_summary!$B83=$N$1,advert_summary!K83,0)</f>
-        <v>0</v>
+        <v>1.44067796610169</v>
       </c>
       <c r="L83" s="2">
         <f>IF(advert_summary!$B83=$N$1,advert_summary!L83,0)</f>
-        <v>0</v>
+        <v>-9</v>
       </c>
     </row>
-    <row r="84" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
+        <f>IF(advert_summary!$B84=$N$1,advert_summary!A84,0)</f>
+        <v>34824455</v>
+      </c>
+      <c r="B84" t="b">
+        <f>IF(advert_summary!$B84=$N$1,advert_summary!B84,"")</f>
+        <v>0</v>
+      </c>
+      <c r="C84" t="str">
+        <f>IF(advert_summary!$B84=$N$1,advert_summary!C84,"")</f>
+        <v>N/A</v>
+      </c>
       <c r="D84" s="1">
         <f>IF(advert_summary!$B84=$N$1,advert_summary!D84,0)</f>
         <v>45841</v>
@@ -24080,45 +27562,69 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
+        <f>IF(advert_summary!$B85=$N$1,advert_summary!A85,0)</f>
+        <v>34841273</v>
+      </c>
+      <c r="B85" t="b">
+        <f>IF(advert_summary!$B85=$N$1,advert_summary!B85,"")</f>
+        <v>0</v>
+      </c>
+      <c r="C85" t="str">
+        <f>IF(advert_summary!$B85=$N$1,advert_summary!C85,"")</f>
+        <v>N/A</v>
+      </c>
       <c r="D85" s="1">
         <f>IF(advert_summary!$B85=$N$1,advert_summary!D85,0)</f>
-        <v>0</v>
+        <v>45841</v>
       </c>
       <c r="E85" s="1">
         <f>IF(advert_summary!$B85=$N$1,advert_summary!E85,0)</f>
-        <v>0</v>
+        <v>45883</v>
       </c>
       <c r="F85" s="2">
         <f>IF(advert_summary!$B85=$N$1,advert_summary!F85,0)</f>
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="G85" s="2">
         <f>IF(advert_summary!$B85=$N$1,advert_summary!G85,0)</f>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="H85" s="2">
         <f>IF(advert_summary!$B85=$N$1,advert_summary!H85,0)</f>
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="I85" s="2">
         <f>IF(advert_summary!$B85=$N$1,advert_summary!I85,0)</f>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="J85" s="2">
         <f>IF(advert_summary!$B85=$N$1,advert_summary!J85,0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K85" s="2">
         <f>IF(advert_summary!$B85=$N$1,advert_summary!K85,0)</f>
-        <v>0</v>
+        <v>1.2833333333333301</v>
       </c>
       <c r="L85" s="2">
         <f>IF(advert_summary!$B85=$N$1,advert_summary!L85,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="86" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
+        <f>IF(advert_summary!$B86=$N$1,advert_summary!A86,0)</f>
+        <v>0</v>
+      </c>
+      <c r="B86" t="str">
+        <f>IF(advert_summary!$B86=$N$1,advert_summary!B86,"")</f>
+        <v/>
+      </c>
+      <c r="C86" t="str">
+        <f>IF(advert_summary!$B86=$N$1,advert_summary!C86,"")</f>
+        <v/>
+      </c>
       <c r="D86" s="1">
         <f>IF(advert_summary!$B86=$N$1,advert_summary!D86,0)</f>
         <v>0</v>
@@ -24156,7 +27662,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
+        <f>IF(advert_summary!$B87=$N$1,advert_summary!A87,0)</f>
+        <v>0</v>
+      </c>
+      <c r="B87" t="str">
+        <f>IF(advert_summary!$B87=$N$1,advert_summary!B87,"")</f>
+        <v/>
+      </c>
+      <c r="C87" t="str">
+        <f>IF(advert_summary!$B87=$N$1,advert_summary!C87,"")</f>
+        <v/>
+      </c>
       <c r="D87" s="1">
         <f>IF(advert_summary!$B87=$N$1,advert_summary!D87,0)</f>
         <v>0</v>
@@ -24194,7 +27712,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
+        <f>IF(advert_summary!$B88=$N$1,advert_summary!A88,0)</f>
+        <v>0</v>
+      </c>
+      <c r="B88" t="str">
+        <f>IF(advert_summary!$B88=$N$1,advert_summary!B88,"")</f>
+        <v/>
+      </c>
+      <c r="C88" t="str">
+        <f>IF(advert_summary!$B88=$N$1,advert_summary!C88,"")</f>
+        <v/>
+      </c>
       <c r="D88" s="1">
         <f>IF(advert_summary!$B88=$N$1,advert_summary!D88,0)</f>
         <v>0</v>
@@ -24232,146 +27762,1640 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="G90" s="2"/>
-      <c r="H90" s="2"/>
-      <c r="I90" s="2"/>
-      <c r="J90" s="2"/>
-      <c r="K90" s="2"/>
-      <c r="L90" s="2"/>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
+        <f>IF(advert_summary!$B89=$N$1,advert_summary!A89,0)</f>
+        <v>34891614</v>
+      </c>
+      <c r="B89" t="b">
+        <f>IF(advert_summary!$B89=$N$1,advert_summary!B89,"")</f>
+        <v>0</v>
+      </c>
+      <c r="C89" t="str">
+        <f>IF(advert_summary!$B89=$N$1,advert_summary!C89,"")</f>
+        <v>N/A</v>
+      </c>
+      <c r="D89" s="1">
+        <f>IF(advert_summary!$B89=$N$1,advert_summary!D89,0)</f>
+        <v>45868</v>
+      </c>
+      <c r="E89" s="1">
+        <f>IF(advert_summary!$B89=$N$1,advert_summary!E89,0)</f>
+        <v>45868</v>
+      </c>
+      <c r="F89" s="2">
+        <f>IF(advert_summary!$B89=$N$1,advert_summary!F89,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G89" s="2">
+        <f>IF(advert_summary!$B89=$N$1,advert_summary!G89,0)</f>
+        <v>199</v>
+      </c>
+      <c r="H89" s="2">
+        <f>IF(advert_summary!$B89=$N$1,advert_summary!H89,0)</f>
+        <v>199</v>
+      </c>
+      <c r="I89" s="2">
+        <f>IF(advert_summary!$B89=$N$1,advert_summary!I89,0)</f>
+        <v>126</v>
+      </c>
+      <c r="J89" s="2">
+        <f>IF(advert_summary!$B89=$N$1,advert_summary!J89,0)</f>
+        <v>4</v>
+      </c>
+      <c r="K89" s="2">
+        <f>IF(advert_summary!$B89=$N$1,advert_summary!K89,0)</f>
+        <v>1.57936507936507</v>
+      </c>
+      <c r="L89" s="2">
+        <f>IF(advert_summary!$B89=$N$1,advert_summary!L89,0)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="91" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="G91" s="2"/>
-      <c r="H91" s="2"/>
-      <c r="I91" s="2"/>
-      <c r="J91" s="2"/>
-      <c r="K91" s="2"/>
-      <c r="L91" s="2"/>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
+        <f>IF(advert_summary!$B90=$N$1,advert_summary!A90,0)</f>
+        <v>34883664</v>
+      </c>
+      <c r="B90" t="b">
+        <f>IF(advert_summary!$B90=$N$1,advert_summary!B90,"")</f>
+        <v>0</v>
+      </c>
+      <c r="C90" t="str">
+        <f>IF(advert_summary!$B90=$N$1,advert_summary!C90,"")</f>
+        <v>N/A</v>
+      </c>
+      <c r="D90" s="1">
+        <f>IF(advert_summary!$B90=$N$1,advert_summary!D90,0)</f>
+        <v>45876</v>
+      </c>
+      <c r="E90" s="1">
+        <f>IF(advert_summary!$B90=$N$1,advert_summary!E90,0)</f>
+        <v>45901</v>
+      </c>
+      <c r="F90" s="2">
+        <f>IF(advert_summary!$B90=$N$1,advert_summary!F90,0)</f>
+        <v>24</v>
+      </c>
+      <c r="G90" s="2">
+        <f>IF(advert_summary!$B90=$N$1,advert_summary!G90,0)</f>
+        <v>180.95</v>
+      </c>
+      <c r="H90" s="2">
+        <f>IF(advert_summary!$B90=$N$1,advert_summary!H90,0)</f>
+        <v>180.95</v>
+      </c>
+      <c r="I90" s="2">
+        <f>IF(advert_summary!$B90=$N$1,advert_summary!I90,0)</f>
+        <v>104</v>
+      </c>
+      <c r="J90" s="2">
+        <f>IF(advert_summary!$B90=$N$1,advert_summary!J90,0)</f>
+        <v>4</v>
+      </c>
+      <c r="K90" s="2">
+        <f>IF(advert_summary!$B90=$N$1,advert_summary!K90,0)</f>
+        <v>1.7399038461538401</v>
+      </c>
+      <c r="L90" s="2">
+        <f>IF(advert_summary!$B90=$N$1,advert_summary!L90,0)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="92" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="G92" s="2"/>
-      <c r="H92" s="2"/>
-      <c r="I92" s="2"/>
-      <c r="J92" s="2"/>
-      <c r="K92" s="2"/>
-      <c r="L92" s="2"/>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
+        <f>IF(advert_summary!$B91=$N$1,advert_summary!A91,0)</f>
+        <v>34907394</v>
+      </c>
+      <c r="B91" t="b">
+        <f>IF(advert_summary!$B91=$N$1,advert_summary!B91,"")</f>
+        <v>0</v>
+      </c>
+      <c r="C91" t="str">
+        <f>IF(advert_summary!$B91=$N$1,advert_summary!C91,"")</f>
+        <v>N/A</v>
+      </c>
+      <c r="D91" s="1">
+        <f>IF(advert_summary!$B91=$N$1,advert_summary!D91,0)</f>
+        <v>45881</v>
+      </c>
+      <c r="E91" s="1">
+        <f>IF(advert_summary!$B91=$N$1,advert_summary!E91,0)</f>
+        <v>45883</v>
+      </c>
+      <c r="F91" s="2">
+        <f>IF(advert_summary!$B91=$N$1,advert_summary!F91,0)</f>
+        <v>2</v>
+      </c>
+      <c r="G91" s="2">
+        <f>IF(advert_summary!$B91=$N$1,advert_summary!G91,0)</f>
+        <v>209</v>
+      </c>
+      <c r="H91" s="2">
+        <f>IF(advert_summary!$B91=$N$1,advert_summary!H91,0)</f>
+        <v>209</v>
+      </c>
+      <c r="I91" s="2">
+        <f>IF(advert_summary!$B91=$N$1,advert_summary!I91,0)</f>
+        <v>121</v>
+      </c>
+      <c r="J91" s="2">
+        <f>IF(advert_summary!$B91=$N$1,advert_summary!J91,0)</f>
+        <v>5</v>
+      </c>
+      <c r="K91" s="2">
+        <f>IF(advert_summary!$B91=$N$1,advert_summary!K91,0)</f>
+        <v>1.72727272727272</v>
+      </c>
+      <c r="L91" s="2">
+        <f>IF(advert_summary!$B91=$N$1,advert_summary!L91,0)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="93" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="G93" s="2"/>
-      <c r="H93" s="2"/>
-      <c r="I93" s="2"/>
-      <c r="J93" s="2"/>
-      <c r="K93" s="2"/>
-      <c r="L93" s="2"/>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92" s="3">
+        <f>IF(advert_summary!$B92=$N$1,advert_summary!A92,0)</f>
+        <v>34917566</v>
+      </c>
+      <c r="B92" t="b">
+        <f>IF(advert_summary!$B92=$N$1,advert_summary!B92,"")</f>
+        <v>0</v>
+      </c>
+      <c r="C92" t="str">
+        <f>IF(advert_summary!$B92=$N$1,advert_summary!C92,"")</f>
+        <v>N/A</v>
+      </c>
+      <c r="D92" s="1">
+        <f>IF(advert_summary!$B92=$N$1,advert_summary!D92,0)</f>
+        <v>45883</v>
+      </c>
+      <c r="E92" s="1">
+        <f>IF(advert_summary!$B92=$N$1,advert_summary!E92,0)</f>
+        <v>45934</v>
+      </c>
+      <c r="F92" s="2">
+        <f>IF(advert_summary!$B92=$N$1,advert_summary!F92,0)</f>
+        <v>51</v>
+      </c>
+      <c r="G92" s="2">
+        <f>IF(advert_summary!$B92=$N$1,advert_summary!G92,0)</f>
+        <v>254</v>
+      </c>
+      <c r="H92" s="2">
+        <f>IF(advert_summary!$B92=$N$1,advert_summary!H92,0)</f>
+        <v>244</v>
+      </c>
+      <c r="I92" s="2">
+        <f>IF(advert_summary!$B92=$N$1,advert_summary!I92,0)</f>
+        <v>105</v>
+      </c>
+      <c r="J92" s="2">
+        <f>IF(advert_summary!$B92=$N$1,advert_summary!J92,0)</f>
+        <v>4</v>
+      </c>
+      <c r="K92" s="2">
+        <f>IF(advert_summary!$B92=$N$1,advert_summary!K92,0)</f>
+        <v>2.32380952380952</v>
+      </c>
+      <c r="L92" s="2">
+        <f>IF(advert_summary!$B92=$N$1,advert_summary!L92,0)</f>
+        <v>-10</v>
+      </c>
     </row>
-    <row r="94" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="G94" s="2"/>
-      <c r="H94" s="2"/>
-      <c r="I94" s="2"/>
-      <c r="J94" s="2"/>
-      <c r="K94" s="2"/>
-      <c r="L94" s="2"/>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
+        <f>IF(advert_summary!$B93=$N$1,advert_summary!A93,0)</f>
+        <v>34933989</v>
+      </c>
+      <c r="B93" t="b">
+        <f>IF(advert_summary!$B93=$N$1,advert_summary!B93,"")</f>
+        <v>0</v>
+      </c>
+      <c r="C93" t="str">
+        <f>IF(advert_summary!$B93=$N$1,advert_summary!C93,"")</f>
+        <v>N/A</v>
+      </c>
+      <c r="D93" s="1">
+        <f>IF(advert_summary!$B93=$N$1,advert_summary!D93,0)</f>
+        <v>45891</v>
+      </c>
+      <c r="E93" s="1">
+        <f>IF(advert_summary!$B93=$N$1,advert_summary!E93,0)</f>
+        <v>45898</v>
+      </c>
+      <c r="F93" s="2">
+        <f>IF(advert_summary!$B93=$N$1,advert_summary!F93,0)</f>
+        <v>7</v>
+      </c>
+      <c r="G93" s="2">
+        <f>IF(advert_summary!$B93=$N$1,advert_summary!G93,0)</f>
+        <v>159</v>
+      </c>
+      <c r="H93" s="2">
+        <f>IF(advert_summary!$B93=$N$1,advert_summary!H93,0)</f>
+        <v>159</v>
+      </c>
+      <c r="I93" s="2">
+        <f>IF(advert_summary!$B93=$N$1,advert_summary!I93,0)</f>
+        <v>112</v>
+      </c>
+      <c r="J93" s="2">
+        <f>IF(advert_summary!$B93=$N$1,advert_summary!J93,0)</f>
+        <v>4</v>
+      </c>
+      <c r="K93" s="2">
+        <f>IF(advert_summary!$B93=$N$1,advert_summary!K93,0)</f>
+        <v>1.4196428571428501</v>
+      </c>
+      <c r="L93" s="2">
+        <f>IF(advert_summary!$B93=$N$1,advert_summary!L93,0)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="95" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="G95" s="2"/>
-      <c r="H95" s="2"/>
-      <c r="I95" s="2"/>
-      <c r="J95" s="2"/>
-      <c r="K95" s="2"/>
-      <c r="L95" s="2"/>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
+        <f>IF(advert_summary!$B94=$N$1,advert_summary!A94,0)</f>
+        <v>0</v>
+      </c>
+      <c r="B94" t="str">
+        <f>IF(advert_summary!$B94=$N$1,advert_summary!B94,"")</f>
+        <v/>
+      </c>
+      <c r="C94" t="str">
+        <f>IF(advert_summary!$B94=$N$1,advert_summary!C94,"")</f>
+        <v/>
+      </c>
+      <c r="D94" s="1">
+        <f>IF(advert_summary!$B94=$N$1,advert_summary!D94,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E94" s="1">
+        <f>IF(advert_summary!$B94=$N$1,advert_summary!E94,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F94" s="2">
+        <f>IF(advert_summary!$B94=$N$1,advert_summary!F94,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G94" s="2">
+        <f>IF(advert_summary!$B94=$N$1,advert_summary!G94,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H94" s="2">
+        <f>IF(advert_summary!$B94=$N$1,advert_summary!H94,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I94" s="2">
+        <f>IF(advert_summary!$B94=$N$1,advert_summary!I94,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J94" s="2">
+        <f>IF(advert_summary!$B94=$N$1,advert_summary!J94,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K94" s="2">
+        <f>IF(advert_summary!$B94=$N$1,advert_summary!K94,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L94" s="2">
+        <f>IF(advert_summary!$B94=$N$1,advert_summary!L94,0)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="96" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="G96" s="2"/>
-      <c r="H96" s="2"/>
-      <c r="I96" s="2"/>
-      <c r="J96" s="2"/>
-      <c r="K96" s="2"/>
-      <c r="L96" s="2"/>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
+        <f>IF(advert_summary!$B95=$N$1,advert_summary!A95,0)</f>
+        <v>0</v>
+      </c>
+      <c r="B95" t="str">
+        <f>IF(advert_summary!$B95=$N$1,advert_summary!B95,"")</f>
+        <v/>
+      </c>
+      <c r="C95" t="str">
+        <f>IF(advert_summary!$B95=$N$1,advert_summary!C95,"")</f>
+        <v/>
+      </c>
+      <c r="D95" s="1">
+        <f>IF(advert_summary!$B95=$N$1,advert_summary!D95,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E95" s="1">
+        <f>IF(advert_summary!$B95=$N$1,advert_summary!E95,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F95" s="2">
+        <f>IF(advert_summary!$B95=$N$1,advert_summary!F95,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G95" s="2">
+        <f>IF(advert_summary!$B95=$N$1,advert_summary!G95,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H95" s="2">
+        <f>IF(advert_summary!$B95=$N$1,advert_summary!H95,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I95" s="2">
+        <f>IF(advert_summary!$B95=$N$1,advert_summary!I95,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J95" s="2">
+        <f>IF(advert_summary!$B95=$N$1,advert_summary!J95,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K95" s="2">
+        <f>IF(advert_summary!$B95=$N$1,advert_summary!K95,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L95" s="2">
+        <f>IF(advert_summary!$B95=$N$1,advert_summary!L95,0)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="97" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G97" s="2"/>
-      <c r="H97" s="2"/>
-      <c r="I97" s="2"/>
-      <c r="J97" s="2"/>
-      <c r="K97" s="2"/>
-      <c r="L97" s="2"/>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
+        <f>IF(advert_summary!$B96=$N$1,advert_summary!A96,0)</f>
+        <v>0</v>
+      </c>
+      <c r="B96" t="str">
+        <f>IF(advert_summary!$B96=$N$1,advert_summary!B96,"")</f>
+        <v/>
+      </c>
+      <c r="C96" t="str">
+        <f>IF(advert_summary!$B96=$N$1,advert_summary!C96,"")</f>
+        <v/>
+      </c>
+      <c r="D96" s="1">
+        <f>IF(advert_summary!$B96=$N$1,advert_summary!D96,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E96" s="1">
+        <f>IF(advert_summary!$B96=$N$1,advert_summary!E96,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F96" s="2">
+        <f>IF(advert_summary!$B96=$N$1,advert_summary!F96,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G96" s="2">
+        <f>IF(advert_summary!$B96=$N$1,advert_summary!G96,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H96" s="2">
+        <f>IF(advert_summary!$B96=$N$1,advert_summary!H96,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I96" s="2">
+        <f>IF(advert_summary!$B96=$N$1,advert_summary!I96,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J96" s="2">
+        <f>IF(advert_summary!$B96=$N$1,advert_summary!J96,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K96" s="2">
+        <f>IF(advert_summary!$B96=$N$1,advert_summary!K96,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L96" s="2">
+        <f>IF(advert_summary!$B96=$N$1,advert_summary!L96,0)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="98" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G98" s="2"/>
-      <c r="H98" s="2"/>
-      <c r="I98" s="2"/>
-      <c r="J98" s="2"/>
-      <c r="K98" s="2"/>
-      <c r="L98" s="2"/>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
+        <f>IF(advert_summary!$B97=$N$1,advert_summary!A97,0)</f>
+        <v>0</v>
+      </c>
+      <c r="B97" t="str">
+        <f>IF(advert_summary!$B97=$N$1,advert_summary!B97,"")</f>
+        <v/>
+      </c>
+      <c r="C97" t="str">
+        <f>IF(advert_summary!$B97=$N$1,advert_summary!C97,"")</f>
+        <v/>
+      </c>
+      <c r="D97" s="1">
+        <f>IF(advert_summary!$B97=$N$1,advert_summary!D97,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E97" s="1">
+        <f>IF(advert_summary!$B97=$N$1,advert_summary!E97,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F97" s="2">
+        <f>IF(advert_summary!$B97=$N$1,advert_summary!F97,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G97" s="2">
+        <f>IF(advert_summary!$B97=$N$1,advert_summary!G97,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H97" s="2">
+        <f>IF(advert_summary!$B97=$N$1,advert_summary!H97,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I97" s="2">
+        <f>IF(advert_summary!$B97=$N$1,advert_summary!I97,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J97" s="2">
+        <f>IF(advert_summary!$B97=$N$1,advert_summary!J97,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K97" s="2">
+        <f>IF(advert_summary!$B97=$N$1,advert_summary!K97,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L97" s="2">
+        <f>IF(advert_summary!$B97=$N$1,advert_summary!L97,0)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="99" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G99" s="2"/>
-      <c r="H99" s="2"/>
-      <c r="I99" s="2"/>
-      <c r="J99" s="2"/>
-      <c r="K99" s="2"/>
-      <c r="L99" s="2"/>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
+        <f>IF(advert_summary!$B98=$N$1,advert_summary!A98,0)</f>
+        <v>0</v>
+      </c>
+      <c r="B98" t="str">
+        <f>IF(advert_summary!$B98=$N$1,advert_summary!B98,"")</f>
+        <v/>
+      </c>
+      <c r="C98" t="str">
+        <f>IF(advert_summary!$B98=$N$1,advert_summary!C98,"")</f>
+        <v/>
+      </c>
+      <c r="D98" s="1">
+        <f>IF(advert_summary!$B98=$N$1,advert_summary!D98,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E98" s="1">
+        <f>IF(advert_summary!$B98=$N$1,advert_summary!E98,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F98" s="2">
+        <f>IF(advert_summary!$B98=$N$1,advert_summary!F98,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G98" s="2">
+        <f>IF(advert_summary!$B98=$N$1,advert_summary!G98,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H98" s="2">
+        <f>IF(advert_summary!$B98=$N$1,advert_summary!H98,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I98" s="2">
+        <f>IF(advert_summary!$B98=$N$1,advert_summary!I98,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J98" s="2">
+        <f>IF(advert_summary!$B98=$N$1,advert_summary!J98,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K98" s="2">
+        <f>IF(advert_summary!$B98=$N$1,advert_summary!K98,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L98" s="2">
+        <f>IF(advert_summary!$B98=$N$1,advert_summary!L98,0)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="100" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G100" s="2"/>
-      <c r="H100" s="2"/>
-      <c r="I100" s="2"/>
-      <c r="J100" s="2"/>
-      <c r="K100" s="2"/>
-      <c r="L100" s="2"/>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
+        <f>IF(advert_summary!$B99=$N$1,advert_summary!A99,0)</f>
+        <v>0</v>
+      </c>
+      <c r="B99" t="str">
+        <f>IF(advert_summary!$B99=$N$1,advert_summary!B99,"")</f>
+        <v/>
+      </c>
+      <c r="C99" t="str">
+        <f>IF(advert_summary!$B99=$N$1,advert_summary!C99,"")</f>
+        <v/>
+      </c>
+      <c r="D99" s="1">
+        <f>IF(advert_summary!$B99=$N$1,advert_summary!D99,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E99" s="1">
+        <f>IF(advert_summary!$B99=$N$1,advert_summary!E99,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F99" s="2">
+        <f>IF(advert_summary!$B99=$N$1,advert_summary!F99,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G99" s="2">
+        <f>IF(advert_summary!$B99=$N$1,advert_summary!G99,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H99" s="2">
+        <f>IF(advert_summary!$B99=$N$1,advert_summary!H99,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I99" s="2">
+        <f>IF(advert_summary!$B99=$N$1,advert_summary!I99,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J99" s="2">
+        <f>IF(advert_summary!$B99=$N$1,advert_summary!J99,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K99" s="2">
+        <f>IF(advert_summary!$B99=$N$1,advert_summary!K99,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L99" s="2">
+        <f>IF(advert_summary!$B99=$N$1,advert_summary!L99,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A100" s="3">
+        <f>IF(advert_summary!$B100=$N$1,advert_summary!A100,0)</f>
+        <v>35008860</v>
+      </c>
+      <c r="B100" t="b">
+        <f>IF(advert_summary!$B100=$N$1,advert_summary!B100,"")</f>
+        <v>0</v>
+      </c>
+      <c r="C100" t="str">
+        <f>IF(advert_summary!$B100=$N$1,advert_summary!C100,"")</f>
+        <v>N/A</v>
+      </c>
+      <c r="D100" s="1">
+        <f>IF(advert_summary!$B100=$N$1,advert_summary!D100,0)</f>
+        <v>45934</v>
+      </c>
+      <c r="E100" s="1">
+        <f>IF(advert_summary!$B100=$N$1,advert_summary!E100,0)</f>
+        <v>45934</v>
+      </c>
+      <c r="F100" s="2">
+        <f>IF(advert_summary!$B100=$N$1,advert_summary!F100,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G100" s="2">
+        <f>IF(advert_summary!$B100=$N$1,advert_summary!G100,0)</f>
+        <v>244</v>
+      </c>
+      <c r="H100" s="2">
+        <f>IF(advert_summary!$B100=$N$1,advert_summary!H100,0)</f>
+        <v>244</v>
+      </c>
+      <c r="I100" s="2">
+        <f>IF(advert_summary!$B100=$N$1,advert_summary!I100,0)</f>
+        <v>105</v>
+      </c>
+      <c r="J100" s="2">
+        <f>IF(advert_summary!$B100=$N$1,advert_summary!J100,0)</f>
+        <v>4</v>
+      </c>
+      <c r="K100" s="2">
+        <f>IF(advert_summary!$B100=$N$1,advert_summary!K100,0)</f>
+        <v>2.32380952380952</v>
+      </c>
+      <c r="L100" s="2">
+        <f>IF(advert_summary!$B100=$N$1,advert_summary!L100,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A101" s="3">
+        <f>IF(advert_summary!$B101=$N$1,advert_summary!A101,0)</f>
+        <v>0</v>
+      </c>
+      <c r="B101" t="str">
+        <f>IF(advert_summary!$B101=$N$1,advert_summary!B101,"")</f>
+        <v/>
+      </c>
+      <c r="C101" t="str">
+        <f>IF(advert_summary!$B101=$N$1,advert_summary!C101,"")</f>
+        <v/>
+      </c>
+      <c r="D101" s="1">
+        <f>IF(advert_summary!$B101=$N$1,advert_summary!D101,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E101" s="1">
+        <f>IF(advert_summary!$B101=$N$1,advert_summary!E101,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F101" s="2">
+        <f>IF(advert_summary!$B101=$N$1,advert_summary!F101,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G101" s="2">
+        <f>IF(advert_summary!$B101=$N$1,advert_summary!G101,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H101" s="2">
+        <f>IF(advert_summary!$B101=$N$1,advert_summary!H101,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I101" s="2">
+        <f>IF(advert_summary!$B101=$N$1,advert_summary!I101,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J101" s="2">
+        <f>IF(advert_summary!$B101=$N$1,advert_summary!J101,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K101" s="2">
+        <f>IF(advert_summary!$B101=$N$1,advert_summary!K101,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L101" s="2">
+        <f>IF(advert_summary!$B101=$N$1,advert_summary!L101,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A102" s="3">
+        <f>IF(advert_summary!$B102=$N$1,advert_summary!A102,0)</f>
+        <v>0</v>
+      </c>
+      <c r="B102" t="str">
+        <f>IF(advert_summary!$B102=$N$1,advert_summary!B102,"")</f>
+        <v/>
+      </c>
+      <c r="C102" t="str">
+        <f>IF(advert_summary!$B102=$N$1,advert_summary!C102,"")</f>
+        <v/>
+      </c>
+      <c r="D102" s="1">
+        <f>IF(advert_summary!$B102=$N$1,advert_summary!D102,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E102" s="1">
+        <f>IF(advert_summary!$B102=$N$1,advert_summary!E102,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F102" s="2">
+        <f>IF(advert_summary!$B102=$N$1,advert_summary!F102,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G102" s="2">
+        <f>IF(advert_summary!$B102=$N$1,advert_summary!G102,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H102" s="2">
+        <f>IF(advert_summary!$B102=$N$1,advert_summary!H102,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I102" s="2">
+        <f>IF(advert_summary!$B102=$N$1,advert_summary!I102,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J102" s="2">
+        <f>IF(advert_summary!$B102=$N$1,advert_summary!J102,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K102" s="2">
+        <f>IF(advert_summary!$B102=$N$1,advert_summary!K102,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L102" s="2">
+        <f>IF(advert_summary!$B102=$N$1,advert_summary!L102,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A103" s="3">
+        <f>IF(advert_summary!$B103=$N$1,advert_summary!A103,0)</f>
+        <v>35025259</v>
+      </c>
+      <c r="B103" t="b">
+        <f>IF(advert_summary!$B103=$N$1,advert_summary!B103,"")</f>
+        <v>0</v>
+      </c>
+      <c r="C103" t="str">
+        <f>IF(advert_summary!$B103=$N$1,advert_summary!C103,"")</f>
+        <v>N/A</v>
+      </c>
+      <c r="D103" s="1">
+        <f>IF(advert_summary!$B103=$N$1,advert_summary!D103,0)</f>
+        <v>45941</v>
+      </c>
+      <c r="E103" s="1">
+        <f>IF(advert_summary!$B103=$N$1,advert_summary!E103,0)</f>
+        <v>45941</v>
+      </c>
+      <c r="F103" s="2">
+        <f>IF(advert_summary!$B103=$N$1,advert_summary!F103,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G103" s="2">
+        <f>IF(advert_summary!$B103=$N$1,advert_summary!G103,0)</f>
+        <v>189.9</v>
+      </c>
+      <c r="H103" s="2">
+        <f>IF(advert_summary!$B103=$N$1,advert_summary!H103,0)</f>
+        <v>189.9</v>
+      </c>
+      <c r="I103" s="2">
+        <f>IF(advert_summary!$B103=$N$1,advert_summary!I103,0)</f>
+        <v>115</v>
+      </c>
+      <c r="J103" s="2">
+        <f>IF(advert_summary!$B103=$N$1,advert_summary!J103,0)</f>
+        <v>4</v>
+      </c>
+      <c r="K103" s="2">
+        <f>IF(advert_summary!$B103=$N$1,advert_summary!K103,0)</f>
+        <v>1.65130434782608</v>
+      </c>
+      <c r="L103" s="2">
+        <f>IF(advert_summary!$B103=$N$1,advert_summary!L103,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A104" s="3">
+        <f>IF(advert_summary!$B104=$N$1,advert_summary!A104,0)</f>
+        <v>35032940</v>
+      </c>
+      <c r="B104" t="b">
+        <f>IF(advert_summary!$B104=$N$1,advert_summary!B104,"")</f>
+        <v>0</v>
+      </c>
+      <c r="C104" t="str">
+        <f>IF(advert_summary!$B104=$N$1,advert_summary!C104,"")</f>
+        <v>N/A</v>
+      </c>
+      <c r="D104" s="1">
+        <f>IF(advert_summary!$B104=$N$1,advert_summary!D104,0)</f>
+        <v>45941</v>
+      </c>
+      <c r="E104" s="1">
+        <f>IF(advert_summary!$B104=$N$1,advert_summary!E104,0)</f>
+        <v>45941</v>
+      </c>
+      <c r="F104" s="2">
+        <f>IF(advert_summary!$B104=$N$1,advert_summary!F104,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G104" s="2">
+        <f>IF(advert_summary!$B104=$N$1,advert_summary!G104,0)</f>
+        <v>259</v>
+      </c>
+      <c r="H104" s="2">
+        <f>IF(advert_summary!$B104=$N$1,advert_summary!H104,0)</f>
+        <v>259</v>
+      </c>
+      <c r="I104" s="2">
+        <f>IF(advert_summary!$B104=$N$1,advert_summary!I104,0)</f>
+        <v>100</v>
+      </c>
+      <c r="J104" s="2">
+        <f>IF(advert_summary!$B104=$N$1,advert_summary!J104,0)</f>
+        <v>4</v>
+      </c>
+      <c r="K104" s="2">
+        <f>IF(advert_summary!$B104=$N$1,advert_summary!K104,0)</f>
+        <v>2.59</v>
+      </c>
+      <c r="L104" s="2">
+        <f>IF(advert_summary!$B104=$N$1,advert_summary!L104,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A105" s="3">
+        <f>IF(advert_summary!$B105=$N$1,advert_summary!A105,0)</f>
+        <v>0</v>
+      </c>
+      <c r="B105" t="str">
+        <f>IF(advert_summary!$B105=$N$1,advert_summary!B105,"")</f>
+        <v/>
+      </c>
+      <c r="C105" t="str">
+        <f>IF(advert_summary!$B105=$N$1,advert_summary!C105,"")</f>
+        <v/>
+      </c>
+      <c r="D105" s="1">
+        <f>IF(advert_summary!$B105=$N$1,advert_summary!D105,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E105" s="1">
+        <f>IF(advert_summary!$B105=$N$1,advert_summary!E105,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F105" s="2">
+        <f>IF(advert_summary!$B105=$N$1,advert_summary!F105,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G105" s="2">
+        <f>IF(advert_summary!$B105=$N$1,advert_summary!G105,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H105" s="2">
+        <f>IF(advert_summary!$B105=$N$1,advert_summary!H105,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I105" s="2">
+        <f>IF(advert_summary!$B105=$N$1,advert_summary!I105,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J105" s="2">
+        <f>IF(advert_summary!$B105=$N$1,advert_summary!J105,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K105" s="2">
+        <f>IF(advert_summary!$B105=$N$1,advert_summary!K105,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L105" s="2">
+        <f>IF(advert_summary!$B105=$N$1,advert_summary!L105,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A106" s="3">
+        <f>IF(advert_summary!$B106=$N$1,advert_summary!A106,0)</f>
+        <v>0</v>
+      </c>
+      <c r="B106" t="str">
+        <f>IF(advert_summary!$B106=$N$1,advert_summary!B106,"")</f>
+        <v/>
+      </c>
+      <c r="C106" t="str">
+        <f>IF(advert_summary!$B106=$N$1,advert_summary!C106,"")</f>
+        <v/>
+      </c>
+      <c r="D106" s="1">
+        <f>IF(advert_summary!$B106=$N$1,advert_summary!D106,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E106" s="1">
+        <f>IF(advert_summary!$B106=$N$1,advert_summary!E106,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F106" s="2">
+        <f>IF(advert_summary!$B106=$N$1,advert_summary!F106,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G106" s="2">
+        <f>IF(advert_summary!$B106=$N$1,advert_summary!G106,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H106" s="2">
+        <f>IF(advert_summary!$B106=$N$1,advert_summary!H106,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I106" s="2">
+        <f>IF(advert_summary!$B106=$N$1,advert_summary!I106,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J106" s="2">
+        <f>IF(advert_summary!$B106=$N$1,advert_summary!J106,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K106" s="2">
+        <f>IF(advert_summary!$B106=$N$1,advert_summary!K106,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L106" s="2">
+        <f>IF(advert_summary!$B106=$N$1,advert_summary!L106,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A107" s="3">
+        <f>IF(advert_summary!$B107=$N$1,advert_summary!A107,0)</f>
+        <v>0</v>
+      </c>
+      <c r="B107" t="str">
+        <f>IF(advert_summary!$B107=$N$1,advert_summary!B107,"")</f>
+        <v/>
+      </c>
+      <c r="C107" t="str">
+        <f>IF(advert_summary!$B107=$N$1,advert_summary!C107,"")</f>
+        <v/>
+      </c>
+      <c r="D107" s="1">
+        <f>IF(advert_summary!$B107=$N$1,advert_summary!D107,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E107" s="1">
+        <f>IF(advert_summary!$B107=$N$1,advert_summary!E107,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F107" s="2">
+        <f>IF(advert_summary!$B107=$N$1,advert_summary!F107,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G107" s="2">
+        <f>IF(advert_summary!$B107=$N$1,advert_summary!G107,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H107" s="2">
+        <f>IF(advert_summary!$B107=$N$1,advert_summary!H107,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I107" s="2">
+        <f>IF(advert_summary!$B107=$N$1,advert_summary!I107,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J107" s="2">
+        <f>IF(advert_summary!$B107=$N$1,advert_summary!J107,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K107" s="2">
+        <f>IF(advert_summary!$B107=$N$1,advert_summary!K107,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L107" s="2">
+        <f>IF(advert_summary!$B107=$N$1,advert_summary!L107,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A108" s="3">
+        <f>IF(advert_summary!$B108=$N$1,advert_summary!A108,0)</f>
+        <v>0</v>
+      </c>
+      <c r="B108">
+        <f>IF(advert_summary!$B108=$N$1,advert_summary!B108,"")</f>
+        <v>0</v>
+      </c>
+      <c r="C108">
+        <f>IF(advert_summary!$B108=$N$1,advert_summary!C108,"")</f>
+        <v>0</v>
+      </c>
+      <c r="D108" s="1">
+        <f>IF(advert_summary!$B108=$N$1,advert_summary!D108,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E108" s="1">
+        <f>IF(advert_summary!$B108=$N$1,advert_summary!E108,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F108" s="2">
+        <f>IF(advert_summary!$B108=$N$1,advert_summary!F108,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G108" s="2">
+        <f>IF(advert_summary!$B108=$N$1,advert_summary!G108,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H108" s="2">
+        <f>IF(advert_summary!$B108=$N$1,advert_summary!H108,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I108" s="2">
+        <f>IF(advert_summary!$B108=$N$1,advert_summary!I108,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J108" s="2">
+        <f>IF(advert_summary!$B108=$N$1,advert_summary!J108,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K108" s="2">
+        <f>IF(advert_summary!$B108=$N$1,advert_summary!K108,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L108" s="2">
+        <f>IF(advert_summary!$B108=$N$1,advert_summary!L108,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A109" s="3">
+        <f>IF(advert_summary!$B109=$N$1,advert_summary!A109,0)</f>
+        <v>0</v>
+      </c>
+      <c r="B109">
+        <f>IF(advert_summary!$B109=$N$1,advert_summary!B109,"")</f>
+        <v>0</v>
+      </c>
+      <c r="C109">
+        <f>IF(advert_summary!$B109=$N$1,advert_summary!C109,"")</f>
+        <v>0</v>
+      </c>
+      <c r="D109" s="1">
+        <f>IF(advert_summary!$B109=$N$1,advert_summary!D109,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E109" s="1">
+        <f>IF(advert_summary!$B109=$N$1,advert_summary!E109,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F109" s="2">
+        <f>IF(advert_summary!$B109=$N$1,advert_summary!F109,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G109" s="2">
+        <f>IF(advert_summary!$B109=$N$1,advert_summary!G109,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H109" s="2">
+        <f>IF(advert_summary!$B109=$N$1,advert_summary!H109,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I109" s="2">
+        <f>IF(advert_summary!$B109=$N$1,advert_summary!I109,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J109" s="2">
+        <f>IF(advert_summary!$B109=$N$1,advert_summary!J109,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K109" s="2">
+        <f>IF(advert_summary!$B109=$N$1,advert_summary!K109,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L109" s="2">
+        <f>IF(advert_summary!$B109=$N$1,advert_summary!L109,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A110" s="3">
+        <f>IF(advert_summary!$B110=$N$1,advert_summary!A110,0)</f>
+        <v>0</v>
+      </c>
+      <c r="B110">
+        <f>IF(advert_summary!$B110=$N$1,advert_summary!B110,"")</f>
+        <v>0</v>
+      </c>
+      <c r="C110">
+        <f>IF(advert_summary!$B110=$N$1,advert_summary!C110,"")</f>
+        <v>0</v>
+      </c>
+      <c r="D110" s="1">
+        <f>IF(advert_summary!$B110=$N$1,advert_summary!D110,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E110" s="1">
+        <f>IF(advert_summary!$B110=$N$1,advert_summary!E110,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F110" s="2">
+        <f>IF(advert_summary!$B110=$N$1,advert_summary!F110,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G110" s="2">
+        <f>IF(advert_summary!$B110=$N$1,advert_summary!G110,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H110" s="2">
+        <f>IF(advert_summary!$B110=$N$1,advert_summary!H110,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I110" s="2">
+        <f>IF(advert_summary!$B110=$N$1,advert_summary!I110,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J110" s="2">
+        <f>IF(advert_summary!$B110=$N$1,advert_summary!J110,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K110" s="2">
+        <f>IF(advert_summary!$B110=$N$1,advert_summary!K110,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L110" s="2">
+        <f>IF(advert_summary!$B110=$N$1,advert_summary!L110,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A111" s="3">
+        <f>IF(advert_summary!$B111=$N$1,advert_summary!A111,0)</f>
+        <v>0</v>
+      </c>
+      <c r="B111">
+        <f>IF(advert_summary!$B111=$N$1,advert_summary!B111,"")</f>
+        <v>0</v>
+      </c>
+      <c r="C111">
+        <f>IF(advert_summary!$B111=$N$1,advert_summary!C111,"")</f>
+        <v>0</v>
+      </c>
+      <c r="D111" s="1">
+        <f>IF(advert_summary!$B111=$N$1,advert_summary!D111,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E111" s="1">
+        <f>IF(advert_summary!$B111=$N$1,advert_summary!E111,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F111" s="2">
+        <f>IF(advert_summary!$B111=$N$1,advert_summary!F111,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G111" s="2">
+        <f>IF(advert_summary!$B111=$N$1,advert_summary!G111,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H111" s="2">
+        <f>IF(advert_summary!$B111=$N$1,advert_summary!H111,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I111" s="2">
+        <f>IF(advert_summary!$B111=$N$1,advert_summary!I111,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J111" s="2">
+        <f>IF(advert_summary!$B111=$N$1,advert_summary!J111,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K111" s="2">
+        <f>IF(advert_summary!$B111=$N$1,advert_summary!K111,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L111" s="2">
+        <f>IF(advert_summary!$B111=$N$1,advert_summary!L111,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A112" s="3">
+        <f>IF(advert_summary!$B112=$N$1,advert_summary!A112,0)</f>
+        <v>0</v>
+      </c>
+      <c r="B112">
+        <f>IF(advert_summary!$B112=$N$1,advert_summary!B112,"")</f>
+        <v>0</v>
+      </c>
+      <c r="C112">
+        <f>IF(advert_summary!$B112=$N$1,advert_summary!C112,"")</f>
+        <v>0</v>
+      </c>
+      <c r="D112" s="1">
+        <f>IF(advert_summary!$B112=$N$1,advert_summary!D112,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E112" s="1">
+        <f>IF(advert_summary!$B112=$N$1,advert_summary!E112,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F112" s="2">
+        <f>IF(advert_summary!$B112=$N$1,advert_summary!F112,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G112" s="2">
+        <f>IF(advert_summary!$B112=$N$1,advert_summary!G112,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H112" s="2">
+        <f>IF(advert_summary!$B112=$N$1,advert_summary!H112,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I112" s="2">
+        <f>IF(advert_summary!$B112=$N$1,advert_summary!I112,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J112" s="2">
+        <f>IF(advert_summary!$B112=$N$1,advert_summary!J112,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K112" s="2">
+        <f>IF(advert_summary!$B112=$N$1,advert_summary!K112,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L112" s="2">
+        <f>IF(advert_summary!$B112=$N$1,advert_summary!L112,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A113" s="3">
+        <f>IF(advert_summary!$B113=$N$1,advert_summary!A113,0)</f>
+        <v>0</v>
+      </c>
+      <c r="B113">
+        <f>IF(advert_summary!$B113=$N$1,advert_summary!B113,"")</f>
+        <v>0</v>
+      </c>
+      <c r="C113">
+        <f>IF(advert_summary!$B113=$N$1,advert_summary!C113,"")</f>
+        <v>0</v>
+      </c>
+      <c r="D113" s="1">
+        <f>IF(advert_summary!$B113=$N$1,advert_summary!D113,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E113" s="1">
+        <f>IF(advert_summary!$B113=$N$1,advert_summary!E113,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F113" s="2">
+        <f>IF(advert_summary!$B113=$N$1,advert_summary!F113,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G113" s="2">
+        <f>IF(advert_summary!$B113=$N$1,advert_summary!G113,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H113" s="2">
+        <f>IF(advert_summary!$B113=$N$1,advert_summary!H113,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I113" s="2">
+        <f>IF(advert_summary!$B113=$N$1,advert_summary!I113,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J113" s="2">
+        <f>IF(advert_summary!$B113=$N$1,advert_summary!J113,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K113" s="2">
+        <f>IF(advert_summary!$B113=$N$1,advert_summary!K113,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L113" s="2">
+        <f>IF(advert_summary!$B113=$N$1,advert_summary!L113,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A114" s="3">
+        <f>IF(advert_summary!$B114=$N$1,advert_summary!A114,0)</f>
+        <v>0</v>
+      </c>
+      <c r="B114">
+        <f>IF(advert_summary!$B114=$N$1,advert_summary!B114,"")</f>
+        <v>0</v>
+      </c>
+      <c r="C114">
+        <f>IF(advert_summary!$B114=$N$1,advert_summary!C114,"")</f>
+        <v>0</v>
+      </c>
+      <c r="D114" s="1">
+        <f>IF(advert_summary!$B114=$N$1,advert_summary!D114,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E114" s="1">
+        <f>IF(advert_summary!$B114=$N$1,advert_summary!E114,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F114" s="2">
+        <f>IF(advert_summary!$B114=$N$1,advert_summary!F114,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G114" s="2">
+        <f>IF(advert_summary!$B114=$N$1,advert_summary!G114,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H114" s="2">
+        <f>IF(advert_summary!$B114=$N$1,advert_summary!H114,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I114" s="2">
+        <f>IF(advert_summary!$B114=$N$1,advert_summary!I114,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J114" s="2">
+        <f>IF(advert_summary!$B114=$N$1,advert_summary!J114,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K114" s="2">
+        <f>IF(advert_summary!$B114=$N$1,advert_summary!K114,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L114" s="2">
+        <f>IF(advert_summary!$B114=$N$1,advert_summary!L114,0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A115" s="3" t="str">
-        <f>IF(advert_summary!$B115="FALSE",advert_summary!A115,"")</f>
-        <v/>
-      </c>
-      <c r="B115" t="str">
-        <f>IF(advert_summary!$B115="FALSE",advert_summary!B115,"")</f>
-        <v/>
-      </c>
-      <c r="C115" t="str">
-        <f>IF(advert_summary!$B115="FALSE",advert_summary!C115,"")</f>
-        <v/>
-      </c>
-      <c r="D115" s="1" t="str">
-        <f>IF(advert_summary!$B115="FALSE",advert_summary!D115,"")</f>
-        <v/>
-      </c>
-      <c r="E115" s="1" t="str">
-        <f>IF(advert_summary!$B115="FALSE",advert_summary!E115,"")</f>
-        <v/>
-      </c>
-      <c r="F115" s="2" t="str">
-        <f>IF(advert_summary!$B115="FALSE",advert_summary!F115,"")</f>
-        <v/>
-      </c>
-      <c r="G115" t="str">
-        <f>IF(advert_summary!$B115="FALSE",advert_summary!G115,"")</f>
-        <v/>
-      </c>
-      <c r="H115" t="str">
-        <f>IF(advert_summary!$B115="FALSE",advert_summary!H115,"")</f>
-        <v/>
-      </c>
-      <c r="I115" t="str">
-        <f>IF(advert_summary!$B115="FALSE",advert_summary!I115,"")</f>
-        <v/>
-      </c>
-      <c r="J115" t="str">
-        <f>IF(advert_summary!$B115="FALSE",advert_summary!J115,"")</f>
-        <v/>
-      </c>
-      <c r="K115" t="str">
-        <f>IF(advert_summary!$B115="FALSE",advert_summary!K115,"")</f>
-        <v/>
-      </c>
-      <c r="L115" t="str">
-        <f>IF(advert_summary!$B115="FALSE",advert_summary!L115,"")</f>
-        <v/>
+      <c r="A115" s="3">
+        <f>IF(advert_summary!$B115=$N$1,advert_summary!A115,0)</f>
+        <v>0</v>
+      </c>
+      <c r="B115">
+        <f>IF(advert_summary!$B115=$N$1,advert_summary!B115,"")</f>
+        <v>0</v>
+      </c>
+      <c r="C115">
+        <f>IF(advert_summary!$B115=$N$1,advert_summary!C115,"")</f>
+        <v>0</v>
+      </c>
+      <c r="D115" s="1">
+        <f>IF(advert_summary!$B115=$N$1,advert_summary!D115,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E115" s="1">
+        <f>IF(advert_summary!$B115=$N$1,advert_summary!E115,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F115" s="2">
+        <f>IF(advert_summary!$B115=$N$1,advert_summary!F115,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G115" s="2">
+        <f>IF(advert_summary!$B115=$N$1,advert_summary!G115,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H115" s="2">
+        <f>IF(advert_summary!$B115=$N$1,advert_summary!H115,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I115" s="2">
+        <f>IF(advert_summary!$B115=$N$1,advert_summary!I115,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J115" s="2">
+        <f>IF(advert_summary!$B115=$N$1,advert_summary!J115,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K115" s="2">
+        <f>IF(advert_summary!$B115=$N$1,advert_summary!K115,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L115" s="2">
+        <f>IF(advert_summary!$B115=$N$1,advert_summary!L115,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A116" s="3">
+        <f>IF(advert_summary!$B116=$N$1,advert_summary!A116,0)</f>
+        <v>0</v>
+      </c>
+      <c r="B116">
+        <f>IF(advert_summary!$B116=$N$1,advert_summary!B116,"")</f>
+        <v>0</v>
+      </c>
+      <c r="C116">
+        <f>IF(advert_summary!$B116=$N$1,advert_summary!C116,"")</f>
+        <v>0</v>
+      </c>
+      <c r="D116" s="1">
+        <f>IF(advert_summary!$B116=$N$1,advert_summary!D116,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E116" s="1">
+        <f>IF(advert_summary!$B116=$N$1,advert_summary!E116,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F116" s="2">
+        <f>IF(advert_summary!$B116=$N$1,advert_summary!F116,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G116" s="2">
+        <f>IF(advert_summary!$B116=$N$1,advert_summary!G116,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H116" s="2">
+        <f>IF(advert_summary!$B116=$N$1,advert_summary!H116,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I116" s="2">
+        <f>IF(advert_summary!$B116=$N$1,advert_summary!I116,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J116" s="2">
+        <f>IF(advert_summary!$B116=$N$1,advert_summary!J116,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K116" s="2">
+        <f>IF(advert_summary!$B116=$N$1,advert_summary!K116,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L116" s="2">
+        <f>IF(advert_summary!$B116=$N$1,advert_summary!L116,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A117" s="3">
+        <f>IF(advert_summary!$B117=$N$1,advert_summary!A117,0)</f>
+        <v>0</v>
+      </c>
+      <c r="B117">
+        <f>IF(advert_summary!$B117=$N$1,advert_summary!B117,"")</f>
+        <v>0</v>
+      </c>
+      <c r="C117">
+        <f>IF(advert_summary!$B117=$N$1,advert_summary!C117,"")</f>
+        <v>0</v>
+      </c>
+      <c r="D117" s="1">
+        <f>IF(advert_summary!$B117=$N$1,advert_summary!D117,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E117" s="1">
+        <f>IF(advert_summary!$B117=$N$1,advert_summary!E117,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F117" s="2">
+        <f>IF(advert_summary!$B117=$N$1,advert_summary!F117,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G117" s="2">
+        <f>IF(advert_summary!$B117=$N$1,advert_summary!G117,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H117" s="2">
+        <f>IF(advert_summary!$B117=$N$1,advert_summary!H117,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I117" s="2">
+        <f>IF(advert_summary!$B117=$N$1,advert_summary!I117,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J117" s="2">
+        <f>IF(advert_summary!$B117=$N$1,advert_summary!J117,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K117" s="2">
+        <f>IF(advert_summary!$B117=$N$1,advert_summary!K117,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L117" s="2">
+        <f>IF(advert_summary!$B117=$N$1,advert_summary!L117,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A118" s="3">
+        <f>IF(advert_summary!$B118=$N$1,advert_summary!A118,0)</f>
+        <v>0</v>
+      </c>
+      <c r="B118">
+        <f>IF(advert_summary!$B118=$N$1,advert_summary!B118,"")</f>
+        <v>0</v>
+      </c>
+      <c r="C118">
+        <f>IF(advert_summary!$B118=$N$1,advert_summary!C118,"")</f>
+        <v>0</v>
+      </c>
+      <c r="D118" s="1">
+        <f>IF(advert_summary!$B118=$N$1,advert_summary!D118,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E118" s="1">
+        <f>IF(advert_summary!$B118=$N$1,advert_summary!E118,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F118" s="2">
+        <f>IF(advert_summary!$B118=$N$1,advert_summary!F118,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G118" s="2">
+        <f>IF(advert_summary!$B118=$N$1,advert_summary!G118,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H118" s="2">
+        <f>IF(advert_summary!$B118=$N$1,advert_summary!H118,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I118" s="2">
+        <f>IF(advert_summary!$B118=$N$1,advert_summary!I118,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J118" s="2">
+        <f>IF(advert_summary!$B118=$N$1,advert_summary!J118,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K118" s="2">
+        <f>IF(advert_summary!$B118=$N$1,advert_summary!K118,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L118" s="2">
+        <f>IF(advert_summary!$B118=$N$1,advert_summary!L118,0)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1418720A-F54D-4D2B-9CB6-02B8776F2F47}">
+  <dimension ref="C5:N7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>34594773</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1">
+        <v>45703</v>
+      </c>
+      <c r="G5" s="1">
+        <v>45812</v>
+      </c>
+      <c r="H5">
+        <v>108</v>
+      </c>
+      <c r="I5">
+        <v>189.9</v>
+      </c>
+      <c r="J5">
+        <v>195.9</v>
+      </c>
+      <c r="K5">
+        <v>115</v>
+      </c>
+      <c r="L5">
+        <v>4</v>
+      </c>
+      <c r="M5">
+        <v>1.70347826086956</v>
+      </c>
+      <c r="N5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>34823574</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="1">
+        <v>45825</v>
+      </c>
+      <c r="G6" s="1">
+        <v>45891</v>
+      </c>
+      <c r="H6">
+        <v>65</v>
+      </c>
+      <c r="I6">
+        <v>219</v>
+      </c>
+      <c r="J6">
+        <v>214</v>
+      </c>
+      <c r="K6">
+        <v>109</v>
+      </c>
+      <c r="L6">
+        <v>5.5</v>
+      </c>
+      <c r="M6">
+        <v>1.96330275229357</v>
+      </c>
+      <c r="N6">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="7" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>35014192</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="1">
+        <v>45934</v>
+      </c>
+      <c r="G7" s="1">
+        <v>45941</v>
+      </c>
+      <c r="H7">
+        <v>7</v>
+      </c>
+      <c r="I7">
+        <v>210</v>
+      </c>
+      <c r="J7">
+        <v>210</v>
+      </c>
+      <c r="K7">
+        <v>109</v>
+      </c>
+      <c r="L7">
+        <v>5.5</v>
+      </c>
+      <c r="M7">
+        <v>1.92660550458715</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/advert_summary_yesoke.xlsx
+++ b/advert_summary_yesoke.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\ingatlan_scraper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA35021-DAEC-4E12-ADAC-FA4CCC563EE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C2A1EBB-23AE-4B3E-B490-51CCB8F93A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F02725DD-86AC-4730-8105-E0D23322A88F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{F02725DD-86AC-4730-8105-E0D23322A88F}"/>
   </bookViews>
   <sheets>
     <sheet name="advert_summary" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,15 @@
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">advert_summary!$K$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">advert_summary!$K$45:$K$127</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">advert_summary!$K$2:$K$150</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">advert_summary!$K$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">advert_summary!$K$2:$K$50</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">advert_summary!$K$2:$K$150</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">advert_summary!$K$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">advert_summary!$K$2:$K$150</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">adverts_removed!$K$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">adverts_removed!$K$2:$K$118</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">advert_summary!$K$2:$K$50</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">advert_summary!$K$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">advert_summary!$K$45:$K$127</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">adverts_removed!$K$1</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">adverts_removed!$K$2:$K$118</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="31">
   <si>
     <t>advertId</t>
   </si>
@@ -135,6 +137,9 @@
   </si>
   <si>
     <t>Budapest XI. kerĂĽlet, Kubikos utca</t>
+  </si>
+  <si>
+    <t>3 + 2 fĂ©l</t>
   </si>
 </sst>
 </file>
@@ -618,11 +623,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -767,12 +773,27 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>advert_summary!$A$2:$A$113</c:f>
+              <c:f>advert_summary!$A$2:$A$227</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="112"/>
+                <c:ptCount val="226"/>
                 <c:pt idx="0">
                   <c:v>34378761</c:v>
                 </c:pt>
@@ -1090,16 +1111,79 @@
                 </c:pt>
                 <c:pt idx="105">
                   <c:v>35020541</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>35048640</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>35046468</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>35057279</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>35071278</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>35093337</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>35093574</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>35154532</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>35151568</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>35123113</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>35170203</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>35176414</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>35163395</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>35160392</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>35155765</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>35175385</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>35134040</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>35174386</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>35186576</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>35192505</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>35122615</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>35116037</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>advert_summary!$K$2:$K$113</c:f>
+              <c:f>advert_summary!$K$2:$K$227</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="112"/>
+                <c:ptCount val="226"/>
                 <c:pt idx="0">
                   <c:v>1.51696428571428</c:v>
                 </c:pt>
@@ -1329,7 +1413,7 @@
                   <c:v>1.3448275862068899</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.472</c:v>
+                  <c:v>1.4319999999999999</c:v>
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>1.6412844036697201</c:v>
@@ -1359,7 +1443,7 @@
                   <c:v>2.09</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>3.0909090909090899</c:v>
+                  <c:v>2.4090909090908998</c:v>
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>1.57936507936507</c:v>
@@ -1380,13 +1464,13 @@
                   <c:v>1.5089285714285701</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1.26050420168067</c:v>
+                  <c:v>1.3361344537815101</c:v>
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>1.21138211382113</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1.92660550458715</c:v>
+                  <c:v>1.82568807339449</c:v>
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>2.4897959183673399</c:v>
@@ -1417,6 +1501,69 @@
                 </c:pt>
                 <c:pt idx="105">
                   <c:v>1.9119999999999999</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1.1919999999999999</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1.7196261682242899</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1.81666666666666</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1.8660714285714199</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2.0467289719626098</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1.7109375</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1.72</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1.8252173913043399</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1.94601769911504</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1.65</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1.85175925925925</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1.86666666666666</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1.4196428571428501</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1.5943396226415001</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1.74615384615384</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1.24166666666666</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1.8509259259259201</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2.25966386554621</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1.7304347826086901</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1.7851239669421399</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1.90818181818181</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1702,12 +1849,27 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>adverts_removed!$E$2:$E$118</c:f>
+              <c:f>adverts_removed!$E$2:$E$258</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="117"/>
+                <c:ptCount val="257"/>
                 <c:pt idx="0">
                   <c:v>45825</c:v>
                 </c:pt>
@@ -1736,7 +1898,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>46024</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>45659</c:v>
@@ -1838,7 +2000,7 @@
                   <c:v>45812</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0</c:v>
+                  <c:v>45972</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>45727</c:v>
@@ -1859,7 +2021,7 @@
                   <c:v>45851</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>45768</c:v>
+                  <c:v>45767</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>45791</c:v>
@@ -1892,7 +2054,7 @@
                   <c:v>45759</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0</c:v>
+                  <c:v>45986</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>45818</c:v>
@@ -1925,7 +2087,7 @@
                   <c:v>45851</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0</c:v>
+                  <c:v>45986</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>45841</c:v>
@@ -1937,10 +2099,10 @@
                   <c:v>45825</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0</c:v>
+                  <c:v>45981</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0</c:v>
+                  <c:v>45948</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>45825</c:v>
@@ -1949,7 +2111,7 @@
                   <c:v>45921</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>45868</c:v>
+                  <c:v>45867</c:v>
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>45901</c:v>
@@ -1970,7 +2132,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>45868</c:v>
+                  <c:v>45867</c:v>
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45901</c:v>
@@ -1985,31 +2147,31 @@
                   <c:v>45898</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0</c:v>
+                  <c:v>46024</c:v>
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0</c:v>
+                  <c:v>45948</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0</c:v>
+                  <c:v>46040</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0</c:v>
+                  <c:v>45948</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0</c:v>
+                  <c:v>45986</c:v>
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>45934</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0</c:v>
+                  <c:v>45948</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0</c:v>
+                  <c:v>45948</c:v>
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>45941</c:v>
@@ -2018,10 +2180,10 @@
                   <c:v>45941</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0</c:v>
+                  <c:v>45948</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0</c:v>
+                  <c:v>45948</c:v>
                 </c:pt>
                 <c:pt idx="105">
                   <c:v>0</c:v>
@@ -2039,7 +2201,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>0</c:v>
+                  <c:v>45986</c:v>
                 </c:pt>
                 <c:pt idx="111">
                   <c:v>0</c:v>
@@ -2048,7 +2210,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>0</c:v>
+                  <c:v>46040</c:v>
                 </c:pt>
                 <c:pt idx="114">
                   <c:v>0</c:v>
@@ -2057,6 +2219,66 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="116">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>46040</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="136">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2064,10 +2286,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>adverts_removed!$K$2:$K$118</c:f>
+              <c:f>adverts_removed!$K$2:$K$258</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="117"/>
+                <c:ptCount val="257"/>
                 <c:pt idx="0">
                   <c:v>1.51696428571428</c:v>
                 </c:pt>
@@ -2096,7 +2318,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>1.7684615384615301</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>1.43518518518518</c:v>
@@ -2198,7 +2420,7 @@
                   <c:v>1.70347826086956</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0</c:v>
+                  <c:v>1.95</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>2.25</c:v>
@@ -2252,7 +2474,7 @@
                   <c:v>1.8074468085106301</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0</c:v>
+                  <c:v>2.00841121495327</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>1.75833333333333</c:v>
@@ -2285,7 +2507,7 @@
                   <c:v>1.7399038461538401</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0</c:v>
+                  <c:v>1.9536363636363601</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>1.73826086956521</c:v>
@@ -2297,10 +2519,10 @@
                   <c:v>1.3448275862068899</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0</c:v>
+                  <c:v>1.4319999999999999</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0</c:v>
+                  <c:v>1.6412844036697201</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>1.7333333333333301</c:v>
@@ -2345,31 +2567,31 @@
                   <c:v>1.4196428571428501</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0</c:v>
+                  <c:v>1.5089285714285701</c:v>
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0</c:v>
+                  <c:v>1.21138211382113</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0</c:v>
+                  <c:v>1.82568807339449</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0</c:v>
+                  <c:v>2.4897959183673399</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0</c:v>
+                  <c:v>1.9536363636363601</c:v>
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>2.32380952380952</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0</c:v>
+                  <c:v>2.4897959183673399</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0</c:v>
+                  <c:v>2.4897959183673399</c:v>
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>1.65130434782608</c:v>
@@ -2378,10 +2600,10 @@
                   <c:v>2.59</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0</c:v>
+                  <c:v>2.4897959183673399</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0</c:v>
+                  <c:v>2.4897959183673399</c:v>
                 </c:pt>
                 <c:pt idx="105">
                   <c:v>0</c:v>
@@ -2399,7 +2621,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>0</c:v>
+                  <c:v>2.0467289719626098</c:v>
                 </c:pt>
                 <c:pt idx="111">
                   <c:v>0</c:v>
@@ -2408,7 +2630,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>0</c:v>
+                  <c:v>1.8252173913043399</c:v>
                 </c:pt>
                 <c:pt idx="114">
                   <c:v>0</c:v>
@@ -2417,6 +2639,66 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="116">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1.24166666666666</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="136">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2617,6 +2899,1126 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>adverts_removed!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>unit_price</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>adverts_removed!$F$2:$F$150</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="149"/>
+                <c:pt idx="0">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>adverts_removed!$K$2:$K$150</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="149"/>
+                <c:pt idx="0">
+                  <c:v>1.51696428571428</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5684210526315701</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2909836065573701</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6955357142857099</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4607692307692299</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.8349514563106699</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7684615384615301</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.43518518518518</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.36</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.8173076923076901</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.0692307692307601</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.42635658914728</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.92913385826771</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.0409836065573699</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.0409836065573699</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.41658333333333</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.3241666666666601</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.7538461538461501</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.49923076923076</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.0409836065573699</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.2499166666666599</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.8349514563106699</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.69</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.399</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.81023622047244</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.8611111111111101</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.5825</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.8384615384615299</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.59821428571428</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.70347826086956</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.70347826086956</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.95</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.7399038461538401</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.5192000000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.5920000000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.4392</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.36</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.0409836065573699</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.4900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.1461538461538399</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.8443298969072099</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.7333333333333301</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.92211538461538</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.7073170731707299</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.5376068376068299</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.8074468085106301</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.00841121495327</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.75833333333333</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.9153846153846099</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.95234375</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.57314814814814</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.7295918367346901</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.7295918367346901</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.51696428571428</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.7399038461538401</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.7399038461538401</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.9536363636363601</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.73826086956521</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.4322033898305</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.3448275862068899</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.4319999999999999</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.6412844036697201</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.7333333333333301</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.96321100917431</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.7420634920634901</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.44067796610169</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.6658333333333299</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.2833333333333301</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.57936507936507</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.7399038461538401</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.72727272727272</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2.32380952380952</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.4196428571428501</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.5089285714285701</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.21138211382113</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.82568807339449</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2.4897959183673399</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.9536363636363601</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.32380952380952</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.4897959183673399</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2.4897959183673399</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.65130434782608</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2.59</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2.4897959183673399</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2.4897959183673399</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2.0467289719626098</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1.8252173913043399</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1.24166666666666</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-62A6-46EA-B87B-4B12E9C42633}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="873843391"/>
+        <c:axId val="873843871"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="873843391"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="873843871"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="873843871"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="873843391"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -3027,6 +4429,69 @@
                 <c:pt idx="105">
                   <c:v>35020541</c:v>
                 </c:pt>
+                <c:pt idx="106">
+                  <c:v>35048640</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>35046468</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>35057279</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>35071278</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>35093337</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>35093574</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>35154532</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>35151568</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>35123113</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>35170203</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>35176414</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>35163395</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>35160392</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>35155765</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>35175385</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>35134040</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>35174386</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>35186576</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>35192505</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>35122615</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>35116037</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3061,10 +4526,10 @@
                   <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>294</c:v>
+                  <c:v>399</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>294</c:v>
+                  <c:v>370</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>5</c:v>
@@ -3073,7 +4538,7 @@
                   <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>294</c:v>
+                  <c:v>399</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>78</c:v>
@@ -3088,13 +4553,13 @@
                   <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>294</c:v>
+                  <c:v>399</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>294</c:v>
+                  <c:v>399</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>73</c:v>
@@ -3106,7 +4571,7 @@
                   <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>294</c:v>
+                  <c:v>399</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>105</c:v>
@@ -3139,7 +4604,7 @@
                   <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>261</c:v>
+                  <c:v>366</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>7</c:v>
@@ -3166,7 +4631,7 @@
                   <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>241</c:v>
+                  <c:v>264</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>13</c:v>
@@ -3196,7 +4661,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>216</c:v>
+                  <c:v>321</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>0</c:v>
@@ -3220,7 +4685,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>189</c:v>
+                  <c:v>227</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>59</c:v>
@@ -3235,7 +4700,7 @@
                   <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>158</c:v>
+                  <c:v>263</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>22</c:v>
@@ -3253,7 +4718,7 @@
                   <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>133</c:v>
+                  <c:v>172</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>26</c:v>
@@ -3265,7 +4730,7 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>129</c:v>
+                  <c:v>162</c:v>
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>125</c:v>
@@ -3289,13 +4754,13 @@
                   <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>107</c:v>
+                  <c:v>212</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>107</c:v>
+                  <c:v>212</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>107</c:v>
+                  <c:v>212</c:v>
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>0</c:v>
@@ -3313,22 +4778,22 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>37</c:v>
+                  <c:v>113</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>14</c:v>
+                  <c:v>119</c:v>
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>14</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>14</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>0</c:v>
@@ -3352,6 +4817,69 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="105">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="126">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3668,10 +5196,10 @@
                   <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>294</c:v>
+                  <c:v>399</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>294</c:v>
+                  <c:v>370</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>5</c:v>
@@ -3680,7 +5208,7 @@
                   <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>294</c:v>
+                  <c:v>399</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>78</c:v>
@@ -3695,13 +5223,13 @@
                   <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>294</c:v>
+                  <c:v>399</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>294</c:v>
+                  <c:v>399</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>73</c:v>
@@ -3713,7 +5241,7 @@
                   <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>294</c:v>
+                  <c:v>399</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>105</c:v>
@@ -3746,7 +5274,7 @@
                   <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>261</c:v>
+                  <c:v>366</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>7</c:v>
@@ -3773,7 +5301,7 @@
                   <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>241</c:v>
+                  <c:v>264</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>13</c:v>
@@ -3803,7 +5331,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>216</c:v>
+                  <c:v>321</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>0</c:v>
@@ -3827,7 +5355,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>189</c:v>
+                  <c:v>227</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>59</c:v>
@@ -3842,7 +5370,7 @@
                   <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>158</c:v>
+                  <c:v>263</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>22</c:v>
@@ -3860,7 +5388,7 @@
                   <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>133</c:v>
+                  <c:v>172</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>26</c:v>
@@ -3872,7 +5400,7 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>129</c:v>
+                  <c:v>162</c:v>
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>125</c:v>
@@ -3896,13 +5424,13 @@
                   <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>107</c:v>
+                  <c:v>212</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>107</c:v>
+                  <c:v>212</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>107</c:v>
+                  <c:v>212</c:v>
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>0</c:v>
@@ -3920,22 +5448,22 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>37</c:v>
+                  <c:v>113</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>14</c:v>
+                  <c:v>119</c:v>
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>14</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>14</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>0</c:v>
@@ -3959,6 +5487,69 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="105">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="126">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4199,7 +5790,7 @@
                   <c:v>156</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>184</c:v>
+                  <c:v>179</c:v>
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>178.9</c:v>
@@ -4229,7 +5820,7 @@
                   <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>340</c:v>
+                  <c:v>265</c:v>
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>199</c:v>
@@ -4250,13 +5841,13 @@
                   <c:v>169</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>150</c:v>
+                  <c:v>159</c:v>
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>149</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>210</c:v>
+                  <c:v>199</c:v>
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>244</c:v>
@@ -4287,6 +5878,69 @@
                 </c:pt>
                 <c:pt idx="105">
                   <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>209.9</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>219.9</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>199.99</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>199.9</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>268.89999999999998</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>209.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4602,10 +6256,10 @@
                   <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>294</c:v>
+                  <c:v>399</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>294</c:v>
+                  <c:v>370</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>5</c:v>
@@ -4614,7 +6268,7 @@
                   <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>294</c:v>
+                  <c:v>399</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>78</c:v>
@@ -4629,13 +6283,13 @@
                   <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>294</c:v>
+                  <c:v>399</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>294</c:v>
+                  <c:v>399</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>73</c:v>
@@ -4647,7 +6301,7 @@
                   <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>294</c:v>
+                  <c:v>399</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>105</c:v>
@@ -4680,7 +6334,7 @@
                   <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>261</c:v>
+                  <c:v>366</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>7</c:v>
@@ -4707,7 +6361,7 @@
                   <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>241</c:v>
+                  <c:v>264</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>13</c:v>
@@ -4737,7 +6391,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>216</c:v>
+                  <c:v>321</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>0</c:v>
@@ -4761,7 +6415,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>189</c:v>
+                  <c:v>227</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>59</c:v>
@@ -4776,7 +6430,7 @@
                   <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>158</c:v>
+                  <c:v>263</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>22</c:v>
@@ -4794,7 +6448,7 @@
                   <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>133</c:v>
+                  <c:v>172</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>26</c:v>
@@ -4806,7 +6460,7 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>129</c:v>
+                  <c:v>162</c:v>
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>125</c:v>
@@ -4830,13 +6484,13 @@
                   <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>107</c:v>
+                  <c:v>212</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>107</c:v>
+                  <c:v>212</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>107</c:v>
+                  <c:v>212</c:v>
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>0</c:v>
@@ -4854,22 +6508,22 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>37</c:v>
+                  <c:v>113</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>14</c:v>
+                  <c:v>119</c:v>
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>14</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>14</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>0</c:v>
@@ -4893,6 +6547,69 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="105">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="126">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -5221,6 +6938,69 @@
                 </c:pt>
                 <c:pt idx="105">
                   <c:v>35020541</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>35048640</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>35046468</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>35057279</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>35071278</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>35093337</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>35093574</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>35154532</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>35151568</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>35123113</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>35170203</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>35176414</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>35163395</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>35160392</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>35155765</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>35175385</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>35134040</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>35174386</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>35186576</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>35192505</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>35122615</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>35116037</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5507,10 +7287,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>advert_summary!$A$2:$A$116</c:f>
+              <c:f>advert_summary!$A$2:$A$176</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="115"/>
+                <c:ptCount val="175"/>
                 <c:pt idx="0">
                   <c:v>34378761</c:v>
                 </c:pt>
@@ -5828,16 +7608,79 @@
                 </c:pt>
                 <c:pt idx="105">
                   <c:v>35020541</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>35048640</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>35046468</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>35057279</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>35071278</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>35093337</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>35093574</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>35154532</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>35151568</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>35123113</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>35170203</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>35176414</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>35163395</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>35160392</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>35155765</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>35175385</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>35134040</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>35174386</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>35186576</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>35192505</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>35122615</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>35116037</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>advert_summary!$H$2:$H$116</c:f>
+              <c:f>advert_summary!$H$2:$H$176</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="115"/>
+                <c:ptCount val="175"/>
                 <c:pt idx="0">
                   <c:v>169.9</c:v>
                 </c:pt>
@@ -6067,7 +7910,7 @@
                   <c:v>156</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>184</c:v>
+                  <c:v>179</c:v>
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>178.9</c:v>
@@ -6097,7 +7940,7 @@
                   <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>340</c:v>
+                  <c:v>265</c:v>
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>199</c:v>
@@ -6118,13 +7961,13 @@
                   <c:v>169</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>150</c:v>
+                  <c:v>159</c:v>
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>149</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>210</c:v>
+                  <c:v>199</c:v>
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>244</c:v>
@@ -6155,6 +7998,69 @@
                 </c:pt>
                 <c:pt idx="105">
                   <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>209.9</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>219.9</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>199.99</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>199.9</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>268.89999999999998</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>209.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6446,91 +8352,91 @@
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="149"/>
                 <c:pt idx="0">
-                  <c:v>45654</c:v>
+                  <c:v>45653</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45654</c:v>
+                  <c:v>45653</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45654</c:v>
+                  <c:v>45653</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45654</c:v>
+                  <c:v>45653</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45654</c:v>
+                  <c:v>45653</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45654</c:v>
+                  <c:v>45653</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45654</c:v>
+                  <c:v>45653</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45654</c:v>
+                  <c:v>45653</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45654</c:v>
+                  <c:v>45653</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45654</c:v>
+                  <c:v>45653</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45654</c:v>
+                  <c:v>45653</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>45654</c:v>
+                  <c:v>45653</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>45654</c:v>
+                  <c:v>45653</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>45654</c:v>
+                  <c:v>45653</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>45654</c:v>
+                  <c:v>45653</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>45654</c:v>
+                  <c:v>45653</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>45654</c:v>
+                  <c:v>45653</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>45654</c:v>
+                  <c:v>45653</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>45654</c:v>
+                  <c:v>45653</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>45654</c:v>
+                  <c:v>45653</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>45654</c:v>
+                  <c:v>45653</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>45654</c:v>
+                  <c:v>45653</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>45654</c:v>
+                  <c:v>45653</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>45654</c:v>
+                  <c:v>45653</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>45654</c:v>
+                  <c:v>45653</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>45654</c:v>
+                  <c:v>45653</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>45654</c:v>
+                  <c:v>45653</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>45654</c:v>
+                  <c:v>45653</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>45654</c:v>
+                  <c:v>45653</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>45673</c:v>
@@ -6707,7 +8613,7 @@
                   <c:v>45841</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>45868</c:v>
+                  <c:v>45867</c:v>
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>45876</c:v>
@@ -6762,6 +8668,69 @@
                 </c:pt>
                 <c:pt idx="105">
                   <c:v>45948</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>45961</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>45969</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>45981</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>45984</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>46024</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>46024</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>46024</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>46040</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>46040</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>46040</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>46040</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>46040</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>46040</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>46040</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>46040</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>46053</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>46053</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>46053</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>46053</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7001,7 +8970,7 @@
                   <c:v>1.3448275862068899</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.472</c:v>
+                  <c:v>1.4319999999999999</c:v>
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>1.6412844036697201</c:v>
@@ -7031,7 +9000,7 @@
                   <c:v>2.09</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>3.0909090909090899</c:v>
+                  <c:v>2.4090909090908998</c:v>
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>1.57936507936507</c:v>
@@ -7052,13 +9021,13 @@
                   <c:v>1.5089285714285701</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1.26050420168067</c:v>
+                  <c:v>1.3361344537815101</c:v>
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>1.21138211382113</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1.92660550458715</c:v>
+                  <c:v>1.82568807339449</c:v>
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>2.4897959183673399</c:v>
@@ -7089,6 +9058,69 @@
                 </c:pt>
                 <c:pt idx="105">
                   <c:v>1.9119999999999999</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1.1919999999999999</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1.7196261682242899</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1.81666666666666</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1.8660714285714199</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2.0467289719626098</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1.7109375</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1.72</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1.8252173913043399</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1.94601769911504</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1.65</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1.85175925925925</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1.86666666666666</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1.4196428571428501</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1.5943396226415001</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1.74615384615384</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1.24166666666666</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1.8509259259259201</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2.25966386554621</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1.7304347826086901</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1.7851239669421399</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1.90818181818181</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7608,7 +9640,7 @@
                   <c:v>1.3448275862068899</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.472</c:v>
+                  <c:v>1.4319999999999999</c:v>
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>1.6412844036697201</c:v>
@@ -7638,7 +9670,7 @@
                   <c:v>2.09</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>3.0909090909090899</c:v>
+                  <c:v>2.4090909090908998</c:v>
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>1.57936507936507</c:v>
@@ -7659,13 +9691,13 @@
                   <c:v>1.5089285714285701</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1.26050420168067</c:v>
+                  <c:v>1.3361344537815101</c:v>
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>1.21138211382113</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1.92660550458715</c:v>
+                  <c:v>1.82568807339449</c:v>
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>2.4897959183673399</c:v>
@@ -7696,6 +9728,69 @@
                 </c:pt>
                 <c:pt idx="105">
                   <c:v>1.9119999999999999</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1.1919999999999999</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1.7196261682242899</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1.81666666666666</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1.8660714285714199</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2.0467289719626098</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1.7109375</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1.72</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1.8252173913043399</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1.94601769911504</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1.65</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1.85175925925925</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1.86666666666666</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1.4196428571428501</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1.5943396226415001</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1.74615384615384</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1.24166666666666</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1.8509259259259201</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2.25966386554621</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1.7304347826086901</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1.7851239669421399</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1.90818181818181</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7731,10 +9826,10 @@
                   <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>294</c:v>
+                  <c:v>399</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>294</c:v>
+                  <c:v>370</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>5</c:v>
@@ -7743,7 +9838,7 @@
                   <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>294</c:v>
+                  <c:v>399</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>78</c:v>
@@ -7758,13 +9853,13 @@
                   <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>294</c:v>
+                  <c:v>399</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>294</c:v>
+                  <c:v>399</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>73</c:v>
@@ -7776,7 +9871,7 @@
                   <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>294</c:v>
+                  <c:v>399</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>105</c:v>
@@ -7809,7 +9904,7 @@
                   <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>261</c:v>
+                  <c:v>366</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>7</c:v>
@@ -7836,7 +9931,7 @@
                   <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>241</c:v>
+                  <c:v>264</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>13</c:v>
@@ -7866,7 +9961,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>216</c:v>
+                  <c:v>321</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>0</c:v>
@@ -7890,7 +9985,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>189</c:v>
+                  <c:v>227</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>59</c:v>
@@ -7905,7 +10000,7 @@
                   <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>158</c:v>
+                  <c:v>263</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>22</c:v>
@@ -7923,7 +10018,7 @@
                   <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>133</c:v>
+                  <c:v>172</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>26</c:v>
@@ -7935,7 +10030,7 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>129</c:v>
+                  <c:v>162</c:v>
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>125</c:v>
@@ -7959,13 +10054,13 @@
                   <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>107</c:v>
+                  <c:v>212</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>107</c:v>
+                  <c:v>212</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>107</c:v>
+                  <c:v>212</c:v>
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>0</c:v>
@@ -7983,22 +10078,22 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>37</c:v>
+                  <c:v>113</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>14</c:v>
+                  <c:v>119</c:v>
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>14</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>14</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>0</c:v>
@@ -8022,6 +10117,69 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="105">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="126">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -8341,7 +10499,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>370</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>5</c:v>
@@ -8443,7 +10601,7 @@
                   <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0</c:v>
+                  <c:v>264</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>13</c:v>
@@ -8497,7 +10655,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0</c:v>
+                  <c:v>227</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>59</c:v>
@@ -8530,7 +10688,7 @@
                   <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0</c:v>
+                  <c:v>172</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>26</c:v>
@@ -8542,10 +10700,10 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0</c:v>
+                  <c:v>162</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>2</c:v>
@@ -8590,31 +10748,31 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0</c:v>
+                  <c:v>113</c:v>
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>0</c:v>
@@ -8623,10 +10781,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="105">
                   <c:v>0</c:v>
@@ -8644,7 +10802,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="111">
                   <c:v>0</c:v>
@@ -8653,7 +10811,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="114">
                   <c:v>0</c:v>
@@ -8662,6 +10820,66 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="116">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="136">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -8701,7 +10919,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>1.7684615384615301</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>1.43518518518518</c:v>
@@ -8803,7 +11021,7 @@
                   <c:v>1.70347826086956</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0</c:v>
+                  <c:v>1.95</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>2.25</c:v>
@@ -8857,7 +11075,7 @@
                   <c:v>1.8074468085106301</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0</c:v>
+                  <c:v>2.00841121495327</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>1.75833333333333</c:v>
@@ -8890,7 +11108,7 @@
                   <c:v>1.7399038461538401</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0</c:v>
+                  <c:v>1.9536363636363601</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>1.73826086956521</c:v>
@@ -8902,10 +11120,10 @@
                   <c:v>1.3448275862068899</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0</c:v>
+                  <c:v>1.4319999999999999</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0</c:v>
+                  <c:v>1.6412844036697201</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>1.7333333333333301</c:v>
@@ -8950,31 +11168,31 @@
                   <c:v>1.4196428571428501</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0</c:v>
+                  <c:v>1.5089285714285701</c:v>
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0</c:v>
+                  <c:v>1.21138211382113</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0</c:v>
+                  <c:v>1.82568807339449</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0</c:v>
+                  <c:v>2.4897959183673399</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0</c:v>
+                  <c:v>1.9536363636363601</c:v>
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>2.32380952380952</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0</c:v>
+                  <c:v>2.4897959183673399</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0</c:v>
+                  <c:v>2.4897959183673399</c:v>
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>1.65130434782608</c:v>
@@ -8983,10 +11201,10 @@
                   <c:v>2.59</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0</c:v>
+                  <c:v>2.4897959183673399</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0</c:v>
+                  <c:v>2.4897959183673399</c:v>
                 </c:pt>
                 <c:pt idx="105">
                   <c:v>0</c:v>
@@ -9004,7 +11222,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>0</c:v>
+                  <c:v>2.0467289719626098</c:v>
                 </c:pt>
                 <c:pt idx="111">
                   <c:v>0</c:v>
@@ -9013,7 +11231,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>0</c:v>
+                  <c:v>1.8252173913043399</c:v>
                 </c:pt>
                 <c:pt idx="114">
                   <c:v>0</c:v>
@@ -9022,6 +11240,66 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="116">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1.24166666666666</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="136">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -9309,10 +11587,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>adverts_removed!$A$2:$A$118</c:f>
+              <c:f>adverts_removed!$A$2:$A$218</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="117"/>
+                <c:ptCount val="217"/>
                 <c:pt idx="0">
                   <c:v>34378761</c:v>
                 </c:pt>
@@ -9341,7 +11619,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>33643923</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>33085862</c:v>
@@ -9443,7 +11721,7 @@
                   <c:v>34594638</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0</c:v>
+                  <c:v>34472491</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>34611180</c:v>
@@ -9497,7 +11775,7 @@
                   <c:v>34704482</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0</c:v>
+                  <c:v>34700444</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>34702988</c:v>
@@ -9530,7 +11808,7 @@
                   <c:v>34607640</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0</c:v>
+                  <c:v>34782974</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>34804285</c:v>
@@ -9542,10 +11820,10 @@
                   <c:v>34807267</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0</c:v>
+                  <c:v>34809177</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0</c:v>
+                  <c:v>34815108</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>34813943</c:v>
@@ -9590,31 +11868,31 @@
                   <c:v>34933989</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0</c:v>
+                  <c:v>34960060</c:v>
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0</c:v>
+                  <c:v>35004703</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0</c:v>
+                  <c:v>35014192</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0</c:v>
+                  <c:v>35007606</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0</c:v>
+                  <c:v>35000289</c:v>
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>35008860</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0</c:v>
+                  <c:v>35008632</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0</c:v>
+                  <c:v>35008393</c:v>
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>35025259</c:v>
@@ -9623,10 +11901,10 @@
                   <c:v>35032940</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0</c:v>
+                  <c:v>35009219</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0</c:v>
+                  <c:v>35008343</c:v>
                 </c:pt>
                 <c:pt idx="105">
                   <c:v>0</c:v>
@@ -9644,7 +11922,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>0</c:v>
+                  <c:v>35093337</c:v>
                 </c:pt>
                 <c:pt idx="111">
                   <c:v>0</c:v>
@@ -9653,7 +11931,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>0</c:v>
+                  <c:v>35151568</c:v>
                 </c:pt>
                 <c:pt idx="114">
                   <c:v>0</c:v>
@@ -9662,6 +11940,66 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="116">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>35134040</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="136">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -9669,10 +12007,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>adverts_removed!$K$2:$K$118</c:f>
+              <c:f>adverts_removed!$K$2:$K$218</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="117"/>
+                <c:ptCount val="217"/>
                 <c:pt idx="0">
                   <c:v>1.51696428571428</c:v>
                 </c:pt>
@@ -9701,7 +12039,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>1.7684615384615301</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>1.43518518518518</c:v>
@@ -9803,7 +12141,7 @@
                   <c:v>1.70347826086956</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0</c:v>
+                  <c:v>1.95</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>2.25</c:v>
@@ -9857,7 +12195,7 @@
                   <c:v>1.8074468085106301</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0</c:v>
+                  <c:v>2.00841121495327</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>1.75833333333333</c:v>
@@ -9890,7 +12228,7 @@
                   <c:v>1.7399038461538401</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0</c:v>
+                  <c:v>1.9536363636363601</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>1.73826086956521</c:v>
@@ -9902,10 +12240,10 @@
                   <c:v>1.3448275862068899</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0</c:v>
+                  <c:v>1.4319999999999999</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0</c:v>
+                  <c:v>1.6412844036697201</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>1.7333333333333301</c:v>
@@ -9950,31 +12288,31 @@
                   <c:v>1.4196428571428501</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0</c:v>
+                  <c:v>1.5089285714285701</c:v>
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0</c:v>
+                  <c:v>1.21138211382113</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0</c:v>
+                  <c:v>1.82568807339449</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0</c:v>
+                  <c:v>2.4897959183673399</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0</c:v>
+                  <c:v>1.9536363636363601</c:v>
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>2.32380952380952</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0</c:v>
+                  <c:v>2.4897959183673399</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0</c:v>
+                  <c:v>2.4897959183673399</c:v>
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>1.65130434782608</c:v>
@@ -9983,10 +12321,10 @@
                   <c:v>2.59</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0</c:v>
+                  <c:v>2.4897959183673399</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0</c:v>
+                  <c:v>2.4897959183673399</c:v>
                 </c:pt>
                 <c:pt idx="105">
                   <c:v>0</c:v>
@@ -10004,7 +12342,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>0</c:v>
+                  <c:v>2.0467289719626098</c:v>
                 </c:pt>
                 <c:pt idx="111">
                   <c:v>0</c:v>
@@ -10013,7 +12351,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>0</c:v>
+                  <c:v>1.8252173913043399</c:v>
                 </c:pt>
                 <c:pt idx="114">
                   <c:v>0</c:v>
@@ -10022,6 +12360,66 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="116">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1.24166666666666</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="136">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -10228,7 +12626,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -10266,7 +12664,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{8E065742-7345-42CC-8897-936602B02012}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.4</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>unit_price</cx:v>
             </cx:txData>
           </cx:tx>
@@ -10295,7 +12693,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -10333,7 +12731,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{207D0EDE-FC56-4C0E-9995-C80E739DC32C}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:f>_xlchart.v1.4</cx:f>
               <cx:v>unit_price</cx:v>
             </cx:txData>
           </cx:tx>
@@ -10358,75 +12756,6 @@
 </file>
 
 <file path=xl/charts/chartEx3.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0">
-      <cx:tx>
-        <cx:txData>
-          <cx:v>Unit Price</cx:v>
-        </cx:txData>
-      </cx:tx>
-      <cx:txPr>
-        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:sysClr>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
-            </a:rPr>
-            <a:t>Unit Price</a:t>
-          </a:r>
-        </a:p>
-      </cx:txPr>
-    </cx:title>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="clusteredColumn" uniqueId="{BCEAE2D0-D153-47B0-ADFB-39CF09B4B8F9}" formatIdx="0">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
-              <cx:v>unit_price</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:binning intervalClosed="r" underflow="1.3999999999999999" overflow="auto">
-              <cx:binSize val="0.20000000000000001"/>
-            </cx:binning>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-      <cx:axis id="0">
-        <cx:catScaling gapWidth="0"/>
-        <cx:tickLabels/>
-      </cx:axis>
-      <cx:axis id="1">
-        <cx:valScaling/>
-        <cx:majorGridlines/>
-        <cx:tickLabels/>
-      </cx:axis>
-    </cx:plotArea>
-  </cx:chart>
-</cx:chartSpace>
-</file>
-
-<file path=xl/charts/chartEx4.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
     <cx:data id="0">
@@ -10466,7 +12795,7 @@
     </cx:title>
     <cx:plotArea>
       <cx:plotAreaRegion>
-        <cx:series layoutId="clusteredColumn" uniqueId="{8A7A4F3E-4505-4690-AECD-F96129899DF7}">
+        <cx:series layoutId="clusteredColumn" uniqueId="{BCEAE2D0-D153-47B0-ADFB-39CF09B4B8F9}" formatIdx="0">
           <cx:tx>
             <cx:txData>
               <cx:f>_xlchart.v1.6</cx:f>
@@ -10475,7 +12804,7 @@
           </cx:tx>
           <cx:dataId val="0"/>
           <cx:layoutPr>
-            <cx:binning intervalClosed="r" underflow="1.3999999999999999" overflow="2.6000000000000001">
+            <cx:binning intervalClosed="r" underflow="1.3999999999999999" overflow="auto">
               <cx:binSize val="0.20000000000000001"/>
             </cx:binning>
           </cx:layoutPr>
@@ -10486,7 +12815,76 @@
         <cx:tickLabels/>
       </cx:axis>
       <cx:axis id="1">
-        <cx:valScaling max="17"/>
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx4.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.9</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Unit Price</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+            </a:rPr>
+            <a:t>Unit Price</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{8A7A4F3E-4505-4690-AECD-F96129899DF7}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.8</cx:f>
+              <cx:v>unit_price</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r" underflow="1" overflow="3">
+              <cx:binSize val="0.20000000000000001"/>
+            </cx:binning>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling max="24"/>
         <cx:majorGridlines/>
         <cx:tickLabels/>
       </cx:axis>
@@ -10696,6 +13094,46 @@
 </file>
 
 <file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -13620,6 +16058,522 @@
 </file>
 
 <file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -18930,6 +21884,44 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>395288</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>190329</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4DFB0F9-4492-4715-80E0-F926632E782B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -19250,14 +22242,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E3D8E08-B692-4D91-B61E-26C54386320F}">
-  <dimension ref="A1:L107"/>
+  <dimension ref="A1:L128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="83" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView topLeftCell="A102" zoomScale="88" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A118" sqref="A118:L118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="4" max="5" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -19310,7 +22303,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="1">
-        <v>45654</v>
+        <v>45653</v>
       </c>
       <c r="E2" s="1">
         <v>45825</v>
@@ -19348,7 +22341,7 @@
         <v>13</v>
       </c>
       <c r="D3" s="1">
-        <v>45654</v>
+        <v>45653</v>
       </c>
       <c r="E3" s="1">
         <v>45673</v>
@@ -19386,7 +22379,7 @@
         <v>14</v>
       </c>
       <c r="D4" s="1">
-        <v>45654</v>
+        <v>45653</v>
       </c>
       <c r="E4" s="1">
         <v>45727</v>
@@ -19424,7 +22417,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="1">
-        <v>45654</v>
+        <v>45653</v>
       </c>
       <c r="E5" s="1">
         <v>45680</v>
@@ -19462,7 +22455,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="1">
-        <v>45654</v>
+        <v>45653</v>
       </c>
       <c r="E6" s="1">
         <v>45851</v>
@@ -19500,7 +22493,7 @@
         <v>15</v>
       </c>
       <c r="D7" s="1">
-        <v>45654</v>
+        <v>45653</v>
       </c>
       <c r="E7" s="1">
         <v>45713</v>
@@ -19538,7 +22531,7 @@
         <v>15</v>
       </c>
       <c r="D8" s="1">
-        <v>45654</v>
+        <v>45653</v>
       </c>
       <c r="E8" s="1">
         <v>45670</v>
@@ -19576,7 +22569,7 @@
         <v>16</v>
       </c>
       <c r="D9" s="1">
-        <v>45654</v>
+        <v>45653</v>
       </c>
       <c r="E9" s="1">
         <v>45732</v>
@@ -19614,13 +22607,13 @@
         <v>10</v>
       </c>
       <c r="D10" s="1">
-        <v>45654</v>
+        <v>45653</v>
       </c>
       <c r="E10" s="1">
-        <v>45948</v>
+        <v>46053</v>
       </c>
       <c r="F10">
-        <v>294</v>
+        <v>399</v>
       </c>
       <c r="G10">
         <v>182</v>
@@ -19646,19 +22639,19 @@
         <v>33643923</v>
       </c>
       <c r="B11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="1">
-        <v>45654</v>
+        <v>45653</v>
       </c>
       <c r="E11" s="1">
-        <v>45948</v>
+        <v>46024</v>
       </c>
       <c r="F11">
-        <v>294</v>
+        <v>370</v>
       </c>
       <c r="G11">
         <v>228</v>
@@ -19690,7 +22683,7 @@
         <v>13</v>
       </c>
       <c r="D12" s="1">
-        <v>45654</v>
+        <v>45653</v>
       </c>
       <c r="E12" s="1">
         <v>45659</v>
@@ -19728,7 +22721,7 @@
         <v>16</v>
       </c>
       <c r="D13" s="1">
-        <v>45654</v>
+        <v>45653</v>
       </c>
       <c r="E13" s="1">
         <v>45722</v>
@@ -19766,13 +22759,13 @@
         <v>10</v>
       </c>
       <c r="D14" s="1">
-        <v>45654</v>
+        <v>45653</v>
       </c>
       <c r="E14" s="1">
-        <v>45948</v>
+        <v>46053</v>
       </c>
       <c r="F14">
-        <v>294</v>
+        <v>399</v>
       </c>
       <c r="G14">
         <v>179.9</v>
@@ -19804,7 +22797,7 @@
         <v>17</v>
       </c>
       <c r="D15" s="1">
-        <v>45654</v>
+        <v>45653</v>
       </c>
       <c r="E15" s="1">
         <v>45732</v>
@@ -19842,7 +22835,7 @@
         <v>16</v>
       </c>
       <c r="D16" s="1">
-        <v>45654</v>
+        <v>45653</v>
       </c>
       <c r="E16" s="1">
         <v>45660</v>
@@ -19880,7 +22873,7 @@
         <v>18</v>
       </c>
       <c r="D17" s="1">
-        <v>45654</v>
+        <v>45653</v>
       </c>
       <c r="E17" s="1">
         <v>45719</v>
@@ -19918,7 +22911,7 @@
         <v>15</v>
       </c>
       <c r="D18" s="1">
-        <v>45654</v>
+        <v>45653</v>
       </c>
       <c r="E18" s="1">
         <v>45680</v>
@@ -19956,13 +22949,13 @@
         <v>10</v>
       </c>
       <c r="D19" s="1">
-        <v>45654</v>
+        <v>45653</v>
       </c>
       <c r="E19" s="1">
-        <v>45948</v>
+        <v>46053</v>
       </c>
       <c r="F19">
-        <v>294</v>
+        <v>399</v>
       </c>
       <c r="G19">
         <v>265</v>
@@ -19994,7 +22987,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="1">
-        <v>45654</v>
+        <v>45653</v>
       </c>
       <c r="E20" s="1">
         <v>45727</v>
@@ -20032,13 +23025,13 @@
         <v>10</v>
       </c>
       <c r="D21" s="1">
-        <v>45654</v>
+        <v>45653</v>
       </c>
       <c r="E21" s="1">
-        <v>45948</v>
+        <v>46053</v>
       </c>
       <c r="F21">
-        <v>294</v>
+        <v>399</v>
       </c>
       <c r="G21">
         <v>265</v>
@@ -20070,7 +23063,7 @@
         <v>19</v>
       </c>
       <c r="D22" s="1">
-        <v>45654</v>
+        <v>45653</v>
       </c>
       <c r="E22" s="1">
         <v>45727</v>
@@ -20108,7 +23101,7 @@
         <v>10</v>
       </c>
       <c r="D23" s="1">
-        <v>45654</v>
+        <v>45653</v>
       </c>
       <c r="E23" s="1">
         <v>45825</v>
@@ -20146,7 +23139,7 @@
         <v>16</v>
       </c>
       <c r="D24" s="1">
-        <v>45654</v>
+        <v>45653</v>
       </c>
       <c r="E24" s="1">
         <v>45772</v>
@@ -20184,13 +23177,13 @@
         <v>10</v>
       </c>
       <c r="D25" s="1">
-        <v>45654</v>
+        <v>45653</v>
       </c>
       <c r="E25" s="1">
-        <v>45948</v>
+        <v>46053</v>
       </c>
       <c r="F25">
-        <v>294</v>
+        <v>399</v>
       </c>
       <c r="G25">
         <v>265</v>
@@ -20222,7 +23215,7 @@
         <v>20</v>
       </c>
       <c r="D26" s="1">
-        <v>45654</v>
+        <v>45653</v>
       </c>
       <c r="E26" s="1">
         <v>45759</v>
@@ -20260,7 +23253,7 @@
         <v>21</v>
       </c>
       <c r="D27" s="1">
-        <v>45654</v>
+        <v>45653</v>
       </c>
       <c r="E27" s="1">
         <v>45663</v>
@@ -20298,7 +23291,7 @@
         <v>10</v>
       </c>
       <c r="D28" s="1">
-        <v>45654</v>
+        <v>45653</v>
       </c>
       <c r="E28" s="1">
         <v>45921</v>
@@ -20336,7 +23329,7 @@
         <v>22</v>
       </c>
       <c r="D29" s="1">
-        <v>45654</v>
+        <v>45653</v>
       </c>
       <c r="E29" s="1">
         <v>45768</v>
@@ -20374,7 +23367,7 @@
         <v>10</v>
       </c>
       <c r="D30" s="1">
-        <v>45654</v>
+        <v>45653</v>
       </c>
       <c r="E30" s="1">
         <v>45921</v>
@@ -20605,10 +23598,10 @@
         <v>45687</v>
       </c>
       <c r="E36" s="1">
-        <v>45948</v>
+        <v>46053</v>
       </c>
       <c r="F36">
-        <v>261</v>
+        <v>366</v>
       </c>
       <c r="G36">
         <v>192</v>
@@ -20938,7 +23931,7 @@
         <v>34472491</v>
       </c>
       <c r="B45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C45" t="s">
         <v>10</v>
@@ -20947,10 +23940,10 @@
         <v>45707</v>
       </c>
       <c r="E45" s="1">
-        <v>45948</v>
+        <v>45972</v>
       </c>
       <c r="F45">
-        <v>241</v>
+        <v>264</v>
       </c>
       <c r="G45">
         <v>214</v>
@@ -21213,7 +24206,7 @@
         <v>45731</v>
       </c>
       <c r="E52" s="1">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="F52">
         <v>36</v>
@@ -21327,10 +24320,10 @@
         <v>45731</v>
       </c>
       <c r="E55" s="1">
-        <v>45948</v>
+        <v>46053</v>
       </c>
       <c r="F55">
-        <v>216</v>
+        <v>321</v>
       </c>
       <c r="G55">
         <v>249</v>
@@ -21622,7 +24615,7 @@
         <v>34700444</v>
       </c>
       <c r="B63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C63" t="s">
         <v>10</v>
@@ -21631,10 +24624,10 @@
         <v>45759</v>
       </c>
       <c r="E63" s="1">
-        <v>45948</v>
+        <v>45986</v>
       </c>
       <c r="F63">
-        <v>189</v>
+        <v>227</v>
       </c>
       <c r="G63">
         <v>220</v>
@@ -21821,10 +24814,10 @@
         <v>45789</v>
       </c>
       <c r="E68" s="1">
-        <v>45948</v>
+        <v>46053</v>
       </c>
       <c r="F68">
-        <v>158</v>
+        <v>263</v>
       </c>
       <c r="G68">
         <v>229</v>
@@ -22040,7 +25033,7 @@
         <v>34782974</v>
       </c>
       <c r="B74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C74" t="s">
         <v>10</v>
@@ -22049,10 +25042,10 @@
         <v>45814</v>
       </c>
       <c r="E74" s="1">
-        <v>45948</v>
+        <v>45986</v>
       </c>
       <c r="F74">
-        <v>133</v>
+        <v>172</v>
       </c>
       <c r="G74">
         <v>214.9</v>
@@ -22192,7 +25185,7 @@
         <v>34809177</v>
       </c>
       <c r="B78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C78" t="s">
         <v>10</v>
@@ -22201,16 +25194,16 @@
         <v>45818</v>
       </c>
       <c r="E78" s="1">
-        <v>45948</v>
+        <v>45981</v>
       </c>
       <c r="F78">
-        <v>129</v>
+        <v>162</v>
       </c>
       <c r="G78">
         <v>191</v>
       </c>
       <c r="H78">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="I78">
         <v>125</v>
@@ -22219,10 +25212,10 @@
         <v>4</v>
       </c>
       <c r="K78">
-        <v>1.472</v>
+        <v>1.4319999999999999</v>
       </c>
       <c r="L78">
-        <v>-7</v>
+        <v>-12</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
@@ -22230,7 +25223,7 @@
         <v>34815108</v>
       </c>
       <c r="B79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C79" t="s">
         <v>10</v>
@@ -22353,7 +25346,7 @@
         <v>45841</v>
       </c>
       <c r="E82" s="1">
-        <v>45868</v>
+        <v>45867</v>
       </c>
       <c r="F82">
         <v>26</v>
@@ -22505,10 +25498,10 @@
         <v>45841</v>
       </c>
       <c r="E86" s="1">
-        <v>45948</v>
+        <v>46053</v>
       </c>
       <c r="F86">
-        <v>107</v>
+        <v>212</v>
       </c>
       <c r="G86">
         <v>184</v>
@@ -22543,10 +25536,10 @@
         <v>45841</v>
       </c>
       <c r="E87" s="1">
-        <v>45948</v>
+        <v>46053</v>
       </c>
       <c r="F87">
-        <v>107</v>
+        <v>212</v>
       </c>
       <c r="G87">
         <v>229</v>
@@ -22581,16 +25574,16 @@
         <v>45841</v>
       </c>
       <c r="E88" s="1">
-        <v>45948</v>
+        <v>46053</v>
       </c>
       <c r="F88">
-        <v>107</v>
+        <v>212</v>
       </c>
       <c r="G88">
         <v>370</v>
       </c>
       <c r="H88">
-        <v>340</v>
+        <v>265</v>
       </c>
       <c r="I88">
         <v>110</v>
@@ -22599,10 +25592,10 @@
         <v>4</v>
       </c>
       <c r="K88">
-        <v>3.0909090909090899</v>
+        <v>2.4090909090908998</v>
       </c>
       <c r="L88">
-        <v>-30</v>
+        <v>-105</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
@@ -22616,10 +25609,10 @@
         <v>10</v>
       </c>
       <c r="D89" s="1">
-        <v>45868</v>
+        <v>45867</v>
       </c>
       <c r="E89" s="1">
-        <v>45868</v>
+        <v>45867</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -22800,7 +25793,7 @@
         <v>34960060</v>
       </c>
       <c r="B94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C94" t="s">
         <v>10</v>
@@ -22809,10 +25802,10 @@
         <v>45911</v>
       </c>
       <c r="E94" s="1">
-        <v>45948</v>
+        <v>46024</v>
       </c>
       <c r="F94">
-        <v>37</v>
+        <v>113</v>
       </c>
       <c r="G94">
         <v>169</v>
@@ -22847,16 +25840,16 @@
         <v>45934</v>
       </c>
       <c r="E95" s="1">
-        <v>45948</v>
+        <v>46053</v>
       </c>
       <c r="F95">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="G95">
         <v>150</v>
       </c>
       <c r="H95">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="I95">
         <v>119</v>
@@ -22865,10 +25858,10 @@
         <v>3</v>
       </c>
       <c r="K95">
-        <v>1.26050420168067</v>
+        <v>1.3361344537815101</v>
       </c>
       <c r="L95">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
@@ -22876,7 +25869,7 @@
         <v>35004703</v>
       </c>
       <c r="B96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C96" t="s">
         <v>10</v>
@@ -22914,7 +25907,7 @@
         <v>35014192</v>
       </c>
       <c r="B97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C97" t="s">
         <v>10</v>
@@ -22923,16 +25916,16 @@
         <v>45934</v>
       </c>
       <c r="E97" s="1">
-        <v>45948</v>
+        <v>46040</v>
       </c>
       <c r="F97">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="G97">
         <v>210</v>
       </c>
       <c r="H97">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="I97">
         <v>109</v>
@@ -22941,10 +25934,10 @@
         <v>5.5</v>
       </c>
       <c r="K97">
-        <v>1.92660550458715</v>
+        <v>1.82568807339449</v>
       </c>
       <c r="L97">
-        <v>0</v>
+        <v>-11</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
@@ -22952,7 +25945,7 @@
         <v>35007606</v>
       </c>
       <c r="B98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C98" t="s">
         <v>10</v>
@@ -22990,7 +25983,7 @@
         <v>35000289</v>
       </c>
       <c r="B99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C99" t="s">
         <v>10</v>
@@ -22999,10 +25992,10 @@
         <v>45934</v>
       </c>
       <c r="E99" s="1">
-        <v>45948</v>
+        <v>45986</v>
       </c>
       <c r="F99">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="G99">
         <v>214.9</v>
@@ -23066,7 +26059,7 @@
         <v>35008632</v>
       </c>
       <c r="B101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C101" t="s">
         <v>10</v>
@@ -23104,7 +26097,7 @@
         <v>35008393</v>
       </c>
       <c r="B102" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C102" t="s">
         <v>10</v>
@@ -23218,7 +26211,7 @@
         <v>35009219</v>
       </c>
       <c r="B105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C105" t="s">
         <v>10</v>
@@ -23256,7 +26249,7 @@
         <v>35008343</v>
       </c>
       <c r="B106" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C106" t="s">
         <v>10</v>
@@ -23303,10 +26296,10 @@
         <v>45948</v>
       </c>
       <c r="E107" s="1">
-        <v>45948</v>
+        <v>46053</v>
       </c>
       <c r="F107">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="G107">
         <v>239</v>
@@ -23324,20 +26317,823 @@
         <v>1.9119999999999999</v>
       </c>
       <c r="L107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>35048640</v>
+      </c>
+      <c r="B108" t="b">
+        <v>1</v>
+      </c>
+      <c r="C108" t="s">
+        <v>10</v>
+      </c>
+      <c r="D108" s="1">
+        <v>45961</v>
+      </c>
+      <c r="E108" s="1">
+        <v>46053</v>
+      </c>
+      <c r="F108">
+        <v>92</v>
+      </c>
+      <c r="G108">
+        <v>149</v>
+      </c>
+      <c r="H108">
+        <v>149</v>
+      </c>
+      <c r="I108">
+        <v>125</v>
+      </c>
+      <c r="J108">
+        <v>4.5</v>
+      </c>
+      <c r="K108">
+        <v>1.1919999999999999</v>
+      </c>
+      <c r="L108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>35046468</v>
+      </c>
+      <c r="B109" t="b">
+        <v>1</v>
+      </c>
+      <c r="C109" t="s">
+        <v>10</v>
+      </c>
+      <c r="D109" s="1">
+        <v>45961</v>
+      </c>
+      <c r="E109" s="1">
+        <v>46053</v>
+      </c>
+      <c r="F109">
+        <v>92</v>
+      </c>
+      <c r="G109">
+        <v>194</v>
+      </c>
+      <c r="H109">
+        <v>184</v>
+      </c>
+      <c r="I109">
+        <v>107</v>
+      </c>
+      <c r="J109">
+        <v>5</v>
+      </c>
+      <c r="K109">
+        <v>1.7196261682242899</v>
+      </c>
+      <c r="L109">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>35057279</v>
+      </c>
+      <c r="B110" t="b">
+        <v>1</v>
+      </c>
+      <c r="C110" t="s">
+        <v>10</v>
+      </c>
+      <c r="D110" s="1">
+        <v>45961</v>
+      </c>
+      <c r="E110" s="1">
+        <v>46053</v>
+      </c>
+      <c r="F110">
+        <v>92</v>
+      </c>
+      <c r="G110">
+        <v>218</v>
+      </c>
+      <c r="H110">
+        <v>218</v>
+      </c>
+      <c r="I110">
+        <v>120</v>
+      </c>
+      <c r="J110" t="s">
+        <v>30</v>
+      </c>
+      <c r="K110">
+        <v>1.81666666666666</v>
+      </c>
+      <c r="L110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>35071278</v>
+      </c>
+      <c r="B111" t="b">
+        <v>1</v>
+      </c>
+      <c r="C111" t="s">
+        <v>10</v>
+      </c>
+      <c r="D111" s="1">
+        <v>45969</v>
+      </c>
+      <c r="E111" s="1">
+        <v>46053</v>
+      </c>
+      <c r="F111">
+        <v>84</v>
+      </c>
+      <c r="G111">
+        <v>209</v>
+      </c>
+      <c r="H111">
+        <v>209</v>
+      </c>
+      <c r="I111">
+        <v>112</v>
+      </c>
+      <c r="J111">
+        <v>4.5</v>
+      </c>
+      <c r="K111">
+        <v>1.8660714285714199</v>
+      </c>
+      <c r="L111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>35093337</v>
+      </c>
+      <c r="B112" t="b">
+        <v>0</v>
+      </c>
+      <c r="C112" t="s">
+        <v>10</v>
+      </c>
+      <c r="D112" s="1">
+        <v>45981</v>
+      </c>
+      <c r="E112" s="1">
+        <v>45986</v>
+      </c>
+      <c r="F112">
+        <v>5</v>
+      </c>
+      <c r="G112">
+        <v>219</v>
+      </c>
+      <c r="H112">
+        <v>219</v>
+      </c>
+      <c r="I112">
+        <v>107</v>
+      </c>
+      <c r="J112">
+        <v>4</v>
+      </c>
+      <c r="K112">
+        <v>2.0467289719626098</v>
+      </c>
+      <c r="L112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>35093574</v>
+      </c>
+      <c r="B113" t="b">
+        <v>1</v>
+      </c>
+      <c r="C113" t="s">
+        <v>10</v>
+      </c>
+      <c r="D113" s="1">
+        <v>45984</v>
+      </c>
+      <c r="E113" s="1">
+        <v>46053</v>
+      </c>
+      <c r="F113">
+        <v>68</v>
+      </c>
+      <c r="G113">
+        <v>219</v>
+      </c>
+      <c r="H113">
+        <v>219</v>
+      </c>
+      <c r="I113">
+        <v>128</v>
+      </c>
+      <c r="J113">
+        <v>5</v>
+      </c>
+      <c r="K113">
+        <v>1.7109375</v>
+      </c>
+      <c r="L113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>35154532</v>
+      </c>
+      <c r="B114" t="b">
+        <v>1</v>
+      </c>
+      <c r="C114" t="s">
+        <v>10</v>
+      </c>
+      <c r="D114" s="1">
+        <v>46024</v>
+      </c>
+      <c r="E114" s="1">
+        <v>46053</v>
+      </c>
+      <c r="F114">
+        <v>28</v>
+      </c>
+      <c r="G114">
+        <v>215</v>
+      </c>
+      <c r="H114">
+        <v>215</v>
+      </c>
+      <c r="I114">
+        <v>125</v>
+      </c>
+      <c r="J114">
+        <v>4</v>
+      </c>
+      <c r="K114">
+        <v>1.72</v>
+      </c>
+      <c r="L114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>35151568</v>
+      </c>
+      <c r="B115" t="b">
+        <v>0</v>
+      </c>
+      <c r="C115" t="s">
+        <v>10</v>
+      </c>
+      <c r="D115" s="1">
+        <v>46024</v>
+      </c>
+      <c r="E115" s="1">
+        <v>46040</v>
+      </c>
+      <c r="F115">
+        <v>15</v>
+      </c>
+      <c r="G115">
+        <v>209.9</v>
+      </c>
+      <c r="H115">
+        <v>209.9</v>
+      </c>
+      <c r="I115">
+        <v>115</v>
+      </c>
+      <c r="J115">
+        <v>4</v>
+      </c>
+      <c r="K115">
+        <v>1.8252173913043399</v>
+      </c>
+      <c r="L115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>35123113</v>
+      </c>
+      <c r="B116" t="b">
+        <v>1</v>
+      </c>
+      <c r="C116" t="s">
+        <v>10</v>
+      </c>
+      <c r="D116" s="1">
+        <v>46024</v>
+      </c>
+      <c r="E116" s="1">
+        <v>46053</v>
+      </c>
+      <c r="F116">
+        <v>28</v>
+      </c>
+      <c r="G116">
+        <v>219.9</v>
+      </c>
+      <c r="H116">
+        <v>219.9</v>
+      </c>
+      <c r="I116">
+        <v>113</v>
+      </c>
+      <c r="J116">
+        <v>4</v>
+      </c>
+      <c r="K116">
+        <v>1.94601769911504</v>
+      </c>
+      <c r="L116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>35170203</v>
+      </c>
+      <c r="B117" t="b">
+        <v>1</v>
+      </c>
+      <c r="C117" t="s">
+        <v>10</v>
+      </c>
+      <c r="D117" s="1">
+        <v>46040</v>
+      </c>
+      <c r="E117" s="1">
+        <v>46053</v>
+      </c>
+      <c r="F117">
+        <v>12</v>
+      </c>
+      <c r="G117">
+        <v>198</v>
+      </c>
+      <c r="H117">
+        <v>198</v>
+      </c>
+      <c r="I117">
+        <v>120</v>
+      </c>
+      <c r="J117">
+        <v>5</v>
+      </c>
+      <c r="K117">
+        <v>1.65</v>
+      </c>
+      <c r="L117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>35176414</v>
+      </c>
+      <c r="B118" t="b">
+        <v>1</v>
+      </c>
+      <c r="C118" t="s">
+        <v>10</v>
+      </c>
+      <c r="D118" s="1">
+        <v>46040</v>
+      </c>
+      <c r="E118" s="1">
+        <v>46053</v>
+      </c>
+      <c r="F118">
+        <v>12</v>
+      </c>
+      <c r="G118">
+        <v>199.99</v>
+      </c>
+      <c r="H118">
+        <v>199.99</v>
+      </c>
+      <c r="I118">
+        <v>108</v>
+      </c>
+      <c r="J118">
+        <v>4</v>
+      </c>
+      <c r="K118">
+        <v>1.85175925925925</v>
+      </c>
+      <c r="L118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>35163395</v>
+      </c>
+      <c r="B119" t="b">
+        <v>1</v>
+      </c>
+      <c r="C119" t="s">
+        <v>10</v>
+      </c>
+      <c r="D119" s="1">
+        <v>46040</v>
+      </c>
+      <c r="E119" s="1">
+        <v>46053</v>
+      </c>
+      <c r="F119">
+        <v>12</v>
+      </c>
+      <c r="G119">
+        <v>196</v>
+      </c>
+      <c r="H119">
+        <v>196</v>
+      </c>
+      <c r="I119">
+        <v>105</v>
+      </c>
+      <c r="J119">
+        <v>4</v>
+      </c>
+      <c r="K119">
+        <v>1.86666666666666</v>
+      </c>
+      <c r="L119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>35160392</v>
+      </c>
+      <c r="B120" t="b">
+        <v>1</v>
+      </c>
+      <c r="C120" t="s">
+        <v>10</v>
+      </c>
+      <c r="D120" s="1">
+        <v>46040</v>
+      </c>
+      <c r="E120" s="1">
+        <v>46053</v>
+      </c>
+      <c r="F120">
+        <v>12</v>
+      </c>
+      <c r="G120">
+        <v>159</v>
+      </c>
+      <c r="H120">
+        <v>159</v>
+      </c>
+      <c r="I120">
+        <v>112</v>
+      </c>
+      <c r="J120">
+        <v>4</v>
+      </c>
+      <c r="K120">
+        <v>1.4196428571428501</v>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>35155765</v>
+      </c>
+      <c r="B121" t="b">
+        <v>1</v>
+      </c>
+      <c r="C121" t="s">
+        <v>10</v>
+      </c>
+      <c r="D121" s="1">
+        <v>46040</v>
+      </c>
+      <c r="E121" s="1">
+        <v>46053</v>
+      </c>
+      <c r="F121">
+        <v>12</v>
+      </c>
+      <c r="G121">
+        <v>169</v>
+      </c>
+      <c r="H121">
+        <v>169</v>
+      </c>
+      <c r="I121">
+        <v>106</v>
+      </c>
+      <c r="J121">
+        <v>4</v>
+      </c>
+      <c r="K121">
+        <v>1.5943396226415001</v>
+      </c>
+      <c r="L121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>35175385</v>
+      </c>
+      <c r="B122" t="b">
+        <v>1</v>
+      </c>
+      <c r="C122" t="s">
+        <v>10</v>
+      </c>
+      <c r="D122" s="1">
+        <v>46040</v>
+      </c>
+      <c r="E122" s="1">
+        <v>46053</v>
+      </c>
+      <c r="F122">
+        <v>12</v>
+      </c>
+      <c r="G122">
+        <v>227</v>
+      </c>
+      <c r="H122">
+        <v>227</v>
+      </c>
+      <c r="I122">
+        <v>130</v>
+      </c>
+      <c r="J122">
+        <v>4</v>
+      </c>
+      <c r="K122">
+        <v>1.74615384615384</v>
+      </c>
+      <c r="L122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>35134040</v>
+      </c>
+      <c r="B123" t="b">
+        <v>0</v>
+      </c>
+      <c r="C123" t="s">
+        <v>10</v>
+      </c>
+      <c r="D123" s="1">
+        <v>46040</v>
+      </c>
+      <c r="E123" s="1">
+        <v>46040</v>
+      </c>
+      <c r="F123">
+        <v>0</v>
+      </c>
+      <c r="G123">
+        <v>149</v>
+      </c>
+      <c r="H123">
+        <v>149</v>
+      </c>
+      <c r="I123">
+        <v>120</v>
+      </c>
+      <c r="J123" t="s">
+        <v>30</v>
+      </c>
+      <c r="K123">
+        <v>1.24166666666666</v>
+      </c>
+      <c r="L123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>35174386</v>
+      </c>
+      <c r="B124" t="b">
+        <v>1</v>
+      </c>
+      <c r="C124" t="s">
+        <v>10</v>
+      </c>
+      <c r="D124" s="1">
+        <v>46040</v>
+      </c>
+      <c r="E124" s="1">
+        <v>46053</v>
+      </c>
+      <c r="F124">
+        <v>12</v>
+      </c>
+      <c r="G124">
+        <v>199.9</v>
+      </c>
+      <c r="H124">
+        <v>199.9</v>
+      </c>
+      <c r="I124">
+        <v>108</v>
+      </c>
+      <c r="J124">
+        <v>5</v>
+      </c>
+      <c r="K124">
+        <v>1.8509259259259201</v>
+      </c>
+      <c r="L124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>35186576</v>
+      </c>
+      <c r="B125" t="b">
+        <v>1</v>
+      </c>
+      <c r="C125" t="s">
+        <v>10</v>
+      </c>
+      <c r="D125" s="1">
+        <v>46053</v>
+      </c>
+      <c r="E125" s="1">
+        <v>46053</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
+      </c>
+      <c r="G125">
+        <v>268.89999999999998</v>
+      </c>
+      <c r="H125">
+        <v>268.89999999999998</v>
+      </c>
+      <c r="I125">
+        <v>119</v>
+      </c>
+      <c r="J125">
+        <v>4</v>
+      </c>
+      <c r="K125">
+        <v>2.25966386554621</v>
+      </c>
+      <c r="L125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>35192505</v>
+      </c>
+      <c r="B126" t="b">
+        <v>1</v>
+      </c>
+      <c r="C126" t="s">
+        <v>10</v>
+      </c>
+      <c r="D126" s="1">
+        <v>46053</v>
+      </c>
+      <c r="E126" s="1">
+        <v>46053</v>
+      </c>
+      <c r="F126">
+        <v>0</v>
+      </c>
+      <c r="G126">
+        <v>199</v>
+      </c>
+      <c r="H126">
+        <v>199</v>
+      </c>
+      <c r="I126">
+        <v>115</v>
+      </c>
+      <c r="J126">
+        <v>5.5</v>
+      </c>
+      <c r="K126">
+        <v>1.7304347826086901</v>
+      </c>
+      <c r="L126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>35122615</v>
+      </c>
+      <c r="B127" t="b">
+        <v>1</v>
+      </c>
+      <c r="C127" t="s">
+        <v>10</v>
+      </c>
+      <c r="D127" s="1">
+        <v>46053</v>
+      </c>
+      <c r="E127" s="1">
+        <v>46053</v>
+      </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+      <c r="G127">
+        <v>216</v>
+      </c>
+      <c r="H127">
+        <v>216</v>
+      </c>
+      <c r="I127">
+        <v>121</v>
+      </c>
+      <c r="J127">
+        <v>4</v>
+      </c>
+      <c r="K127">
+        <v>1.7851239669421399</v>
+      </c>
+      <c r="L127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>35116037</v>
+      </c>
+      <c r="B128" t="b">
+        <v>1</v>
+      </c>
+      <c r="C128" t="s">
+        <v>10</v>
+      </c>
+      <c r="D128" s="1">
+        <v>46053</v>
+      </c>
+      <c r="E128" s="1">
+        <v>46053</v>
+      </c>
+      <c r="F128">
+        <v>0</v>
+      </c>
+      <c r="G128">
+        <v>209.9</v>
+      </c>
+      <c r="H128">
+        <v>209.9</v>
+      </c>
+      <c r="I128">
+        <v>110</v>
+      </c>
+      <c r="J128">
+        <v>4</v>
+      </c>
+      <c r="K128">
+        <v>1.90818181818181</v>
+      </c>
+      <c r="L128">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Aptos"&amp;11&amp;K000000 Classification: Public</oddFooter>
+  </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2028B189-73B4-4612-A074-1CA186AB1A38}">
-  <dimension ref="A1:R118"/>
+  <dimension ref="A1:R138"/>
   <sheetViews>
-    <sheetView zoomScale="83" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="O24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y22" sqref="Y22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -23403,7 +27199,7 @@
       </c>
       <c r="D2" s="1">
         <f>IF(advert_summary!$B2=$N$1,advert_summary!D2,0)</f>
-        <v>45654</v>
+        <v>45653</v>
       </c>
       <c r="E2" s="1">
         <f>IF(advert_summary!$B2=$N$1,advert_summary!E2,0)</f>
@@ -23477,7 +27273,7 @@
       </c>
       <c r="D3" s="1">
         <f>IF(advert_summary!$B3=$N$1,advert_summary!D3,0)</f>
-        <v>45654</v>
+        <v>45653</v>
       </c>
       <c r="E3" s="1">
         <f>IF(advert_summary!$B3=$N$1,advert_summary!E3,0)</f>
@@ -23527,7 +27323,7 @@
       </c>
       <c r="D4" s="1">
         <f>IF(advert_summary!$B4=$N$1,advert_summary!D4,0)</f>
-        <v>45654</v>
+        <v>45653</v>
       </c>
       <c r="E4" s="1">
         <f>IF(advert_summary!$B4=$N$1,advert_summary!E4,0)</f>
@@ -23577,7 +27373,7 @@
       </c>
       <c r="D5" s="1">
         <f>IF(advert_summary!$B5=$N$1,advert_summary!D5,0)</f>
-        <v>45654</v>
+        <v>45653</v>
       </c>
       <c r="E5" s="1">
         <f>IF(advert_summary!$B5=$N$1,advert_summary!E5,0)</f>
@@ -23627,7 +27423,7 @@
       </c>
       <c r="D6" s="1">
         <f>IF(advert_summary!$B6=$N$1,advert_summary!D6,0)</f>
-        <v>45654</v>
+        <v>45653</v>
       </c>
       <c r="E6" s="1">
         <f>IF(advert_summary!$B6=$N$1,advert_summary!E6,0)</f>
@@ -23677,7 +27473,7 @@
       </c>
       <c r="D7" s="1">
         <f>IF(advert_summary!$B7=$N$1,advert_summary!D7,0)</f>
-        <v>45654</v>
+        <v>45653</v>
       </c>
       <c r="E7" s="1">
         <f>IF(advert_summary!$B7=$N$1,advert_summary!E7,0)</f>
@@ -23727,7 +27523,7 @@
       </c>
       <c r="D8" s="1">
         <f>IF(advert_summary!$B8=$N$1,advert_summary!D8,0)</f>
-        <v>45654</v>
+        <v>45653</v>
       </c>
       <c r="E8" s="1">
         <f>IF(advert_summary!$B8=$N$1,advert_summary!E8,0)</f>
@@ -23777,7 +27573,7 @@
       </c>
       <c r="D9" s="1">
         <f>IF(advert_summary!$B9=$N$1,advert_summary!D9,0)</f>
-        <v>45654</v>
+        <v>45653</v>
       </c>
       <c r="E9" s="1">
         <f>IF(advert_summary!$B9=$N$1,advert_summary!E9,0)</f>
@@ -23865,51 +27661,51 @@
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <f>IF(advert_summary!$B11=$N$1,advert_summary!A11,0)</f>
-        <v>0</v>
-      </c>
-      <c r="B11" t="str">
+        <v>33643923</v>
+      </c>
+      <c r="B11" t="b">
         <f>IF(advert_summary!$B11=$N$1,advert_summary!B11,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C11" t="str">
         <f>IF(advert_summary!$B11=$N$1,advert_summary!C11,"")</f>
-        <v/>
+        <v>N/A</v>
       </c>
       <c r="D11" s="1">
         <f>IF(advert_summary!$B11=$N$1,advert_summary!D11,0)</f>
-        <v>0</v>
+        <v>45653</v>
       </c>
       <c r="E11" s="1">
         <f>IF(advert_summary!$B11=$N$1,advert_summary!E11,0)</f>
-        <v>0</v>
+        <v>46024</v>
       </c>
       <c r="F11" s="2">
         <f>IF(advert_summary!$B11=$N$1,advert_summary!F11,0)</f>
-        <v>0</v>
+        <v>370</v>
       </c>
       <c r="G11" s="2">
         <f>IF(advert_summary!$B11=$N$1,advert_summary!G11,0)</f>
-        <v>0</v>
+        <v>228</v>
       </c>
       <c r="H11" s="2">
         <f>IF(advert_summary!$B11=$N$1,advert_summary!H11,0)</f>
-        <v>0</v>
+        <v>229.9</v>
       </c>
       <c r="I11" s="2">
         <f>IF(advert_summary!$B11=$N$1,advert_summary!I11,0)</f>
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="J11" s="2">
         <f>IF(advert_summary!$B11=$N$1,advert_summary!J11,0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K11" s="2">
         <f>IF(advert_summary!$B11=$N$1,advert_summary!K11,0)</f>
-        <v>0</v>
+        <v>1.7684615384615301</v>
       </c>
       <c r="L11" s="2">
         <f>IF(advert_summary!$B11=$N$1,advert_summary!L11,0)</f>
-        <v>0</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -23927,7 +27723,7 @@
       </c>
       <c r="D12" s="1">
         <f>IF(advert_summary!$B12=$N$1,advert_summary!D12,0)</f>
-        <v>45654</v>
+        <v>45653</v>
       </c>
       <c r="E12" s="1">
         <f>IF(advert_summary!$B12=$N$1,advert_summary!E12,0)</f>
@@ -23977,7 +27773,7 @@
       </c>
       <c r="D13" s="1">
         <f>IF(advert_summary!$B13=$N$1,advert_summary!D13,0)</f>
-        <v>45654</v>
+        <v>45653</v>
       </c>
       <c r="E13" s="1">
         <f>IF(advert_summary!$B13=$N$1,advert_summary!E13,0)</f>
@@ -24077,7 +27873,7 @@
       </c>
       <c r="D15" s="1">
         <f>IF(advert_summary!$B15=$N$1,advert_summary!D15,0)</f>
-        <v>45654</v>
+        <v>45653</v>
       </c>
       <c r="E15" s="1">
         <f>IF(advert_summary!$B15=$N$1,advert_summary!E15,0)</f>
@@ -24127,7 +27923,7 @@
       </c>
       <c r="D16" s="1">
         <f>IF(advert_summary!$B16=$N$1,advert_summary!D16,0)</f>
-        <v>45654</v>
+        <v>45653</v>
       </c>
       <c r="E16" s="1">
         <f>IF(advert_summary!$B16=$N$1,advert_summary!E16,0)</f>
@@ -24177,7 +27973,7 @@
       </c>
       <c r="D17" s="1">
         <f>IF(advert_summary!$B17=$N$1,advert_summary!D17,0)</f>
-        <v>45654</v>
+        <v>45653</v>
       </c>
       <c r="E17" s="1">
         <f>IF(advert_summary!$B17=$N$1,advert_summary!E17,0)</f>
@@ -24227,7 +28023,7 @@
       </c>
       <c r="D18" s="1">
         <f>IF(advert_summary!$B18=$N$1,advert_summary!D18,0)</f>
-        <v>45654</v>
+        <v>45653</v>
       </c>
       <c r="E18" s="1">
         <f>IF(advert_summary!$B18=$N$1,advert_summary!E18,0)</f>
@@ -24327,7 +28123,7 @@
       </c>
       <c r="D20" s="1">
         <f>IF(advert_summary!$B20=$N$1,advert_summary!D20,0)</f>
-        <v>45654</v>
+        <v>45653</v>
       </c>
       <c r="E20" s="1">
         <f>IF(advert_summary!$B20=$N$1,advert_summary!E20,0)</f>
@@ -24427,7 +28223,7 @@
       </c>
       <c r="D22" s="1">
         <f>IF(advert_summary!$B22=$N$1,advert_summary!D22,0)</f>
-        <v>45654</v>
+        <v>45653</v>
       </c>
       <c r="E22" s="1">
         <f>IF(advert_summary!$B22=$N$1,advert_summary!E22,0)</f>
@@ -24477,7 +28273,7 @@
       </c>
       <c r="D23" s="1">
         <f>IF(advert_summary!$B23=$N$1,advert_summary!D23,0)</f>
-        <v>45654</v>
+        <v>45653</v>
       </c>
       <c r="E23" s="1">
         <f>IF(advert_summary!$B23=$N$1,advert_summary!E23,0)</f>
@@ -24527,7 +28323,7 @@
       </c>
       <c r="D24" s="1">
         <f>IF(advert_summary!$B24=$N$1,advert_summary!D24,0)</f>
-        <v>45654</v>
+        <v>45653</v>
       </c>
       <c r="E24" s="1">
         <f>IF(advert_summary!$B24=$N$1,advert_summary!E24,0)</f>
@@ -24627,7 +28423,7 @@
       </c>
       <c r="D26" s="1">
         <f>IF(advert_summary!$B26=$N$1,advert_summary!D26,0)</f>
-        <v>45654</v>
+        <v>45653</v>
       </c>
       <c r="E26" s="1">
         <f>IF(advert_summary!$B26=$N$1,advert_summary!E26,0)</f>
@@ -24677,7 +28473,7 @@
       </c>
       <c r="D27" s="1">
         <f>IF(advert_summary!$B27=$N$1,advert_summary!D27,0)</f>
-        <v>45654</v>
+        <v>45653</v>
       </c>
       <c r="E27" s="1">
         <f>IF(advert_summary!$B27=$N$1,advert_summary!E27,0)</f>
@@ -24727,7 +28523,7 @@
       </c>
       <c r="D28" s="1">
         <f>IF(advert_summary!$B28=$N$1,advert_summary!D28,0)</f>
-        <v>45654</v>
+        <v>45653</v>
       </c>
       <c r="E28" s="1">
         <f>IF(advert_summary!$B28=$N$1,advert_summary!E28,0)</f>
@@ -24777,7 +28573,7 @@
       </c>
       <c r="D29" s="1">
         <f>IF(advert_summary!$B29=$N$1,advert_summary!D29,0)</f>
-        <v>45654</v>
+        <v>45653</v>
       </c>
       <c r="E29" s="1">
         <f>IF(advert_summary!$B29=$N$1,advert_summary!E29,0)</f>
@@ -24827,7 +28623,7 @@
       </c>
       <c r="D30" s="1">
         <f>IF(advert_summary!$B30=$N$1,advert_summary!D30,0)</f>
-        <v>45654</v>
+        <v>45653</v>
       </c>
       <c r="E30" s="1">
         <f>IF(advert_summary!$B30=$N$1,advert_summary!E30,0)</f>
@@ -25565,51 +29361,51 @@
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <f>IF(advert_summary!$B45=$N$1,advert_summary!A45,0)</f>
-        <v>0</v>
-      </c>
-      <c r="B45" t="str">
+        <v>34472491</v>
+      </c>
+      <c r="B45" t="b">
         <f>IF(advert_summary!$B45=$N$1,advert_summary!B45,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C45" t="str">
         <f>IF(advert_summary!$B45=$N$1,advert_summary!C45,"")</f>
-        <v/>
+        <v>N/A</v>
       </c>
       <c r="D45" s="1">
         <f>IF(advert_summary!$B45=$N$1,advert_summary!D45,0)</f>
-        <v>0</v>
+        <v>45707</v>
       </c>
       <c r="E45" s="1">
         <f>IF(advert_summary!$B45=$N$1,advert_summary!E45,0)</f>
-        <v>0</v>
+        <v>45972</v>
       </c>
       <c r="F45" s="2">
         <f>IF(advert_summary!$B45=$N$1,advert_summary!F45,0)</f>
-        <v>0</v>
+        <v>264</v>
       </c>
       <c r="G45" s="2">
         <f>IF(advert_summary!$B45=$N$1,advert_summary!G45,0)</f>
-        <v>0</v>
+        <v>214</v>
       </c>
       <c r="H45" s="2">
         <f>IF(advert_summary!$B45=$N$1,advert_summary!H45,0)</f>
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="I45" s="2">
         <f>IF(advert_summary!$B45=$N$1,advert_summary!I45,0)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J45" s="2">
         <f>IF(advert_summary!$B45=$N$1,advert_summary!J45,0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K45" s="2">
         <f>IF(advert_summary!$B45=$N$1,advert_summary!K45,0)</f>
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="L45" s="2">
         <f>IF(advert_summary!$B45=$N$1,advert_summary!L45,0)</f>
-        <v>0</v>
+        <v>-19</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -25931,7 +29727,7 @@
       </c>
       <c r="E52" s="1">
         <f>IF(advert_summary!$B52=$N$1,advert_summary!E52,0)</f>
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="F52" s="2">
         <f>IF(advert_summary!$B52=$N$1,advert_summary!F52,0)</f>
@@ -26465,51 +30261,51 @@
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <f>IF(advert_summary!$B63=$N$1,advert_summary!A63,0)</f>
-        <v>0</v>
-      </c>
-      <c r="B63" t="str">
+        <v>34700444</v>
+      </c>
+      <c r="B63" t="b">
         <f>IF(advert_summary!$B63=$N$1,advert_summary!B63,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C63" t="str">
         <f>IF(advert_summary!$B63=$N$1,advert_summary!C63,"")</f>
-        <v/>
+        <v>N/A</v>
       </c>
       <c r="D63" s="1">
         <f>IF(advert_summary!$B63=$N$1,advert_summary!D63,0)</f>
-        <v>0</v>
+        <v>45759</v>
       </c>
       <c r="E63" s="1">
         <f>IF(advert_summary!$B63=$N$1,advert_summary!E63,0)</f>
-        <v>0</v>
+        <v>45986</v>
       </c>
       <c r="F63" s="2">
         <f>IF(advert_summary!$B63=$N$1,advert_summary!F63,0)</f>
-        <v>0</v>
+        <v>227</v>
       </c>
       <c r="G63" s="2">
         <f>IF(advert_summary!$B63=$N$1,advert_summary!G63,0)</f>
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="H63" s="2">
         <f>IF(advert_summary!$B63=$N$1,advert_summary!H63,0)</f>
-        <v>0</v>
+        <v>214.9</v>
       </c>
       <c r="I63" s="2">
         <f>IF(advert_summary!$B63=$N$1,advert_summary!I63,0)</f>
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="J63" s="2">
         <f>IF(advert_summary!$B63=$N$1,advert_summary!J63,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K63" s="2">
         <f>IF(advert_summary!$B63=$N$1,advert_summary!K63,0)</f>
-        <v>0</v>
+        <v>2.00841121495327</v>
       </c>
       <c r="L63" s="2">
         <f>IF(advert_summary!$B63=$N$1,advert_summary!L63,0)</f>
-        <v>0</v>
+        <v>-5.0999999999999899</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
@@ -27015,47 +30811,47 @@
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <f>IF(advert_summary!$B74=$N$1,advert_summary!A74,0)</f>
-        <v>0</v>
-      </c>
-      <c r="B74" t="str">
+        <v>34782974</v>
+      </c>
+      <c r="B74" t="b">
         <f>IF(advert_summary!$B74=$N$1,advert_summary!B74,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C74" t="str">
         <f>IF(advert_summary!$B74=$N$1,advert_summary!C74,"")</f>
-        <v/>
+        <v>N/A</v>
       </c>
       <c r="D74" s="1">
         <f>IF(advert_summary!$B74=$N$1,advert_summary!D74,0)</f>
-        <v>0</v>
+        <v>45814</v>
       </c>
       <c r="E74" s="1">
         <f>IF(advert_summary!$B74=$N$1,advert_summary!E74,0)</f>
-        <v>0</v>
+        <v>45986</v>
       </c>
       <c r="F74" s="2">
         <f>IF(advert_summary!$B74=$N$1,advert_summary!F74,0)</f>
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="G74" s="2">
         <f>IF(advert_summary!$B74=$N$1,advert_summary!G74,0)</f>
-        <v>0</v>
+        <v>214.9</v>
       </c>
       <c r="H74" s="2">
         <f>IF(advert_summary!$B74=$N$1,advert_summary!H74,0)</f>
-        <v>0</v>
+        <v>214.9</v>
       </c>
       <c r="I74" s="2">
         <f>IF(advert_summary!$B74=$N$1,advert_summary!I74,0)</f>
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="J74" s="2">
         <f>IF(advert_summary!$B74=$N$1,advert_summary!J74,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K74" s="2">
         <f>IF(advert_summary!$B74=$N$1,advert_summary!K74,0)</f>
-        <v>0</v>
+        <v>1.9536363636363601</v>
       </c>
       <c r="L74" s="2">
         <f>IF(advert_summary!$B74=$N$1,advert_summary!L74,0)</f>
@@ -27215,101 +31011,101 @@
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <f>IF(advert_summary!$B78=$N$1,advert_summary!A78,0)</f>
-        <v>0</v>
-      </c>
-      <c r="B78" t="str">
+        <v>34809177</v>
+      </c>
+      <c r="B78" t="b">
         <f>IF(advert_summary!$B78=$N$1,advert_summary!B78,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C78" t="str">
         <f>IF(advert_summary!$B78=$N$1,advert_summary!C78,"")</f>
-        <v/>
+        <v>N/A</v>
       </c>
       <c r="D78" s="1">
         <f>IF(advert_summary!$B78=$N$1,advert_summary!D78,0)</f>
-        <v>0</v>
+        <v>45818</v>
       </c>
       <c r="E78" s="1">
         <f>IF(advert_summary!$B78=$N$1,advert_summary!E78,0)</f>
-        <v>0</v>
+        <v>45981</v>
       </c>
       <c r="F78" s="2">
         <f>IF(advert_summary!$B78=$N$1,advert_summary!F78,0)</f>
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="G78" s="2">
         <f>IF(advert_summary!$B78=$N$1,advert_summary!G78,0)</f>
-        <v>0</v>
+        <v>191</v>
       </c>
       <c r="H78" s="2">
         <f>IF(advert_summary!$B78=$N$1,advert_summary!H78,0)</f>
-        <v>0</v>
+        <v>179</v>
       </c>
       <c r="I78" s="2">
         <f>IF(advert_summary!$B78=$N$1,advert_summary!I78,0)</f>
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="J78" s="2">
         <f>IF(advert_summary!$B78=$N$1,advert_summary!J78,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K78" s="2">
         <f>IF(advert_summary!$B78=$N$1,advert_summary!K78,0)</f>
-        <v>0</v>
+        <v>1.4319999999999999</v>
       </c>
       <c r="L78" s="2">
         <f>IF(advert_summary!$B78=$N$1,advert_summary!L78,0)</f>
-        <v>0</v>
+        <v>-12</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <f>IF(advert_summary!$B79=$N$1,advert_summary!A79,0)</f>
-        <v>0</v>
-      </c>
-      <c r="B79" t="str">
+        <v>34815108</v>
+      </c>
+      <c r="B79" t="b">
         <f>IF(advert_summary!$B79=$N$1,advert_summary!B79,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C79" t="str">
         <f>IF(advert_summary!$B79=$N$1,advert_summary!C79,"")</f>
-        <v/>
+        <v>N/A</v>
       </c>
       <c r="D79" s="1">
         <f>IF(advert_summary!$B79=$N$1,advert_summary!D79,0)</f>
-        <v>0</v>
+        <v>45823</v>
       </c>
       <c r="E79" s="1">
         <f>IF(advert_summary!$B79=$N$1,advert_summary!E79,0)</f>
-        <v>0</v>
+        <v>45948</v>
       </c>
       <c r="F79" s="2">
         <f>IF(advert_summary!$B79=$N$1,advert_summary!F79,0)</f>
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="G79" s="2">
         <f>IF(advert_summary!$B79=$N$1,advert_summary!G79,0)</f>
-        <v>0</v>
+        <v>225.9</v>
       </c>
       <c r="H79" s="2">
         <f>IF(advert_summary!$B79=$N$1,advert_summary!H79,0)</f>
-        <v>0</v>
+        <v>178.9</v>
       </c>
       <c r="I79" s="2">
         <f>IF(advert_summary!$B79=$N$1,advert_summary!I79,0)</f>
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="J79" s="2">
         <f>IF(advert_summary!$B79=$N$1,advert_summary!J79,0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K79" s="2">
         <f>IF(advert_summary!$B79=$N$1,advert_summary!K79,0)</f>
-        <v>0</v>
+        <v>1.6412844036697201</v>
       </c>
       <c r="L79" s="2">
         <f>IF(advert_summary!$B79=$N$1,advert_summary!L79,0)</f>
-        <v>0</v>
+        <v>-47</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
@@ -27431,7 +31227,7 @@
       </c>
       <c r="E82" s="1">
         <f>IF(advert_summary!$B82=$N$1,advert_summary!E82,0)</f>
-        <v>45868</v>
+        <v>45867</v>
       </c>
       <c r="F82" s="2">
         <f>IF(advert_summary!$B82=$N$1,advert_summary!F82,0)</f>
@@ -27777,11 +31573,11 @@
       </c>
       <c r="D89" s="1">
         <f>IF(advert_summary!$B89=$N$1,advert_summary!D89,0)</f>
-        <v>45868</v>
+        <v>45867</v>
       </c>
       <c r="E89" s="1">
         <f>IF(advert_summary!$B89=$N$1,advert_summary!E89,0)</f>
-        <v>45868</v>
+        <v>45867</v>
       </c>
       <c r="F89" s="2">
         <f>IF(advert_summary!$B89=$N$1,advert_summary!F89,0)</f>
@@ -28015,47 +31811,47 @@
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <f>IF(advert_summary!$B94=$N$1,advert_summary!A94,0)</f>
-        <v>0</v>
-      </c>
-      <c r="B94" t="str">
+        <v>34960060</v>
+      </c>
+      <c r="B94" t="b">
         <f>IF(advert_summary!$B94=$N$1,advert_summary!B94,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C94" t="str">
         <f>IF(advert_summary!$B94=$N$1,advert_summary!C94,"")</f>
-        <v/>
+        <v>N/A</v>
       </c>
       <c r="D94" s="1">
         <f>IF(advert_summary!$B94=$N$1,advert_summary!D94,0)</f>
-        <v>0</v>
+        <v>45911</v>
       </c>
       <c r="E94" s="1">
         <f>IF(advert_summary!$B94=$N$1,advert_summary!E94,0)</f>
-        <v>0</v>
+        <v>46024</v>
       </c>
       <c r="F94" s="2">
         <f>IF(advert_summary!$B94=$N$1,advert_summary!F94,0)</f>
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="G94" s="2">
         <f>IF(advert_summary!$B94=$N$1,advert_summary!G94,0)</f>
-        <v>0</v>
+        <v>169</v>
       </c>
       <c r="H94" s="2">
         <f>IF(advert_summary!$B94=$N$1,advert_summary!H94,0)</f>
-        <v>0</v>
+        <v>169</v>
       </c>
       <c r="I94" s="2">
         <f>IF(advert_summary!$B94=$N$1,advert_summary!I94,0)</f>
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="J94" s="2">
         <f>IF(advert_summary!$B94=$N$1,advert_summary!J94,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K94" s="2">
         <f>IF(advert_summary!$B94=$N$1,advert_summary!K94,0)</f>
-        <v>0</v>
+        <v>1.5089285714285701</v>
       </c>
       <c r="L94" s="2">
         <f>IF(advert_summary!$B94=$N$1,advert_summary!L94,0)</f>
@@ -28115,47 +31911,47 @@
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <f>IF(advert_summary!$B96=$N$1,advert_summary!A96,0)</f>
-        <v>0</v>
-      </c>
-      <c r="B96" t="str">
+        <v>35004703</v>
+      </c>
+      <c r="B96" t="b">
         <f>IF(advert_summary!$B96=$N$1,advert_summary!B96,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C96" t="str">
         <f>IF(advert_summary!$B96=$N$1,advert_summary!C96,"")</f>
-        <v/>
+        <v>N/A</v>
       </c>
       <c r="D96" s="1">
         <f>IF(advert_summary!$B96=$N$1,advert_summary!D96,0)</f>
-        <v>0</v>
+        <v>45934</v>
       </c>
       <c r="E96" s="1">
         <f>IF(advert_summary!$B96=$N$1,advert_summary!E96,0)</f>
-        <v>0</v>
+        <v>45948</v>
       </c>
       <c r="F96" s="2">
         <f>IF(advert_summary!$B96=$N$1,advert_summary!F96,0)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G96" s="2">
         <f>IF(advert_summary!$B96=$N$1,advert_summary!G96,0)</f>
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="H96" s="2">
         <f>IF(advert_summary!$B96=$N$1,advert_summary!H96,0)</f>
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="I96" s="2">
         <f>IF(advert_summary!$B96=$N$1,advert_summary!I96,0)</f>
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="J96" s="2">
         <f>IF(advert_summary!$B96=$N$1,advert_summary!J96,0)</f>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="K96" s="2">
         <f>IF(advert_summary!$B96=$N$1,advert_summary!K96,0)</f>
-        <v>0</v>
+        <v>1.21138211382113</v>
       </c>
       <c r="L96" s="2">
         <f>IF(advert_summary!$B96=$N$1,advert_summary!L96,0)</f>
@@ -28165,97 +31961,97 @@
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <f>IF(advert_summary!$B97=$N$1,advert_summary!A97,0)</f>
-        <v>0</v>
-      </c>
-      <c r="B97" t="str">
+        <v>35014192</v>
+      </c>
+      <c r="B97" t="b">
         <f>IF(advert_summary!$B97=$N$1,advert_summary!B97,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C97" t="str">
         <f>IF(advert_summary!$B97=$N$1,advert_summary!C97,"")</f>
-        <v/>
+        <v>N/A</v>
       </c>
       <c r="D97" s="1">
         <f>IF(advert_summary!$B97=$N$1,advert_summary!D97,0)</f>
-        <v>0</v>
+        <v>45934</v>
       </c>
       <c r="E97" s="1">
         <f>IF(advert_summary!$B97=$N$1,advert_summary!E97,0)</f>
-        <v>0</v>
+        <v>46040</v>
       </c>
       <c r="F97" s="2">
         <f>IF(advert_summary!$B97=$N$1,advert_summary!F97,0)</f>
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="G97" s="2">
         <f>IF(advert_summary!$B97=$N$1,advert_summary!G97,0)</f>
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="H97" s="2">
         <f>IF(advert_summary!$B97=$N$1,advert_summary!H97,0)</f>
-        <v>0</v>
+        <v>199</v>
       </c>
       <c r="I97" s="2">
         <f>IF(advert_summary!$B97=$N$1,advert_summary!I97,0)</f>
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="J97" s="2">
         <f>IF(advert_summary!$B97=$N$1,advert_summary!J97,0)</f>
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="K97" s="2">
         <f>IF(advert_summary!$B97=$N$1,advert_summary!K97,0)</f>
-        <v>0</v>
+        <v>1.82568807339449</v>
       </c>
       <c r="L97" s="2">
         <f>IF(advert_summary!$B97=$N$1,advert_summary!L97,0)</f>
-        <v>0</v>
+        <v>-11</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <f>IF(advert_summary!$B98=$N$1,advert_summary!A98,0)</f>
-        <v>0</v>
-      </c>
-      <c r="B98" t="str">
+        <v>35007606</v>
+      </c>
+      <c r="B98" t="b">
         <f>IF(advert_summary!$B98=$N$1,advert_summary!B98,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C98" t="str">
         <f>IF(advert_summary!$B98=$N$1,advert_summary!C98,"")</f>
-        <v/>
+        <v>N/A</v>
       </c>
       <c r="D98" s="1">
         <f>IF(advert_summary!$B98=$N$1,advert_summary!D98,0)</f>
-        <v>0</v>
+        <v>45934</v>
       </c>
       <c r="E98" s="1">
         <f>IF(advert_summary!$B98=$N$1,advert_summary!E98,0)</f>
-        <v>0</v>
+        <v>45948</v>
       </c>
       <c r="F98" s="2">
         <f>IF(advert_summary!$B98=$N$1,advert_summary!F98,0)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G98" s="2">
         <f>IF(advert_summary!$B98=$N$1,advert_summary!G98,0)</f>
-        <v>0</v>
+        <v>244</v>
       </c>
       <c r="H98" s="2">
         <f>IF(advert_summary!$B98=$N$1,advert_summary!H98,0)</f>
-        <v>0</v>
+        <v>244</v>
       </c>
       <c r="I98" s="2">
         <f>IF(advert_summary!$B98=$N$1,advert_summary!I98,0)</f>
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="J98" s="2">
         <f>IF(advert_summary!$B98=$N$1,advert_summary!J98,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K98" s="2">
         <f>IF(advert_summary!$B98=$N$1,advert_summary!K98,0)</f>
-        <v>0</v>
+        <v>2.4897959183673399</v>
       </c>
       <c r="L98" s="2">
         <f>IF(advert_summary!$B98=$N$1,advert_summary!L98,0)</f>
@@ -28265,47 +32061,47 @@
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <f>IF(advert_summary!$B99=$N$1,advert_summary!A99,0)</f>
-        <v>0</v>
-      </c>
-      <c r="B99" t="str">
+        <v>35000289</v>
+      </c>
+      <c r="B99" t="b">
         <f>IF(advert_summary!$B99=$N$1,advert_summary!B99,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C99" t="str">
         <f>IF(advert_summary!$B99=$N$1,advert_summary!C99,"")</f>
-        <v/>
+        <v>N/A</v>
       </c>
       <c r="D99" s="1">
         <f>IF(advert_summary!$B99=$N$1,advert_summary!D99,0)</f>
-        <v>0</v>
+        <v>45934</v>
       </c>
       <c r="E99" s="1">
         <f>IF(advert_summary!$B99=$N$1,advert_summary!E99,0)</f>
-        <v>0</v>
+        <v>45986</v>
       </c>
       <c r="F99" s="2">
         <f>IF(advert_summary!$B99=$N$1,advert_summary!F99,0)</f>
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="G99" s="2">
         <f>IF(advert_summary!$B99=$N$1,advert_summary!G99,0)</f>
-        <v>0</v>
+        <v>214.9</v>
       </c>
       <c r="H99" s="2">
         <f>IF(advert_summary!$B99=$N$1,advert_summary!H99,0)</f>
-        <v>0</v>
+        <v>214.9</v>
       </c>
       <c r="I99" s="2">
         <f>IF(advert_summary!$B99=$N$1,advert_summary!I99,0)</f>
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="J99" s="2">
         <f>IF(advert_summary!$B99=$N$1,advert_summary!J99,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K99" s="2">
         <f>IF(advert_summary!$B99=$N$1,advert_summary!K99,0)</f>
-        <v>0</v>
+        <v>1.9536363636363601</v>
       </c>
       <c r="L99" s="2">
         <f>IF(advert_summary!$B99=$N$1,advert_summary!L99,0)</f>
@@ -28365,47 +32161,47 @@
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <f>IF(advert_summary!$B101=$N$1,advert_summary!A101,0)</f>
-        <v>0</v>
-      </c>
-      <c r="B101" t="str">
+        <v>35008632</v>
+      </c>
+      <c r="B101" t="b">
         <f>IF(advert_summary!$B101=$N$1,advert_summary!B101,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C101" t="str">
         <f>IF(advert_summary!$B101=$N$1,advert_summary!C101,"")</f>
-        <v/>
+        <v>N/A</v>
       </c>
       <c r="D101" s="1">
         <f>IF(advert_summary!$B101=$N$1,advert_summary!D101,0)</f>
-        <v>0</v>
+        <v>45934</v>
       </c>
       <c r="E101" s="1">
         <f>IF(advert_summary!$B101=$N$1,advert_summary!E101,0)</f>
-        <v>0</v>
+        <v>45948</v>
       </c>
       <c r="F101" s="2">
         <f>IF(advert_summary!$B101=$N$1,advert_summary!F101,0)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G101" s="2">
         <f>IF(advert_summary!$B101=$N$1,advert_summary!G101,0)</f>
-        <v>0</v>
+        <v>244</v>
       </c>
       <c r="H101" s="2">
         <f>IF(advert_summary!$B101=$N$1,advert_summary!H101,0)</f>
-        <v>0</v>
+        <v>244</v>
       </c>
       <c r="I101" s="2">
         <f>IF(advert_summary!$B101=$N$1,advert_summary!I101,0)</f>
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="J101" s="2">
         <f>IF(advert_summary!$B101=$N$1,advert_summary!J101,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K101" s="2">
         <f>IF(advert_summary!$B101=$N$1,advert_summary!K101,0)</f>
-        <v>0</v>
+        <v>2.4897959183673399</v>
       </c>
       <c r="L101" s="2">
         <f>IF(advert_summary!$B101=$N$1,advert_summary!L101,0)</f>
@@ -28415,47 +32211,47 @@
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <f>IF(advert_summary!$B102=$N$1,advert_summary!A102,0)</f>
-        <v>0</v>
-      </c>
-      <c r="B102" t="str">
+        <v>35008393</v>
+      </c>
+      <c r="B102" t="b">
         <f>IF(advert_summary!$B102=$N$1,advert_summary!B102,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C102" t="str">
         <f>IF(advert_summary!$B102=$N$1,advert_summary!C102,"")</f>
-        <v/>
+        <v>N/A</v>
       </c>
       <c r="D102" s="1">
         <f>IF(advert_summary!$B102=$N$1,advert_summary!D102,0)</f>
-        <v>0</v>
+        <v>45934</v>
       </c>
       <c r="E102" s="1">
         <f>IF(advert_summary!$B102=$N$1,advert_summary!E102,0)</f>
-        <v>0</v>
+        <v>45948</v>
       </c>
       <c r="F102" s="2">
         <f>IF(advert_summary!$B102=$N$1,advert_summary!F102,0)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G102" s="2">
         <f>IF(advert_summary!$B102=$N$1,advert_summary!G102,0)</f>
-        <v>0</v>
+        <v>244</v>
       </c>
       <c r="H102" s="2">
         <f>IF(advert_summary!$B102=$N$1,advert_summary!H102,0)</f>
-        <v>0</v>
+        <v>244</v>
       </c>
       <c r="I102" s="2">
         <f>IF(advert_summary!$B102=$N$1,advert_summary!I102,0)</f>
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="J102" s="2">
         <f>IF(advert_summary!$B102=$N$1,advert_summary!J102,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K102" s="2">
         <f>IF(advert_summary!$B102=$N$1,advert_summary!K102,0)</f>
-        <v>0</v>
+        <v>2.4897959183673399</v>
       </c>
       <c r="L102" s="2">
         <f>IF(advert_summary!$B102=$N$1,advert_summary!L102,0)</f>
@@ -28565,47 +32361,47 @@
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <f>IF(advert_summary!$B105=$N$1,advert_summary!A105,0)</f>
-        <v>0</v>
-      </c>
-      <c r="B105" t="str">
+        <v>35009219</v>
+      </c>
+      <c r="B105" t="b">
         <f>IF(advert_summary!$B105=$N$1,advert_summary!B105,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C105" t="str">
         <f>IF(advert_summary!$B105=$N$1,advert_summary!C105,"")</f>
-        <v/>
+        <v>N/A</v>
       </c>
       <c r="D105" s="1">
         <f>IF(advert_summary!$B105=$N$1,advert_summary!D105,0)</f>
-        <v>0</v>
+        <v>45941</v>
       </c>
       <c r="E105" s="1">
         <f>IF(advert_summary!$B105=$N$1,advert_summary!E105,0)</f>
-        <v>0</v>
+        <v>45948</v>
       </c>
       <c r="F105" s="2">
         <f>IF(advert_summary!$B105=$N$1,advert_summary!F105,0)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G105" s="2">
         <f>IF(advert_summary!$B105=$N$1,advert_summary!G105,0)</f>
-        <v>0</v>
+        <v>244</v>
       </c>
       <c r="H105" s="2">
         <f>IF(advert_summary!$B105=$N$1,advert_summary!H105,0)</f>
-        <v>0</v>
+        <v>244</v>
       </c>
       <c r="I105" s="2">
         <f>IF(advert_summary!$B105=$N$1,advert_summary!I105,0)</f>
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="J105" s="2">
         <f>IF(advert_summary!$B105=$N$1,advert_summary!J105,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K105" s="2">
         <f>IF(advert_summary!$B105=$N$1,advert_summary!K105,0)</f>
-        <v>0</v>
+        <v>2.4897959183673399</v>
       </c>
       <c r="L105" s="2">
         <f>IF(advert_summary!$B105=$N$1,advert_summary!L105,0)</f>
@@ -28615,47 +32411,47 @@
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <f>IF(advert_summary!$B106=$N$1,advert_summary!A106,0)</f>
-        <v>0</v>
-      </c>
-      <c r="B106" t="str">
+        <v>35008343</v>
+      </c>
+      <c r="B106" t="b">
         <f>IF(advert_summary!$B106=$N$1,advert_summary!B106,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C106" t="str">
         <f>IF(advert_summary!$B106=$N$1,advert_summary!C106,"")</f>
-        <v/>
+        <v>N/A</v>
       </c>
       <c r="D106" s="1">
         <f>IF(advert_summary!$B106=$N$1,advert_summary!D106,0)</f>
-        <v>0</v>
+        <v>45941</v>
       </c>
       <c r="E106" s="1">
         <f>IF(advert_summary!$B106=$N$1,advert_summary!E106,0)</f>
-        <v>0</v>
+        <v>45948</v>
       </c>
       <c r="F106" s="2">
         <f>IF(advert_summary!$B106=$N$1,advert_summary!F106,0)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G106" s="2">
         <f>IF(advert_summary!$B106=$N$1,advert_summary!G106,0)</f>
-        <v>0</v>
+        <v>244</v>
       </c>
       <c r="H106" s="2">
         <f>IF(advert_summary!$B106=$N$1,advert_summary!H106,0)</f>
-        <v>0</v>
+        <v>244</v>
       </c>
       <c r="I106" s="2">
         <f>IF(advert_summary!$B106=$N$1,advert_summary!I106,0)</f>
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="J106" s="2">
         <f>IF(advert_summary!$B106=$N$1,advert_summary!J106,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K106" s="2">
         <f>IF(advert_summary!$B106=$N$1,advert_summary!K106,0)</f>
-        <v>0</v>
+        <v>2.4897959183673399</v>
       </c>
       <c r="L106" s="2">
         <f>IF(advert_summary!$B106=$N$1,advert_summary!L106,0)</f>
@@ -28717,13 +32513,13 @@
         <f>IF(advert_summary!$B108=$N$1,advert_summary!A108,0)</f>
         <v>0</v>
       </c>
-      <c r="B108">
+      <c r="B108" t="str">
         <f>IF(advert_summary!$B108=$N$1,advert_summary!B108,"")</f>
-        <v>0</v>
-      </c>
-      <c r="C108">
+        <v/>
+      </c>
+      <c r="C108" t="str">
         <f>IF(advert_summary!$B108=$N$1,advert_summary!C108,"")</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="D108" s="1">
         <f>IF(advert_summary!$B108=$N$1,advert_summary!D108,0)</f>
@@ -28767,13 +32563,13 @@
         <f>IF(advert_summary!$B109=$N$1,advert_summary!A109,0)</f>
         <v>0</v>
       </c>
-      <c r="B109">
+      <c r="B109" t="str">
         <f>IF(advert_summary!$B109=$N$1,advert_summary!B109,"")</f>
-        <v>0</v>
-      </c>
-      <c r="C109">
+        <v/>
+      </c>
+      <c r="C109" t="str">
         <f>IF(advert_summary!$B109=$N$1,advert_summary!C109,"")</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="D109" s="1">
         <f>IF(advert_summary!$B109=$N$1,advert_summary!D109,0)</f>
@@ -28817,13 +32613,13 @@
         <f>IF(advert_summary!$B110=$N$1,advert_summary!A110,0)</f>
         <v>0</v>
       </c>
-      <c r="B110">
+      <c r="B110" t="str">
         <f>IF(advert_summary!$B110=$N$1,advert_summary!B110,"")</f>
-        <v>0</v>
-      </c>
-      <c r="C110">
+        <v/>
+      </c>
+      <c r="C110" t="str">
         <f>IF(advert_summary!$B110=$N$1,advert_summary!C110,"")</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="D110" s="1">
         <f>IF(advert_summary!$B110=$N$1,advert_summary!D110,0)</f>
@@ -28867,13 +32663,13 @@
         <f>IF(advert_summary!$B111=$N$1,advert_summary!A111,0)</f>
         <v>0</v>
       </c>
-      <c r="B111">
+      <c r="B111" t="str">
         <f>IF(advert_summary!$B111=$N$1,advert_summary!B111,"")</f>
-        <v>0</v>
-      </c>
-      <c r="C111">
+        <v/>
+      </c>
+      <c r="C111" t="str">
         <f>IF(advert_summary!$B111=$N$1,advert_summary!C111,"")</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="D111" s="1">
         <f>IF(advert_summary!$B111=$N$1,advert_summary!D111,0)</f>
@@ -28915,47 +32711,47 @@
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <f>IF(advert_summary!$B112=$N$1,advert_summary!A112,0)</f>
-        <v>0</v>
-      </c>
-      <c r="B112">
+        <v>35093337</v>
+      </c>
+      <c r="B112" t="b">
         <f>IF(advert_summary!$B112=$N$1,advert_summary!B112,"")</f>
         <v>0</v>
       </c>
-      <c r="C112">
+      <c r="C112" t="str">
         <f>IF(advert_summary!$B112=$N$1,advert_summary!C112,"")</f>
-        <v>0</v>
+        <v>N/A</v>
       </c>
       <c r="D112" s="1">
         <f>IF(advert_summary!$B112=$N$1,advert_summary!D112,0)</f>
-        <v>0</v>
+        <v>45981</v>
       </c>
       <c r="E112" s="1">
         <f>IF(advert_summary!$B112=$N$1,advert_summary!E112,0)</f>
-        <v>0</v>
+        <v>45986</v>
       </c>
       <c r="F112" s="2">
         <f>IF(advert_summary!$B112=$N$1,advert_summary!F112,0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G112" s="2">
         <f>IF(advert_summary!$B112=$N$1,advert_summary!G112,0)</f>
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="H112" s="2">
         <f>IF(advert_summary!$B112=$N$1,advert_summary!H112,0)</f>
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="I112" s="2">
         <f>IF(advert_summary!$B112=$N$1,advert_summary!I112,0)</f>
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="J112" s="2">
         <f>IF(advert_summary!$B112=$N$1,advert_summary!J112,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K112" s="2">
         <f>IF(advert_summary!$B112=$N$1,advert_summary!K112,0)</f>
-        <v>0</v>
+        <v>2.0467289719626098</v>
       </c>
       <c r="L112" s="2">
         <f>IF(advert_summary!$B112=$N$1,advert_summary!L112,0)</f>
@@ -28967,13 +32763,13 @@
         <f>IF(advert_summary!$B113=$N$1,advert_summary!A113,0)</f>
         <v>0</v>
       </c>
-      <c r="B113">
+      <c r="B113" t="str">
         <f>IF(advert_summary!$B113=$N$1,advert_summary!B113,"")</f>
-        <v>0</v>
-      </c>
-      <c r="C113">
+        <v/>
+      </c>
+      <c r="C113" t="str">
         <f>IF(advert_summary!$B113=$N$1,advert_summary!C113,"")</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="D113" s="1">
         <f>IF(advert_summary!$B113=$N$1,advert_summary!D113,0)</f>
@@ -29017,13 +32813,13 @@
         <f>IF(advert_summary!$B114=$N$1,advert_summary!A114,0)</f>
         <v>0</v>
       </c>
-      <c r="B114">
+      <c r="B114" t="str">
         <f>IF(advert_summary!$B114=$N$1,advert_summary!B114,"")</f>
-        <v>0</v>
-      </c>
-      <c r="C114">
+        <v/>
+      </c>
+      <c r="C114" t="str">
         <f>IF(advert_summary!$B114=$N$1,advert_summary!C114,"")</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="D114" s="1">
         <f>IF(advert_summary!$B114=$N$1,advert_summary!D114,0)</f>
@@ -29065,47 +32861,47 @@
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <f>IF(advert_summary!$B115=$N$1,advert_summary!A115,0)</f>
-        <v>0</v>
-      </c>
-      <c r="B115">
+        <v>35151568</v>
+      </c>
+      <c r="B115" t="b">
         <f>IF(advert_summary!$B115=$N$1,advert_summary!B115,"")</f>
         <v>0</v>
       </c>
-      <c r="C115">
+      <c r="C115" t="str">
         <f>IF(advert_summary!$B115=$N$1,advert_summary!C115,"")</f>
-        <v>0</v>
+        <v>N/A</v>
       </c>
       <c r="D115" s="1">
         <f>IF(advert_summary!$B115=$N$1,advert_summary!D115,0)</f>
-        <v>0</v>
+        <v>46024</v>
       </c>
       <c r="E115" s="1">
         <f>IF(advert_summary!$B115=$N$1,advert_summary!E115,0)</f>
-        <v>0</v>
+        <v>46040</v>
       </c>
       <c r="F115" s="2">
         <f>IF(advert_summary!$B115=$N$1,advert_summary!F115,0)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G115" s="2">
         <f>IF(advert_summary!$B115=$N$1,advert_summary!G115,0)</f>
-        <v>0</v>
+        <v>209.9</v>
       </c>
       <c r="H115" s="2">
         <f>IF(advert_summary!$B115=$N$1,advert_summary!H115,0)</f>
-        <v>0</v>
+        <v>209.9</v>
       </c>
       <c r="I115" s="2">
         <f>IF(advert_summary!$B115=$N$1,advert_summary!I115,0)</f>
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="J115" s="2">
         <f>IF(advert_summary!$B115=$N$1,advert_summary!J115,0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K115" s="2">
         <f>IF(advert_summary!$B115=$N$1,advert_summary!K115,0)</f>
-        <v>0</v>
+        <v>1.8252173913043399</v>
       </c>
       <c r="L115" s="2">
         <f>IF(advert_summary!$B115=$N$1,advert_summary!L115,0)</f>
@@ -29117,13 +32913,13 @@
         <f>IF(advert_summary!$B116=$N$1,advert_summary!A116,0)</f>
         <v>0</v>
       </c>
-      <c r="B116">
+      <c r="B116" t="str">
         <f>IF(advert_summary!$B116=$N$1,advert_summary!B116,"")</f>
-        <v>0</v>
-      </c>
-      <c r="C116">
+        <v/>
+      </c>
+      <c r="C116" t="str">
         <f>IF(advert_summary!$B116=$N$1,advert_summary!C116,"")</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="D116" s="1">
         <f>IF(advert_summary!$B116=$N$1,advert_summary!D116,0)</f>
@@ -29167,13 +32963,13 @@
         <f>IF(advert_summary!$B117=$N$1,advert_summary!A117,0)</f>
         <v>0</v>
       </c>
-      <c r="B117">
+      <c r="B117" t="str">
         <f>IF(advert_summary!$B117=$N$1,advert_summary!B117,"")</f>
-        <v>0</v>
-      </c>
-      <c r="C117">
+        <v/>
+      </c>
+      <c r="C117" t="str">
         <f>IF(advert_summary!$B117=$N$1,advert_summary!C117,"")</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="D117" s="1">
         <f>IF(advert_summary!$B117=$N$1,advert_summary!D117,0)</f>
@@ -29217,13 +33013,13 @@
         <f>IF(advert_summary!$B118=$N$1,advert_summary!A118,0)</f>
         <v>0</v>
       </c>
-      <c r="B118">
+      <c r="B118" t="str">
         <f>IF(advert_summary!$B118=$N$1,advert_summary!B118,"")</f>
-        <v>0</v>
-      </c>
-      <c r="C118">
+        <v/>
+      </c>
+      <c r="C118" t="str">
         <f>IF(advert_summary!$B118=$N$1,advert_summary!C118,"")</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="D118" s="1">
         <f>IF(advert_summary!$B118=$N$1,advert_summary!D118,0)</f>
@@ -29259,26 +33055,1031 @@
       </c>
       <c r="L118" s="2">
         <f>IF(advert_summary!$B118=$N$1,advert_summary!L118,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A119" s="3">
+        <f>IF(advert_summary!$B119=$N$1,advert_summary!A119,0)</f>
+        <v>0</v>
+      </c>
+      <c r="B119" t="str">
+        <f>IF(advert_summary!$B119=$N$1,advert_summary!B119,"")</f>
+        <v/>
+      </c>
+      <c r="C119" t="str">
+        <f>IF(advert_summary!$B119=$N$1,advert_summary!C119,"")</f>
+        <v/>
+      </c>
+      <c r="D119" s="1">
+        <f>IF(advert_summary!$B119=$N$1,advert_summary!D119,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E119" s="1">
+        <f>IF(advert_summary!$B119=$N$1,advert_summary!E119,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F119" s="2">
+        <f>IF(advert_summary!$B119=$N$1,advert_summary!F119,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G119" s="2">
+        <f>IF(advert_summary!$B119=$N$1,advert_summary!G119,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H119" s="2">
+        <f>IF(advert_summary!$B119=$N$1,advert_summary!H119,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I119" s="2">
+        <f>IF(advert_summary!$B119=$N$1,advert_summary!I119,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J119" s="2">
+        <f>IF(advert_summary!$B119=$N$1,advert_summary!J119,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K119" s="2">
+        <f>IF(advert_summary!$B119=$N$1,advert_summary!K119,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L119" s="2">
+        <f>IF(advert_summary!$B119=$N$1,advert_summary!L119,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A120" s="3">
+        <f>IF(advert_summary!$B120=$N$1,advert_summary!A120,0)</f>
+        <v>0</v>
+      </c>
+      <c r="B120" t="str">
+        <f>IF(advert_summary!$B120=$N$1,advert_summary!B120,"")</f>
+        <v/>
+      </c>
+      <c r="C120" t="str">
+        <f>IF(advert_summary!$B120=$N$1,advert_summary!C120,"")</f>
+        <v/>
+      </c>
+      <c r="D120" s="1">
+        <f>IF(advert_summary!$B120=$N$1,advert_summary!D120,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E120" s="1">
+        <f>IF(advert_summary!$B120=$N$1,advert_summary!E120,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F120" s="2">
+        <f>IF(advert_summary!$B120=$N$1,advert_summary!F120,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G120" s="2">
+        <f>IF(advert_summary!$B120=$N$1,advert_summary!G120,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H120" s="2">
+        <f>IF(advert_summary!$B120=$N$1,advert_summary!H120,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I120" s="2">
+        <f>IF(advert_summary!$B120=$N$1,advert_summary!I120,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J120" s="2">
+        <f>IF(advert_summary!$B120=$N$1,advert_summary!J120,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K120" s="2">
+        <f>IF(advert_summary!$B120=$N$1,advert_summary!K120,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L120" s="2">
+        <f>IF(advert_summary!$B120=$N$1,advert_summary!L120,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A121" s="3">
+        <f>IF(advert_summary!$B121=$N$1,advert_summary!A121,0)</f>
+        <v>0</v>
+      </c>
+      <c r="B121" t="str">
+        <f>IF(advert_summary!$B121=$N$1,advert_summary!B121,"")</f>
+        <v/>
+      </c>
+      <c r="C121" t="str">
+        <f>IF(advert_summary!$B121=$N$1,advert_summary!C121,"")</f>
+        <v/>
+      </c>
+      <c r="D121" s="1">
+        <f>IF(advert_summary!$B121=$N$1,advert_summary!D121,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E121" s="1">
+        <f>IF(advert_summary!$B121=$N$1,advert_summary!E121,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F121" s="2">
+        <f>IF(advert_summary!$B121=$N$1,advert_summary!F121,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G121" s="2">
+        <f>IF(advert_summary!$B121=$N$1,advert_summary!G121,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H121" s="2">
+        <f>IF(advert_summary!$B121=$N$1,advert_summary!H121,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I121" s="2">
+        <f>IF(advert_summary!$B121=$N$1,advert_summary!I121,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J121" s="2">
+        <f>IF(advert_summary!$B121=$N$1,advert_summary!J121,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K121" s="2">
+        <f>IF(advert_summary!$B121=$N$1,advert_summary!K121,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L121" s="2">
+        <f>IF(advert_summary!$B121=$N$1,advert_summary!L121,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A122" s="3">
+        <f>IF(advert_summary!$B122=$N$1,advert_summary!A122,0)</f>
+        <v>0</v>
+      </c>
+      <c r="B122" t="str">
+        <f>IF(advert_summary!$B122=$N$1,advert_summary!B122,"")</f>
+        <v/>
+      </c>
+      <c r="C122" t="str">
+        <f>IF(advert_summary!$B122=$N$1,advert_summary!C122,"")</f>
+        <v/>
+      </c>
+      <c r="D122" s="1">
+        <f>IF(advert_summary!$B122=$N$1,advert_summary!D122,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E122" s="1">
+        <f>IF(advert_summary!$B122=$N$1,advert_summary!E122,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F122" s="2">
+        <f>IF(advert_summary!$B122=$N$1,advert_summary!F122,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G122" s="2">
+        <f>IF(advert_summary!$B122=$N$1,advert_summary!G122,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H122" s="2">
+        <f>IF(advert_summary!$B122=$N$1,advert_summary!H122,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I122" s="2">
+        <f>IF(advert_summary!$B122=$N$1,advert_summary!I122,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J122" s="2">
+        <f>IF(advert_summary!$B122=$N$1,advert_summary!J122,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K122" s="2">
+        <f>IF(advert_summary!$B122=$N$1,advert_summary!K122,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L122" s="2">
+        <f>IF(advert_summary!$B122=$N$1,advert_summary!L122,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A123" s="3">
+        <f>IF(advert_summary!$B123=$N$1,advert_summary!A123,0)</f>
+        <v>35134040</v>
+      </c>
+      <c r="B123" t="b">
+        <f>IF(advert_summary!$B123=$N$1,advert_summary!B123,"")</f>
+        <v>0</v>
+      </c>
+      <c r="C123" t="str">
+        <f>IF(advert_summary!$B123=$N$1,advert_summary!C123,"")</f>
+        <v>N/A</v>
+      </c>
+      <c r="D123" s="1">
+        <f>IF(advert_summary!$B123=$N$1,advert_summary!D123,0)</f>
+        <v>46040</v>
+      </c>
+      <c r="E123" s="1">
+        <f>IF(advert_summary!$B123=$N$1,advert_summary!E123,0)</f>
+        <v>46040</v>
+      </c>
+      <c r="F123" s="2">
+        <f>IF(advert_summary!$B123=$N$1,advert_summary!F123,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G123" s="2">
+        <f>IF(advert_summary!$B123=$N$1,advert_summary!G123,0)</f>
+        <v>149</v>
+      </c>
+      <c r="H123" s="2">
+        <f>IF(advert_summary!$B123=$N$1,advert_summary!H123,0)</f>
+        <v>149</v>
+      </c>
+      <c r="I123" s="2">
+        <f>IF(advert_summary!$B123=$N$1,advert_summary!I123,0)</f>
+        <v>120</v>
+      </c>
+      <c r="J123" s="2" t="str">
+        <f>IF(advert_summary!$B123=$N$1,advert_summary!J123,0)</f>
+        <v>3 + 2 fĂ©l</v>
+      </c>
+      <c r="K123" s="2">
+        <f>IF(advert_summary!$B123=$N$1,advert_summary!K123,0)</f>
+        <v>1.24166666666666</v>
+      </c>
+      <c r="L123" s="2">
+        <f>IF(advert_summary!$B123=$N$1,advert_summary!L123,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A124" s="3">
+        <f>IF(advert_summary!$B124=$N$1,advert_summary!A124,0)</f>
+        <v>0</v>
+      </c>
+      <c r="B124" t="str">
+        <f>IF(advert_summary!$B124=$N$1,advert_summary!B124,"")</f>
+        <v/>
+      </c>
+      <c r="C124" t="str">
+        <f>IF(advert_summary!$B124=$N$1,advert_summary!C124,"")</f>
+        <v/>
+      </c>
+      <c r="D124" s="1">
+        <f>IF(advert_summary!$B124=$N$1,advert_summary!D124,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E124" s="1">
+        <f>IF(advert_summary!$B124=$N$1,advert_summary!E124,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F124" s="2">
+        <f>IF(advert_summary!$B124=$N$1,advert_summary!F124,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G124" s="2">
+        <f>IF(advert_summary!$B124=$N$1,advert_summary!G124,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H124" s="2">
+        <f>IF(advert_summary!$B124=$N$1,advert_summary!H124,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I124" s="2">
+        <f>IF(advert_summary!$B124=$N$1,advert_summary!I124,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J124" s="2">
+        <f>IF(advert_summary!$B124=$N$1,advert_summary!J124,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K124" s="2">
+        <f>IF(advert_summary!$B124=$N$1,advert_summary!K124,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L124" s="2">
+        <f>IF(advert_summary!$B124=$N$1,advert_summary!L124,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A125" s="3">
+        <f>IF(advert_summary!$B125=$N$1,advert_summary!A125,0)</f>
+        <v>0</v>
+      </c>
+      <c r="B125" t="str">
+        <f>IF(advert_summary!$B125=$N$1,advert_summary!B125,"")</f>
+        <v/>
+      </c>
+      <c r="C125" t="str">
+        <f>IF(advert_summary!$B125=$N$1,advert_summary!C125,"")</f>
+        <v/>
+      </c>
+      <c r="D125" s="1">
+        <f>IF(advert_summary!$B125=$N$1,advert_summary!D125,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E125" s="1">
+        <f>IF(advert_summary!$B125=$N$1,advert_summary!E125,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F125" s="2">
+        <f>IF(advert_summary!$B125=$N$1,advert_summary!F125,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G125" s="2">
+        <f>IF(advert_summary!$B125=$N$1,advert_summary!G125,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H125" s="2">
+        <f>IF(advert_summary!$B125=$N$1,advert_summary!H125,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I125" s="2">
+        <f>IF(advert_summary!$B125=$N$1,advert_summary!I125,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J125" s="2">
+        <f>IF(advert_summary!$B125=$N$1,advert_summary!J125,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K125" s="2">
+        <f>IF(advert_summary!$B125=$N$1,advert_summary!K125,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L125" s="2">
+        <f>IF(advert_summary!$B125=$N$1,advert_summary!L125,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A126" s="3">
+        <f>IF(advert_summary!$B126=$N$1,advert_summary!A126,0)</f>
+        <v>0</v>
+      </c>
+      <c r="B126" t="str">
+        <f>IF(advert_summary!$B126=$N$1,advert_summary!B126,"")</f>
+        <v/>
+      </c>
+      <c r="C126" t="str">
+        <f>IF(advert_summary!$B126=$N$1,advert_summary!C126,"")</f>
+        <v/>
+      </c>
+      <c r="D126" s="1">
+        <f>IF(advert_summary!$B126=$N$1,advert_summary!D126,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E126" s="1">
+        <f>IF(advert_summary!$B126=$N$1,advert_summary!E126,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F126" s="2">
+        <f>IF(advert_summary!$B126=$N$1,advert_summary!F126,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G126" s="2">
+        <f>IF(advert_summary!$B126=$N$1,advert_summary!G126,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H126" s="2">
+        <f>IF(advert_summary!$B126=$N$1,advert_summary!H126,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I126" s="2">
+        <f>IF(advert_summary!$B126=$N$1,advert_summary!I126,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J126" s="2">
+        <f>IF(advert_summary!$B126=$N$1,advert_summary!J126,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K126" s="2">
+        <f>IF(advert_summary!$B126=$N$1,advert_summary!K126,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L126" s="2">
+        <f>IF(advert_summary!$B126=$N$1,advert_summary!L126,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A127" s="3">
+        <f>IF(advert_summary!$B127=$N$1,advert_summary!A127,0)</f>
+        <v>0</v>
+      </c>
+      <c r="B127" t="str">
+        <f>IF(advert_summary!$B127=$N$1,advert_summary!B127,"")</f>
+        <v/>
+      </c>
+      <c r="C127" t="str">
+        <f>IF(advert_summary!$B127=$N$1,advert_summary!C127,"")</f>
+        <v/>
+      </c>
+      <c r="D127" s="1">
+        <f>IF(advert_summary!$B127=$N$1,advert_summary!D127,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E127" s="1">
+        <f>IF(advert_summary!$B127=$N$1,advert_summary!E127,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F127" s="2">
+        <f>IF(advert_summary!$B127=$N$1,advert_summary!F127,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G127" s="2">
+        <f>IF(advert_summary!$B127=$N$1,advert_summary!G127,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H127" s="2">
+        <f>IF(advert_summary!$B127=$N$1,advert_summary!H127,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I127" s="2">
+        <f>IF(advert_summary!$B127=$N$1,advert_summary!I127,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J127" s="2">
+        <f>IF(advert_summary!$B127=$N$1,advert_summary!J127,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K127" s="2">
+        <f>IF(advert_summary!$B127=$N$1,advert_summary!K127,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L127" s="2">
+        <f>IF(advert_summary!$B127=$N$1,advert_summary!L127,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A128" s="3">
+        <f>IF(advert_summary!$B128=$N$1,advert_summary!A128,0)</f>
+        <v>0</v>
+      </c>
+      <c r="B128" t="str">
+        <f>IF(advert_summary!$B128=$N$1,advert_summary!B128,"")</f>
+        <v/>
+      </c>
+      <c r="C128" t="str">
+        <f>IF(advert_summary!$B128=$N$1,advert_summary!C128,"")</f>
+        <v/>
+      </c>
+      <c r="D128" s="1">
+        <f>IF(advert_summary!$B128=$N$1,advert_summary!D128,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E128" s="1">
+        <f>IF(advert_summary!$B128=$N$1,advert_summary!E128,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F128" s="2">
+        <f>IF(advert_summary!$B128=$N$1,advert_summary!F128,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G128" s="2">
+        <f>IF(advert_summary!$B128=$N$1,advert_summary!G128,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H128" s="2">
+        <f>IF(advert_summary!$B128=$N$1,advert_summary!H128,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I128" s="2">
+        <f>IF(advert_summary!$B128=$N$1,advert_summary!I128,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J128" s="2">
+        <f>IF(advert_summary!$B128=$N$1,advert_summary!J128,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K128" s="2">
+        <f>IF(advert_summary!$B128=$N$1,advert_summary!K128,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L128" s="2">
+        <f>IF(advert_summary!$B128=$N$1,advert_summary!L128,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A129" s="3">
+        <f>IF(advert_summary!$B129=$N$1,advert_summary!A129,0)</f>
+        <v>0</v>
+      </c>
+      <c r="B129">
+        <f>IF(advert_summary!$B129=$N$1,advert_summary!B129,"")</f>
+        <v>0</v>
+      </c>
+      <c r="C129">
+        <f>IF(advert_summary!$B129=$N$1,advert_summary!C129,"")</f>
+        <v>0</v>
+      </c>
+      <c r="D129" s="1">
+        <f>IF(advert_summary!$B129=$N$1,advert_summary!D129,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E129" s="1">
+        <f>IF(advert_summary!$B129=$N$1,advert_summary!E129,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F129" s="2">
+        <f>IF(advert_summary!$B129=$N$1,advert_summary!F129,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G129" s="2">
+        <f>IF(advert_summary!$B129=$N$1,advert_summary!G129,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H129" s="2">
+        <f>IF(advert_summary!$B129=$N$1,advert_summary!H129,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I129" s="2">
+        <f>IF(advert_summary!$B129=$N$1,advert_summary!I129,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J129" s="2">
+        <f>IF(advert_summary!$B129=$N$1,advert_summary!J129,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K129" s="2">
+        <f>IF(advert_summary!$B129=$N$1,advert_summary!K129,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L129" s="2">
+        <f>IF(advert_summary!$B129=$N$1,advert_summary!L129,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A130" s="3">
+        <f>IF(advert_summary!$B130=$N$1,advert_summary!A130,0)</f>
+        <v>0</v>
+      </c>
+      <c r="B130">
+        <f>IF(advert_summary!$B130=$N$1,advert_summary!B130,"")</f>
+        <v>0</v>
+      </c>
+      <c r="C130">
+        <f>IF(advert_summary!$B130=$N$1,advert_summary!C130,"")</f>
+        <v>0</v>
+      </c>
+      <c r="D130" s="1">
+        <f>IF(advert_summary!$B130=$N$1,advert_summary!D130,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E130" s="1">
+        <f>IF(advert_summary!$B130=$N$1,advert_summary!E130,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F130" s="2">
+        <f>IF(advert_summary!$B130=$N$1,advert_summary!F130,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G130" s="2">
+        <f>IF(advert_summary!$B130=$N$1,advert_summary!G130,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H130" s="2">
+        <f>IF(advert_summary!$B130=$N$1,advert_summary!H130,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I130" s="2">
+        <f>IF(advert_summary!$B130=$N$1,advert_summary!I130,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J130" s="2">
+        <f>IF(advert_summary!$B130=$N$1,advert_summary!J130,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K130" s="2">
+        <f>IF(advert_summary!$B130=$N$1,advert_summary!K130,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L130" s="2">
+        <f>IF(advert_summary!$B130=$N$1,advert_summary!L130,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A131" s="3">
+        <f>IF(advert_summary!$B131=$N$1,advert_summary!A131,0)</f>
+        <v>0</v>
+      </c>
+      <c r="B131">
+        <f>IF(advert_summary!$B131=$N$1,advert_summary!B131,"")</f>
+        <v>0</v>
+      </c>
+      <c r="C131">
+        <f>IF(advert_summary!$B131=$N$1,advert_summary!C131,"")</f>
+        <v>0</v>
+      </c>
+      <c r="D131" s="1">
+        <f>IF(advert_summary!$B131=$N$1,advert_summary!D131,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E131" s="1">
+        <f>IF(advert_summary!$B131=$N$1,advert_summary!E131,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F131" s="2">
+        <f>IF(advert_summary!$B131=$N$1,advert_summary!F131,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G131" s="2">
+        <f>IF(advert_summary!$B131=$N$1,advert_summary!G131,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H131" s="2">
+        <f>IF(advert_summary!$B131=$N$1,advert_summary!H131,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I131" s="2">
+        <f>IF(advert_summary!$B131=$N$1,advert_summary!I131,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J131" s="2">
+        <f>IF(advert_summary!$B131=$N$1,advert_summary!J131,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K131" s="2">
+        <f>IF(advert_summary!$B131=$N$1,advert_summary!K131,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L131" s="2">
+        <f>IF(advert_summary!$B131=$N$1,advert_summary!L131,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A132" s="3">
+        <f>IF(advert_summary!$B132=$N$1,advert_summary!A132,0)</f>
+        <v>0</v>
+      </c>
+      <c r="B132">
+        <f>IF(advert_summary!$B132=$N$1,advert_summary!B132,"")</f>
+        <v>0</v>
+      </c>
+      <c r="C132">
+        <f>IF(advert_summary!$B132=$N$1,advert_summary!C132,"")</f>
+        <v>0</v>
+      </c>
+      <c r="D132" s="1">
+        <f>IF(advert_summary!$B132=$N$1,advert_summary!D132,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E132" s="1">
+        <f>IF(advert_summary!$B132=$N$1,advert_summary!E132,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F132" s="2">
+        <f>IF(advert_summary!$B132=$N$1,advert_summary!F132,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G132" s="2">
+        <f>IF(advert_summary!$B132=$N$1,advert_summary!G132,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H132" s="2">
+        <f>IF(advert_summary!$B132=$N$1,advert_summary!H132,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I132" s="2">
+        <f>IF(advert_summary!$B132=$N$1,advert_summary!I132,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J132" s="2">
+        <f>IF(advert_summary!$B132=$N$1,advert_summary!J132,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K132" s="2">
+        <f>IF(advert_summary!$B132=$N$1,advert_summary!K132,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L132" s="2">
+        <f>IF(advert_summary!$B132=$N$1,advert_summary!L132,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A133" s="3">
+        <f>IF(advert_summary!$B133=$N$1,advert_summary!A133,0)</f>
+        <v>0</v>
+      </c>
+      <c r="B133">
+        <f>IF(advert_summary!$B133=$N$1,advert_summary!B133,"")</f>
+        <v>0</v>
+      </c>
+      <c r="C133">
+        <f>IF(advert_summary!$B133=$N$1,advert_summary!C133,"")</f>
+        <v>0</v>
+      </c>
+      <c r="D133" s="1">
+        <f>IF(advert_summary!$B133=$N$1,advert_summary!D133,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E133" s="1">
+        <f>IF(advert_summary!$B133=$N$1,advert_summary!E133,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F133" s="2">
+        <f>IF(advert_summary!$B133=$N$1,advert_summary!F133,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G133" s="2">
+        <f>IF(advert_summary!$B133=$N$1,advert_summary!G133,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H133" s="2">
+        <f>IF(advert_summary!$B133=$N$1,advert_summary!H133,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I133" s="2">
+        <f>IF(advert_summary!$B133=$N$1,advert_summary!I133,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J133" s="2">
+        <f>IF(advert_summary!$B133=$N$1,advert_summary!J133,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K133" s="2">
+        <f>IF(advert_summary!$B133=$N$1,advert_summary!K133,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L133" s="2">
+        <f>IF(advert_summary!$B133=$N$1,advert_summary!L133,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A134" s="3">
+        <f>IF(advert_summary!$B134=$N$1,advert_summary!A134,0)</f>
+        <v>0</v>
+      </c>
+      <c r="B134">
+        <f>IF(advert_summary!$B134=$N$1,advert_summary!B134,"")</f>
+        <v>0</v>
+      </c>
+      <c r="C134">
+        <f>IF(advert_summary!$B134=$N$1,advert_summary!C134,"")</f>
+        <v>0</v>
+      </c>
+      <c r="D134" s="1">
+        <f>IF(advert_summary!$B134=$N$1,advert_summary!D134,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E134" s="1">
+        <f>IF(advert_summary!$B134=$N$1,advert_summary!E134,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F134" s="2">
+        <f>IF(advert_summary!$B134=$N$1,advert_summary!F134,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G134" s="2">
+        <f>IF(advert_summary!$B134=$N$1,advert_summary!G134,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H134" s="2">
+        <f>IF(advert_summary!$B134=$N$1,advert_summary!H134,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I134" s="2">
+        <f>IF(advert_summary!$B134=$N$1,advert_summary!I134,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J134" s="2">
+        <f>IF(advert_summary!$B134=$N$1,advert_summary!J134,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K134" s="2">
+        <f>IF(advert_summary!$B134=$N$1,advert_summary!K134,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L134" s="2">
+        <f>IF(advert_summary!$B134=$N$1,advert_summary!L134,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A135" s="3">
+        <f>IF(advert_summary!$B135=$N$1,advert_summary!A135,0)</f>
+        <v>0</v>
+      </c>
+      <c r="B135">
+        <f>IF(advert_summary!$B135=$N$1,advert_summary!B135,"")</f>
+        <v>0</v>
+      </c>
+      <c r="C135">
+        <f>IF(advert_summary!$B135=$N$1,advert_summary!C135,"")</f>
+        <v>0</v>
+      </c>
+      <c r="D135" s="1">
+        <f>IF(advert_summary!$B135=$N$1,advert_summary!D135,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E135" s="1">
+        <f>IF(advert_summary!$B135=$N$1,advert_summary!E135,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F135" s="2">
+        <f>IF(advert_summary!$B135=$N$1,advert_summary!F135,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G135" s="2">
+        <f>IF(advert_summary!$B135=$N$1,advert_summary!G135,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H135" s="2">
+        <f>IF(advert_summary!$B135=$N$1,advert_summary!H135,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I135" s="2">
+        <f>IF(advert_summary!$B135=$N$1,advert_summary!I135,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J135" s="2">
+        <f>IF(advert_summary!$B135=$N$1,advert_summary!J135,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K135" s="2">
+        <f>IF(advert_summary!$B135=$N$1,advert_summary!K135,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L135" s="2">
+        <f>IF(advert_summary!$B135=$N$1,advert_summary!L135,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A136" s="3">
+        <f>IF(advert_summary!$B136=$N$1,advert_summary!A136,0)</f>
+        <v>0</v>
+      </c>
+      <c r="B136">
+        <f>IF(advert_summary!$B136=$N$1,advert_summary!B136,"")</f>
+        <v>0</v>
+      </c>
+      <c r="C136">
+        <f>IF(advert_summary!$B136=$N$1,advert_summary!C136,"")</f>
+        <v>0</v>
+      </c>
+      <c r="D136" s="1">
+        <f>IF(advert_summary!$B136=$N$1,advert_summary!D136,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E136" s="1">
+        <f>IF(advert_summary!$B136=$N$1,advert_summary!E136,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F136" s="2">
+        <f>IF(advert_summary!$B136=$N$1,advert_summary!F136,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G136" s="2">
+        <f>IF(advert_summary!$B136=$N$1,advert_summary!G136,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H136" s="2">
+        <f>IF(advert_summary!$B136=$N$1,advert_summary!H136,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I136" s="2">
+        <f>IF(advert_summary!$B136=$N$1,advert_summary!I136,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J136" s="2">
+        <f>IF(advert_summary!$B136=$N$1,advert_summary!J136,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K136" s="2">
+        <f>IF(advert_summary!$B136=$N$1,advert_summary!K136,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L136" s="2">
+        <f>IF(advert_summary!$B136=$N$1,advert_summary!L136,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A137" s="3">
+        <f>IF(advert_summary!$B137=$N$1,advert_summary!A137,0)</f>
+        <v>0</v>
+      </c>
+      <c r="B137">
+        <f>IF(advert_summary!$B137=$N$1,advert_summary!B137,"")</f>
+        <v>0</v>
+      </c>
+      <c r="C137">
+        <f>IF(advert_summary!$B137=$N$1,advert_summary!C137,"")</f>
+        <v>0</v>
+      </c>
+      <c r="D137" s="1">
+        <f>IF(advert_summary!$B137=$N$1,advert_summary!D137,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E137" s="1">
+        <f>IF(advert_summary!$B137=$N$1,advert_summary!E137,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F137" s="2">
+        <f>IF(advert_summary!$B137=$N$1,advert_summary!F137,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G137" s="2">
+        <f>IF(advert_summary!$B137=$N$1,advert_summary!G137,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H137" s="2">
+        <f>IF(advert_summary!$B137=$N$1,advert_summary!H137,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I137" s="2">
+        <f>IF(advert_summary!$B137=$N$1,advert_summary!I137,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J137" s="2">
+        <f>IF(advert_summary!$B137=$N$1,advert_summary!J137,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K137" s="2">
+        <f>IF(advert_summary!$B137=$N$1,advert_summary!K137,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L137" s="2">
+        <f>IF(advert_summary!$B137=$N$1,advert_summary!L137,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A138" s="3">
+        <f>IF(advert_summary!$B138=$N$1,advert_summary!A138,0)</f>
+        <v>0</v>
+      </c>
+      <c r="B138">
+        <f>IF(advert_summary!$B138=$N$1,advert_summary!B138,"")</f>
+        <v>0</v>
+      </c>
+      <c r="C138">
+        <f>IF(advert_summary!$B138=$N$1,advert_summary!C138,"")</f>
+        <v>0</v>
+      </c>
+      <c r="D138" s="1">
+        <f>IF(advert_summary!$B138=$N$1,advert_summary!D138,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E138" s="1">
+        <f>IF(advert_summary!$B138=$N$1,advert_summary!E138,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F138" s="2">
+        <f>IF(advert_summary!$B138=$N$1,advert_summary!F138,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G138" s="2">
+        <f>IF(advert_summary!$B138=$N$1,advert_summary!G138,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H138" s="2">
+        <f>IF(advert_summary!$B138=$N$1,advert_summary!H138,0)</f>
+        <v>0</v>
+      </c>
+      <c r="I138" s="2">
+        <f>IF(advert_summary!$B138=$N$1,advert_summary!I138,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J138" s="2">
+        <f>IF(advert_summary!$B138=$N$1,advert_summary!J138,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K138" s="2">
+        <f>IF(advert_summary!$B138=$N$1,advert_summary!K138,0)</f>
+        <v>0</v>
+      </c>
+      <c r="L138" s="2">
+        <f>IF(advert_summary!$B138=$N$1,advert_summary!L138,0)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Aptos"&amp;11&amp;K000000 Classification: Public</oddFooter>
+  </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1418720A-F54D-4D2B-9CB6-02B8776F2F47}">
-  <dimension ref="C5:N7"/>
+  <dimension ref="C5:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="3:14" x14ac:dyDescent="0.25">
@@ -29395,7 +34196,168 @@
         <v>0</v>
       </c>
     </row>
+    <row r="8" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>35014192</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="1">
+        <v>45934</v>
+      </c>
+      <c r="G8" s="1">
+        <v>45961</v>
+      </c>
+      <c r="H8">
+        <v>26</v>
+      </c>
+      <c r="I8">
+        <v>210</v>
+      </c>
+      <c r="J8">
+        <v>199.9</v>
+      </c>
+      <c r="K8">
+        <v>109</v>
+      </c>
+      <c r="L8">
+        <v>5.5</v>
+      </c>
+      <c r="M8">
+        <v>1.8339449541284401</v>
+      </c>
+      <c r="N8">
+        <v>-10.0999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>35174386</v>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="1">
+        <v>46040</v>
+      </c>
+      <c r="G9" s="1">
+        <v>46053</v>
+      </c>
+      <c r="H9">
+        <v>12</v>
+      </c>
+      <c r="I9">
+        <v>199.9</v>
+      </c>
+      <c r="J9">
+        <v>199.9</v>
+      </c>
+      <c r="K9">
+        <v>108</v>
+      </c>
+      <c r="L9">
+        <v>5</v>
+      </c>
+      <c r="M9">
+        <v>1.8509259259259201</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>35192505</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="1">
+        <v>46053</v>
+      </c>
+      <c r="G10" s="1">
+        <v>46053</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>199</v>
+      </c>
+      <c r="J10">
+        <v>199</v>
+      </c>
+      <c r="K10">
+        <v>115</v>
+      </c>
+      <c r="L10">
+        <v>5.5</v>
+      </c>
+      <c r="M10">
+        <v>1.7304347826086901</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>35176414</v>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="1">
+        <v>46040</v>
+      </c>
+      <c r="G11" s="1">
+        <v>46053</v>
+      </c>
+      <c r="H11">
+        <v>12</v>
+      </c>
+      <c r="I11">
+        <v>199.99</v>
+      </c>
+      <c r="J11">
+        <v>199.99</v>
+      </c>
+      <c r="K11">
+        <v>108</v>
+      </c>
+      <c r="L11">
+        <v>4</v>
+      </c>
+      <c r="M11">
+        <v>1.85175925925925</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Aptos"&amp;11&amp;K000000 Classification: Public</oddFooter>
+  </headerFooter>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{74710696-f0fd-4659-9c41-342689838806}" enabled="1" method="Privileged" siteId="{9d27ba74-0100-4d0d-81ff-1d728dae8df6}" contentBits="2" removed="0"/>
+</clbl:labelList>
 </file>